--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -54847,7 +54847,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5164183</v>
+        <v>5164184</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54859,58 +54859,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F611" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G611" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H611">
         <v>2</v>
       </c>
       <c r="I611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J611" t="s">
         <v>56</v>
       </c>
       <c r="K611">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L611">
         <v>3.5</v>
       </c>
       <c r="M611">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N611">
-        <v>3.9</v>
+        <v>2.375</v>
       </c>
       <c r="O611">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P611">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q611">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R611">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="S611">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T611">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U611">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V611">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W611">
-        <v>2.9</v>
+        <v>1.375</v>
       </c>
       <c r="X611">
         <v>-1</v>
@@ -54919,16 +54919,16 @@
         <v>-1</v>
       </c>
       <c r="Z611">
-        <v>0.8999999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AA611">
         <v>-1</v>
       </c>
       <c r="AB611">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AC611">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -54936,7 +54936,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>5164184</v>
+        <v>5164183</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54948,58 +54948,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F612" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G612" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H612">
         <v>2</v>
       </c>
       <c r="I612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J612" t="s">
         <v>56</v>
       </c>
       <c r="K612">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L612">
         <v>3.5</v>
       </c>
       <c r="M612">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N612">
-        <v>2.375</v>
+        <v>3.9</v>
       </c>
       <c r="O612">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P612">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q612">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R612">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S612">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T612">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U612">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V612">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W612">
-        <v>1.375</v>
+        <v>2.9</v>
       </c>
       <c r="X612">
         <v>-1</v>
@@ -55008,16 +55008,16 @@
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>1.09</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA612">
         <v>-1</v>
       </c>
       <c r="AB612">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC612">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -59119,7 +59119,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5164826</v>
+        <v>5164821</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59131,76 +59131,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F659" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G659" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I659">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J659" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K659">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L659">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M659">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N659">
         <v>2.1</v>
       </c>
       <c r="O659">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P659">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q659">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R659">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S659">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="T659">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U659">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V659">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W659">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X659">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA659">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB659">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC659">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59475,7 +59475,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5164821</v>
+        <v>5164826</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59487,76 +59487,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F663" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G663" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H663">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I663">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K663">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L663">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M663">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N663">
         <v>2.1</v>
       </c>
       <c r="O663">
+        <v>3.5</v>
+      </c>
+      <c r="P663">
         <v>3.6</v>
       </c>
-      <c r="P663">
-        <v>3.3</v>
-      </c>
       <c r="Q663">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R663">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="S663">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="T663">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U663">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V663">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W663">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X663">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB663">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -61522,7 +61522,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5164859</v>
+        <v>5164856</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61534,58 +61534,58 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F686" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G686" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H686">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I686">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J686" t="s">
         <v>56</v>
       </c>
       <c r="K686">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L686">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M686">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N686">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O686">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P686">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q686">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R686">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S686">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="T686">
         <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V686">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W686">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="X686">
         <v>-1</v>
@@ -61594,13 +61594,13 @@
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.8799999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA686">
         <v>-1</v>
       </c>
       <c r="AB686">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC686">
         <v>-1</v>
@@ -61611,7 +61611,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5164856</v>
+        <v>5164859</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61623,58 +61623,58 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F687" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G687" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J687" t="s">
         <v>56</v>
       </c>
       <c r="K687">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L687">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M687">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N687">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O687">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P687">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q687">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R687">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="S687">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V687">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W687">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61683,13 +61683,13 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.98</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC687">
         <v>-1</v>
@@ -62857,7 +62857,7 @@
         <v>699</v>
       </c>
       <c r="B701">
-        <v>5164872</v>
+        <v>5164871</v>
       </c>
       <c r="C701" t="s">
         <v>28</v>
@@ -62869,76 +62869,76 @@
         <v>44850.41666666666</v>
       </c>
       <c r="F701" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G701" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J701" t="s">
         <v>57</v>
       </c>
       <c r="K701">
+        <v>1.909</v>
+      </c>
+      <c r="L701">
+        <v>3.75</v>
+      </c>
+      <c r="M701">
+        <v>3.6</v>
+      </c>
+      <c r="N701">
+        <v>2.05</v>
+      </c>
+      <c r="O701">
+        <v>3.75</v>
+      </c>
+      <c r="P701">
+        <v>3.4</v>
+      </c>
+      <c r="Q701">
+        <v>-0.25</v>
+      </c>
+      <c r="R701">
+        <v>1.8</v>
+      </c>
+      <c r="S701">
+        <v>2.1</v>
+      </c>
+      <c r="T701">
         <v>2.75</v>
       </c>
-      <c r="L701">
-        <v>3.4</v>
-      </c>
-      <c r="M701">
-        <v>2.45</v>
-      </c>
-      <c r="N701">
-        <v>2.9</v>
-      </c>
-      <c r="O701">
-        <v>3.4</v>
-      </c>
-      <c r="P701">
-        <v>2.45</v>
-      </c>
-      <c r="Q701">
-        <v>0</v>
-      </c>
-      <c r="R701">
-        <v>2.11</v>
-      </c>
-      <c r="S701">
-        <v>1.79</v>
-      </c>
-      <c r="T701">
-        <v>2.5</v>
-      </c>
       <c r="U701">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="V701">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="W701">
         <v>-1</v>
       </c>
       <c r="X701">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y701">
         <v>-1</v>
       </c>
       <c r="Z701">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA701">
-        <v>-0</v>
+        <v>0.55</v>
       </c>
       <c r="AB701">
         <v>-1</v>
       </c>
       <c r="AC701">
-        <v>0.8700000000000001</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="702" spans="1:29">
@@ -62946,7 +62946,7 @@
         <v>700</v>
       </c>
       <c r="B702">
-        <v>5164871</v>
+        <v>5164872</v>
       </c>
       <c r="C702" t="s">
         <v>28</v>
@@ -62958,76 +62958,76 @@
         <v>44850.41666666666</v>
       </c>
       <c r="F702" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G702" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J702" t="s">
         <v>57</v>
       </c>
       <c r="K702">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L702">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M702">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N702">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O702">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P702">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q702">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R702">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="S702">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="T702">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U702">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="V702">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="W702">
         <v>-1</v>
       </c>
       <c r="X702">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y702">
         <v>-1</v>
       </c>
       <c r="Z702">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA702">
-        <v>0.55</v>
+        <v>-0</v>
       </c>
       <c r="AB702">
         <v>-1</v>
       </c>
       <c r="AC702">
-        <v>0.98</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="703" spans="1:29">
@@ -64014,7 +64014,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5164885</v>
+        <v>5164887</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64026,58 +64026,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F714" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G714" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H714">
         <v>3</v>
       </c>
       <c r="I714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J714" t="s">
         <v>56</v>
       </c>
       <c r="K714">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L714">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M714">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N714">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="O714">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P714">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q714">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R714">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="S714">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="T714">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U714">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V714">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W714">
-        <v>1.45</v>
+        <v>0.222</v>
       </c>
       <c r="X714">
         <v>-1</v>
@@ -64086,13 +64086,13 @@
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>1.09</v>
+        <v>0.445</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB714">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC714">
         <v>-1</v>
@@ -64103,7 +64103,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5164887</v>
+        <v>5164885</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64115,58 +64115,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F715" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G715" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H715">
         <v>3</v>
       </c>
       <c r="I715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J715" t="s">
         <v>56</v>
       </c>
       <c r="K715">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L715">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M715">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N715">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="O715">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P715">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q715">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R715">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="S715">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="T715">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U715">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V715">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W715">
-        <v>0.222</v>
+        <v>1.45</v>
       </c>
       <c r="X715">
         <v>-1</v>
@@ -64175,13 +64175,13 @@
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>0.445</v>
+        <v>1.09</v>
       </c>
       <c r="AA715">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB715">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC715">
         <v>-1</v>
@@ -64993,7 +64993,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5164894</v>
+        <v>5164893</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65005,76 +65005,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F725" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G725" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I725">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J725" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K725">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L725">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M725">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N725">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O725">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P725">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q725">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R725">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S725">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T725">
         <v>2.5</v>
       </c>
       <c r="U725">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V725">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W725">
         <v>-1</v>
       </c>
       <c r="X725">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y725">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z725">
         <v>-0.5</v>
       </c>
       <c r="AA725">
-        <v>0.5049999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="AB725">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC725">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726" spans="1:29">
@@ -65082,7 +65082,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5164893</v>
+        <v>5164894</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65094,76 +65094,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F726" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G726" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J726" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K726">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L726">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M726">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N726">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O726">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P726">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q726">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R726">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S726">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T726">
         <v>2.5</v>
       </c>
       <c r="U726">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V726">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y726">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z726">
         <v>-0.5</v>
       </c>
       <c r="AA726">
-        <v>0.485</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB726">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC726">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65705,7 +65705,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5164905</v>
+        <v>5164910</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65717,73 +65717,73 @@
         <v>44870.5</v>
       </c>
       <c r="F733" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G733" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H733">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I733">
         <v>3</v>
       </c>
       <c r="J733" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K733">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="L733">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M733">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N733">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="O733">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P733">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q733">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R733">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="S733">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="T733">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U733">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V733">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W733">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X733">
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z733">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB733">
-        <v>0.9099999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC733">
         <v>-1</v>
@@ -65794,7 +65794,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5164625</v>
+        <v>5164906</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65806,76 +65806,76 @@
         <v>44870.5</v>
       </c>
       <c r="F734" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G734" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H734">
         <v>2</v>
       </c>
       <c r="I734">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J734" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K734">
-        <v>2.9</v>
+        <v>1.111</v>
       </c>
       <c r="L734">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="M734">
-        <v>2.375</v>
+        <v>15</v>
       </c>
       <c r="N734">
-        <v>2.625</v>
+        <v>1.166</v>
       </c>
       <c r="O734">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P734">
-        <v>2.8</v>
+        <v>15</v>
       </c>
       <c r="Q734">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R734">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="S734">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="T734">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U734">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V734">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W734">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X734">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y734">
         <v>-1</v>
       </c>
       <c r="Z734">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA734">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB734">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AC734">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65883,7 +65883,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5164906</v>
+        <v>5164905</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65895,58 +65895,58 @@
         <v>44870.5</v>
       </c>
       <c r="F735" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G735" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I735">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J735" t="s">
         <v>56</v>
       </c>
       <c r="K735">
-        <v>1.111</v>
+        <v>1.833</v>
       </c>
       <c r="L735">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M735">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N735">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O735">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P735">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="Q735">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R735">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S735">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T735">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U735">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V735">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W735">
-        <v>0.1659999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="X735">
         <v>-1</v>
@@ -65955,16 +65955,16 @@
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA735">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB735">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC735">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65972,7 +65972,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5164910</v>
+        <v>5164625</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65984,73 +65984,73 @@
         <v>44870.5</v>
       </c>
       <c r="F736" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G736" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H736">
         <v>2</v>
       </c>
       <c r="I736">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J736" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K736">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L736">
         <v>3.3</v>
       </c>
       <c r="M736">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="N736">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O736">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P736">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q736">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R736">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="S736">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="T736">
         <v>2.25</v>
       </c>
       <c r="U736">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V736">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W736">
         <v>-1</v>
       </c>
       <c r="X736">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y736">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z736">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA736">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB736">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AC736">
         <v>-1</v>
@@ -66862,7 +66862,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5164914</v>
+        <v>5164911</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66874,58 +66874,58 @@
         <v>44877.5</v>
       </c>
       <c r="F746" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G746" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H746">
         <v>3</v>
       </c>
       <c r="I746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J746" t="s">
         <v>56</v>
       </c>
       <c r="K746">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L746">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M746">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N746">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="O746">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P746">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q746">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R746">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S746">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T746">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U746">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V746">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W746">
-        <v>0.2849999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66934,13 +66934,13 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>0.475</v>
+        <v>1.01</v>
       </c>
       <c r="AA746">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB746">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66951,7 +66951,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5164911</v>
+        <v>5164624</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66963,13 +66963,13 @@
         <v>44877.5</v>
       </c>
       <c r="F747" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G747" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H747">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I747">
         <v>0</v>
@@ -66978,43 +66978,43 @@
         <v>56</v>
       </c>
       <c r="K747">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L747">
+        <v>3.2</v>
+      </c>
+      <c r="M747">
+        <v>2.3</v>
+      </c>
+      <c r="N747">
         <v>3.3</v>
       </c>
-      <c r="M747">
-        <v>2.6</v>
-      </c>
-      <c r="N747">
-        <v>2.75</v>
-      </c>
       <c r="O747">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P747">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q747">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R747">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S747">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T747">
         <v>2.25</v>
       </c>
       <c r="U747">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V747">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W747">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="X747">
         <v>-1</v>
@@ -67023,16 +67023,16 @@
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA747">
         <v>-1</v>
       </c>
       <c r="AB747">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5164624</v>
+        <v>5164914</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,58 +67052,58 @@
         <v>44877.5</v>
       </c>
       <c r="F748" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G748" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H748">
+        <v>3</v>
+      </c>
+      <c r="I748">
         <v>1</v>
-      </c>
-      <c r="I748">
-        <v>0</v>
       </c>
       <c r="J748" t="s">
         <v>56</v>
       </c>
       <c r="K748">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="L748">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M748">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="N748">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="O748">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P748">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q748">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R748">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S748">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T748">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U748">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V748">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W748">
-        <v>2.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -67112,16 +67112,16 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA748">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB748">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC748">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5164931</v>
+        <v>5164933</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,76 +68654,76 @@
         <v>44926.5</v>
       </c>
       <c r="F766" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G766" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
         <v>1</v>
       </c>
       <c r="J766" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K766">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="L766">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M766">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="N766">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O766">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P766">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="Q766">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R766">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="S766">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T766">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U766">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V766">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W766">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X766">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y766">
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB766">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC766">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5164933</v>
+        <v>5164931</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,76 +68743,76 @@
         <v>44926.5</v>
       </c>
       <c r="F767" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G767" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I767">
         <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K767">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="L767">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="M767">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="N767">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O767">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P767">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="Q767">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R767">
+        <v>2.06</v>
+      </c>
+      <c r="S767">
+        <v>1.84</v>
+      </c>
+      <c r="T767">
+        <v>2.75</v>
+      </c>
+      <c r="U767">
+        <v>2</v>
+      </c>
+      <c r="V767">
         <v>1.9</v>
       </c>
-      <c r="S767">
-        <v>2</v>
-      </c>
-      <c r="T767">
-        <v>3.5</v>
-      </c>
-      <c r="U767">
-        <v>1.95</v>
-      </c>
-      <c r="V767">
-        <v>1.95</v>
-      </c>
       <c r="W767">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X767">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y767">
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AA767">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB767">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC767">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -69354,7 +69354,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5164938</v>
+        <v>5164943</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69366,76 +69366,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F774" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G774" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I774">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J774" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K774">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L774">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M774">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N774">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O774">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P774">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q774">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R774">
+        <v>1.85</v>
+      </c>
+      <c r="S774">
+        <v>2.05</v>
+      </c>
+      <c r="T774">
+        <v>2.25</v>
+      </c>
+      <c r="U774">
+        <v>1.92</v>
+      </c>
+      <c r="V774">
         <v>1.98</v>
       </c>
-      <c r="S774">
-        <v>1.92</v>
-      </c>
-      <c r="T774">
-        <v>2.5</v>
-      </c>
-      <c r="U774">
-        <v>1.91</v>
-      </c>
-      <c r="V774">
-        <v>1.99</v>
-      </c>
       <c r="W774">
         <v>-1</v>
       </c>
       <c r="X774">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y774">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z774">
         <v>-1</v>
       </c>
       <c r="AA774">
+        <v>1.05</v>
+      </c>
+      <c r="AB774">
         <v>0.9199999999999999</v>
       </c>
-      <c r="AB774">
-        <v>-1</v>
-      </c>
       <c r="AC774">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69443,7 +69443,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5164943</v>
+        <v>5164938</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69455,76 +69455,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F775" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775">
+        <v>0</v>
+      </c>
+      <c r="J775" t="s">
+        <v>57</v>
+      </c>
+      <c r="K775">
+        <v>1.833</v>
+      </c>
+      <c r="L775">
+        <v>3.75</v>
+      </c>
+      <c r="M775">
         <v>4</v>
       </c>
-      <c r="J775" t="s">
-        <v>55</v>
-      </c>
-      <c r="K775">
-        <v>3.6</v>
-      </c>
-      <c r="L775">
-        <v>3.5</v>
-      </c>
-      <c r="M775">
-        <v>2</v>
-      </c>
       <c r="N775">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O775">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P775">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q775">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R775">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S775">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T775">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U775">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V775">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W775">
         <v>-1</v>
       </c>
       <c r="X775">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y775">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
         <v>-1</v>
       </c>
       <c r="AA775">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB775">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC775">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5164953</v>
+        <v>5164950</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,10 +70879,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G791" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H791">
         <v>1</v>
@@ -70894,43 +70894,43 @@
         <v>56</v>
       </c>
       <c r="K791">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L791">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M791">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="N791">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O791">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P791">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q791">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R791">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="S791">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T791">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U791">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V791">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W791">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X791">
         <v>-1</v>
@@ -70939,16 +70939,16 @@
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA791">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB791">
         <v>-1</v>
       </c>
       <c r="AC791">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70956,7 +70956,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5164950</v>
+        <v>5164953</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70968,10 +70968,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G792" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H792">
         <v>1</v>
@@ -70983,61 +70983,61 @@
         <v>56</v>
       </c>
       <c r="K792">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L792">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M792">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="N792">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O792">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P792">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q792">
+        <v>-1.25</v>
+      </c>
+      <c r="R792">
+        <v>2.08</v>
+      </c>
+      <c r="S792">
+        <v>1.82</v>
+      </c>
+      <c r="T792">
+        <v>2.75</v>
+      </c>
+      <c r="U792">
+        <v>1.91</v>
+      </c>
+      <c r="V792">
+        <v>1.99</v>
+      </c>
+      <c r="W792">
+        <v>0.5</v>
+      </c>
+      <c r="X792">
+        <v>-1</v>
+      </c>
+      <c r="Y792">
+        <v>-1</v>
+      </c>
+      <c r="Z792">
         <v>-0.5</v>
       </c>
-      <c r="R792">
-        <v>1.89</v>
-      </c>
-      <c r="S792">
-        <v>2.04</v>
-      </c>
-      <c r="T792">
-        <v>2.25</v>
-      </c>
-      <c r="U792">
-        <v>2</v>
-      </c>
-      <c r="V792">
-        <v>1.9</v>
-      </c>
-      <c r="W792">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X792">
-        <v>-1</v>
-      </c>
-      <c r="Y792">
-        <v>-1</v>
-      </c>
-      <c r="Z792">
-        <v>0.8899999999999999</v>
-      </c>
       <c r="AA792">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB792">
         <v>-1</v>
       </c>
       <c r="AC792">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5164960</v>
+        <v>5164963</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,76 +71413,76 @@
         <v>44947.5</v>
       </c>
       <c r="F797" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G797" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L797">
         <v>3.3</v>
       </c>
       <c r="M797">
+        <v>2.375</v>
+      </c>
+      <c r="N797">
+        <v>2.6</v>
+      </c>
+      <c r="O797">
+        <v>3.2</v>
+      </c>
+      <c r="P797">
+        <v>2.9</v>
+      </c>
+      <c r="Q797">
+        <v>0</v>
+      </c>
+      <c r="R797">
+        <v>1.84</v>
+      </c>
+      <c r="S797">
+        <v>2.06</v>
+      </c>
+      <c r="T797">
         <v>2.25</v>
       </c>
-      <c r="N797">
-        <v>4</v>
-      </c>
-      <c r="O797">
-        <v>3.8</v>
-      </c>
-      <c r="P797">
-        <v>1.85</v>
-      </c>
-      <c r="Q797">
-        <v>0.5</v>
-      </c>
-      <c r="R797">
-        <v>2.11</v>
-      </c>
-      <c r="S797">
-        <v>1.82</v>
-      </c>
-      <c r="T797">
-        <v>2.75</v>
-      </c>
       <c r="U797">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V797">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="W797">
         <v>-1</v>
       </c>
       <c r="X797">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y797">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z797">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA797">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB797">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5164963</v>
+        <v>5164619</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44947.5</v>
       </c>
       <c r="F798" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G798" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798">
         <v>1</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K798">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L798">
         <v>3.3</v>
       </c>
       <c r="M798">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="N798">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O798">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P798">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q798">
         <v>0</v>
       </c>
       <c r="R798">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="S798">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T798">
         <v>2.25</v>
       </c>
       <c r="U798">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V798">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y798">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA798">
-        <v>1.06</v>
+        <v>-0</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC798">
-        <v>0.8799999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5164964</v>
+        <v>5164960</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44947.5</v>
       </c>
       <c r="F799" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G799" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H799">
         <v>2</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K799">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L799">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M799">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N799">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O799">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P799">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q799">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R799">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="S799">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="T799">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U799">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V799">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="W799">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X799">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y799">
         <v>-1</v>
       </c>
       <c r="Z799">
-        <v>0.8500000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AA799">
         <v>-1</v>
       </c>
       <c r="AB799">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC799">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5164619</v>
+        <v>5164964</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44947.5</v>
       </c>
       <c r="F800" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G800" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I800">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J800" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K800">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L800">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M800">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N800">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O800">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P800">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q800">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R800">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S800">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T800">
         <v>2.25</v>
       </c>
       <c r="U800">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V800">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W800">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X800">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y800">
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA800">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB800">
         <v>-0.5</v>
       </c>
       <c r="AC800">
-        <v>0.45</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>5164967</v>
+        <v>5164970</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,28 +72570,28 @@
         <v>44961.5</v>
       </c>
       <c r="F810" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G810" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H810">
+        <v>2</v>
+      </c>
+      <c r="I810">
         <v>1</v>
-      </c>
-      <c r="I810">
-        <v>0</v>
       </c>
       <c r="J810" t="s">
         <v>56</v>
       </c>
       <c r="K810">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L810">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M810">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N810">
         <v>1.363</v>
@@ -72600,25 +72600,25 @@
         <v>5</v>
       </c>
       <c r="P810">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q810">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R810">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="S810">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="T810">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U810">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V810">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W810">
         <v>0.363</v>
@@ -72630,16 +72630,16 @@
         <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA810">
-        <v>0.8300000000000001</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB810">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AC810">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -72736,7 +72736,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5164970</v>
+        <v>5164967</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72748,28 +72748,28 @@
         <v>44961.5</v>
       </c>
       <c r="F812" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G812" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="s">
         <v>56</v>
       </c>
       <c r="K812">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L812">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M812">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N812">
         <v>1.363</v>
@@ -72778,25 +72778,25 @@
         <v>5</v>
       </c>
       <c r="P812">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q812">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R812">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="S812">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="T812">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U812">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V812">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W812">
         <v>0.363</v>
@@ -72808,16 +72808,16 @@
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA812">
-        <v>0.5149999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB812">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AC812">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -73359,7 +73359,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>5164617</v>
+        <v>5164978</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -73371,58 +73371,58 @@
         <v>44968.5</v>
       </c>
       <c r="F819" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G819" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I819">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J819" t="s">
         <v>56</v>
       </c>
       <c r="K819">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L819">
         <v>3.4</v>
       </c>
       <c r="M819">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N819">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O819">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P819">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q819">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R819">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S819">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="T819">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U819">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V819">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W819">
-        <v>0.909</v>
+        <v>2.5</v>
       </c>
       <c r="X819">
         <v>-1</v>
@@ -73431,16 +73431,16 @@
         <v>-1</v>
       </c>
       <c r="Z819">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA819">
         <v>-1</v>
       </c>
       <c r="AB819">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC819">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820" spans="1:29">
@@ -73448,7 +73448,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>5164975</v>
+        <v>5164617</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73460,76 +73460,76 @@
         <v>44968.5</v>
       </c>
       <c r="F820" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G820" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J820" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K820">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L820">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M820">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N820">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O820">
+        <v>3.5</v>
+      </c>
+      <c r="P820">
         <v>4.333</v>
       </c>
-      <c r="P820">
-        <v>6.5</v>
-      </c>
       <c r="Q820">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R820">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="S820">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="T820">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U820">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="V820">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="W820">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X820">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y820">
         <v>-1</v>
       </c>
       <c r="Z820">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA820">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB820">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC820">
-        <v>0.9099999999999999</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73537,7 +73537,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>5164981</v>
+        <v>5164975</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73549,76 +73549,76 @@
         <v>44968.5</v>
       </c>
       <c r="F821" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G821" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H821">
         <v>1</v>
       </c>
       <c r="I821">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J821" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K821">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L821">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M821">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N821">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O821">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P821">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q821">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R821">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S821">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T821">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U821">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V821">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W821">
         <v>-1</v>
       </c>
       <c r="X821">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y821">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z821">
         <v>-1</v>
       </c>
       <c r="AA821">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AB821">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC821">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -73626,7 +73626,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>5164978</v>
+        <v>5164981</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73638,73 +73638,73 @@
         <v>44968.5</v>
       </c>
       <c r="F822" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G822" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H822">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J822" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K822">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L822">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M822">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N822">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O822">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P822">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q822">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R822">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S822">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T822">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U822">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V822">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W822">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X822">
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z822">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA822">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB822">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC822">
         <v>-1</v>
@@ -77720,7 +77720,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>6257686</v>
+        <v>6257685</v>
       </c>
       <c r="C868" t="s">
         <v>28</v>
@@ -77732,49 +77732,49 @@
         <v>45000.6875</v>
       </c>
       <c r="F868" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G868" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H868">
+        <v>1</v>
+      </c>
+      <c r="I868">
         <v>0</v>
       </c>
-      <c r="I868">
-        <v>2</v>
-      </c>
       <c r="J868" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K868">
+        <v>1.571</v>
+      </c>
+      <c r="L868">
+        <v>3.8</v>
+      </c>
+      <c r="M868">
+        <v>5.5</v>
+      </c>
+      <c r="N868">
+        <v>1.363</v>
+      </c>
+      <c r="O868">
+        <v>4.75</v>
+      </c>
+      <c r="P868">
+        <v>8.5</v>
+      </c>
+      <c r="Q868">
+        <v>-1.25</v>
+      </c>
+      <c r="R868">
+        <v>1.86</v>
+      </c>
+      <c r="S868">
+        <v>2.04</v>
+      </c>
+      <c r="T868">
         <v>2.75</v>
-      </c>
-      <c r="L868">
-        <v>3.3</v>
-      </c>
-      <c r="M868">
-        <v>2.55</v>
-      </c>
-      <c r="N868">
-        <v>3.3</v>
-      </c>
-      <c r="O868">
-        <v>3.2</v>
-      </c>
-      <c r="P868">
-        <v>2.3</v>
-      </c>
-      <c r="Q868">
-        <v>0.25</v>
-      </c>
-      <c r="R868">
-        <v>1.88</v>
-      </c>
-      <c r="S868">
-        <v>2.02</v>
-      </c>
-      <c r="T868">
-        <v>2.25</v>
       </c>
       <c r="U868">
         <v>2.05</v>
@@ -77783,25 +77783,25 @@
         <v>1.85</v>
       </c>
       <c r="W868">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X868">
         <v>-1</v>
       </c>
       <c r="Y868">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z868">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA868">
-        <v>1.02</v>
+        <v>0.52</v>
       </c>
       <c r="AB868">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC868">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="869" spans="1:29">
@@ -77809,7 +77809,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>6257685</v>
+        <v>6257686</v>
       </c>
       <c r="C869" t="s">
         <v>28</v>
@@ -77821,49 +77821,49 @@
         <v>45000.6875</v>
       </c>
       <c r="F869" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G869" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J869" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K869">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L869">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M869">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N869">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O869">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P869">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q869">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R869">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S869">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T869">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U869">
         <v>2.05</v>
@@ -77872,25 +77872,25 @@
         <v>1.85</v>
       </c>
       <c r="W869">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X869">
         <v>-1</v>
       </c>
       <c r="Y869">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z869">
+        <v>-1</v>
+      </c>
+      <c r="AA869">
+        <v>1.02</v>
+      </c>
+      <c r="AB869">
         <v>-0.5</v>
       </c>
-      <c r="AA869">
-        <v>0.52</v>
-      </c>
-      <c r="AB869">
-        <v>-1</v>
-      </c>
       <c r="AC869">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="870" spans="1:29">
@@ -80123,7 +80123,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5390857</v>
+        <v>5165033</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80135,55 +80135,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F895" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H895">
+        <v>0</v>
+      </c>
+      <c r="I895">
         <v>1</v>
-      </c>
-      <c r="I895">
-        <v>2</v>
       </c>
       <c r="J895" t="s">
         <v>55</v>
       </c>
       <c r="K895">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L895">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M895">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N895">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O895">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P895">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q895">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R895">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S895">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T895">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U895">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V895">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W895">
         <v>-1</v>
@@ -80192,19 +80192,19 @@
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>0.909</v>
+        <v>2.75</v>
       </c>
       <c r="Z895">
         <v>-1</v>
       </c>
       <c r="AA895">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB895">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC895">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="896" spans="1:29">
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>5165033</v>
+        <v>5165032</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,10 +80224,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F896" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G896" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H896">
         <v>0</v>
@@ -80239,40 +80239,40 @@
         <v>55</v>
       </c>
       <c r="K896">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="L896">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M896">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N896">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O896">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P896">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q896">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R896">
-        <v>2.09</v>
+        <v>2.125</v>
       </c>
       <c r="S896">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="T896">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U896">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V896">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W896">
         <v>-1</v>
@@ -80281,19 +80281,19 @@
         <v>-1</v>
       </c>
       <c r="Y896">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z896">
         <v>-1</v>
       </c>
       <c r="AA896">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AB896">
         <v>-1</v>
       </c>
       <c r="AC896">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="897" spans="1:29">
@@ -80301,7 +80301,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>5165032</v>
+        <v>5165034</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80313,34 +80313,34 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F897" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G897" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897">
         <v>1</v>
       </c>
       <c r="J897" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K897">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L897">
         <v>3.3</v>
       </c>
       <c r="M897">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N897">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O897">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P897">
         <v>2.5</v>
@@ -80349,40 +80349,40 @@
         <v>0</v>
       </c>
       <c r="R897">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S897">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="T897">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U897">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V897">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W897">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X897">
         <v>-1</v>
       </c>
       <c r="Y897">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z897">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA897">
-        <v>0.78</v>
+        <v>-1</v>
       </c>
       <c r="AB897">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC897">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="898" spans="1:29">
@@ -80390,7 +80390,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5165034</v>
+        <v>5165035</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80402,58 +80402,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F898" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G898" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J898" t="s">
         <v>56</v>
       </c>
       <c r="K898">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L898">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M898">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N898">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O898">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P898">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q898">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R898">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S898">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="T898">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U898">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="V898">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="W898">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="X898">
         <v>-1</v>
@@ -80462,16 +80462,16 @@
         <v>-1</v>
       </c>
       <c r="Z898">
-        <v>1.05</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA898">
         <v>-1</v>
       </c>
       <c r="AB898">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC898">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80479,7 +80479,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5165035</v>
+        <v>5390857</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80491,76 +80491,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F899" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G899" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H899">
         <v>1</v>
       </c>
       <c r="I899">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J899" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K899">
+        <v>3.1</v>
+      </c>
+      <c r="L899">
+        <v>3.3</v>
+      </c>
+      <c r="M899">
+        <v>2.3</v>
+      </c>
+      <c r="N899">
         <v>4</v>
-      </c>
-      <c r="L899">
-        <v>3.4</v>
-      </c>
-      <c r="M899">
-        <v>1.95</v>
-      </c>
-      <c r="N899">
-        <v>4.75</v>
       </c>
       <c r="O899">
         <v>3.6</v>
       </c>
       <c r="P899">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q899">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R899">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S899">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T899">
         <v>2.25</v>
       </c>
       <c r="U899">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V899">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W899">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X899">
         <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z899">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB899">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC899">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -81102,7 +81102,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>5424582</v>
+        <v>5424543</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81114,55 +81114,55 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F906" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G906" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H906">
         <v>1</v>
       </c>
       <c r="I906">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J906" t="s">
         <v>55</v>
       </c>
       <c r="K906">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L906">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M906">
+        <v>2.875</v>
+      </c>
+      <c r="N906">
+        <v>3</v>
+      </c>
+      <c r="O906">
         <v>3.4</v>
       </c>
-      <c r="N906">
-        <v>2.2</v>
-      </c>
-      <c r="O906">
-        <v>3.3</v>
-      </c>
       <c r="P906">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q906">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R906">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="S906">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T906">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U906">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V906">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W906">
         <v>-1</v>
@@ -81171,16 +81171,16 @@
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z906">
         <v>-1</v>
       </c>
       <c r="AA906">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AB906">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AC906">
         <v>-1</v>
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5424543</v>
+        <v>5424582</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,55 +81203,55 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F907" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G907" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H907">
         <v>1</v>
       </c>
       <c r="I907">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J907" t="s">
         <v>55</v>
       </c>
       <c r="K907">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L907">
+        <v>3.2</v>
+      </c>
+      <c r="M907">
+        <v>3.4</v>
+      </c>
+      <c r="N907">
+        <v>2.2</v>
+      </c>
+      <c r="O907">
         <v>3.3</v>
       </c>
-      <c r="M907">
-        <v>2.875</v>
-      </c>
-      <c r="N907">
-        <v>3</v>
-      </c>
-      <c r="O907">
-        <v>3.4</v>
-      </c>
       <c r="P907">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q907">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R907">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S907">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T907">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U907">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V907">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W907">
         <v>-1</v>
@@ -81260,16 +81260,16 @@
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="Z907">
         <v>-1</v>
       </c>
       <c r="AA907">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AB907">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AC907">
         <v>-1</v>
@@ -92672,7 +92672,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C1036" t="s">
         <v>28</v>
@@ -92684,76 +92684,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1036" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G1036" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1036">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1036" t="s">
         <v>57</v>
       </c>
       <c r="K1036">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L1036">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1036">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1036">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1036">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1036">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q1036">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1036">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S1036">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T1036">
         <v>2.25</v>
       </c>
       <c r="U1036">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V1036">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W1036">
         <v>-1</v>
       </c>
       <c r="X1036">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y1036">
         <v>-1</v>
       </c>
       <c r="Z1036">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA1036">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1036">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1036">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1037" spans="1:29">
@@ -92761,7 +92761,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C1037" t="s">
         <v>28</v>
@@ -92773,76 +92773,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1037" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1037" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1037" t="s">
         <v>57</v>
       </c>
       <c r="K1037">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L1037">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1037">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N1037">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1037">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P1037">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q1037">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1037">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S1037">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T1037">
         <v>2.25</v>
       </c>
       <c r="U1037">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V1037">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="W1037">
         <v>-1</v>
       </c>
       <c r="X1037">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1037">
         <v>-1</v>
       </c>
       <c r="Z1037">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1037">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1037">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1037">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="1038" spans="1:29">
@@ -93651,7 +93651,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>6777938</v>
+        <v>6777764</v>
       </c>
       <c r="C1047" t="s">
         <v>28</v>
@@ -93663,58 +93663,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1047" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1047" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1047">
         <v>2</v>
       </c>
       <c r="I1047">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1047" t="s">
         <v>56</v>
       </c>
       <c r="K1047">
+        <v>1.5</v>
+      </c>
+      <c r="L1047">
+        <v>4.333</v>
+      </c>
+      <c r="M1047">
+        <v>6</v>
+      </c>
+      <c r="N1047">
+        <v>1.444</v>
+      </c>
+      <c r="O1047">
+        <v>4.5</v>
+      </c>
+      <c r="P1047">
         <v>7</v>
       </c>
-      <c r="L1047">
-        <v>4.9</v>
-      </c>
-      <c r="M1047">
-        <v>1.4</v>
-      </c>
-      <c r="N1047">
-        <v>7.5</v>
-      </c>
-      <c r="O1047">
-        <v>5</v>
-      </c>
-      <c r="P1047">
-        <v>1.4</v>
-      </c>
       <c r="Q1047">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1047">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S1047">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T1047">
         <v>2.75</v>
       </c>
       <c r="U1047">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V1047">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W1047">
-        <v>6.5</v>
+        <v>0.444</v>
       </c>
       <c r="X1047">
         <v>-1</v>
@@ -93723,16 +93723,16 @@
         <v>-1</v>
       </c>
       <c r="Z1047">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AA1047">
         <v>-1</v>
       </c>
       <c r="AB1047">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AC1047">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="1048" spans="1:29">
@@ -93740,7 +93740,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>6777935</v>
+        <v>6777938</v>
       </c>
       <c r="C1048" t="s">
         <v>28</v>
@@ -93752,58 +93752,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1048" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G1048" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1048">
         <v>2</v>
       </c>
       <c r="I1048">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1048" t="s">
         <v>56</v>
       </c>
       <c r="K1048">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="L1048">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M1048">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="N1048">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="O1048">
         <v>5</v>
       </c>
       <c r="P1048">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q1048">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R1048">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S1048">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T1048">
         <v>2.75</v>
       </c>
       <c r="U1048">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V1048">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W1048">
-        <v>0.3999999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="X1048">
         <v>-1</v>
@@ -93812,16 +93812,16 @@
         <v>-1</v>
       </c>
       <c r="Z1048">
-        <v>0.8700000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA1048">
         <v>-1</v>
       </c>
       <c r="AB1048">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="AC1048">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1049" spans="1:29">
@@ -93829,7 +93829,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>6777934</v>
+        <v>6777935</v>
       </c>
       <c r="C1049" t="s">
         <v>28</v>
@@ -93841,76 +93841,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1049" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1049" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H1049">
+        <v>2</v>
+      </c>
+      <c r="I1049">
         <v>0</v>
       </c>
-      <c r="I1049">
-        <v>1</v>
-      </c>
       <c r="J1049" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1049">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L1049">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M1049">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N1049">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O1049">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P1049">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q1049">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1049">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S1049">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T1049">
         <v>2.75</v>
       </c>
       <c r="U1049">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V1049">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W1049">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1049">
         <v>-1</v>
       </c>
       <c r="Y1049">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z1049">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1049">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1049">
         <v>-1</v>
       </c>
       <c r="AC1049">
-        <v>0.8400000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6777931</v>
+        <v>6777934</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,55 +93930,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1050" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G1050" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1050" t="s">
         <v>55</v>
       </c>
       <c r="K1050">
+        <v>1.533</v>
+      </c>
+      <c r="L1050">
+        <v>4.333</v>
+      </c>
+      <c r="M1050">
+        <v>5.5</v>
+      </c>
+      <c r="N1050">
+        <v>1.55</v>
+      </c>
+      <c r="O1050">
+        <v>4.2</v>
+      </c>
+      <c r="P1050">
         <v>6</v>
       </c>
-      <c r="L1050">
-        <v>4.7</v>
-      </c>
-      <c r="M1050">
-        <v>1.45</v>
-      </c>
-      <c r="N1050">
-        <v>5.5</v>
-      </c>
-      <c r="O1050">
-        <v>4.5</v>
-      </c>
-      <c r="P1050">
-        <v>1.533</v>
-      </c>
       <c r="Q1050">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R1050">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S1050">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T1050">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1050">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V1050">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W1050">
         <v>-1</v>
@@ -93987,19 +93987,19 @@
         <v>-1</v>
       </c>
       <c r="Y1050">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z1050">
         <v>-1</v>
       </c>
       <c r="AA1050">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB1050">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6777764</v>
+        <v>6777931</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,76 +94019,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1051" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1051" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1051" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1051">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L1051">
-        <v>4.333</v>
+        <v>4.7</v>
       </c>
       <c r="M1051">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="N1051">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="O1051">
         <v>4.5</v>
       </c>
       <c r="P1051">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q1051">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R1051">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S1051">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T1051">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1051">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="V1051">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="W1051">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X1051">
         <v>-1</v>
       </c>
       <c r="Y1051">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z1051">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA1051">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1051">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1051">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -95075,7 +95075,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>6777946</v>
+        <v>6777940</v>
       </c>
       <c r="C1063" t="s">
         <v>28</v>
@@ -95087,76 +95087,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1063" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G1063" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1063">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1063" t="s">
         <v>57</v>
       </c>
       <c r="K1063">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L1063">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M1063">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N1063">
+        <v>3.2</v>
+      </c>
+      <c r="O1063">
+        <v>4.2</v>
+      </c>
+      <c r="P1063">
+        <v>2.05</v>
+      </c>
+      <c r="Q1063">
+        <v>0.25</v>
+      </c>
+      <c r="R1063">
+        <v>2.06</v>
+      </c>
+      <c r="S1063">
+        <v>1.84</v>
+      </c>
+      <c r="T1063">
         <v>3.75</v>
       </c>
-      <c r="O1063">
-        <v>3.4</v>
-      </c>
-      <c r="P1063">
-        <v>2</v>
-      </c>
-      <c r="Q1063">
-        <v>0.5</v>
-      </c>
-      <c r="R1063">
-        <v>1.85</v>
-      </c>
-      <c r="S1063">
-        <v>2.08</v>
-      </c>
-      <c r="T1063">
-        <v>2.5</v>
-      </c>
       <c r="U1063">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V1063">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W1063">
         <v>-1</v>
       </c>
       <c r="X1063">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y1063">
         <v>-1</v>
       </c>
       <c r="Z1063">
-        <v>0.8500000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA1063">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1063">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
       <c r="AC1063">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1064" spans="1:29">
@@ -95164,7 +95164,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>6777940</v>
+        <v>6777765</v>
       </c>
       <c r="C1064" t="s">
         <v>28</v>
@@ -95176,10 +95176,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1064" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G1064" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H1064">
         <v>2</v>
@@ -95191,61 +95191,61 @@
         <v>57</v>
       </c>
       <c r="K1064">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L1064">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M1064">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N1064">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O1064">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1064">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q1064">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R1064">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S1064">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T1064">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1064">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V1064">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W1064">
         <v>-1</v>
       </c>
       <c r="X1064">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y1064">
         <v>-1</v>
       </c>
       <c r="Z1064">
-        <v>0.53</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA1064">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1064">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AC1064">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1065" spans="1:29">
@@ -95253,7 +95253,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>6777765</v>
+        <v>6777946</v>
       </c>
       <c r="C1065" t="s">
         <v>28</v>
@@ -95265,34 +95265,34 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1065" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1065" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1065">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1065" t="s">
         <v>57</v>
       </c>
       <c r="K1065">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L1065">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M1065">
         <v>2.15</v>
       </c>
       <c r="N1065">
+        <v>3.75</v>
+      </c>
+      <c r="O1065">
         <v>3.4</v>
-      </c>
-      <c r="O1065">
-        <v>3.75</v>
       </c>
       <c r="P1065">
         <v>2</v>
@@ -95301,40 +95301,40 @@
         <v>0.5</v>
       </c>
       <c r="R1065">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S1065">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T1065">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1065">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1065">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W1065">
         <v>-1</v>
       </c>
       <c r="X1065">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y1065">
         <v>-1</v>
       </c>
       <c r="Z1065">
-        <v>0.8300000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1065">
         <v>-1</v>
       </c>
       <c r="AB1065">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC1065">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1066" spans="1:29">
@@ -100949,7 +100949,7 @@
         <v>1127</v>
       </c>
       <c r="B1129">
-        <v>6777998</v>
+        <v>6778001</v>
       </c>
       <c r="C1129" t="s">
         <v>28</v>
@@ -100961,76 +100961,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F1129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1129">
+        <v>0</v>
+      </c>
+      <c r="I1129">
         <v>2</v>
       </c>
-      <c r="I1129">
-        <v>1</v>
-      </c>
       <c r="J1129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1129">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L1129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M1129">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="N1129">
-        <v>1.8</v>
+        <v>15</v>
       </c>
       <c r="O1129">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P1129">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="Q1129">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
       <c r="R1129">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S1129">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T1129">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U1129">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="V1129">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="W1129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1129">
         <v>-1</v>
       </c>
       <c r="Y1129">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z1129">
-        <v>0.5149999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AA1129">
         <v>-0.5</v>
       </c>
       <c r="AB1129">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AC1129">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="1130" spans="1:29">
@@ -101038,7 +101038,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>6778001</v>
+        <v>6777998</v>
       </c>
       <c r="C1130" t="s">
         <v>28</v>
@@ -101050,76 +101050,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F1130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1130">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L1130">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M1130">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="N1130">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="O1130">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P1130">
-        <v>1.181</v>
+        <v>4.2</v>
       </c>
       <c r="Q1130">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1130">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S1130">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T1130">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1130">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V1130">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="W1130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1130">
         <v>-1</v>
       </c>
       <c r="Y1130">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z1130">
-        <v>0.42</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA1130">
         <v>-0.5</v>
       </c>
       <c r="AB1130">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AC1130">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1131" spans="1:29">
@@ -106862,10 +106862,10 @@
         <v>1.25</v>
       </c>
       <c r="R1195">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S1195">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T1195">
         <v>2.75</v>
@@ -107084,10 +107084,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1198">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="S1198">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="T1198">
         <v>2.25</v>
@@ -107167,10 +107167,10 @@
         <v>3</v>
       </c>
       <c r="U1199">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V1199">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107220,13 +107220,13 @@
         <v>4.75</v>
       </c>
       <c r="N1200">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="O1200">
         <v>4.2</v>
       </c>
       <c r="P1200">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q1200">
         <v>-0.75</v>
@@ -107241,10 +107241,10 @@
         <v>3</v>
       </c>
       <c r="U1200">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V1200">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="W1200">
         <v>0</v>
@@ -107306,19 +107306,19 @@
         <v>-2.5</v>
       </c>
       <c r="R1201">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S1201">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T1201">
         <v>3.5</v>
       </c>
       <c r="U1201">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V1201">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107454,10 +107454,10 @@
         <v>0</v>
       </c>
       <c r="R1203">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S1203">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T1203">
         <v>2.75</v>
@@ -107685,10 +107685,10 @@
         <v>2.75</v>
       </c>
       <c r="U1206">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="V1206">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107886,22 +107886,22 @@
         <v>1.5</v>
       </c>
       <c r="N1209">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="O1209">
         <v>4.2</v>
       </c>
       <c r="P1209">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="Q1209">
         <v>1</v>
       </c>
       <c r="R1209">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S1209">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="T1209">
         <v>3</v>
@@ -107960,7 +107960,7 @@
         <v>6</v>
       </c>
       <c r="N1210">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O1210">
         <v>3.8</v>
@@ -107972,19 +107972,19 @@
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S1210">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T1210">
         <v>2.75</v>
       </c>
       <c r="U1210">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V1210">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108194,10 +108194,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1213">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S1213">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T1213">
         <v>3</v>
@@ -108259,7 +108259,7 @@
         <v>8.5</v>
       </c>
       <c r="O1214">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P1214">
         <v>1.4</v>
@@ -108268,19 +108268,19 @@
         <v>1.25</v>
       </c>
       <c r="R1214">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="S1214">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="T1214">
         <v>3</v>
       </c>
       <c r="U1214">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V1214">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W1214">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -53601,7 +53601,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>4233284</v>
+        <v>4231985</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53613,76 +53613,76 @@
         <v>44703.5</v>
       </c>
       <c r="F597" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G597" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I597">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J597" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K597">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L597">
         <v>3.5</v>
       </c>
       <c r="M597">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N597">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O597">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P597">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q597">
+        <v>-0.25</v>
+      </c>
+      <c r="R597">
+        <v>2.06</v>
+      </c>
+      <c r="S597">
+        <v>1.84</v>
+      </c>
+      <c r="T597">
+        <v>3</v>
+      </c>
+      <c r="U597">
+        <v>1.86</v>
+      </c>
+      <c r="V597">
+        <v>2.04</v>
+      </c>
+      <c r="W597">
+        <v>-1</v>
+      </c>
+      <c r="X597">
+        <v>-1</v>
+      </c>
+      <c r="Y597">
+        <v>1.8</v>
+      </c>
+      <c r="Z597">
+        <v>-1</v>
+      </c>
+      <c r="AA597">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB597">
         <v>0</v>
       </c>
-      <c r="R597">
-        <v>1.95</v>
-      </c>
-      <c r="S597">
-        <v>1.95</v>
-      </c>
-      <c r="T597">
-        <v>2.5</v>
-      </c>
-      <c r="U597">
-        <v>1.84</v>
-      </c>
-      <c r="V597">
-        <v>2.06</v>
-      </c>
-      <c r="W597">
-        <v>1.6</v>
-      </c>
-      <c r="X597">
-        <v>-1</v>
-      </c>
-      <c r="Y597">
-        <v>-1</v>
-      </c>
-      <c r="Z597">
-        <v>0.95</v>
-      </c>
-      <c r="AA597">
-        <v>-1</v>
-      </c>
-      <c r="AB597">
-        <v>0.8400000000000001</v>
-      </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>4231986</v>
+        <v>4233284</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,13 +53702,13 @@
         <v>44703.5</v>
       </c>
       <c r="F598" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G598" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -53717,43 +53717,43 @@
         <v>56</v>
       </c>
       <c r="K598">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L598">
         <v>3.5</v>
       </c>
       <c r="M598">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N598">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O598">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P598">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q598">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R598">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S598">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T598">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U598">
+        <v>1.84</v>
+      </c>
+      <c r="V598">
         <v>2.06</v>
       </c>
-      <c r="V598">
-        <v>1.84</v>
-      </c>
       <c r="W598">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53762,13 +53762,13 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>1.06</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC598">
         <v>-1</v>
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>4231985</v>
+        <v>4231986</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,76 +53791,76 @@
         <v>44703.5</v>
       </c>
       <c r="F599" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G599" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H599">
+        <v>4</v>
+      </c>
+      <c r="I599">
         <v>1</v>
       </c>
-      <c r="I599">
+      <c r="J599" t="s">
+        <v>56</v>
+      </c>
+      <c r="K599">
         <v>2</v>
-      </c>
-      <c r="J599" t="s">
-        <v>55</v>
-      </c>
-      <c r="K599">
-        <v>2.5</v>
       </c>
       <c r="L599">
         <v>3.5</v>
       </c>
       <c r="M599">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N599">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O599">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P599">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q599">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R599">
+        <v>2.025</v>
+      </c>
+      <c r="S599">
+        <v>1.775</v>
+      </c>
+      <c r="T599">
+        <v>3.25</v>
+      </c>
+      <c r="U599">
         <v>2.06</v>
       </c>
-      <c r="S599">
+      <c r="V599">
         <v>1.84</v>
       </c>
-      <c r="T599">
-        <v>3</v>
-      </c>
-      <c r="U599">
-        <v>1.86</v>
-      </c>
-      <c r="V599">
-        <v>2.04</v>
-      </c>
       <c r="W599">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X599">
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z599">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA599">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC599">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -57339,7 +57339,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5164805</v>
+        <v>5164808</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57351,58 +57351,58 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F639" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G639" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I639">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J639" t="s">
         <v>56</v>
       </c>
       <c r="K639">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L639">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="M639">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N639">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O639">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P639">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q639">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R639">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S639">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T639">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U639">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V639">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W639">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X639">
         <v>-1</v>
@@ -57411,16 +57411,16 @@
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA639">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB639">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC639">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57428,7 +57428,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5164808</v>
+        <v>5164805</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57440,58 +57440,58 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F640" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G640" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H640">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I640">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J640" t="s">
         <v>56</v>
       </c>
       <c r="K640">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L640">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="M640">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N640">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O640">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P640">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q640">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R640">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S640">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T640">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U640">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V640">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W640">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X640">
         <v>-1</v>
@@ -57500,16 +57500,16 @@
         <v>-1</v>
       </c>
       <c r="Z640">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA640">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB640">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC640">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -59208,7 +59208,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5164827</v>
+        <v>5164826</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59220,76 +59220,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F660" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G660" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J660" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K660">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L660">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M660">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N660">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O660">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P660">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q660">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R660">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S660">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T660">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U660">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V660">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="W660">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X660">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y660">
         <v>-1</v>
       </c>
       <c r="Z660">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA660">
-        <v>-0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB660">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC660">
-        <v>-0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59297,7 +59297,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5164828</v>
+        <v>5164827</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59309,58 +59309,58 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F661" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G661" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H661">
+        <v>2</v>
+      </c>
+      <c r="I661">
         <v>1</v>
-      </c>
-      <c r="I661">
-        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>56</v>
       </c>
       <c r="K661">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L661">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M661">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="N661">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O661">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P661">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q661">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R661">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S661">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="T661">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U661">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V661">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W661">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59369,16 +59369,16 @@
         <v>-1</v>
       </c>
       <c r="Z661">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA661">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB661">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC661">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59386,7 +59386,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5544230</v>
+        <v>5164828</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59398,58 +59398,58 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F662" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G662" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J662" t="s">
         <v>56</v>
       </c>
       <c r="K662">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L662">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M662">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N662">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O662">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P662">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q662">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R662">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S662">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T662">
         <v>2.5</v>
       </c>
       <c r="U662">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="V662">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="W662">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X662">
         <v>-1</v>
@@ -59458,16 +59458,16 @@
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>0.4399999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA662">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB662">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC662">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59475,7 +59475,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5164826</v>
+        <v>5544230</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59487,76 +59487,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F663" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G663" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J663" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K663">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L663">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M663">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N663">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O663">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P663">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q663">
+        <v>-0.75</v>
+      </c>
+      <c r="R663">
+        <v>1.88</v>
+      </c>
+      <c r="S663">
+        <v>2.02</v>
+      </c>
+      <c r="T663">
+        <v>2.5</v>
+      </c>
+      <c r="U663">
+        <v>1.93</v>
+      </c>
+      <c r="V663">
+        <v>1.97</v>
+      </c>
+      <c r="W663">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X663">
+        <v>-1</v>
+      </c>
+      <c r="Y663">
+        <v>-1</v>
+      </c>
+      <c r="Z663">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="AA663">
         <v>-0.5</v>
       </c>
-      <c r="R663">
-        <v>2.09</v>
-      </c>
-      <c r="S663">
-        <v>1.81</v>
-      </c>
-      <c r="T663">
-        <v>2.25</v>
-      </c>
-      <c r="U663">
-        <v>1.88</v>
-      </c>
-      <c r="V663">
-        <v>2.02</v>
-      </c>
-      <c r="W663">
-        <v>-1</v>
-      </c>
-      <c r="X663">
-        <v>2.5</v>
-      </c>
-      <c r="Y663">
-        <v>-1</v>
-      </c>
-      <c r="Z663">
-        <v>-1</v>
-      </c>
-      <c r="AA663">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC663">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -61522,7 +61522,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5164856</v>
+        <v>5164859</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61534,58 +61534,58 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F686" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G686" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J686" t="s">
         <v>56</v>
       </c>
       <c r="K686">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L686">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M686">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="N686">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="O686">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P686">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="Q686">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R686">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="S686">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="T686">
         <v>2.5</v>
       </c>
       <c r="U686">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V686">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W686">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="X686">
         <v>-1</v>
@@ -61594,13 +61594,13 @@
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.98</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA686">
         <v>-1</v>
       </c>
       <c r="AB686">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC686">
         <v>-1</v>
@@ -61611,7 +61611,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5164859</v>
+        <v>5164856</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61623,58 +61623,58 @@
         <v>44842.45833333334</v>
       </c>
       <c r="F687" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G687" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H687">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I687">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J687" t="s">
         <v>56</v>
       </c>
       <c r="K687">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L687">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M687">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N687">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="O687">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P687">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="Q687">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R687">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="S687">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="T687">
         <v>2.5</v>
       </c>
       <c r="U687">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V687">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W687">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="X687">
         <v>-1</v>
@@ -61683,13 +61683,13 @@
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.8799999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC687">
         <v>-1</v>
@@ -63391,7 +63391,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5164874</v>
+        <v>5164881</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63403,76 +63403,76 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F707" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G707" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H707">
+        <v>1</v>
+      </c>
+      <c r="I707">
         <v>0</v>
       </c>
-      <c r="I707">
-        <v>1</v>
-      </c>
       <c r="J707" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K707">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L707">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M707">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N707">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O707">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P707">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q707">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R707">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S707">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T707">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U707">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V707">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W707">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X707">
         <v>-1</v>
       </c>
       <c r="Y707">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z707">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA707">
-        <v>1</v>
+        <v>0.485</v>
       </c>
       <c r="AB707">
         <v>-1</v>
       </c>
       <c r="AC707">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="708" spans="1:29">
@@ -63569,7 +63569,7 @@
         <v>707</v>
       </c>
       <c r="B709">
-        <v>5164881</v>
+        <v>5164874</v>
       </c>
       <c r="C709" t="s">
         <v>28</v>
@@ -63581,76 +63581,76 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F709" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G709" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H709">
+        <v>0</v>
+      </c>
+      <c r="I709">
         <v>1</v>
       </c>
-      <c r="I709">
+      <c r="J709" t="s">
+        <v>55</v>
+      </c>
+      <c r="K709">
+        <v>2.8</v>
+      </c>
+      <c r="L709">
+        <v>3.4</v>
+      </c>
+      <c r="M709">
+        <v>2.45</v>
+      </c>
+      <c r="N709">
+        <v>2.55</v>
+      </c>
+      <c r="O709">
+        <v>3.2</v>
+      </c>
+      <c r="P709">
+        <v>2.75</v>
+      </c>
+      <c r="Q709">
         <v>0</v>
       </c>
-      <c r="J709" t="s">
-        <v>56</v>
-      </c>
-      <c r="K709">
-        <v>1.444</v>
-      </c>
-      <c r="L709">
-        <v>4.75</v>
-      </c>
-      <c r="M709">
-        <v>6.5</v>
-      </c>
-      <c r="N709">
-        <v>1.4</v>
-      </c>
-      <c r="O709">
-        <v>5</v>
-      </c>
-      <c r="P709">
-        <v>7</v>
-      </c>
-      <c r="Q709">
-        <v>-1.25</v>
-      </c>
       <c r="R709">
+        <v>1.9</v>
+      </c>
+      <c r="S709">
+        <v>2</v>
+      </c>
+      <c r="T709">
+        <v>2.25</v>
+      </c>
+      <c r="U709">
         <v>1.93</v>
       </c>
-      <c r="S709">
+      <c r="V709">
         <v>1.97</v>
       </c>
-      <c r="T709">
-        <v>3</v>
-      </c>
-      <c r="U709">
-        <v>1.92</v>
-      </c>
-      <c r="V709">
-        <v>1.98</v>
-      </c>
       <c r="W709">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X709">
         <v>-1</v>
       </c>
       <c r="Y709">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z709">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA709">
-        <v>0.485</v>
+        <v>1</v>
       </c>
       <c r="AB709">
         <v>-1</v>
       </c>
       <c r="AC709">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="710" spans="1:29">
@@ -64014,7 +64014,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5164887</v>
+        <v>5164885</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64026,58 +64026,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F714" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G714" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H714">
         <v>3</v>
       </c>
       <c r="I714">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J714" t="s">
         <v>56</v>
       </c>
       <c r="K714">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L714">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M714">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N714">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="O714">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P714">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q714">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R714">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="S714">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="T714">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U714">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V714">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W714">
-        <v>0.222</v>
+        <v>1.45</v>
       </c>
       <c r="X714">
         <v>-1</v>
@@ -64086,13 +64086,13 @@
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>0.445</v>
+        <v>1.09</v>
       </c>
       <c r="AA714">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB714">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC714">
         <v>-1</v>
@@ -64103,7 +64103,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5164885</v>
+        <v>5164887</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64115,58 +64115,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F715" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G715" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H715">
         <v>3</v>
       </c>
       <c r="I715">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J715" t="s">
         <v>56</v>
       </c>
       <c r="K715">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L715">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M715">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N715">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="O715">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P715">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q715">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R715">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="S715">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="T715">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U715">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V715">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W715">
-        <v>1.45</v>
+        <v>0.222</v>
       </c>
       <c r="X715">
         <v>-1</v>
@@ -64175,13 +64175,13 @@
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>1.09</v>
+        <v>0.445</v>
       </c>
       <c r="AA715">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB715">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC715">
         <v>-1</v>
@@ -64993,7 +64993,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5164893</v>
+        <v>5164894</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65005,76 +65005,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F725" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G725" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J725" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K725">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L725">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M725">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N725">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O725">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P725">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q725">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R725">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S725">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T725">
         <v>2.5</v>
       </c>
       <c r="U725">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V725">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W725">
         <v>-1</v>
       </c>
       <c r="X725">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y725">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z725">
         <v>-0.5</v>
       </c>
       <c r="AA725">
-        <v>0.485</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB725">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC725">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="726" spans="1:29">
@@ -65082,7 +65082,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5164894</v>
+        <v>5164893</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65094,76 +65094,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F726" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G726" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I726">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J726" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K726">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L726">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M726">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N726">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O726">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P726">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q726">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R726">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S726">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T726">
         <v>2.5</v>
       </c>
       <c r="U726">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V726">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y726">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z726">
         <v>-0.5</v>
       </c>
       <c r="AA726">
-        <v>0.5049999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="AB726">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC726">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65705,7 +65705,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5164910</v>
+        <v>5164905</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65717,73 +65717,73 @@
         <v>44870.5</v>
       </c>
       <c r="F733" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G733" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I733">
         <v>3</v>
       </c>
       <c r="J733" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K733">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="L733">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M733">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N733">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="O733">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P733">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q733">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R733">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S733">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T733">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U733">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V733">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W733">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X733">
         <v>-1</v>
       </c>
       <c r="Y733">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z733">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA733">
-        <v>0.8799999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB733">
-        <v>0.97</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC733">
         <v>-1</v>
@@ -65794,7 +65794,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5164906</v>
+        <v>5164625</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65806,76 +65806,76 @@
         <v>44870.5</v>
       </c>
       <c r="F734" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G734" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H734">
         <v>2</v>
       </c>
       <c r="I734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J734" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K734">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="L734">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="M734">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="N734">
-        <v>1.166</v>
+        <v>2.625</v>
       </c>
       <c r="O734">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P734">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="Q734">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R734">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S734">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T734">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U734">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V734">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W734">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X734">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y734">
         <v>-1</v>
       </c>
       <c r="Z734">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA734">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB734">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC734">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="735" spans="1:29">
@@ -65883,7 +65883,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5164905</v>
+        <v>5164906</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65895,58 +65895,58 @@
         <v>44870.5</v>
       </c>
       <c r="F735" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G735" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H735">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I735">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J735" t="s">
         <v>56</v>
       </c>
       <c r="K735">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L735">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M735">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N735">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O735">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P735">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="Q735">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R735">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S735">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T735">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U735">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V735">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W735">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X735">
         <v>-1</v>
@@ -65955,16 +65955,16 @@
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA735">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB735">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC735">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -65972,7 +65972,7 @@
         <v>734</v>
       </c>
       <c r="B736">
-        <v>5164625</v>
+        <v>5164910</v>
       </c>
       <c r="C736" t="s">
         <v>28</v>
@@ -65984,73 +65984,73 @@
         <v>44870.5</v>
       </c>
       <c r="F736" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G736" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H736">
         <v>2</v>
       </c>
       <c r="I736">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J736" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K736">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L736">
         <v>3.3</v>
       </c>
       <c r="M736">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N736">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O736">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P736">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="Q736">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R736">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="S736">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="T736">
         <v>2.25</v>
       </c>
       <c r="U736">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V736">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W736">
         <v>-1</v>
       </c>
       <c r="X736">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y736">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z736">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA736">
-        <v>-0</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB736">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AC736">
         <v>-1</v>
@@ -66862,7 +66862,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5164911</v>
+        <v>5164914</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66874,58 +66874,58 @@
         <v>44877.5</v>
       </c>
       <c r="F746" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G746" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H746">
         <v>3</v>
       </c>
       <c r="I746">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J746" t="s">
         <v>56</v>
       </c>
       <c r="K746">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="L746">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M746">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="N746">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="O746">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="P746">
-        <v>2.7</v>
+        <v>9</v>
       </c>
       <c r="Q746">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R746">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S746">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="T746">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U746">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V746">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="W746">
-        <v>1.75</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66934,13 +66934,13 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>1.01</v>
+        <v>0.475</v>
       </c>
       <c r="AA746">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB746">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66951,7 +66951,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5164624</v>
+        <v>5164911</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66963,13 +66963,13 @@
         <v>44877.5</v>
       </c>
       <c r="F747" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G747" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I747">
         <v>0</v>
@@ -66978,43 +66978,43 @@
         <v>56</v>
       </c>
       <c r="K747">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="L747">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M747">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N747">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O747">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P747">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q747">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R747">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="S747">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T747">
         <v>2.25</v>
       </c>
       <c r="U747">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V747">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W747">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="X747">
         <v>-1</v>
@@ -67023,16 +67023,16 @@
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>0.8999999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA747">
         <v>-1</v>
       </c>
       <c r="AB747">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AC747">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5164914</v>
+        <v>5164624</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,58 +67052,58 @@
         <v>44877.5</v>
       </c>
       <c r="F748" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G748" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H748">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I748">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J748" t="s">
         <v>56</v>
       </c>
       <c r="K748">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="L748">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="M748">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="N748">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="O748">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P748">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="Q748">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R748">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S748">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T748">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U748">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V748">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W748">
-        <v>0.2849999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -67112,16 +67112,16 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA748">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB748">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AC748">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67574,7 +67574,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>5164928</v>
+        <v>5164925</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67586,73 +67586,73 @@
         <v>44921.5</v>
       </c>
       <c r="F754" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G754" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H754">
         <v>1</v>
       </c>
       <c r="I754">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J754" t="s">
         <v>55</v>
       </c>
       <c r="K754">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L754">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M754">
+        <v>3.1</v>
+      </c>
+      <c r="N754">
+        <v>2.4</v>
+      </c>
+      <c r="O754">
+        <v>3.25</v>
+      </c>
+      <c r="P754">
+        <v>3</v>
+      </c>
+      <c r="Q754">
+        <v>0</v>
+      </c>
+      <c r="R754">
+        <v>1.77</v>
+      </c>
+      <c r="S754">
+        <v>2.14</v>
+      </c>
+      <c r="T754">
+        <v>2.25</v>
+      </c>
+      <c r="U754">
+        <v>2.04</v>
+      </c>
+      <c r="V754">
+        <v>1.86</v>
+      </c>
+      <c r="W754">
+        <v>-1</v>
+      </c>
+      <c r="X754">
+        <v>-1</v>
+      </c>
+      <c r="Y754">
         <v>2</v>
       </c>
-      <c r="N754">
-        <v>3.6</v>
-      </c>
-      <c r="O754">
-        <v>3.4</v>
-      </c>
-      <c r="P754">
-        <v>2.05</v>
-      </c>
-      <c r="Q754">
-        <v>0.25</v>
-      </c>
-      <c r="R754">
-        <v>2.07</v>
-      </c>
-      <c r="S754">
-        <v>1.83</v>
-      </c>
-      <c r="T754">
-        <v>2.5</v>
-      </c>
-      <c r="U754">
-        <v>2.03</v>
-      </c>
-      <c r="V754">
-        <v>1.87</v>
-      </c>
-      <c r="W754">
-        <v>-1</v>
-      </c>
-      <c r="X754">
-        <v>-1</v>
-      </c>
-      <c r="Y754">
-        <v>1.05</v>
-      </c>
       <c r="Z754">
         <v>-1</v>
       </c>
       <c r="AA754">
-        <v>0.8300000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="AB754">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC754">
         <v>-1</v>
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5164927</v>
+        <v>5164924</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,10 +67675,10 @@
         <v>44921.5</v>
       </c>
       <c r="F755" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G755" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H755">
         <v>0</v>
@@ -67690,31 +67690,31 @@
         <v>55</v>
       </c>
       <c r="K755">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L755">
         <v>3.4</v>
       </c>
       <c r="M755">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N755">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O755">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P755">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q755">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R755">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="S755">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="T755">
         <v>2.5</v>
@@ -67732,13 +67732,13 @@
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="Z755">
         <v>-1</v>
       </c>
       <c r="AA755">
-        <v>0.8899999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB755">
         <v>0.98</v>
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5164925</v>
+        <v>5164927</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,55 +67764,55 @@
         <v>44921.5</v>
       </c>
       <c r="F756" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G756" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H756">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J756" t="s">
         <v>55</v>
       </c>
       <c r="K756">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="L756">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M756">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N756">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O756">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P756">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q756">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R756">
-        <v>1.77</v>
+        <v>2.01</v>
       </c>
       <c r="S756">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="T756">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U756">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V756">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W756">
         <v>-1</v>
@@ -67821,16 +67821,16 @@
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="Z756">
         <v>-1</v>
       </c>
       <c r="AA756">
-        <v>1.14</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB756">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="AC756">
         <v>-1</v>
@@ -67841,7 +67841,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>5164924</v>
+        <v>5164928</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -67853,13 +67853,13 @@
         <v>44921.5</v>
       </c>
       <c r="F757" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G757" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I757">
         <v>3</v>
@@ -67868,40 +67868,40 @@
         <v>55</v>
       </c>
       <c r="K757">
+        <v>3.75</v>
+      </c>
+      <c r="L757">
+        <v>3.3</v>
+      </c>
+      <c r="M757">
         <v>2</v>
       </c>
-      <c r="L757">
+      <c r="N757">
+        <v>3.6</v>
+      </c>
+      <c r="O757">
         <v>3.4</v>
       </c>
-      <c r="M757">
-        <v>3.6</v>
-      </c>
-      <c r="N757">
-        <v>2.2</v>
-      </c>
-      <c r="O757">
-        <v>3.6</v>
-      </c>
       <c r="P757">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q757">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R757">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="S757">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="T757">
         <v>2.5</v>
       </c>
       <c r="U757">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="V757">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="W757">
         <v>-1</v>
@@ -67910,16 +67910,16 @@
         <v>-1</v>
       </c>
       <c r="Y757">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z757">
         <v>-1</v>
       </c>
       <c r="AA757">
-        <v>0.9399999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB757">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="AC757">
         <v>-1</v>
@@ -69354,7 +69354,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5164943</v>
+        <v>5164945</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69366,56 +69366,56 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F774" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G774" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="I774">
         <v>1</v>
-      </c>
-      <c r="I774">
-        <v>4</v>
       </c>
       <c r="J774" t="s">
         <v>55</v>
       </c>
       <c r="K774">
+        <v>2.1</v>
+      </c>
+      <c r="L774">
         <v>3.6</v>
       </c>
-      <c r="L774">
+      <c r="M774">
+        <v>3.2</v>
+      </c>
+      <c r="N774">
+        <v>2.3</v>
+      </c>
+      <c r="O774">
         <v>3.5</v>
       </c>
-      <c r="M774">
-        <v>2</v>
-      </c>
-      <c r="N774">
-        <v>3.2</v>
-      </c>
-      <c r="O774">
-        <v>3.3</v>
-      </c>
       <c r="P774">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q774">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R774">
+        <v>2.05</v>
+      </c>
+      <c r="S774">
+        <v>1.88</v>
+      </c>
+      <c r="T774">
+        <v>2.75</v>
+      </c>
+      <c r="U774">
         <v>1.85</v>
       </c>
-      <c r="S774">
+      <c r="V774">
         <v>2.05</v>
       </c>
-      <c r="T774">
-        <v>2.25</v>
-      </c>
-      <c r="U774">
-        <v>1.92</v>
-      </c>
-      <c r="V774">
-        <v>1.98</v>
-      </c>
       <c r="W774">
         <v>-1</v>
       </c>
@@ -69423,19 +69423,19 @@
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>1.375</v>
+        <v>1.9</v>
       </c>
       <c r="Z774">
         <v>-1</v>
       </c>
       <c r="AA774">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB774">
+        <v>-1</v>
+      </c>
+      <c r="AC774">
         <v>1.05</v>
-      </c>
-      <c r="AB774">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="AC774">
-        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69443,7 +69443,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5164938</v>
+        <v>5164943</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69455,76 +69455,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F775" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G775" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J775" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K775">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L775">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M775">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N775">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O775">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P775">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q775">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R775">
+        <v>1.85</v>
+      </c>
+      <c r="S775">
+        <v>2.05</v>
+      </c>
+      <c r="T775">
+        <v>2.25</v>
+      </c>
+      <c r="U775">
+        <v>1.92</v>
+      </c>
+      <c r="V775">
         <v>1.98</v>
       </c>
-      <c r="S775">
-        <v>1.92</v>
-      </c>
-      <c r="T775">
-        <v>2.5</v>
-      </c>
-      <c r="U775">
-        <v>1.91</v>
-      </c>
-      <c r="V775">
-        <v>1.99</v>
-      </c>
       <c r="W775">
         <v>-1</v>
       </c>
       <c r="X775">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y775">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z775">
         <v>-1</v>
       </c>
       <c r="AA775">
+        <v>1.05</v>
+      </c>
+      <c r="AB775">
         <v>0.9199999999999999</v>
       </c>
-      <c r="AB775">
-        <v>-1</v>
-      </c>
       <c r="AC775">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69532,7 +69532,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5164945</v>
+        <v>5164938</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69544,76 +69544,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F776" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G776" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H776">
         <v>0</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J776" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K776">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L776">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M776">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N776">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O776">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P776">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q776">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R776">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S776">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T776">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U776">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V776">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="W776">
         <v>-1</v>
       </c>
       <c r="X776">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y776">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB776">
         <v>-1</v>
       </c>
       <c r="AC776">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5164950</v>
+        <v>5164953</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,10 +70879,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G791" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H791">
         <v>1</v>
@@ -70894,61 +70894,61 @@
         <v>56</v>
       </c>
       <c r="K791">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L791">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M791">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="N791">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O791">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P791">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q791">
+        <v>-1.25</v>
+      </c>
+      <c r="R791">
+        <v>2.08</v>
+      </c>
+      <c r="S791">
+        <v>1.82</v>
+      </c>
+      <c r="T791">
+        <v>2.75</v>
+      </c>
+      <c r="U791">
+        <v>1.91</v>
+      </c>
+      <c r="V791">
+        <v>1.99</v>
+      </c>
+      <c r="W791">
+        <v>0.5</v>
+      </c>
+      <c r="X791">
+        <v>-1</v>
+      </c>
+      <c r="Y791">
+        <v>-1</v>
+      </c>
+      <c r="Z791">
         <v>-0.5</v>
       </c>
-      <c r="R791">
-        <v>1.89</v>
-      </c>
-      <c r="S791">
-        <v>2.04</v>
-      </c>
-      <c r="T791">
-        <v>2.25</v>
-      </c>
-      <c r="U791">
-        <v>2</v>
-      </c>
-      <c r="V791">
-        <v>1.9</v>
-      </c>
-      <c r="W791">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X791">
-        <v>-1</v>
-      </c>
-      <c r="Y791">
-        <v>-1</v>
-      </c>
-      <c r="Z791">
-        <v>0.8899999999999999</v>
-      </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB791">
         <v>-1</v>
       </c>
       <c r="AC791">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70956,7 +70956,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5164953</v>
+        <v>5164950</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70968,10 +70968,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G792" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H792">
         <v>1</v>
@@ -70983,43 +70983,43 @@
         <v>56</v>
       </c>
       <c r="K792">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L792">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M792">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="N792">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O792">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P792">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q792">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R792">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="S792">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T792">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U792">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V792">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W792">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X792">
         <v>-1</v>
@@ -71028,16 +71028,16 @@
         <v>-1</v>
       </c>
       <c r="Z792">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA792">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB792">
         <v>-1</v>
       </c>
       <c r="AC792">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71401,7 +71401,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>5164963</v>
+        <v>5164960</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71413,76 +71413,76 @@
         <v>44947.5</v>
       </c>
       <c r="F797" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G797" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J797" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K797">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L797">
         <v>3.3</v>
       </c>
       <c r="M797">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N797">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O797">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P797">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q797">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R797">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="S797">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="T797">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U797">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V797">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="W797">
         <v>-1</v>
       </c>
       <c r="X797">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y797">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z797">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA797">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC797">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71490,7 +71490,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>5164619</v>
+        <v>5164963</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71502,76 +71502,76 @@
         <v>44947.5</v>
       </c>
       <c r="F798" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G798" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798">
         <v>1</v>
       </c>
       <c r="J798" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K798">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L798">
         <v>3.3</v>
       </c>
       <c r="M798">
+        <v>2.375</v>
+      </c>
+      <c r="N798">
+        <v>2.6</v>
+      </c>
+      <c r="O798">
+        <v>3.2</v>
+      </c>
+      <c r="P798">
         <v>2.9</v>
-      </c>
-      <c r="N798">
-        <v>2.75</v>
-      </c>
-      <c r="O798">
-        <v>3.1</v>
-      </c>
-      <c r="P798">
-        <v>2.625</v>
       </c>
       <c r="Q798">
         <v>0</v>
       </c>
       <c r="R798">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S798">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="T798">
         <v>2.25</v>
       </c>
       <c r="U798">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V798">
+        <v>1.88</v>
+      </c>
+      <c r="W798">
+        <v>-1</v>
+      </c>
+      <c r="X798">
+        <v>-1</v>
+      </c>
+      <c r="Y798">
         <v>1.9</v>
       </c>
-      <c r="W798">
-        <v>-1</v>
-      </c>
-      <c r="X798">
-        <v>2.1</v>
-      </c>
-      <c r="Y798">
-        <v>-1</v>
-      </c>
       <c r="Z798">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>-0</v>
+        <v>1.06</v>
       </c>
       <c r="AB798">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC798">
-        <v>0.45</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71579,7 +71579,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>5164960</v>
+        <v>5164964</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71591,76 +71591,76 @@
         <v>44947.5</v>
       </c>
       <c r="F799" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G799" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H799">
         <v>2</v>
       </c>
       <c r="I799">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K799">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L799">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M799">
+        <v>4.75</v>
+      </c>
+      <c r="N799">
+        <v>1.833</v>
+      </c>
+      <c r="O799">
+        <v>3.5</v>
+      </c>
+      <c r="P799">
+        <v>4.5</v>
+      </c>
+      <c r="Q799">
+        <v>-0.5</v>
+      </c>
+      <c r="R799">
+        <v>1.85</v>
+      </c>
+      <c r="S799">
+        <v>2.05</v>
+      </c>
+      <c r="T799">
         <v>2.25</v>
       </c>
-      <c r="N799">
-        <v>4</v>
-      </c>
-      <c r="O799">
-        <v>3.8</v>
-      </c>
-      <c r="P799">
-        <v>1.85</v>
-      </c>
-      <c r="Q799">
-        <v>0.5</v>
-      </c>
-      <c r="R799">
-        <v>2.11</v>
-      </c>
-      <c r="S799">
-        <v>1.82</v>
-      </c>
-      <c r="T799">
-        <v>2.75</v>
-      </c>
       <c r="U799">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V799">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="W799">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X799">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
         <v>-1</v>
       </c>
       <c r="Z799">
-        <v>1.11</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA799">
         <v>-1</v>
       </c>
       <c r="AB799">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC799">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -71668,7 +71668,7 @@
         <v>798</v>
       </c>
       <c r="B800">
-        <v>5164964</v>
+        <v>5164619</v>
       </c>
       <c r="C800" t="s">
         <v>28</v>
@@ -71680,76 +71680,76 @@
         <v>44947.5</v>
       </c>
       <c r="F800" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G800" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800">
+        <v>1</v>
+      </c>
+      <c r="J800" t="s">
+        <v>57</v>
+      </c>
+      <c r="K800">
+        <v>2.4</v>
+      </c>
+      <c r="L800">
+        <v>3.3</v>
+      </c>
+      <c r="M800">
+        <v>2.9</v>
+      </c>
+      <c r="N800">
+        <v>2.75</v>
+      </c>
+      <c r="O800">
+        <v>3.1</v>
+      </c>
+      <c r="P800">
+        <v>2.625</v>
+      </c>
+      <c r="Q800">
         <v>0</v>
       </c>
-      <c r="J800" t="s">
-        <v>56</v>
-      </c>
-      <c r="K800">
-        <v>1.727</v>
-      </c>
-      <c r="L800">
-        <v>3.6</v>
-      </c>
-      <c r="M800">
-        <v>4.75</v>
-      </c>
-      <c r="N800">
-        <v>1.833</v>
-      </c>
-      <c r="O800">
-        <v>3.5</v>
-      </c>
-      <c r="P800">
-        <v>4.5</v>
-      </c>
-      <c r="Q800">
-        <v>-0.5</v>
-      </c>
       <c r="R800">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S800">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T800">
         <v>2.25</v>
       </c>
       <c r="U800">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V800">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W800">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X800">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y800">
         <v>-1</v>
       </c>
       <c r="Z800">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA800">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB800">
         <v>-0.5</v>
       </c>
       <c r="AC800">
-        <v>0.5149999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="801" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>5164970</v>
+        <v>5164967</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,28 +72570,28 @@
         <v>44961.5</v>
       </c>
       <c r="F810" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G810" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J810" t="s">
         <v>56</v>
       </c>
       <c r="K810">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L810">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M810">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N810">
         <v>1.363</v>
@@ -72600,25 +72600,25 @@
         <v>5</v>
       </c>
       <c r="P810">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q810">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R810">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="S810">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="T810">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U810">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V810">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W810">
         <v>0.363</v>
@@ -72630,16 +72630,16 @@
         <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA810">
-        <v>0.5149999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB810">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AC810">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -72736,7 +72736,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5164967</v>
+        <v>5164970</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72748,28 +72748,28 @@
         <v>44961.5</v>
       </c>
       <c r="F812" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G812" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H812">
+        <v>2</v>
+      </c>
+      <c r="I812">
         <v>1</v>
-      </c>
-      <c r="I812">
-        <v>0</v>
       </c>
       <c r="J812" t="s">
         <v>56</v>
       </c>
       <c r="K812">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L812">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M812">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N812">
         <v>1.363</v>
@@ -72778,25 +72778,25 @@
         <v>5</v>
       </c>
       <c r="P812">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q812">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R812">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="S812">
-        <v>1.83</v>
+        <v>2.03</v>
       </c>
       <c r="T812">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U812">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V812">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="W812">
         <v>0.363</v>
@@ -72808,16 +72808,16 @@
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA812">
-        <v>0.8300000000000001</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB812">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AC812">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -73359,7 +73359,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>5164978</v>
+        <v>5164617</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -73371,58 +73371,58 @@
         <v>44968.5</v>
       </c>
       <c r="F819" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G819" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H819">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I819">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J819" t="s">
         <v>56</v>
       </c>
       <c r="K819">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L819">
         <v>3.4</v>
       </c>
       <c r="M819">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N819">
+        <v>1.909</v>
+      </c>
+      <c r="O819">
         <v>3.5</v>
       </c>
-      <c r="O819">
-        <v>3.75</v>
-      </c>
       <c r="P819">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q819">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R819">
+        <v>1.97</v>
+      </c>
+      <c r="S819">
+        <v>1.96</v>
+      </c>
+      <c r="T819">
+        <v>2.25</v>
+      </c>
+      <c r="U819">
         <v>1.84</v>
       </c>
-      <c r="S819">
+      <c r="V819">
         <v>2.06</v>
       </c>
-      <c r="T819">
-        <v>2.75</v>
-      </c>
-      <c r="U819">
-        <v>1.95</v>
-      </c>
-      <c r="V819">
-        <v>1.95</v>
-      </c>
       <c r="W819">
-        <v>2.5</v>
+        <v>0.909</v>
       </c>
       <c r="X819">
         <v>-1</v>
@@ -73431,16 +73431,16 @@
         <v>-1</v>
       </c>
       <c r="Z819">
-        <v>0.8400000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="AA819">
         <v>-1</v>
       </c>
       <c r="AB819">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC819">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="820" spans="1:29">
@@ -73448,7 +73448,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>5164617</v>
+        <v>5164975</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73460,76 +73460,76 @@
         <v>44968.5</v>
       </c>
       <c r="F820" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G820" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J820" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K820">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L820">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M820">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N820">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O820">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P820">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="Q820">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R820">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S820">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="T820">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U820">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="V820">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="W820">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X820">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y820">
         <v>-1</v>
       </c>
       <c r="Z820">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA820">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB820">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC820">
-        <v>0.53</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73537,7 +73537,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>5164975</v>
+        <v>5164981</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73549,76 +73549,76 @@
         <v>44968.5</v>
       </c>
       <c r="F821" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G821" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H821">
         <v>1</v>
       </c>
       <c r="I821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J821" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K821">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L821">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M821">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N821">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="O821">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P821">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q821">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R821">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S821">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T821">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U821">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="V821">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W821">
         <v>-1</v>
       </c>
       <c r="X821">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y821">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z821">
         <v>-1</v>
       </c>
       <c r="AA821">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AB821">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC821">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -73626,7 +73626,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>5164981</v>
+        <v>5164978</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73638,73 +73638,73 @@
         <v>44968.5</v>
       </c>
       <c r="F822" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G822" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H822">
+        <v>4</v>
+      </c>
+      <c r="I822">
         <v>1</v>
       </c>
-      <c r="I822">
+      <c r="J822" t="s">
+        <v>56</v>
+      </c>
+      <c r="K822">
+        <v>3.5</v>
+      </c>
+      <c r="L822">
+        <v>3.4</v>
+      </c>
+      <c r="M822">
+        <v>2.05</v>
+      </c>
+      <c r="N822">
+        <v>3.5</v>
+      </c>
+      <c r="O822">
+        <v>3.75</v>
+      </c>
+      <c r="P822">
         <v>2</v>
       </c>
-      <c r="J822" t="s">
-        <v>55</v>
-      </c>
-      <c r="K822">
+      <c r="Q822">
+        <v>0.5</v>
+      </c>
+      <c r="R822">
+        <v>1.84</v>
+      </c>
+      <c r="S822">
+        <v>2.06</v>
+      </c>
+      <c r="T822">
+        <v>2.75</v>
+      </c>
+      <c r="U822">
+        <v>1.95</v>
+      </c>
+      <c r="V822">
+        <v>1.95</v>
+      </c>
+      <c r="W822">
         <v>2.5</v>
       </c>
-      <c r="L822">
-        <v>3.2</v>
-      </c>
-      <c r="M822">
-        <v>2.8</v>
-      </c>
-      <c r="N822">
-        <v>3.1</v>
-      </c>
-      <c r="O822">
-        <v>3.2</v>
-      </c>
-      <c r="P822">
-        <v>2.4</v>
-      </c>
-      <c r="Q822">
-        <v>0.25</v>
-      </c>
-      <c r="R822">
-        <v>1.82</v>
-      </c>
-      <c r="S822">
-        <v>2.08</v>
-      </c>
-      <c r="T822">
-        <v>2.25</v>
-      </c>
-      <c r="U822">
-        <v>2.1</v>
-      </c>
-      <c r="V822">
-        <v>1.8</v>
-      </c>
-      <c r="W822">
-        <v>-1</v>
-      </c>
       <c r="X822">
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z822">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA822">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB822">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AC822">
         <v>-1</v>
@@ -77720,7 +77720,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>6257685</v>
+        <v>6257686</v>
       </c>
       <c r="C868" t="s">
         <v>28</v>
@@ -77732,49 +77732,49 @@
         <v>45000.6875</v>
       </c>
       <c r="F868" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G868" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I868">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J868" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K868">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="L868">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M868">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="N868">
-        <v>1.363</v>
+        <v>3.3</v>
       </c>
       <c r="O868">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P868">
-        <v>8.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q868">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R868">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S868">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T868">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U868">
         <v>2.05</v>
@@ -77783,25 +77783,25 @@
         <v>1.85</v>
       </c>
       <c r="W868">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X868">
         <v>-1</v>
       </c>
       <c r="Y868">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z868">
+        <v>-1</v>
+      </c>
+      <c r="AA868">
+        <v>1.02</v>
+      </c>
+      <c r="AB868">
         <v>-0.5</v>
       </c>
-      <c r="AA868">
-        <v>0.52</v>
-      </c>
-      <c r="AB868">
-        <v>-1</v>
-      </c>
       <c r="AC868">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="869" spans="1:29">
@@ -77809,7 +77809,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>6257686</v>
+        <v>6257685</v>
       </c>
       <c r="C869" t="s">
         <v>28</v>
@@ -77821,49 +77821,49 @@
         <v>45000.6875</v>
       </c>
       <c r="F869" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G869" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H869">
+        <v>1</v>
+      </c>
+      <c r="I869">
         <v>0</v>
       </c>
-      <c r="I869">
-        <v>2</v>
-      </c>
       <c r="J869" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K869">
+        <v>1.571</v>
+      </c>
+      <c r="L869">
+        <v>3.8</v>
+      </c>
+      <c r="M869">
+        <v>5.5</v>
+      </c>
+      <c r="N869">
+        <v>1.363</v>
+      </c>
+      <c r="O869">
+        <v>4.75</v>
+      </c>
+      <c r="P869">
+        <v>8.5</v>
+      </c>
+      <c r="Q869">
+        <v>-1.25</v>
+      </c>
+      <c r="R869">
+        <v>1.86</v>
+      </c>
+      <c r="S869">
+        <v>2.04</v>
+      </c>
+      <c r="T869">
         <v>2.75</v>
-      </c>
-      <c r="L869">
-        <v>3.3</v>
-      </c>
-      <c r="M869">
-        <v>2.55</v>
-      </c>
-      <c r="N869">
-        <v>3.3</v>
-      </c>
-      <c r="O869">
-        <v>3.2</v>
-      </c>
-      <c r="P869">
-        <v>2.3</v>
-      </c>
-      <c r="Q869">
-        <v>0.25</v>
-      </c>
-      <c r="R869">
-        <v>1.88</v>
-      </c>
-      <c r="S869">
-        <v>2.02</v>
-      </c>
-      <c r="T869">
-        <v>2.25</v>
       </c>
       <c r="U869">
         <v>2.05</v>
@@ -77872,25 +77872,25 @@
         <v>1.85</v>
       </c>
       <c r="W869">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X869">
         <v>-1</v>
       </c>
       <c r="Y869">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z869">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA869">
-        <v>1.02</v>
+        <v>0.52</v>
       </c>
       <c r="AB869">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC869">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="870" spans="1:29">
@@ -80123,7 +80123,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5165033</v>
+        <v>5390857</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80135,55 +80135,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F895" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G895" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I895">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J895" t="s">
         <v>55</v>
       </c>
       <c r="K895">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L895">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M895">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N895">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O895">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P895">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q895">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R895">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="S895">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T895">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U895">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V895">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W895">
         <v>-1</v>
@@ -80192,19 +80192,19 @@
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>2.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z895">
         <v>-1</v>
       </c>
       <c r="AA895">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB895">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC895">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896" spans="1:29">
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>5165032</v>
+        <v>5165033</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,10 +80224,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F896" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G896" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H896">
         <v>0</v>
@@ -80239,40 +80239,40 @@
         <v>55</v>
       </c>
       <c r="K896">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="L896">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M896">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N896">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O896">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P896">
+        <v>3.75</v>
+      </c>
+      <c r="Q896">
+        <v>-0.5</v>
+      </c>
+      <c r="R896">
+        <v>2.09</v>
+      </c>
+      <c r="S896">
+        <v>1.81</v>
+      </c>
+      <c r="T896">
         <v>2.5</v>
       </c>
-      <c r="Q896">
-        <v>0</v>
-      </c>
-      <c r="R896">
-        <v>2.125</v>
-      </c>
-      <c r="S896">
-        <v>1.78</v>
-      </c>
-      <c r="T896">
-        <v>2.25</v>
-      </c>
       <c r="U896">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V896">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W896">
         <v>-1</v>
@@ -80281,19 +80281,19 @@
         <v>-1</v>
       </c>
       <c r="Y896">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z896">
         <v>-1</v>
       </c>
       <c r="AA896">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB896">
         <v>-1</v>
       </c>
       <c r="AC896">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="897" spans="1:29">
@@ -80301,7 +80301,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>5165034</v>
+        <v>5165032</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80313,34 +80313,34 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F897" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G897" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897">
         <v>1</v>
       </c>
       <c r="J897" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K897">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L897">
         <v>3.3</v>
       </c>
       <c r="M897">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N897">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O897">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P897">
         <v>2.5</v>
@@ -80349,40 +80349,40 @@
         <v>0</v>
       </c>
       <c r="R897">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S897">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="T897">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U897">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V897">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W897">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X897">
         <v>-1</v>
       </c>
       <c r="Y897">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z897">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA897">
-        <v>-1</v>
+        <v>0.78</v>
       </c>
       <c r="AB897">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC897">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="898" spans="1:29">
@@ -80390,7 +80390,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5165035</v>
+        <v>5165034</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80402,58 +80402,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F898" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G898" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H898">
+        <v>2</v>
+      </c>
+      <c r="I898">
         <v>1</v>
-      </c>
-      <c r="I898">
-        <v>0</v>
       </c>
       <c r="J898" t="s">
         <v>56</v>
       </c>
       <c r="K898">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="L898">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M898">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="N898">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="O898">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P898">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q898">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R898">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S898">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="T898">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U898">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="V898">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="W898">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="X898">
         <v>-1</v>
@@ -80462,16 +80462,16 @@
         <v>-1</v>
       </c>
       <c r="Z898">
-        <v>0.9099999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA898">
         <v>-1</v>
       </c>
       <c r="AB898">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC898">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80479,7 +80479,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5390857</v>
+        <v>5165035</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80491,76 +80491,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F899" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G899" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H899">
         <v>1</v>
       </c>
       <c r="I899">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J899" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K899">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="L899">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M899">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N899">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O899">
         <v>3.6</v>
       </c>
       <c r="P899">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="Q899">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R899">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="S899">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T899">
         <v>2.25</v>
       </c>
       <c r="U899">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="V899">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="W899">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X899">
         <v>-1</v>
       </c>
       <c r="Y899">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z899">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA899">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB899">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC899">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -81102,7 +81102,7 @@
         <v>904</v>
       </c>
       <c r="B906">
-        <v>5424543</v>
+        <v>5424582</v>
       </c>
       <c r="C906" t="s">
         <v>28</v>
@@ -81114,55 +81114,55 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F906" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G906" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H906">
         <v>1</v>
       </c>
       <c r="I906">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J906" t="s">
         <v>55</v>
       </c>
       <c r="K906">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L906">
+        <v>3.2</v>
+      </c>
+      <c r="M906">
+        <v>3.4</v>
+      </c>
+      <c r="N906">
+        <v>2.2</v>
+      </c>
+      <c r="O906">
         <v>3.3</v>
       </c>
-      <c r="M906">
-        <v>2.875</v>
-      </c>
-      <c r="N906">
-        <v>3</v>
-      </c>
-      <c r="O906">
-        <v>3.4</v>
-      </c>
       <c r="P906">
-        <v>2.375</v>
+        <v>3.3</v>
       </c>
       <c r="Q906">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R906">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="S906">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="T906">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U906">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V906">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W906">
         <v>-1</v>
@@ -81171,16 +81171,16 @@
         <v>-1</v>
       </c>
       <c r="Y906">
-        <v>1.375</v>
+        <v>2.3</v>
       </c>
       <c r="Z906">
         <v>-1</v>
       </c>
       <c r="AA906">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="AB906">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AC906">
         <v>-1</v>
@@ -81191,7 +81191,7 @@
         <v>905</v>
       </c>
       <c r="B907">
-        <v>5424582</v>
+        <v>5424543</v>
       </c>
       <c r="C907" t="s">
         <v>28</v>
@@ -81203,55 +81203,55 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F907" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G907" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H907">
         <v>1</v>
       </c>
       <c r="I907">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J907" t="s">
         <v>55</v>
       </c>
       <c r="K907">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L907">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M907">
+        <v>2.875</v>
+      </c>
+      <c r="N907">
+        <v>3</v>
+      </c>
+      <c r="O907">
         <v>3.4</v>
       </c>
-      <c r="N907">
-        <v>2.2</v>
-      </c>
-      <c r="O907">
-        <v>3.3</v>
-      </c>
       <c r="P907">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="Q907">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R907">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="S907">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T907">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U907">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V907">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W907">
         <v>-1</v>
@@ -81260,16 +81260,16 @@
         <v>-1</v>
       </c>
       <c r="Y907">
-        <v>2.3</v>
+        <v>1.375</v>
       </c>
       <c r="Z907">
         <v>-1</v>
       </c>
       <c r="AA907">
-        <v>0.98</v>
+        <v>1.08</v>
       </c>
       <c r="AB907">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AC907">
         <v>-1</v>
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5559959</v>
+        <v>5554162</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,58 +83784,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F936" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G936" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H936">
+        <v>3</v>
+      </c>
+      <c r="I936">
         <v>1</v>
-      </c>
-      <c r="I936">
-        <v>0</v>
       </c>
       <c r="J936" t="s">
         <v>56</v>
       </c>
       <c r="K936">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L936">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M936">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N936">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O936">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P936">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q936">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R936">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S936">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T936">
         <v>3</v>
       </c>
       <c r="U936">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V936">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W936">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X936">
         <v>-1</v>
@@ -83844,16 +83844,16 @@
         <v>-1</v>
       </c>
       <c r="Z936">
-        <v>0.475</v>
+        <v>0.485</v>
       </c>
       <c r="AA936">
         <v>-0.5</v>
       </c>
       <c r="AB936">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC936">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -83861,7 +83861,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>5554162</v>
+        <v>5559959</v>
       </c>
       <c r="C937" t="s">
         <v>28</v>
@@ -83873,58 +83873,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F937" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G937" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H937">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I937">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J937" t="s">
         <v>56</v>
       </c>
       <c r="K937">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L937">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M937">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N937">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O937">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P937">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q937">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R937">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S937">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T937">
         <v>3</v>
       </c>
       <c r="U937">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V937">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W937">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X937">
         <v>-1</v>
@@ -83933,16 +83933,16 @@
         <v>-1</v>
       </c>
       <c r="Z937">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="AA937">
         <v>-0.5</v>
       </c>
       <c r="AB937">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC937">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="938" spans="1:29">
@@ -92672,7 +92672,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C1036" t="s">
         <v>28</v>
@@ -92684,76 +92684,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1036" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1036" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1036" t="s">
         <v>57</v>
       </c>
       <c r="K1036">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L1036">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1036">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N1036">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1036">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P1036">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q1036">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1036">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S1036">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T1036">
         <v>2.25</v>
       </c>
       <c r="U1036">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V1036">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="W1036">
         <v>-1</v>
       </c>
       <c r="X1036">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1036">
         <v>-1</v>
       </c>
       <c r="Z1036">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1036">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1036">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1036">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="1037" spans="1:29">
@@ -92761,7 +92761,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C1037" t="s">
         <v>28</v>
@@ -92773,76 +92773,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1037" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G1037" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1037">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1037" t="s">
         <v>57</v>
       </c>
       <c r="K1037">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L1037">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1037">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1037">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1037">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1037">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q1037">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1037">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S1037">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T1037">
         <v>2.25</v>
       </c>
       <c r="U1037">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V1037">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W1037">
         <v>-1</v>
       </c>
       <c r="X1037">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y1037">
         <v>-1</v>
       </c>
       <c r="Z1037">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA1037">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1037">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1037">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1038" spans="1:29">
@@ -93651,7 +93651,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>6777764</v>
+        <v>6777938</v>
       </c>
       <c r="C1047" t="s">
         <v>28</v>
@@ -93663,58 +93663,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1047" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G1047" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H1047">
         <v>2</v>
       </c>
       <c r="I1047">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1047" t="s">
         <v>56</v>
       </c>
       <c r="K1047">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="L1047">
-        <v>4.333</v>
+        <v>4.9</v>
       </c>
       <c r="M1047">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="N1047">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="O1047">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P1047">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q1047">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R1047">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="S1047">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="T1047">
         <v>2.75</v>
       </c>
       <c r="U1047">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V1047">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W1047">
-        <v>0.444</v>
+        <v>6.5</v>
       </c>
       <c r="X1047">
         <v>-1</v>
@@ -93723,16 +93723,16 @@
         <v>-1</v>
       </c>
       <c r="Z1047">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AA1047">
         <v>-1</v>
       </c>
       <c r="AB1047">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="AC1047">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1048" spans="1:29">
@@ -93740,7 +93740,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>6777938</v>
+        <v>6777935</v>
       </c>
       <c r="C1048" t="s">
         <v>28</v>
@@ -93752,58 +93752,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1048" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1048" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1048">
         <v>2</v>
       </c>
       <c r="I1048">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1048" t="s">
         <v>56</v>
       </c>
       <c r="K1048">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="L1048">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="M1048">
+        <v>10</v>
+      </c>
+      <c r="N1048">
         <v>1.4</v>
-      </c>
-      <c r="N1048">
-        <v>7.5</v>
       </c>
       <c r="O1048">
         <v>5</v>
       </c>
       <c r="P1048">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q1048">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1048">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="S1048">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="T1048">
         <v>2.75</v>
       </c>
       <c r="U1048">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V1048">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W1048">
-        <v>6.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1048">
         <v>-1</v>
@@ -93812,16 +93812,16 @@
         <v>-1</v>
       </c>
       <c r="Z1048">
-        <v>1.01</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1048">
         <v>-1</v>
       </c>
       <c r="AB1048">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AC1048">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:29">
@@ -93829,7 +93829,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>6777935</v>
+        <v>6777934</v>
       </c>
       <c r="C1049" t="s">
         <v>28</v>
@@ -93841,76 +93841,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1049" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G1049" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1049" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1049">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L1049">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M1049">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N1049">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O1049">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P1049">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q1049">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R1049">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="S1049">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="T1049">
         <v>2.75</v>
       </c>
       <c r="U1049">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V1049">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W1049">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1049">
         <v>-1</v>
       </c>
       <c r="Y1049">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z1049">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1049">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB1049">
         <v>-1</v>
       </c>
       <c r="AC1049">
-        <v>1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="1050" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6777934</v>
+        <v>6777931</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,55 +93930,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1050" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G1050" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1050" t="s">
         <v>55</v>
       </c>
       <c r="K1050">
+        <v>6</v>
+      </c>
+      <c r="L1050">
+        <v>4.7</v>
+      </c>
+      <c r="M1050">
+        <v>1.45</v>
+      </c>
+      <c r="N1050">
+        <v>5.5</v>
+      </c>
+      <c r="O1050">
+        <v>4.5</v>
+      </c>
+      <c r="P1050">
         <v>1.533</v>
       </c>
-      <c r="L1050">
-        <v>4.333</v>
-      </c>
-      <c r="M1050">
-        <v>5.5</v>
-      </c>
-      <c r="N1050">
-        <v>1.55</v>
-      </c>
-      <c r="O1050">
-        <v>4.2</v>
-      </c>
-      <c r="P1050">
-        <v>6</v>
-      </c>
       <c r="Q1050">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R1050">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S1050">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T1050">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1050">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="V1050">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W1050">
         <v>-1</v>
@@ -93987,19 +93987,19 @@
         <v>-1</v>
       </c>
       <c r="Y1050">
-        <v>5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z1050">
         <v>-1</v>
       </c>
       <c r="AA1050">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1050">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1050">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6777931</v>
+        <v>6777764</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,76 +94019,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1051" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G1051" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H1051">
+        <v>2</v>
+      </c>
+      <c r="I1051">
         <v>0</v>
       </c>
-      <c r="I1051">
-        <v>4</v>
-      </c>
       <c r="J1051" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1051">
+        <v>1.5</v>
+      </c>
+      <c r="L1051">
+        <v>4.333</v>
+      </c>
+      <c r="M1051">
         <v>6</v>
       </c>
-      <c r="L1051">
-        <v>4.7</v>
-      </c>
-      <c r="M1051">
-        <v>1.45</v>
-      </c>
       <c r="N1051">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="O1051">
         <v>4.5</v>
       </c>
       <c r="P1051">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="Q1051">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1051">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S1051">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T1051">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1051">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="V1051">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="W1051">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X1051">
         <v>-1</v>
       </c>
       <c r="Y1051">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z1051">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA1051">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1051">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1051">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -95075,7 +95075,7 @@
         <v>1061</v>
       </c>
       <c r="B1063">
-        <v>6777940</v>
+        <v>6777946</v>
       </c>
       <c r="C1063" t="s">
         <v>28</v>
@@ -95087,76 +95087,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1063" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G1063" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1063">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1063" t="s">
         <v>57</v>
       </c>
       <c r="K1063">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L1063">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M1063">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N1063">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O1063">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P1063">
+        <v>2</v>
+      </c>
+      <c r="Q1063">
+        <v>0.5</v>
+      </c>
+      <c r="R1063">
+        <v>1.85</v>
+      </c>
+      <c r="S1063">
+        <v>2.08</v>
+      </c>
+      <c r="T1063">
+        <v>2.5</v>
+      </c>
+      <c r="U1063">
+        <v>1.85</v>
+      </c>
+      <c r="V1063">
         <v>2.05</v>
       </c>
-      <c r="Q1063">
-        <v>0.25</v>
-      </c>
-      <c r="R1063">
-        <v>2.06</v>
-      </c>
-      <c r="S1063">
-        <v>1.84</v>
-      </c>
-      <c r="T1063">
-        <v>3.75</v>
-      </c>
-      <c r="U1063">
-        <v>2.04</v>
-      </c>
-      <c r="V1063">
-        <v>1.86</v>
-      </c>
       <c r="W1063">
         <v>-1</v>
       </c>
       <c r="X1063">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y1063">
         <v>-1</v>
       </c>
       <c r="Z1063">
-        <v>0.53</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1063">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1063">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
       <c r="AC1063">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1064" spans="1:29">
@@ -95164,7 +95164,7 @@
         <v>1062</v>
       </c>
       <c r="B1064">
-        <v>6777765</v>
+        <v>6777940</v>
       </c>
       <c r="C1064" t="s">
         <v>28</v>
@@ -95176,10 +95176,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1064" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G1064" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H1064">
         <v>2</v>
@@ -95191,61 +95191,61 @@
         <v>57</v>
       </c>
       <c r="K1064">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L1064">
+        <v>3.8</v>
+      </c>
+      <c r="M1064">
+        <v>2.3</v>
+      </c>
+      <c r="N1064">
+        <v>3.2</v>
+      </c>
+      <c r="O1064">
+        <v>4.2</v>
+      </c>
+      <c r="P1064">
+        <v>2.05</v>
+      </c>
+      <c r="Q1064">
+        <v>0.25</v>
+      </c>
+      <c r="R1064">
+        <v>2.06</v>
+      </c>
+      <c r="S1064">
+        <v>1.84</v>
+      </c>
+      <c r="T1064">
         <v>3.75</v>
       </c>
-      <c r="M1064">
-        <v>2.15</v>
-      </c>
-      <c r="N1064">
-        <v>3.4</v>
-      </c>
-      <c r="O1064">
-        <v>3.75</v>
-      </c>
-      <c r="P1064">
-        <v>2</v>
-      </c>
-      <c r="Q1064">
-        <v>0.5</v>
-      </c>
-      <c r="R1064">
-        <v>1.83</v>
-      </c>
-      <c r="S1064">
-        <v>2.07</v>
-      </c>
-      <c r="T1064">
-        <v>2.75</v>
-      </c>
       <c r="U1064">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V1064">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W1064">
         <v>-1</v>
       </c>
       <c r="X1064">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y1064">
         <v>-1</v>
       </c>
       <c r="Z1064">
-        <v>0.8300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA1064">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1064">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AC1064">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1065" spans="1:29">
@@ -95253,7 +95253,7 @@
         <v>1063</v>
       </c>
       <c r="B1065">
-        <v>6777946</v>
+        <v>6777765</v>
       </c>
       <c r="C1065" t="s">
         <v>28</v>
@@ -95265,34 +95265,34 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F1065" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1065" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1065">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1065" t="s">
         <v>57</v>
       </c>
       <c r="K1065">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L1065">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M1065">
         <v>2.15</v>
       </c>
       <c r="N1065">
+        <v>3.4</v>
+      </c>
+      <c r="O1065">
         <v>3.75</v>
-      </c>
-      <c r="O1065">
-        <v>3.4</v>
       </c>
       <c r="P1065">
         <v>2</v>
@@ -95301,40 +95301,40 @@
         <v>0.5</v>
       </c>
       <c r="R1065">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S1065">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T1065">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1065">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1065">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W1065">
         <v>-1</v>
       </c>
       <c r="X1065">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y1065">
         <v>-1</v>
       </c>
       <c r="Z1065">
-        <v>0.8500000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA1065">
         <v>-1</v>
       </c>
       <c r="AB1065">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC1065">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066" spans="1:29">
@@ -99347,7 +99347,7 @@
         <v>1109</v>
       </c>
       <c r="B1111">
-        <v>6777985</v>
+        <v>6777770</v>
       </c>
       <c r="C1111" t="s">
         <v>28</v>
@@ -99359,73 +99359,73 @@
         <v>45255.5</v>
       </c>
       <c r="F1111" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1111" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H1111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1111">
+        <v>3.3</v>
+      </c>
+      <c r="L1111">
+        <v>3.5</v>
+      </c>
+      <c r="M1111">
         <v>2.1</v>
       </c>
-      <c r="L1111">
-        <v>3.75</v>
-      </c>
-      <c r="M1111">
-        <v>3.1</v>
-      </c>
       <c r="N1111">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O1111">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P1111">
+        <v>2.15</v>
+      </c>
+      <c r="Q1111">
+        <v>0.25</v>
+      </c>
+      <c r="R1111">
+        <v>1.98</v>
+      </c>
+      <c r="S1111">
+        <v>1.92</v>
+      </c>
+      <c r="T1111">
         <v>2.5</v>
       </c>
-      <c r="Q1111">
-        <v>0</v>
-      </c>
-      <c r="R1111">
-        <v>2.02</v>
-      </c>
-      <c r="S1111">
-        <v>1.88</v>
-      </c>
-      <c r="T1111">
-        <v>2.75</v>
-      </c>
       <c r="U1111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V1111">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W1111">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X1111">
         <v>-1</v>
       </c>
       <c r="Y1111">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z1111">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA1111">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1111">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC1111">
         <v>-1</v>
@@ -99436,7 +99436,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>6777770</v>
+        <v>6777985</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99448,73 +99448,73 @@
         <v>45255.5</v>
       </c>
       <c r="F1112" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1112" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H1112">
+        <v>4</v>
+      </c>
+      <c r="I1112">
         <v>1</v>
       </c>
-      <c r="I1112">
-        <v>2</v>
-      </c>
       <c r="J1112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1112">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L1112">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1112">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N1112">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O1112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1112">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q1112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R1112">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S1112">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T1112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1112">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1112">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W1112">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X1112">
         <v>-1</v>
       </c>
       <c r="Y1112">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z1112">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA1112">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1112">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC1112">
         <v>-1</v>
@@ -100326,7 +100326,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>6777989</v>
+        <v>6777771</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100338,40 +100338,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G1122" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1122" t="s">
         <v>57</v>
       </c>
       <c r="K1122">
+        <v>2</v>
+      </c>
+      <c r="L1122">
+        <v>3.4</v>
+      </c>
+      <c r="M1122">
         <v>3.75</v>
       </c>
-      <c r="L1122">
+      <c r="N1122">
+        <v>1.909</v>
+      </c>
+      <c r="O1122">
+        <v>3.6</v>
+      </c>
+      <c r="P1122">
         <v>4</v>
       </c>
-      <c r="M1122">
-        <v>1.833</v>
-      </c>
-      <c r="N1122">
-        <v>3</v>
-      </c>
-      <c r="O1122">
-        <v>4</v>
-      </c>
-      <c r="P1122">
-        <v>2.1</v>
-      </c>
       <c r="Q1122">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1122">
         <v>1.95</v>
@@ -100380,34 +100380,34 @@
         <v>1.95</v>
       </c>
       <c r="T1122">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U1122">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V1122">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W1122">
         <v>-1</v>
       </c>
       <c r="X1122">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y1122">
         <v>-1</v>
       </c>
       <c r="Z1122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA1122">
+        <v>0.95</v>
+      </c>
+      <c r="AB1122">
         <v>-0.5</v>
       </c>
-      <c r="AB1122">
-        <v>1.03</v>
-      </c>
       <c r="AC1122">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1123" spans="1:29">
@@ -100415,7 +100415,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6777771</v>
+        <v>6777989</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100427,40 +100427,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1123" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1123" t="s">
         <v>57</v>
       </c>
       <c r="K1123">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L1123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1123">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="N1123">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O1123">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P1123">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q1123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1123">
         <v>1.95</v>
@@ -100469,34 +100469,34 @@
         <v>1.95</v>
       </c>
       <c r="T1123">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U1123">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V1123">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W1123">
         <v>-1</v>
       </c>
       <c r="X1123">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y1123">
         <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA1123">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1123">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AC1123">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -100504,7 +100504,7 @@
         <v>1122</v>
       </c>
       <c r="B1124">
-        <v>6777993</v>
+        <v>6777992</v>
       </c>
       <c r="C1124" t="s">
         <v>28</v>
@@ -100516,58 +100516,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1124" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G1124" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1124" t="s">
         <v>56</v>
       </c>
       <c r="K1124">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L1124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M1124">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N1124">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O1124">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P1124">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q1124">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R1124">
         <v>1.97</v>
       </c>
       <c r="S1124">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T1124">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1124">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V1124">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="W1124">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="X1124">
         <v>-1</v>
@@ -100576,13 +100576,13 @@
         <v>-1</v>
       </c>
       <c r="Z1124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1124">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="AB1124">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC1124">
         <v>-1</v>
@@ -100593,7 +100593,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>6777992</v>
+        <v>6777993</v>
       </c>
       <c r="C1125" t="s">
         <v>28</v>
@@ -100605,58 +100605,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1125" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G1125" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H1125">
+        <v>4</v>
+      </c>
+      <c r="I1125">
         <v>3</v>
-      </c>
-      <c r="I1125">
-        <v>2</v>
       </c>
       <c r="J1125" t="s">
         <v>56</v>
       </c>
       <c r="K1125">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L1125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M1125">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="N1125">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O1125">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P1125">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q1125">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R1125">
         <v>1.97</v>
       </c>
       <c r="S1125">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T1125">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U1125">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V1125">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="W1125">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="X1125">
         <v>-1</v>
@@ -100665,13 +100665,13 @@
         <v>-1</v>
       </c>
       <c r="Z1125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1125">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
       <c r="AB1125">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC1125">
         <v>-1</v>
@@ -101305,7 +101305,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101317,58 +101317,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F1133" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G1133" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1133" t="s">
         <v>56</v>
       </c>
       <c r="K1133">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L1133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1133">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N1133">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O1133">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P1133">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q1133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1133">
+        <v>1.82</v>
+      </c>
+      <c r="S1133">
         <v>2.08</v>
-      </c>
-      <c r="S1133">
-        <v>1.82</v>
       </c>
       <c r="T1133">
         <v>3</v>
       </c>
       <c r="U1133">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V1133">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W1133">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X1133">
         <v>-1</v>
@@ -101377,16 +101377,16 @@
         <v>-1</v>
       </c>
       <c r="Z1133">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA1133">
         <v>-1</v>
       </c>
       <c r="AB1133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1133">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -101394,7 +101394,7 @@
         <v>1132</v>
       </c>
       <c r="B1134">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C1134" t="s">
         <v>28</v>
@@ -101406,58 +101406,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F1134" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G1134" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H1134">
+        <v>2</v>
+      </c>
+      <c r="I1134">
         <v>1</v>
-      </c>
-      <c r="I1134">
-        <v>0</v>
       </c>
       <c r="J1134" t="s">
         <v>56</v>
       </c>
       <c r="K1134">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L1134">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M1134">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N1134">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O1134">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P1134">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q1134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1134">
+        <v>2.08</v>
+      </c>
+      <c r="S1134">
         <v>1.82</v>
-      </c>
-      <c r="S1134">
-        <v>2.08</v>
       </c>
       <c r="T1134">
         <v>3</v>
       </c>
       <c r="U1134">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V1134">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W1134">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X1134">
         <v>-1</v>
@@ -101466,16 +101466,16 @@
         <v>-1</v>
       </c>
       <c r="Z1134">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA1134">
         <v>-1</v>
       </c>
       <c r="AB1134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1134">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1135" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6778008</v>
+        <v>6777773</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,13 +102207,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H1143">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I1143">
         <v>0</v>
@@ -102222,43 +102222,43 @@
         <v>56</v>
       </c>
       <c r="K1143">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L1143">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1143">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N1143">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1143">
         <v>3.5</v>
       </c>
       <c r="P1143">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q1143">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1143">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S1143">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T1143">
         <v>2.5</v>
       </c>
       <c r="U1143">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V1143">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="W1143">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X1143">
         <v>-1</v>
@@ -102267,16 +102267,16 @@
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>0.8500000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1143">
         <v>-1</v>
       </c>
       <c r="AB1143">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1143">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6777773</v>
+        <v>6778008</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,13 +102296,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G1144" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H1144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I1144">
         <v>0</v>
@@ -102311,43 +102311,43 @@
         <v>56</v>
       </c>
       <c r="K1144">
+        <v>4.2</v>
+      </c>
+      <c r="L1144">
+        <v>3.6</v>
+      </c>
+      <c r="M1144">
+        <v>1.833</v>
+      </c>
+      <c r="N1144">
         <v>2.5</v>
-      </c>
-      <c r="L1144">
-        <v>3.5</v>
-      </c>
-      <c r="M1144">
-        <v>2.6</v>
-      </c>
-      <c r="N1144">
-        <v>2.2</v>
       </c>
       <c r="O1144">
         <v>3.5</v>
       </c>
       <c r="P1144">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q1144">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1144">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S1144">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="T1144">
         <v>2.5</v>
       </c>
       <c r="U1144">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V1144">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="W1144">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X1144">
         <v>-1</v>
@@ -102356,16 +102356,16 @@
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>0.8899999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1144">
         <v>-1</v>
       </c>
       <c r="AB1144">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1144">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -104242,7 +104242,7 @@
         <v>1164</v>
       </c>
       <c r="B1166">
-        <v>6778029</v>
+        <v>6780949</v>
       </c>
       <c r="C1166" t="s">
         <v>28</v>
@@ -104254,76 +104254,76 @@
         <v>45286.5</v>
       </c>
       <c r="F1166" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G1166" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H1166">
+        <v>2</v>
+      </c>
+      <c r="I1166">
         <v>3</v>
       </c>
-      <c r="I1166">
-        <v>0</v>
-      </c>
       <c r="J1166" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1166">
         <v>2.25</v>
       </c>
       <c r="L1166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1166">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N1166">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O1166">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P1166">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q1166">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1166">
+        <v>2.07</v>
+      </c>
+      <c r="S1166">
+        <v>1.83</v>
+      </c>
+      <c r="T1166">
+        <v>2.25</v>
+      </c>
+      <c r="U1166">
+        <v>1.97</v>
+      </c>
+      <c r="V1166">
         <v>1.93</v>
       </c>
-      <c r="S1166">
-        <v>1.97</v>
-      </c>
-      <c r="T1166">
-        <v>2.75</v>
-      </c>
-      <c r="U1166">
-        <v>1.86</v>
-      </c>
-      <c r="V1166">
-        <v>2.04</v>
-      </c>
       <c r="W1166">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1166">
         <v>-1</v>
       </c>
       <c r="Y1166">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z1166">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1166">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1166">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="AC1166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1167" spans="1:29">
@@ -104331,7 +104331,7 @@
         <v>1165</v>
       </c>
       <c r="B1167">
-        <v>6780949</v>
+        <v>6778029</v>
       </c>
       <c r="C1167" t="s">
         <v>28</v>
@@ -104343,76 +104343,76 @@
         <v>45286.5</v>
       </c>
       <c r="F1167" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G1167" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1167">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1167">
         <v>2.25</v>
       </c>
       <c r="L1167">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1167">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N1167">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O1167">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P1167">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q1167">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1167">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S1167">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T1167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1167">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V1167">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W1167">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1167">
         <v>-1</v>
       </c>
       <c r="Y1167">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1167">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA1167">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1167">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AC1167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1168" spans="1:29">
@@ -104598,7 +104598,7 @@
         <v>1168</v>
       </c>
       <c r="B1170">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C1170" t="s">
         <v>28</v>
@@ -104610,73 +104610,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F1170" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G1170" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1170">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L1170">
+        <v>3.4</v>
+      </c>
+      <c r="M1170">
         <v>4</v>
       </c>
-      <c r="M1170">
-        <v>7</v>
-      </c>
       <c r="N1170">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O1170">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P1170">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q1170">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1170">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="S1170">
+        <v>1.99</v>
+      </c>
+      <c r="T1170">
+        <v>2.25</v>
+      </c>
+      <c r="U1170">
         <v>1.86</v>
       </c>
-      <c r="T1170">
-        <v>2.5</v>
-      </c>
-      <c r="U1170">
-        <v>1.99</v>
-      </c>
       <c r="V1170">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W1170">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X1170">
         <v>-1</v>
       </c>
       <c r="Y1170">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z1170">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1170">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB1170">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1170">
         <v>-1</v>
@@ -104687,7 +104687,7 @@
         <v>1169</v>
       </c>
       <c r="B1171">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C1171" t="s">
         <v>28</v>
@@ -104699,73 +104699,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F1171" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G1171" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H1171">
+        <v>2</v>
+      </c>
+      <c r="I1171">
         <v>1</v>
       </c>
-      <c r="I1171">
+      <c r="J1171" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1171">
+        <v>1.5</v>
+      </c>
+      <c r="L1171">
         <v>4</v>
       </c>
-      <c r="J1171" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1171">
-        <v>1.909</v>
-      </c>
-      <c r="L1171">
-        <v>3.4</v>
-      </c>
       <c r="M1171">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N1171">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O1171">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P1171">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q1171">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1171">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="S1171">
+        <v>1.86</v>
+      </c>
+      <c r="T1171">
+        <v>2.5</v>
+      </c>
+      <c r="U1171">
         <v>1.99</v>
       </c>
-      <c r="T1171">
-        <v>2.25</v>
-      </c>
-      <c r="U1171">
-        <v>1.86</v>
-      </c>
       <c r="V1171">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W1171">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X1171">
         <v>-1</v>
       </c>
       <c r="Y1171">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1171">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA1171">
+        <v>-0.5</v>
+      </c>
+      <c r="AB1171">
         <v>0.99</v>
-      </c>
-      <c r="AB1171">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AC1171">
         <v>-1</v>
@@ -105221,7 +105221,7 @@
         <v>1175</v>
       </c>
       <c r="B1177">
-        <v>6778041</v>
+        <v>6778044</v>
       </c>
       <c r="C1177" t="s">
         <v>28</v>
@@ -105233,13 +105233,13 @@
         <v>45290.5</v>
       </c>
       <c r="F1177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1177" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1177">
         <v>0</v>
@@ -105248,43 +105248,43 @@
         <v>56</v>
       </c>
       <c r="K1177">
-        <v>1.071</v>
+        <v>2.6</v>
       </c>
       <c r="L1177">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="M1177">
-        <v>34</v>
+        <v>2.75</v>
       </c>
       <c r="N1177">
-        <v>1.083</v>
+        <v>2.9</v>
       </c>
       <c r="O1177">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="P1177">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q1177">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R1177">
+        <v>2.08</v>
+      </c>
+      <c r="S1177">
+        <v>1.82</v>
+      </c>
+      <c r="T1177">
+        <v>2.25</v>
+      </c>
+      <c r="U1177">
+        <v>1.93</v>
+      </c>
+      <c r="V1177">
         <v>1.97</v>
       </c>
-      <c r="S1177">
-        <v>1.93</v>
-      </c>
-      <c r="T1177">
-        <v>3.5</v>
-      </c>
-      <c r="U1177">
-        <v>1.86</v>
-      </c>
-      <c r="V1177">
-        <v>2.04</v>
-      </c>
       <c r="W1177">
-        <v>0.08299999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="X1177">
         <v>-1</v>
@@ -105293,16 +105293,16 @@
         <v>-1</v>
       </c>
       <c r="Z1177">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA1177">
+        <v>-1</v>
+      </c>
+      <c r="AB1177">
         <v>0.9299999999999999</v>
       </c>
-      <c r="AB1177">
-        <v>-1</v>
-      </c>
       <c r="AC1177">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1178" spans="1:29">
@@ -105399,7 +105399,7 @@
         <v>1177</v>
       </c>
       <c r="B1179">
-        <v>6778044</v>
+        <v>6778041</v>
       </c>
       <c r="C1179" t="s">
         <v>28</v>
@@ -105411,13 +105411,13 @@
         <v>45290.5</v>
       </c>
       <c r="F1179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1179" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H1179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1179">
         <v>0</v>
@@ -105426,43 +105426,43 @@
         <v>56</v>
       </c>
       <c r="K1179">
-        <v>2.6</v>
+        <v>1.071</v>
       </c>
       <c r="L1179">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="M1179">
-        <v>2.75</v>
+        <v>34</v>
       </c>
       <c r="N1179">
-        <v>2.9</v>
+        <v>1.083</v>
       </c>
       <c r="O1179">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="P1179">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="Q1179">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="R1179">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="S1179">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="T1179">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U1179">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V1179">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="W1179">
-        <v>1.9</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X1179">
         <v>-1</v>
@@ -105471,16 +105471,16 @@
         <v>-1</v>
       </c>
       <c r="Z1179">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA1179">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB1179">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1179">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="1180" spans="1:29">
@@ -106862,19 +106862,19 @@
         <v>1.25</v>
       </c>
       <c r="R1195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S1195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T1195">
         <v>2.75</v>
       </c>
       <c r="U1195">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V1195">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106924,31 +106924,31 @@
         <v>2.75</v>
       </c>
       <c r="N1196">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O1196">
         <v>3.25</v>
       </c>
       <c r="P1196">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q1196">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1196">
+        <v>1.78</v>
+      </c>
+      <c r="S1196">
         <v>2.125</v>
-      </c>
-      <c r="S1196">
-        <v>1.78</v>
       </c>
       <c r="T1196">
         <v>2.5</v>
       </c>
       <c r="U1196">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V1196">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -106998,22 +106998,22 @@
         <v>1.571</v>
       </c>
       <c r="N1197">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="O1197">
         <v>4.333</v>
       </c>
       <c r="P1197">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="Q1197">
         <v>0.75</v>
       </c>
       <c r="R1197">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S1197">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T1197">
         <v>3</v>
@@ -107072,22 +107072,22 @@
         <v>6.5</v>
       </c>
       <c r="N1198">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O1198">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P1198">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q1198">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1198">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="S1198">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="T1198">
         <v>2.25</v>
@@ -107146,31 +107146,31 @@
         <v>2.875</v>
       </c>
       <c r="N1199">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O1199">
         <v>4</v>
       </c>
       <c r="P1199">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q1199">
         <v>-0.5</v>
       </c>
       <c r="R1199">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S1199">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T1199">
         <v>3</v>
       </c>
       <c r="U1199">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V1199">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107232,10 +107232,10 @@
         <v>-0.75</v>
       </c>
       <c r="R1200">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S1200">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T1200">
         <v>3</v>
@@ -107306,19 +107306,19 @@
         <v>-2.5</v>
       </c>
       <c r="R1201">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="S1201">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="T1201">
         <v>3.5</v>
       </c>
       <c r="U1201">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V1201">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107380,19 +107380,19 @@
         <v>-1</v>
       </c>
       <c r="R1202">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S1202">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T1202">
         <v>3.25</v>
       </c>
       <c r="U1202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V1202">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107454,10 +107454,10 @@
         <v>0</v>
       </c>
       <c r="R1203">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S1203">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T1203">
         <v>2.75</v>
@@ -107528,19 +107528,19 @@
         <v>0</v>
       </c>
       <c r="R1204">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S1204">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T1204">
         <v>2.75</v>
       </c>
       <c r="U1204">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V1204">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107933,7 +107933,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>6778066</v>
+        <v>6777780</v>
       </c>
       <c r="C1210" t="s">
         <v>28</v>
@@ -107945,46 +107945,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1210" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G1210" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K1210">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L1210">
         <v>4</v>
       </c>
       <c r="M1210">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N1210">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O1210">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P1210">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q1210">
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="S1210">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="T1210">
         <v>2.75</v>
       </c>
       <c r="U1210">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V1210">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108081,7 +108081,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>6777780</v>
+        <v>6778066</v>
       </c>
       <c r="C1212" t="s">
         <v>28</v>
@@ -108093,46 +108093,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1212" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G1212" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1212">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L1212">
         <v>4</v>
       </c>
       <c r="M1212">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N1212">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O1212">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1212">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q1212">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1212">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="S1212">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="T1212">
         <v>2.75</v>
       </c>
       <c r="U1212">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V1212">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W1212">
         <v>0</v>
@@ -108277,10 +108277,10 @@
         <v>3</v>
       </c>
       <c r="U1214">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V1214">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W1214">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -54847,7 +54847,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5164184</v>
+        <v>5164183</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54859,58 +54859,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F611" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G611" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H611">
         <v>2</v>
       </c>
       <c r="I611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J611" t="s">
         <v>56</v>
       </c>
       <c r="K611">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L611">
         <v>3.5</v>
       </c>
       <c r="M611">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N611">
-        <v>2.375</v>
+        <v>3.9</v>
       </c>
       <c r="O611">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P611">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q611">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R611">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S611">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T611">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U611">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V611">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W611">
-        <v>1.375</v>
+        <v>2.9</v>
       </c>
       <c r="X611">
         <v>-1</v>
@@ -54919,16 +54919,16 @@
         <v>-1</v>
       </c>
       <c r="Z611">
-        <v>1.09</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA611">
         <v>-1</v>
       </c>
       <c r="AB611">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC611">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -54936,7 +54936,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>5164183</v>
+        <v>5164184</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54948,58 +54948,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F612" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G612" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H612">
         <v>2</v>
       </c>
       <c r="I612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J612" t="s">
         <v>56</v>
       </c>
       <c r="K612">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L612">
         <v>3.5</v>
       </c>
       <c r="M612">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N612">
-        <v>3.9</v>
+        <v>2.375</v>
       </c>
       <c r="O612">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P612">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q612">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R612">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="S612">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T612">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U612">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V612">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W612">
-        <v>2.9</v>
+        <v>1.375</v>
       </c>
       <c r="X612">
         <v>-1</v>
@@ -55008,16 +55008,16 @@
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>0.8999999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AA612">
         <v>-1</v>
       </c>
       <c r="AB612">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AC612">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -57339,7 +57339,7 @@
         <v>637</v>
       </c>
       <c r="B639">
-        <v>5164808</v>
+        <v>5164805</v>
       </c>
       <c r="C639" t="s">
         <v>28</v>
@@ -57351,58 +57351,58 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F639" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G639" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H639">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I639">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J639" t="s">
         <v>56</v>
       </c>
       <c r="K639">
-        <v>1.1</v>
+        <v>1.85</v>
       </c>
       <c r="L639">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="M639">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N639">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="O639">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P639">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="Q639">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R639">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S639">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T639">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U639">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V639">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W639">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="X639">
         <v>-1</v>
@@ -57411,16 +57411,16 @@
         <v>-1</v>
       </c>
       <c r="Z639">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA639">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB639">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC639">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="640" spans="1:29">
@@ -57428,7 +57428,7 @@
         <v>638</v>
       </c>
       <c r="B640">
-        <v>5164805</v>
+        <v>5164808</v>
       </c>
       <c r="C640" t="s">
         <v>28</v>
@@ -57440,58 +57440,58 @@
         <v>44800.45833333334</v>
       </c>
       <c r="F640" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G640" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I640">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J640" t="s">
         <v>56</v>
       </c>
       <c r="K640">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L640">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="M640">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N640">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="O640">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P640">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q640">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R640">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S640">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T640">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U640">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V640">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W640">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="X640">
         <v>-1</v>
@@ -57500,16 +57500,16 @@
         <v>-1</v>
       </c>
       <c r="Z640">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA640">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB640">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC640">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641" spans="1:29">
@@ -58051,7 +58051,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5164813</v>
+        <v>5164817</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58063,76 +58063,76 @@
         <v>44803.64583333334</v>
       </c>
       <c r="F647" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G647" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I647">
         <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K647">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L647">
         <v>3.3</v>
       </c>
       <c r="M647">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N647">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O647">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P647">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q647">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R647">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S647">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="T647">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U647">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V647">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W647">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X647">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y647">
         <v>-1</v>
       </c>
       <c r="Z647">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA647">
-        <v>-1</v>
+        <v>0.54</v>
       </c>
       <c r="AB647">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC647">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58140,7 +58140,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>5164817</v>
+        <v>5164813</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58152,76 +58152,76 @@
         <v>44803.64583333334</v>
       </c>
       <c r="F648" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G648" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648">
         <v>1</v>
       </c>
       <c r="J648" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K648">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L648">
         <v>3.3</v>
       </c>
       <c r="M648">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N648">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O648">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P648">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q648">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R648">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="S648">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T648">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U648">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V648">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W648">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X648">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y648">
         <v>-1</v>
       </c>
       <c r="Z648">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA648">
-        <v>0.54</v>
+        <v>-1</v>
       </c>
       <c r="AB648">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC648">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -59208,7 +59208,7 @@
         <v>658</v>
       </c>
       <c r="B660">
-        <v>5164826</v>
+        <v>5164827</v>
       </c>
       <c r="C660" t="s">
         <v>28</v>
@@ -59220,76 +59220,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F660" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G660" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H660">
+        <v>2</v>
+      </c>
+      <c r="I660">
+        <v>1</v>
+      </c>
+      <c r="J660" t="s">
+        <v>56</v>
+      </c>
+      <c r="K660">
+        <v>1.4</v>
+      </c>
+      <c r="L660">
+        <v>4.75</v>
+      </c>
+      <c r="M660">
+        <v>7</v>
+      </c>
+      <c r="N660">
+        <v>1.5</v>
+      </c>
+      <c r="O660">
+        <v>4.333</v>
+      </c>
+      <c r="P660">
+        <v>6.5</v>
+      </c>
+      <c r="Q660">
+        <v>-1</v>
+      </c>
+      <c r="R660">
+        <v>1.84</v>
+      </c>
+      <c r="S660">
+        <v>2.06</v>
+      </c>
+      <c r="T660">
+        <v>3</v>
+      </c>
+      <c r="U660">
+        <v>1.98</v>
+      </c>
+      <c r="V660">
+        <v>1.92</v>
+      </c>
+      <c r="W660">
+        <v>0.5</v>
+      </c>
+      <c r="X660">
+        <v>-1</v>
+      </c>
+      <c r="Y660">
+        <v>-1</v>
+      </c>
+      <c r="Z660">
         <v>0</v>
       </c>
-      <c r="I660">
+      <c r="AA660">
+        <v>-0</v>
+      </c>
+      <c r="AB660">
         <v>0</v>
       </c>
-      <c r="J660" t="s">
-        <v>57</v>
-      </c>
-      <c r="K660">
-        <v>1.85</v>
-      </c>
-      <c r="L660">
-        <v>3.5</v>
-      </c>
-      <c r="M660">
-        <v>4.2</v>
-      </c>
-      <c r="N660">
-        <v>2.1</v>
-      </c>
-      <c r="O660">
-        <v>3.5</v>
-      </c>
-      <c r="P660">
-        <v>3.6</v>
-      </c>
-      <c r="Q660">
-        <v>-0.5</v>
-      </c>
-      <c r="R660">
-        <v>2.09</v>
-      </c>
-      <c r="S660">
-        <v>1.81</v>
-      </c>
-      <c r="T660">
-        <v>2.25</v>
-      </c>
-      <c r="U660">
-        <v>1.88</v>
-      </c>
-      <c r="V660">
-        <v>2.02</v>
-      </c>
-      <c r="W660">
-        <v>-1</v>
-      </c>
-      <c r="X660">
-        <v>2.5</v>
-      </c>
-      <c r="Y660">
-        <v>-1</v>
-      </c>
-      <c r="Z660">
-        <v>-1</v>
-      </c>
-      <c r="AA660">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AB660">
-        <v>-1</v>
-      </c>
       <c r="AC660">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="661" spans="1:29">
@@ -59297,7 +59297,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5164827</v>
+        <v>5164828</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59309,58 +59309,58 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F661" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G661" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J661" t="s">
         <v>56</v>
       </c>
       <c r="K661">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L661">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M661">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="N661">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O661">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P661">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q661">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R661">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S661">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T661">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U661">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V661">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W661">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X661">
         <v>-1</v>
@@ -59369,16 +59369,16 @@
         <v>-1</v>
       </c>
       <c r="Z661">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA661">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB661">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC661">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="662" spans="1:29">
@@ -59386,7 +59386,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5164828</v>
+        <v>5544230</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59398,58 +59398,58 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F662" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G662" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H662">
+        <v>2</v>
+      </c>
+      <c r="I662">
         <v>1</v>
-      </c>
-      <c r="I662">
-        <v>0</v>
       </c>
       <c r="J662" t="s">
         <v>56</v>
       </c>
       <c r="K662">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L662">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M662">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N662">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O662">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P662">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q662">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R662">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S662">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="T662">
         <v>2.5</v>
       </c>
       <c r="U662">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="V662">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="W662">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X662">
         <v>-1</v>
@@ -59458,16 +59458,16 @@
         <v>-1</v>
       </c>
       <c r="Z662">
-        <v>0.8899999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA662">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB662">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC662">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="663" spans="1:29">
@@ -59475,7 +59475,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5544230</v>
+        <v>5164826</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59487,76 +59487,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F663" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G663" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K663">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L663">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M663">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N663">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O663">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P663">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q663">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R663">
+        <v>2.09</v>
+      </c>
+      <c r="S663">
+        <v>1.81</v>
+      </c>
+      <c r="T663">
+        <v>2.25</v>
+      </c>
+      <c r="U663">
         <v>1.88</v>
       </c>
-      <c r="S663">
+      <c r="V663">
         <v>2.02</v>
       </c>
-      <c r="T663">
+      <c r="W663">
+        <v>-1</v>
+      </c>
+      <c r="X663">
         <v>2.5</v>
       </c>
-      <c r="U663">
-        <v>1.93</v>
-      </c>
-      <c r="V663">
-        <v>1.97</v>
-      </c>
-      <c r="W663">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X663">
-        <v>-1</v>
-      </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB663">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -63391,7 +63391,7 @@
         <v>705</v>
       </c>
       <c r="B707">
-        <v>5164881</v>
+        <v>5164876</v>
       </c>
       <c r="C707" t="s">
         <v>28</v>
@@ -63403,76 +63403,76 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F707" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G707" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707">
         <v>0</v>
       </c>
       <c r="J707" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K707">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="L707">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M707">
-        <v>6.5</v>
+        <v>1.65</v>
       </c>
       <c r="N707">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="O707">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="P707">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q707">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R707">
+        <v>2.03</v>
+      </c>
+      <c r="S707">
+        <v>1.87</v>
+      </c>
+      <c r="T707">
+        <v>2.5</v>
+      </c>
+      <c r="U707">
+        <v>1.97</v>
+      </c>
+      <c r="V707">
         <v>1.93</v>
       </c>
-      <c r="S707">
-        <v>1.97</v>
-      </c>
-      <c r="T707">
-        <v>3</v>
-      </c>
-      <c r="U707">
-        <v>1.92</v>
-      </c>
-      <c r="V707">
-        <v>1.98</v>
-      </c>
       <c r="W707">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X707">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y707">
         <v>-1</v>
       </c>
       <c r="Z707">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AA707">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
       <c r="AB707">
         <v>-1</v>
       </c>
       <c r="AC707">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="708" spans="1:29">
@@ -63480,7 +63480,7 @@
         <v>706</v>
       </c>
       <c r="B708">
-        <v>5164876</v>
+        <v>5164881</v>
       </c>
       <c r="C708" t="s">
         <v>28</v>
@@ -63492,76 +63492,76 @@
         <v>44853.64583333334</v>
       </c>
       <c r="F708" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G708" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I708">
         <v>0</v>
       </c>
       <c r="J708" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K708">
+        <v>1.444</v>
+      </c>
+      <c r="L708">
+        <v>4.75</v>
+      </c>
+      <c r="M708">
+        <v>6.5</v>
+      </c>
+      <c r="N708">
+        <v>1.4</v>
+      </c>
+      <c r="O708">
         <v>5</v>
       </c>
-      <c r="L708">
-        <v>3.8</v>
-      </c>
-      <c r="M708">
-        <v>1.65</v>
-      </c>
-      <c r="N708">
-        <v>4</v>
-      </c>
-      <c r="O708">
-        <v>3.75</v>
-      </c>
       <c r="P708">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q708">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R708">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S708">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="T708">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U708">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V708">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W708">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X708">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y708">
         <v>-1</v>
       </c>
       <c r="Z708">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AA708">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AB708">
         <v>-1</v>
       </c>
       <c r="AC708">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="709" spans="1:29">
@@ -64993,7 +64993,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>5164894</v>
+        <v>5164893</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65005,76 +65005,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F725" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G725" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I725">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J725" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K725">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L725">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M725">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N725">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O725">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P725">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q725">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R725">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S725">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="T725">
         <v>2.5</v>
       </c>
       <c r="U725">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V725">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W725">
         <v>-1</v>
       </c>
       <c r="X725">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y725">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z725">
         <v>-0.5</v>
       </c>
       <c r="AA725">
-        <v>0.5049999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="AB725">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC725">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="726" spans="1:29">
@@ -65082,7 +65082,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>5164893</v>
+        <v>5164894</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65094,76 +65094,76 @@
         <v>44863.45833333334</v>
       </c>
       <c r="F726" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G726" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I726">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J726" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K726">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L726">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M726">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N726">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O726">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P726">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q726">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R726">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="S726">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="T726">
         <v>2.5</v>
       </c>
       <c r="U726">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V726">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W726">
         <v>-1</v>
       </c>
       <c r="X726">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y726">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z726">
         <v>-0.5</v>
       </c>
       <c r="AA726">
-        <v>0.485</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AB726">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC726">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="727" spans="1:29">
@@ -65705,7 +65705,7 @@
         <v>731</v>
       </c>
       <c r="B733">
-        <v>5164905</v>
+        <v>5164906</v>
       </c>
       <c r="C733" t="s">
         <v>28</v>
@@ -65717,58 +65717,58 @@
         <v>44870.5</v>
       </c>
       <c r="F733" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G733" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H733">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I733">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J733" t="s">
         <v>56</v>
       </c>
       <c r="K733">
-        <v>1.833</v>
+        <v>1.111</v>
       </c>
       <c r="L733">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M733">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N733">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O733">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P733">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="Q733">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R733">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S733">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T733">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U733">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V733">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W733">
-        <v>0.615</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X733">
         <v>-1</v>
@@ -65777,16 +65777,16 @@
         <v>-1</v>
       </c>
       <c r="Z733">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA733">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB733">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC733">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="734" spans="1:29">
@@ -65794,7 +65794,7 @@
         <v>732</v>
       </c>
       <c r="B734">
-        <v>5164625</v>
+        <v>5164905</v>
       </c>
       <c r="C734" t="s">
         <v>28</v>
@@ -65806,61 +65806,61 @@
         <v>44870.5</v>
       </c>
       <c r="F734" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G734" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I734">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J734" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K734">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L734">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M734">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N734">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="O734">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P734">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q734">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R734">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S734">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T734">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U734">
+        <v>1.91</v>
+      </c>
+      <c r="V734">
         <v>1.99</v>
       </c>
-      <c r="V734">
-        <v>1.91</v>
-      </c>
       <c r="W734">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X734">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y734">
         <v>-1</v>
@@ -65872,7 +65872,7 @@
         <v>-0</v>
       </c>
       <c r="AB734">
-        <v>0.99</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC734">
         <v>-1</v>
@@ -65883,7 +65883,7 @@
         <v>733</v>
       </c>
       <c r="B735">
-        <v>5164906</v>
+        <v>5164625</v>
       </c>
       <c r="C735" t="s">
         <v>28</v>
@@ -65895,76 +65895,76 @@
         <v>44870.5</v>
       </c>
       <c r="F735" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G735" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H735">
         <v>2</v>
       </c>
       <c r="I735">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J735" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K735">
-        <v>1.111</v>
+        <v>2.9</v>
       </c>
       <c r="L735">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="M735">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="N735">
-        <v>1.166</v>
+        <v>2.625</v>
       </c>
       <c r="O735">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P735">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="Q735">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R735">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S735">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T735">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U735">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V735">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W735">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X735">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y735">
         <v>-1</v>
       </c>
       <c r="Z735">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA735">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB735">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AC735">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="736" spans="1:29">
@@ -66862,7 +66862,7 @@
         <v>744</v>
       </c>
       <c r="B746">
-        <v>5164914</v>
+        <v>5164911</v>
       </c>
       <c r="C746" t="s">
         <v>28</v>
@@ -66874,58 +66874,58 @@
         <v>44877.5</v>
       </c>
       <c r="F746" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G746" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H746">
         <v>3</v>
       </c>
       <c r="I746">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J746" t="s">
         <v>56</v>
       </c>
       <c r="K746">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="L746">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M746">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="N746">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="O746">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P746">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q746">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R746">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S746">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T746">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U746">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V746">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="W746">
-        <v>0.2849999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X746">
         <v>-1</v>
@@ -66934,13 +66934,13 @@
         <v>-1</v>
       </c>
       <c r="Z746">
-        <v>0.475</v>
+        <v>1.01</v>
       </c>
       <c r="AA746">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB746">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="AC746">
         <v>-1</v>
@@ -66951,7 +66951,7 @@
         <v>745</v>
       </c>
       <c r="B747">
-        <v>5164911</v>
+        <v>5164624</v>
       </c>
       <c r="C747" t="s">
         <v>28</v>
@@ -66963,13 +66963,13 @@
         <v>44877.5</v>
       </c>
       <c r="F747" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G747" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H747">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I747">
         <v>0</v>
@@ -66978,43 +66978,43 @@
         <v>56</v>
       </c>
       <c r="K747">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="L747">
+        <v>3.2</v>
+      </c>
+      <c r="M747">
+        <v>2.3</v>
+      </c>
+      <c r="N747">
         <v>3.3</v>
       </c>
-      <c r="M747">
-        <v>2.6</v>
-      </c>
-      <c r="N747">
-        <v>2.75</v>
-      </c>
       <c r="O747">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P747">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q747">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R747">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="S747">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T747">
         <v>2.25</v>
       </c>
       <c r="U747">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V747">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W747">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="X747">
         <v>-1</v>
@@ -67023,16 +67023,16 @@
         <v>-1</v>
       </c>
       <c r="Z747">
-        <v>1.01</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA747">
         <v>-1</v>
       </c>
       <c r="AB747">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AC747">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="748" spans="1:29">
@@ -67040,7 +67040,7 @@
         <v>746</v>
       </c>
       <c r="B748">
-        <v>5164624</v>
+        <v>5164914</v>
       </c>
       <c r="C748" t="s">
         <v>28</v>
@@ -67052,58 +67052,58 @@
         <v>44877.5</v>
       </c>
       <c r="F748" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G748" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H748">
+        <v>3</v>
+      </c>
+      <c r="I748">
         <v>1</v>
-      </c>
-      <c r="I748">
-        <v>0</v>
       </c>
       <c r="J748" t="s">
         <v>56</v>
       </c>
       <c r="K748">
-        <v>3.2</v>
+        <v>1.25</v>
       </c>
       <c r="L748">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="M748">
-        <v>2.3</v>
+        <v>8.5</v>
       </c>
       <c r="N748">
-        <v>3.3</v>
+        <v>1.285</v>
       </c>
       <c r="O748">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P748">
-        <v>2.3</v>
+        <v>9</v>
       </c>
       <c r="Q748">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R748">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S748">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T748">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U748">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V748">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W748">
-        <v>2.3</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X748">
         <v>-1</v>
@@ -67112,16 +67112,16 @@
         <v>-1</v>
       </c>
       <c r="Z748">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA748">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB748">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AC748">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="749" spans="1:29">
@@ -67574,7 +67574,7 @@
         <v>752</v>
       </c>
       <c r="B754">
-        <v>5164925</v>
+        <v>5164928</v>
       </c>
       <c r="C754" t="s">
         <v>28</v>
@@ -67586,55 +67586,55 @@
         <v>44921.5</v>
       </c>
       <c r="F754" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G754" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H754">
         <v>1</v>
       </c>
       <c r="I754">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J754" t="s">
         <v>55</v>
       </c>
       <c r="K754">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L754">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M754">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N754">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O754">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P754">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="Q754">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R754">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="S754">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="T754">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U754">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V754">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W754">
         <v>-1</v>
@@ -67643,16 +67643,16 @@
         <v>-1</v>
       </c>
       <c r="Y754">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="Z754">
         <v>-1</v>
       </c>
       <c r="AA754">
-        <v>1.14</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB754">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC754">
         <v>-1</v>
@@ -67663,7 +67663,7 @@
         <v>753</v>
       </c>
       <c r="B755">
-        <v>5164924</v>
+        <v>5164927</v>
       </c>
       <c r="C755" t="s">
         <v>28</v>
@@ -67675,10 +67675,10 @@
         <v>44921.5</v>
       </c>
       <c r="F755" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G755" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H755">
         <v>0</v>
@@ -67690,31 +67690,31 @@
         <v>55</v>
       </c>
       <c r="K755">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L755">
         <v>3.4</v>
       </c>
       <c r="M755">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N755">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="O755">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P755">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q755">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R755">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="S755">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="T755">
         <v>2.5</v>
@@ -67732,13 +67732,13 @@
         <v>-1</v>
       </c>
       <c r="Y755">
-        <v>2.1</v>
+        <v>1.15</v>
       </c>
       <c r="Z755">
         <v>-1</v>
       </c>
       <c r="AA755">
-        <v>0.9399999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB755">
         <v>0.98</v>
@@ -67752,7 +67752,7 @@
         <v>754</v>
       </c>
       <c r="B756">
-        <v>5164927</v>
+        <v>5164925</v>
       </c>
       <c r="C756" t="s">
         <v>28</v>
@@ -67764,55 +67764,55 @@
         <v>44921.5</v>
       </c>
       <c r="F756" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G756" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I756">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J756" t="s">
         <v>55</v>
       </c>
       <c r="K756">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="L756">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M756">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="N756">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="O756">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P756">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q756">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R756">
-        <v>2.01</v>
+        <v>1.77</v>
       </c>
       <c r="S756">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="T756">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U756">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V756">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W756">
         <v>-1</v>
@@ -67821,16 +67821,16 @@
         <v>-1</v>
       </c>
       <c r="Y756">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="Z756">
         <v>-1</v>
       </c>
       <c r="AA756">
-        <v>0.8899999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AB756">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AC756">
         <v>-1</v>
@@ -67841,7 +67841,7 @@
         <v>755</v>
       </c>
       <c r="B757">
-        <v>5164928</v>
+        <v>5164924</v>
       </c>
       <c r="C757" t="s">
         <v>28</v>
@@ -67853,13 +67853,13 @@
         <v>44921.5</v>
       </c>
       <c r="F757" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G757" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H757">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757">
         <v>3</v>
@@ -67868,40 +67868,40 @@
         <v>55</v>
       </c>
       <c r="K757">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L757">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M757">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N757">
+        <v>2.2</v>
+      </c>
+      <c r="O757">
         <v>3.6</v>
       </c>
-      <c r="O757">
-        <v>3.4</v>
-      </c>
       <c r="P757">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q757">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R757">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="S757">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="T757">
         <v>2.5</v>
       </c>
       <c r="U757">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="V757">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="W757">
         <v>-1</v>
@@ -67910,16 +67910,16 @@
         <v>-1</v>
       </c>
       <c r="Y757">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z757">
         <v>-1</v>
       </c>
       <c r="AA757">
-        <v>0.8300000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB757">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="AC757">
         <v>-1</v>
@@ -68642,7 +68642,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>5164933</v>
+        <v>5164931</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68654,76 +68654,76 @@
         <v>44926.5</v>
       </c>
       <c r="F766" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G766" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I766">
         <v>1</v>
       </c>
       <c r="J766" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K766">
-        <v>1.125</v>
+        <v>2.05</v>
       </c>
       <c r="L766">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="M766">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="N766">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="O766">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="P766">
-        <v>19</v>
+        <v>4.2</v>
       </c>
       <c r="Q766">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R766">
+        <v>2.06</v>
+      </c>
+      <c r="S766">
+        <v>1.84</v>
+      </c>
+      <c r="T766">
+        <v>2.75</v>
+      </c>
+      <c r="U766">
+        <v>2</v>
+      </c>
+      <c r="V766">
         <v>1.9</v>
       </c>
-      <c r="S766">
-        <v>2</v>
-      </c>
-      <c r="T766">
-        <v>3.5</v>
-      </c>
-      <c r="U766">
-        <v>1.95</v>
-      </c>
-      <c r="V766">
-        <v>1.95</v>
-      </c>
       <c r="W766">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X766">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Y766">
         <v>-1</v>
       </c>
       <c r="Z766">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
       <c r="AA766">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB766">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC766">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="767" spans="1:29">
@@ -68731,7 +68731,7 @@
         <v>765</v>
       </c>
       <c r="B767">
-        <v>5164931</v>
+        <v>5164933</v>
       </c>
       <c r="C767" t="s">
         <v>28</v>
@@ -68743,76 +68743,76 @@
         <v>44926.5</v>
       </c>
       <c r="F767" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G767" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767">
         <v>1</v>
       </c>
       <c r="J767" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K767">
-        <v>2.05</v>
+        <v>1.125</v>
       </c>
       <c r="L767">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M767">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="N767">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="O767">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P767">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="Q767">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R767">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="S767">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="T767">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U767">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V767">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W767">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X767">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Y767">
         <v>-1</v>
       </c>
       <c r="Z767">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
       <c r="AA767">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB767">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC767">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="768" spans="1:29">
@@ -69354,7 +69354,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>5164945</v>
+        <v>5164938</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69366,76 +69366,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F774" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G774" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H774">
         <v>0</v>
       </c>
       <c r="I774">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J774" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K774">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L774">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M774">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N774">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O774">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P774">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q774">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R774">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S774">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="T774">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U774">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V774">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="W774">
         <v>-1</v>
       </c>
       <c r="X774">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y774">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z774">
         <v>-1</v>
       </c>
       <c r="AA774">
-        <v>0.8799999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB774">
         <v>-1</v>
       </c>
       <c r="AC774">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69443,7 +69443,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5164943</v>
+        <v>5164945</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69455,56 +69455,56 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F775" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G775" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H775">
+        <v>0</v>
+      </c>
+      <c r="I775">
         <v>1</v>
-      </c>
-      <c r="I775">
-        <v>4</v>
       </c>
       <c r="J775" t="s">
         <v>55</v>
       </c>
       <c r="K775">
+        <v>2.1</v>
+      </c>
+      <c r="L775">
         <v>3.6</v>
       </c>
-      <c r="L775">
+      <c r="M775">
+        <v>3.2</v>
+      </c>
+      <c r="N775">
+        <v>2.3</v>
+      </c>
+      <c r="O775">
         <v>3.5</v>
       </c>
-      <c r="M775">
-        <v>2</v>
-      </c>
-      <c r="N775">
-        <v>3.2</v>
-      </c>
-      <c r="O775">
-        <v>3.3</v>
-      </c>
       <c r="P775">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q775">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R775">
+        <v>2.05</v>
+      </c>
+      <c r="S775">
+        <v>1.88</v>
+      </c>
+      <c r="T775">
+        <v>2.75</v>
+      </c>
+      <c r="U775">
         <v>1.85</v>
       </c>
-      <c r="S775">
+      <c r="V775">
         <v>2.05</v>
       </c>
-      <c r="T775">
-        <v>2.25</v>
-      </c>
-      <c r="U775">
-        <v>1.92</v>
-      </c>
-      <c r="V775">
-        <v>1.98</v>
-      </c>
       <c r="W775">
         <v>-1</v>
       </c>
@@ -69512,19 +69512,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>1.375</v>
+        <v>1.9</v>
       </c>
       <c r="Z775">
         <v>-1</v>
       </c>
       <c r="AA775">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB775">
+        <v>-1</v>
+      </c>
+      <c r="AC775">
         <v>1.05</v>
-      </c>
-      <c r="AB775">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="AC775">
-        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69532,7 +69532,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5164938</v>
+        <v>5164943</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69544,76 +69544,76 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F776" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G776" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I776">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J776" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K776">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="L776">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M776">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N776">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O776">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P776">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q776">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R776">
+        <v>1.85</v>
+      </c>
+      <c r="S776">
+        <v>2.05</v>
+      </c>
+      <c r="T776">
+        <v>2.25</v>
+      </c>
+      <c r="U776">
+        <v>1.92</v>
+      </c>
+      <c r="V776">
         <v>1.98</v>
       </c>
-      <c r="S776">
-        <v>1.92</v>
-      </c>
-      <c r="T776">
-        <v>2.5</v>
-      </c>
-      <c r="U776">
-        <v>1.91</v>
-      </c>
-      <c r="V776">
-        <v>1.99</v>
-      </c>
       <c r="W776">
         <v>-1</v>
       </c>
       <c r="X776">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y776">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
+        <v>1.05</v>
+      </c>
+      <c r="AB776">
         <v>0.9199999999999999</v>
       </c>
-      <c r="AB776">
-        <v>-1</v>
-      </c>
       <c r="AC776">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5164953</v>
+        <v>5164950</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,10 +70879,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G791" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H791">
         <v>1</v>
@@ -70894,43 +70894,43 @@
         <v>56</v>
       </c>
       <c r="K791">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L791">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M791">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="N791">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O791">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P791">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q791">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R791">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="S791">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T791">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U791">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V791">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W791">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X791">
         <v>-1</v>
@@ -70939,16 +70939,16 @@
         <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA791">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB791">
         <v>-1</v>
       </c>
       <c r="AC791">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70956,7 +70956,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5164950</v>
+        <v>5164953</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70968,10 +70968,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G792" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H792">
         <v>1</v>
@@ -70983,61 +70983,61 @@
         <v>56</v>
       </c>
       <c r="K792">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L792">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M792">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="N792">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O792">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P792">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q792">
+        <v>-1.25</v>
+      </c>
+      <c r="R792">
+        <v>2.08</v>
+      </c>
+      <c r="S792">
+        <v>1.82</v>
+      </c>
+      <c r="T792">
+        <v>2.75</v>
+      </c>
+      <c r="U792">
+        <v>1.91</v>
+      </c>
+      <c r="V792">
+        <v>1.99</v>
+      </c>
+      <c r="W792">
+        <v>0.5</v>
+      </c>
+      <c r="X792">
+        <v>-1</v>
+      </c>
+      <c r="Y792">
+        <v>-1</v>
+      </c>
+      <c r="Z792">
         <v>-0.5</v>
       </c>
-      <c r="R792">
-        <v>1.89</v>
-      </c>
-      <c r="S792">
-        <v>2.04</v>
-      </c>
-      <c r="T792">
-        <v>2.25</v>
-      </c>
-      <c r="U792">
-        <v>2</v>
-      </c>
-      <c r="V792">
-        <v>1.9</v>
-      </c>
-      <c r="W792">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X792">
-        <v>-1</v>
-      </c>
-      <c r="Y792">
-        <v>-1</v>
-      </c>
-      <c r="Z792">
-        <v>0.8899999999999999</v>
-      </c>
       <c r="AA792">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB792">
         <v>-1</v>
       </c>
       <c r="AC792">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -72647,7 +72647,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>5164973</v>
+        <v>5164970</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72659,58 +72659,58 @@
         <v>44961.5</v>
       </c>
       <c r="F811" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G811" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H811">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
         <v>56</v>
       </c>
       <c r="K811">
+        <v>1.444</v>
+      </c>
+      <c r="L811">
         <v>4.333</v>
       </c>
-      <c r="L811">
-        <v>3.75</v>
-      </c>
       <c r="M811">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N811">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O811">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P811">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="Q811">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R811">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S811">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T811">
         <v>2.75</v>
       </c>
       <c r="U811">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V811">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W811">
-        <v>2.8</v>
+        <v>0.363</v>
       </c>
       <c r="X811">
         <v>-1</v>
@@ -72719,13 +72719,13 @@
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA811">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB811">
-        <v>0.5249999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AC811">
         <v>-0.5</v>
@@ -72736,7 +72736,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5164970</v>
+        <v>5164973</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72748,58 +72748,58 @@
         <v>44961.5</v>
       </c>
       <c r="F812" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G812" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I812">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J812" t="s">
         <v>56</v>
       </c>
       <c r="K812">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="L812">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M812">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N812">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O812">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P812">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q812">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R812">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S812">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T812">
         <v>2.75</v>
       </c>
       <c r="U812">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V812">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="W812">
-        <v>0.363</v>
+        <v>2.8</v>
       </c>
       <c r="X812">
         <v>-1</v>
@@ -72808,13 +72808,13 @@
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA812">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>0.49</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC812">
         <v>-0.5</v>
@@ -73359,7 +73359,7 @@
         <v>817</v>
       </c>
       <c r="B819">
-        <v>5164617</v>
+        <v>5164978</v>
       </c>
       <c r="C819" t="s">
         <v>28</v>
@@ -73371,58 +73371,58 @@
         <v>44968.5</v>
       </c>
       <c r="F819" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G819" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I819">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J819" t="s">
         <v>56</v>
       </c>
       <c r="K819">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L819">
         <v>3.4</v>
       </c>
       <c r="M819">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N819">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O819">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P819">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q819">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R819">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="S819">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="T819">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U819">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V819">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W819">
-        <v>0.909</v>
+        <v>2.5</v>
       </c>
       <c r="X819">
         <v>-1</v>
@@ -73431,16 +73431,16 @@
         <v>-1</v>
       </c>
       <c r="Z819">
-        <v>0.97</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA819">
         <v>-1</v>
       </c>
       <c r="AB819">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC819">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="820" spans="1:29">
@@ -73448,7 +73448,7 @@
         <v>818</v>
       </c>
       <c r="B820">
-        <v>5164975</v>
+        <v>5164617</v>
       </c>
       <c r="C820" t="s">
         <v>28</v>
@@ -73460,76 +73460,76 @@
         <v>44968.5</v>
       </c>
       <c r="F820" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G820" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I820">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J820" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K820">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L820">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M820">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N820">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O820">
+        <v>3.5</v>
+      </c>
+      <c r="P820">
         <v>4.333</v>
       </c>
-      <c r="P820">
-        <v>6.5</v>
-      </c>
       <c r="Q820">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R820">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="S820">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="T820">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U820">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="V820">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="W820">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X820">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y820">
         <v>-1</v>
       </c>
       <c r="Z820">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA820">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB820">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC820">
-        <v>0.9099999999999999</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="821" spans="1:29">
@@ -73537,7 +73537,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>5164981</v>
+        <v>5164975</v>
       </c>
       <c r="C821" t="s">
         <v>28</v>
@@ -73549,76 +73549,76 @@
         <v>44968.5</v>
       </c>
       <c r="F821" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G821" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H821">
         <v>1</v>
       </c>
       <c r="I821">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J821" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K821">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L821">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M821">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N821">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="O821">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P821">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q821">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R821">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S821">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T821">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U821">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="V821">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W821">
         <v>-1</v>
       </c>
       <c r="X821">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y821">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z821">
         <v>-1</v>
       </c>
       <c r="AA821">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AB821">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC821">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="822" spans="1:29">
@@ -73626,7 +73626,7 @@
         <v>820</v>
       </c>
       <c r="B822">
-        <v>5164978</v>
+        <v>5164981</v>
       </c>
       <c r="C822" t="s">
         <v>28</v>
@@ -73638,73 +73638,73 @@
         <v>44968.5</v>
       </c>
       <c r="F822" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G822" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H822">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I822">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J822" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K822">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L822">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M822">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N822">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O822">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P822">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q822">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R822">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S822">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T822">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U822">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V822">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W822">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X822">
         <v>-1</v>
       </c>
       <c r="Y822">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z822">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA822">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB822">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC822">
         <v>-1</v>
@@ -74605,7 +74605,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>5164991</v>
+        <v>5164987</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74617,76 +74617,76 @@
         <v>44975.5</v>
       </c>
       <c r="F833" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G833" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H833">
+        <v>1</v>
+      </c>
+      <c r="I833">
         <v>0</v>
       </c>
-      <c r="I833">
-        <v>1</v>
-      </c>
       <c r="J833" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K833">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L833">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M833">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N833">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O833">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P833">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q833">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R833">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="S833">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="T833">
         <v>2.25</v>
       </c>
       <c r="U833">
-        <v>1.775</v>
+        <v>1.97</v>
       </c>
       <c r="V833">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="W833">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X833">
         <v>-1</v>
       </c>
       <c r="Y833">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z833">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA833">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB833">
         <v>-1</v>
       </c>
       <c r="AC833">
-        <v>1.025</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74694,7 +74694,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>5164987</v>
+        <v>5164991</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74706,76 +74706,76 @@
         <v>44975.5</v>
       </c>
       <c r="F834" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G834" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H834">
+        <v>0</v>
+      </c>
+      <c r="I834">
         <v>1</v>
       </c>
-      <c r="I834">
-        <v>0</v>
-      </c>
       <c r="J834" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K834">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L834">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M834">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N834">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O834">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P834">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q834">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R834">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S834">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="T834">
         <v>2.25</v>
       </c>
       <c r="U834">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="V834">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="W834">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X834">
         <v>-1</v>
       </c>
       <c r="Y834">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z834">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA834">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB834">
         <v>-1</v>
       </c>
       <c r="AC834">
-        <v>0.9299999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -80123,7 +80123,7 @@
         <v>893</v>
       </c>
       <c r="B895">
-        <v>5390857</v>
+        <v>5165033</v>
       </c>
       <c r="C895" t="s">
         <v>28</v>
@@ -80135,55 +80135,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F895" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G895" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H895">
+        <v>0</v>
+      </c>
+      <c r="I895">
         <v>1</v>
-      </c>
-      <c r="I895">
-        <v>2</v>
       </c>
       <c r="J895" t="s">
         <v>55</v>
       </c>
       <c r="K895">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L895">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M895">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N895">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O895">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P895">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q895">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R895">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S895">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T895">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U895">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V895">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W895">
         <v>-1</v>
@@ -80192,19 +80192,19 @@
         <v>-1</v>
       </c>
       <c r="Y895">
-        <v>0.909</v>
+        <v>2.75</v>
       </c>
       <c r="Z895">
         <v>-1</v>
       </c>
       <c r="AA895">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB895">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC895">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="896" spans="1:29">
@@ -80212,7 +80212,7 @@
         <v>894</v>
       </c>
       <c r="B896">
-        <v>5165033</v>
+        <v>5165032</v>
       </c>
       <c r="C896" t="s">
         <v>28</v>
@@ -80224,10 +80224,10 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F896" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G896" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H896">
         <v>0</v>
@@ -80239,40 +80239,40 @@
         <v>55</v>
       </c>
       <c r="K896">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="L896">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M896">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N896">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O896">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P896">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q896">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R896">
-        <v>2.09</v>
+        <v>2.125</v>
       </c>
       <c r="S896">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="T896">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U896">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V896">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W896">
         <v>-1</v>
@@ -80281,19 +80281,19 @@
         <v>-1</v>
       </c>
       <c r="Y896">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z896">
         <v>-1</v>
       </c>
       <c r="AA896">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="AB896">
         <v>-1</v>
       </c>
       <c r="AC896">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="897" spans="1:29">
@@ -80301,7 +80301,7 @@
         <v>895</v>
       </c>
       <c r="B897">
-        <v>5165032</v>
+        <v>5165034</v>
       </c>
       <c r="C897" t="s">
         <v>28</v>
@@ -80313,34 +80313,34 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F897" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G897" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897">
         <v>1</v>
       </c>
       <c r="J897" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K897">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="L897">
         <v>3.3</v>
       </c>
       <c r="M897">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N897">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O897">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P897">
         <v>2.5</v>
@@ -80349,40 +80349,40 @@
         <v>0</v>
       </c>
       <c r="R897">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S897">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="T897">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U897">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V897">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W897">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X897">
         <v>-1</v>
       </c>
       <c r="Y897">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z897">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA897">
-        <v>0.78</v>
+        <v>-1</v>
       </c>
       <c r="AB897">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC897">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="898" spans="1:29">
@@ -80390,7 +80390,7 @@
         <v>896</v>
       </c>
       <c r="B898">
-        <v>5165034</v>
+        <v>5165035</v>
       </c>
       <c r="C898" t="s">
         <v>28</v>
@@ -80402,58 +80402,58 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F898" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G898" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J898" t="s">
         <v>56</v>
       </c>
       <c r="K898">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="L898">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M898">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="N898">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O898">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P898">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q898">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R898">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S898">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="T898">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U898">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="V898">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="W898">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="X898">
         <v>-1</v>
@@ -80462,16 +80462,16 @@
         <v>-1</v>
       </c>
       <c r="Z898">
-        <v>1.05</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA898">
         <v>-1</v>
       </c>
       <c r="AB898">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC898">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="899" spans="1:29">
@@ -80479,7 +80479,7 @@
         <v>897</v>
       </c>
       <c r="B899">
-        <v>5165035</v>
+        <v>5390857</v>
       </c>
       <c r="C899" t="s">
         <v>28</v>
@@ -80491,76 +80491,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F899" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G899" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H899">
         <v>1</v>
       </c>
       <c r="I899">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J899" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K899">
+        <v>3.1</v>
+      </c>
+      <c r="L899">
+        <v>3.3</v>
+      </c>
+      <c r="M899">
+        <v>2.3</v>
+      </c>
+      <c r="N899">
         <v>4</v>
-      </c>
-      <c r="L899">
-        <v>3.4</v>
-      </c>
-      <c r="M899">
-        <v>1.95</v>
-      </c>
-      <c r="N899">
-        <v>4.75</v>
       </c>
       <c r="O899">
         <v>3.6</v>
       </c>
       <c r="P899">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q899">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R899">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S899">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T899">
         <v>2.25</v>
       </c>
       <c r="U899">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V899">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W899">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X899">
         <v>-1</v>
       </c>
       <c r="Y899">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z899">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA899">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AB899">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC899">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900" spans="1:29">
@@ -83772,7 +83772,7 @@
         <v>934</v>
       </c>
       <c r="B936">
-        <v>5554162</v>
+        <v>5559959</v>
       </c>
       <c r="C936" t="s">
         <v>28</v>
@@ -83784,58 +83784,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F936" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G936" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H936">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I936">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J936" t="s">
         <v>56</v>
       </c>
       <c r="K936">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="L936">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M936">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N936">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="O936">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P936">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="Q936">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R936">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S936">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T936">
         <v>3</v>
       </c>
       <c r="U936">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V936">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W936">
-        <v>0.25</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X936">
         <v>-1</v>
@@ -83844,16 +83844,16 @@
         <v>-1</v>
       </c>
       <c r="Z936">
-        <v>0.485</v>
+        <v>0.475</v>
       </c>
       <c r="AA936">
         <v>-0.5</v>
       </c>
       <c r="AB936">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC936">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="937" spans="1:29">
@@ -83861,7 +83861,7 @@
         <v>935</v>
       </c>
       <c r="B937">
-        <v>5559959</v>
+        <v>5554162</v>
       </c>
       <c r="C937" t="s">
         <v>28</v>
@@ -83873,58 +83873,58 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F937" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G937" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H937">
+        <v>3</v>
+      </c>
+      <c r="I937">
         <v>1</v>
-      </c>
-      <c r="I937">
-        <v>0</v>
       </c>
       <c r="J937" t="s">
         <v>56</v>
       </c>
       <c r="K937">
-        <v>1.727</v>
+        <v>1.333</v>
       </c>
       <c r="L937">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M937">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N937">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="O937">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P937">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="Q937">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R937">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S937">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T937">
         <v>3</v>
       </c>
       <c r="U937">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V937">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="W937">
-        <v>0.7270000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="X937">
         <v>-1</v>
@@ -83933,16 +83933,16 @@
         <v>-1</v>
       </c>
       <c r="Z937">
-        <v>0.475</v>
+        <v>0.485</v>
       </c>
       <c r="AA937">
         <v>-0.5</v>
       </c>
       <c r="AB937">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC937">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938" spans="1:29">
@@ -99347,7 +99347,7 @@
         <v>1109</v>
       </c>
       <c r="B1111">
-        <v>6777770</v>
+        <v>6777985</v>
       </c>
       <c r="C1111" t="s">
         <v>28</v>
@@ -99359,73 +99359,73 @@
         <v>45255.5</v>
       </c>
       <c r="F1111" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1111" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H1111">
+        <v>4</v>
+      </c>
+      <c r="I1111">
         <v>1</v>
       </c>
-      <c r="I1111">
-        <v>2</v>
-      </c>
       <c r="J1111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1111">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L1111">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M1111">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N1111">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O1111">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P1111">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q1111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R1111">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S1111">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T1111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U1111">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V1111">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W1111">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X1111">
         <v>-1</v>
       </c>
       <c r="Y1111">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z1111">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA1111">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1111">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC1111">
         <v>-1</v>
@@ -99436,7 +99436,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>6777985</v>
+        <v>6777770</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99448,73 +99448,73 @@
         <v>45255.5</v>
       </c>
       <c r="F1112" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1112" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H1112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1112">
+        <v>3.3</v>
+      </c>
+      <c r="L1112">
+        <v>3.5</v>
+      </c>
+      <c r="M1112">
         <v>2.1</v>
       </c>
-      <c r="L1112">
-        <v>3.75</v>
-      </c>
-      <c r="M1112">
-        <v>3.1</v>
-      </c>
       <c r="N1112">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O1112">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P1112">
+        <v>2.15</v>
+      </c>
+      <c r="Q1112">
+        <v>0.25</v>
+      </c>
+      <c r="R1112">
+        <v>1.98</v>
+      </c>
+      <c r="S1112">
+        <v>1.92</v>
+      </c>
+      <c r="T1112">
         <v>2.5</v>
       </c>
-      <c r="Q1112">
-        <v>0</v>
-      </c>
-      <c r="R1112">
-        <v>2.02</v>
-      </c>
-      <c r="S1112">
-        <v>1.88</v>
-      </c>
-      <c r="T1112">
-        <v>2.75</v>
-      </c>
       <c r="U1112">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V1112">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W1112">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X1112">
         <v>-1</v>
       </c>
       <c r="Y1112">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z1112">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA1112">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB1112">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC1112">
         <v>-1</v>
@@ -106862,19 +106862,19 @@
         <v>1.25</v>
       </c>
       <c r="R1195">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S1195">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T1195">
         <v>2.75</v>
       </c>
       <c r="U1195">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V1195">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -107093,10 +107093,10 @@
         <v>2.25</v>
       </c>
       <c r="U1198">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V1198">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W1198">
         <v>0</v>
@@ -107158,10 +107158,10 @@
         <v>-0.5</v>
       </c>
       <c r="R1199">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S1199">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T1199">
         <v>3</v>
@@ -107528,19 +107528,19 @@
         <v>0</v>
       </c>
       <c r="R1204">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S1204">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T1204">
         <v>2.75</v>
       </c>
       <c r="U1204">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V1204">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107933,7 +107933,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>6777780</v>
+        <v>6778061</v>
       </c>
       <c r="C1210" t="s">
         <v>28</v>
@@ -107945,46 +107945,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1210" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G1210" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="K1210">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L1210">
         <v>4</v>
       </c>
       <c r="M1210">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N1210">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="O1210">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1210">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q1210">
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S1210">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T1210">
         <v>2.75</v>
       </c>
       <c r="U1210">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V1210">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108007,7 +108007,7 @@
         <v>1209</v>
       </c>
       <c r="B1211">
-        <v>6778061</v>
+        <v>6778066</v>
       </c>
       <c r="C1211" t="s">
         <v>28</v>
@@ -108019,37 +108019,37 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1211" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G1211" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K1211">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L1211">
         <v>4</v>
       </c>
       <c r="M1211">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N1211">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="O1211">
         <v>3.8</v>
       </c>
       <c r="P1211">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q1211">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1211">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="S1211">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="T1211">
         <v>2.75</v>
@@ -108081,7 +108081,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>6778066</v>
+        <v>6777780</v>
       </c>
       <c r="C1212" t="s">
         <v>28</v>
@@ -108093,46 +108093,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1212" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G1212" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K1212">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L1212">
         <v>4</v>
       </c>
       <c r="M1212">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N1212">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O1212">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P1212">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q1212">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1212">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="S1212">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="T1212">
         <v>2.75</v>
       </c>
       <c r="U1212">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V1212">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W1212">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -59119,7 +59119,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5164821</v>
+        <v>5164826</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59131,76 +59131,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F659" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G659" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H659">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I659">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K659">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L659">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M659">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N659">
         <v>2.1</v>
       </c>
       <c r="O659">
+        <v>3.5</v>
+      </c>
+      <c r="P659">
         <v>3.6</v>
       </c>
-      <c r="P659">
-        <v>3.3</v>
-      </c>
       <c r="Q659">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R659">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="S659">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U659">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V659">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W659">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X659">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB659">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC659">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59475,7 +59475,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5164826</v>
+        <v>5164821</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59487,76 +59487,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F663" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G663" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I663">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J663" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K663">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L663">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M663">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N663">
         <v>2.1</v>
       </c>
       <c r="O663">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P663">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q663">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R663">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S663">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="T663">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U663">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V663">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X663">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA663">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC663">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59831,7 +59831,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>5164838</v>
+        <v>5164632</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59843,76 +59843,76 @@
         <v>44820.66666666666</v>
       </c>
       <c r="F667" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G667" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I667">
+        <v>3</v>
+      </c>
+      <c r="J667" t="s">
+        <v>55</v>
+      </c>
+      <c r="K667">
+        <v>2.8</v>
+      </c>
+      <c r="L667">
+        <v>3.2</v>
+      </c>
+      <c r="M667">
+        <v>2.5</v>
+      </c>
+      <c r="N667">
+        <v>2.75</v>
+      </c>
+      <c r="O667">
+        <v>3.3</v>
+      </c>
+      <c r="P667">
+        <v>2.6</v>
+      </c>
+      <c r="Q667">
         <v>0</v>
       </c>
-      <c r="J667" t="s">
-        <v>56</v>
-      </c>
-      <c r="K667">
-        <v>1.909</v>
-      </c>
-      <c r="L667">
-        <v>3.5</v>
-      </c>
-      <c r="M667">
-        <v>3.8</v>
-      </c>
-      <c r="N667">
-        <v>2.05</v>
-      </c>
-      <c r="O667">
-        <v>3.5</v>
-      </c>
-      <c r="P667">
-        <v>3.6</v>
-      </c>
-      <c r="Q667">
-        <v>-0.5</v>
-      </c>
       <c r="R667">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S667">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="T667">
         <v>2.5</v>
       </c>
       <c r="U667">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V667">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W667">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z667">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB667">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC667">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59920,7 +59920,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5164632</v>
+        <v>5164838</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59932,76 +59932,76 @@
         <v>44820.66666666666</v>
       </c>
       <c r="F668" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G668" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I668">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J668" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K668">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L668">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M668">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N668">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="O668">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P668">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q668">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R668">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S668">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="T668">
         <v>2.5</v>
       </c>
       <c r="U668">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V668">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W668">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA668">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB668">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC668">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -60721,7 +60721,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5164849</v>
+        <v>5164850</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60733,55 +60733,55 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F677" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G677" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H677">
         <v>1</v>
       </c>
       <c r="I677">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J677" t="s">
         <v>55</v>
       </c>
       <c r="K677">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L677">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M677">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="N677">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="O677">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P677">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q677">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R677">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="S677">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="T677">
         <v>2.5</v>
       </c>
       <c r="U677">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V677">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="W677">
         <v>-1</v>
@@ -60790,16 +60790,16 @@
         <v>-1</v>
       </c>
       <c r="Y677">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z677">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA677">
-        <v>0.495</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB677">
-        <v>1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC677">
         <v>-1</v>
@@ -60810,7 +60810,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>5164850</v>
+        <v>5164849</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60822,55 +60822,55 @@
         <v>44835.45833333334</v>
       </c>
       <c r="F678" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G678" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H678">
         <v>1</v>
       </c>
       <c r="I678">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J678" t="s">
         <v>55</v>
       </c>
       <c r="K678">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L678">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M678">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="N678">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="O678">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P678">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q678">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R678">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="S678">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="T678">
         <v>2.5</v>
       </c>
       <c r="U678">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V678">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W678">
         <v>-1</v>
@@ -60879,16 +60879,16 @@
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA678">
-        <v>0.8400000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="AB678">
-        <v>0.9099999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC678">
         <v>-1</v>
@@ -69443,7 +69443,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>5164945</v>
+        <v>5164943</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69455,55 +69455,55 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F775" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G775" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J775" t="s">
         <v>55</v>
       </c>
       <c r="K775">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L775">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M775">
+        <v>2</v>
+      </c>
+      <c r="N775">
         <v>3.2</v>
       </c>
-      <c r="N775">
-        <v>2.3</v>
-      </c>
       <c r="O775">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P775">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q775">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R775">
+        <v>1.85</v>
+      </c>
+      <c r="S775">
         <v>2.05</v>
       </c>
-      <c r="S775">
-        <v>1.88</v>
-      </c>
       <c r="T775">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U775">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V775">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W775">
         <v>-1</v>
@@ -69512,19 +69512,19 @@
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z775">
         <v>-1</v>
       </c>
       <c r="AA775">
-        <v>0.8799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB775">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC775">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="776" spans="1:29">
@@ -69532,7 +69532,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5164943</v>
+        <v>5164945</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69544,56 +69544,56 @@
         <v>44929.69791666666</v>
       </c>
       <c r="F776" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G776" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H776">
+        <v>0</v>
+      </c>
+      <c r="I776">
         <v>1</v>
-      </c>
-      <c r="I776">
-        <v>4</v>
       </c>
       <c r="J776" t="s">
         <v>55</v>
       </c>
       <c r="K776">
+        <v>2.1</v>
+      </c>
+      <c r="L776">
         <v>3.6</v>
       </c>
-      <c r="L776">
+      <c r="M776">
+        <v>3.2</v>
+      </c>
+      <c r="N776">
+        <v>2.3</v>
+      </c>
+      <c r="O776">
         <v>3.5</v>
       </c>
-      <c r="M776">
-        <v>2</v>
-      </c>
-      <c r="N776">
-        <v>3.2</v>
-      </c>
-      <c r="O776">
-        <v>3.3</v>
-      </c>
       <c r="P776">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="Q776">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R776">
+        <v>2.05</v>
+      </c>
+      <c r="S776">
+        <v>1.88</v>
+      </c>
+      <c r="T776">
+        <v>2.75</v>
+      </c>
+      <c r="U776">
         <v>1.85</v>
       </c>
-      <c r="S776">
+      <c r="V776">
         <v>2.05</v>
       </c>
-      <c r="T776">
-        <v>2.25</v>
-      </c>
-      <c r="U776">
-        <v>1.92</v>
-      </c>
-      <c r="V776">
-        <v>1.98</v>
-      </c>
       <c r="W776">
         <v>-1</v>
       </c>
@@ -69601,19 +69601,19 @@
         <v>-1</v>
       </c>
       <c r="Y776">
-        <v>1.375</v>
+        <v>1.9</v>
       </c>
       <c r="Z776">
         <v>-1</v>
       </c>
       <c r="AA776">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB776">
+        <v>-1</v>
+      </c>
+      <c r="AC776">
         <v>1.05</v>
-      </c>
-      <c r="AB776">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="AC776">
-        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -83416,7 +83416,7 @@
         <v>930</v>
       </c>
       <c r="B932">
-        <v>5554159</v>
+        <v>5554158</v>
       </c>
       <c r="C932" t="s">
         <v>28</v>
@@ -83428,58 +83428,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F932" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G932" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H932">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I932">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J932" t="s">
         <v>56</v>
       </c>
       <c r="K932">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L932">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M932">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N932">
-        <v>1.6</v>
+        <v>1.727</v>
       </c>
       <c r="O932">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P932">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q932">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R932">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="S932">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="T932">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U932">
-        <v>2.03</v>
+        <v>1.775</v>
       </c>
       <c r="V932">
-        <v>1.87</v>
+        <v>2.025</v>
       </c>
       <c r="W932">
-        <v>0.6000000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X932">
         <v>-1</v>
@@ -83488,13 +83488,13 @@
         <v>-1</v>
       </c>
       <c r="Z932">
-        <v>1.06</v>
+        <v>0.49</v>
       </c>
       <c r="AA932">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB932">
-        <v>1.03</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC932">
         <v>-1</v>
@@ -83505,7 +83505,7 @@
         <v>931</v>
       </c>
       <c r="B933">
-        <v>5554158</v>
+        <v>5554159</v>
       </c>
       <c r="C933" t="s">
         <v>28</v>
@@ -83517,58 +83517,58 @@
         <v>45045.45833333334</v>
       </c>
       <c r="F933" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G933" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I933">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J933" t="s">
         <v>56</v>
       </c>
       <c r="K933">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L933">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M933">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N933">
-        <v>1.727</v>
+        <v>1.6</v>
       </c>
       <c r="O933">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P933">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q933">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R933">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="S933">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="T933">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U933">
-        <v>1.775</v>
+        <v>2.03</v>
       </c>
       <c r="V933">
-        <v>2.025</v>
+        <v>1.87</v>
       </c>
       <c r="W933">
-        <v>0.7270000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X933">
         <v>-1</v>
@@ -83577,13 +83577,13 @@
         <v>-1</v>
       </c>
       <c r="Z933">
-        <v>0.49</v>
+        <v>1.06</v>
       </c>
       <c r="AA933">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB933">
-        <v>0.7749999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AC933">
         <v>-1</v>
@@ -84484,7 +84484,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>5574475</v>
+        <v>5574469</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84496,10 +84496,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F944" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G944" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H944">
         <v>1</v>
@@ -84511,43 +84511,43 @@
         <v>56</v>
       </c>
       <c r="K944">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L944">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M944">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="N944">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O944">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P944">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q944">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R944">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S944">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T944">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U944">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V944">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W944">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="X944">
         <v>-1</v>
@@ -84556,16 +84556,16 @@
         <v>-1</v>
       </c>
       <c r="Z944">
-        <v>0.52</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA944">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB944">
         <v>-1</v>
       </c>
       <c r="AC944">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84573,7 +84573,7 @@
         <v>943</v>
       </c>
       <c r="B945">
-        <v>5574469</v>
+        <v>5574475</v>
       </c>
       <c r="C945" t="s">
         <v>28</v>
@@ -84585,10 +84585,10 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F945" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G945" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H945">
         <v>1</v>
@@ -84600,43 +84600,43 @@
         <v>56</v>
       </c>
       <c r="K945">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L945">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M945">
+        <v>4.333</v>
+      </c>
+      <c r="N945">
+        <v>1.8</v>
+      </c>
+      <c r="O945">
+        <v>3.75</v>
+      </c>
+      <c r="P945">
+        <v>4.5</v>
+      </c>
+      <c r="Q945">
+        <v>-0.75</v>
+      </c>
+      <c r="R945">
+        <v>2.04</v>
+      </c>
+      <c r="S945">
+        <v>1.86</v>
+      </c>
+      <c r="T945">
         <v>2.5</v>
       </c>
-      <c r="N945">
-        <v>3</v>
-      </c>
-      <c r="O945">
-        <v>3.3</v>
-      </c>
-      <c r="P945">
-        <v>2.4</v>
-      </c>
-      <c r="Q945">
-        <v>0.25</v>
-      </c>
-      <c r="R945">
-        <v>1.84</v>
-      </c>
-      <c r="S945">
-        <v>2.06</v>
-      </c>
-      <c r="T945">
-        <v>2.25</v>
-      </c>
       <c r="U945">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V945">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W945">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="X945">
         <v>-1</v>
@@ -84645,16 +84645,16 @@
         <v>-1</v>
       </c>
       <c r="Z945">
-        <v>0.8400000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AA945">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB945">
         <v>-1</v>
       </c>
       <c r="AC945">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="946" spans="1:29">
@@ -85552,7 +85552,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>5601952</v>
+        <v>5574470</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85564,76 +85564,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F956" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G956" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H956">
+        <v>0</v>
+      </c>
+      <c r="I956">
         <v>2</v>
       </c>
-      <c r="I956">
-        <v>1</v>
-      </c>
       <c r="J956" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K956">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L956">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M956">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N956">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O956">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P956">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q956">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R956">
+        <v>1.97</v>
+      </c>
+      <c r="S956">
+        <v>1.93</v>
+      </c>
+      <c r="T956">
+        <v>2.5</v>
+      </c>
+      <c r="U956">
         <v>1.95</v>
       </c>
-      <c r="S956">
+      <c r="V956">
         <v>1.95</v>
       </c>
-      <c r="T956">
-        <v>2.75</v>
-      </c>
-      <c r="U956">
-        <v>1.85</v>
-      </c>
-      <c r="V956">
-        <v>2.05</v>
-      </c>
       <c r="W956">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X956">
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z956">
+        <v>-1</v>
+      </c>
+      <c r="AA956">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB956">
+        <v>-1</v>
+      </c>
+      <c r="AC956">
         <v>0.95</v>
-      </c>
-      <c r="AA956">
-        <v>-1</v>
-      </c>
-      <c r="AB956">
-        <v>0.425</v>
-      </c>
-      <c r="AC956">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="957" spans="1:29">
@@ -85641,7 +85641,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>5601958</v>
+        <v>5601952</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85653,58 +85653,58 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F957" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G957" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H957">
         <v>2</v>
       </c>
       <c r="I957">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J957" t="s">
         <v>56</v>
       </c>
       <c r="K957">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L957">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M957">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N957">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O957">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P957">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q957">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S957">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T957">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U957">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="V957">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="W957">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X957">
         <v>-1</v>
@@ -85713,16 +85713,16 @@
         <v>-1</v>
       </c>
       <c r="Z957">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA957">
         <v>-1</v>
       </c>
       <c r="AB957">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC957">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="958" spans="1:29">
@@ -85730,7 +85730,7 @@
         <v>956</v>
       </c>
       <c r="B958">
-        <v>5592152</v>
+        <v>5601958</v>
       </c>
       <c r="C958" t="s">
         <v>28</v>
@@ -85742,10 +85742,10 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F958" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G958" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H958">
         <v>2</v>
@@ -85757,43 +85757,43 @@
         <v>56</v>
       </c>
       <c r="K958">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L958">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M958">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="N958">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="O958">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P958">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q958">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R958">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="S958">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="T958">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U958">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V958">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="W958">
-        <v>0.7270000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X958">
         <v>-1</v>
@@ -85802,7 +85802,7 @@
         <v>-1</v>
       </c>
       <c r="Z958">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="AA958">
         <v>-1</v>
@@ -85811,7 +85811,7 @@
         <v>-1</v>
       </c>
       <c r="AC958">
-        <v>0.8600000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="959" spans="1:29">
@@ -85819,7 +85819,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>5574470</v>
+        <v>5592152</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85831,76 +85831,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F959" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G959" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H959">
+        <v>2</v>
+      </c>
+      <c r="I959">
         <v>0</v>
       </c>
-      <c r="I959">
-        <v>2</v>
-      </c>
       <c r="J959" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K959">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="L959">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M959">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="N959">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="O959">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P959">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q959">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R959">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S959">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="T959">
         <v>2.5</v>
       </c>
       <c r="U959">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V959">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="W959">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X959">
         <v>-1</v>
       </c>
       <c r="Y959">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z959">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA959">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB959">
         <v>-1</v>
       </c>
       <c r="AC959">
-        <v>0.95</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -86442,7 +86442,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>5638876</v>
+        <v>5601960</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86454,76 +86454,76 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F966" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G966" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J966" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K966">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="L966">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M966">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="N966">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="O966">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P966">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q966">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R966">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S966">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T966">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U966">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V966">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W966">
         <v>-1</v>
       </c>
       <c r="X966">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y966">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z966">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA966">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AB966">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC966">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967" spans="1:29">
@@ -86531,7 +86531,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>5601960</v>
+        <v>5635295</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86543,49 +86543,49 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F967" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G967" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J967" t="s">
         <v>57</v>
       </c>
       <c r="K967">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="L967">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M967">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N967">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="O967">
+        <v>4.75</v>
+      </c>
+      <c r="P967">
+        <v>6</v>
+      </c>
+      <c r="Q967">
+        <v>-1.25</v>
+      </c>
+      <c r="R967">
+        <v>2.06</v>
+      </c>
+      <c r="S967">
+        <v>1.84</v>
+      </c>
+      <c r="T967">
         <v>3.25</v>
-      </c>
-      <c r="P967">
-        <v>3.3</v>
-      </c>
-      <c r="Q967">
-        <v>-0.25</v>
-      </c>
-      <c r="R967">
-        <v>2.02</v>
-      </c>
-      <c r="S967">
-        <v>1.88</v>
-      </c>
-      <c r="T967">
-        <v>2.25</v>
       </c>
       <c r="U967">
         <v>1.97</v>
@@ -86597,22 +86597,22 @@
         <v>-1</v>
       </c>
       <c r="X967">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y967">
         <v>-1</v>
       </c>
       <c r="Z967">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA967">
-        <v>0.4399999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB967">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC967">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="968" spans="1:29">
@@ -86620,7 +86620,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>5635295</v>
+        <v>5638876</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86632,76 +86632,76 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F968" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G968" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H968">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I968">
         <v>1</v>
       </c>
       <c r="J968" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K968">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="L968">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="M968">
-        <v>6</v>
+        <v>1.571</v>
       </c>
       <c r="N968">
+        <v>7</v>
+      </c>
+      <c r="O968">
+        <v>5.25</v>
+      </c>
+      <c r="P968">
+        <v>1.4</v>
+      </c>
+      <c r="Q968">
         <v>1.5</v>
       </c>
-      <c r="O968">
-        <v>4.75</v>
-      </c>
-      <c r="P968">
-        <v>6</v>
-      </c>
-      <c r="Q968">
-        <v>-1.25</v>
-      </c>
       <c r="R968">
+        <v>1.84</v>
+      </c>
+      <c r="S968">
         <v>2.06</v>
-      </c>
-      <c r="S968">
-        <v>1.84</v>
       </c>
       <c r="T968">
         <v>3.25</v>
       </c>
       <c r="U968">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V968">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="W968">
         <v>-1</v>
       </c>
       <c r="X968">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y968">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z968">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA968">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB968">
         <v>-1</v>
       </c>
       <c r="AC968">
-        <v>0.9299999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="969" spans="1:29">
@@ -87510,7 +87510,7 @@
         <v>976</v>
       </c>
       <c r="B978">
-        <v>5701226</v>
+        <v>5706766</v>
       </c>
       <c r="C978" t="s">
         <v>28</v>
@@ -87522,73 +87522,73 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F978" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G978" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H978">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I978">
         <v>4</v>
       </c>
       <c r="J978" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K978">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="L978">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M978">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="N978">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="O978">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P978">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q978">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R978">
-        <v>2.025</v>
+        <v>1.84</v>
       </c>
       <c r="S978">
-        <v>1.775</v>
+        <v>2.06</v>
       </c>
       <c r="T978">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U978">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V978">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W978">
         <v>-1</v>
       </c>
       <c r="X978">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y978">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z978">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA978">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB978">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC978">
         <v>-1</v>
@@ -87599,7 +87599,7 @@
         <v>977</v>
       </c>
       <c r="B979">
-        <v>5635290</v>
+        <v>5701226</v>
       </c>
       <c r="C979" t="s">
         <v>28</v>
@@ -87611,76 +87611,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F979" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G979" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I979">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J979" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K979">
-        <v>1.444</v>
+        <v>7.5</v>
       </c>
       <c r="L979">
         <v>4.5</v>
       </c>
       <c r="M979">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="N979">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="O979">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P979">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="Q979">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R979">
-        <v>1.98</v>
+        <v>2.025</v>
       </c>
       <c r="S979">
-        <v>1.92</v>
+        <v>1.775</v>
       </c>
       <c r="T979">
         <v>3.5</v>
       </c>
       <c r="U979">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V979">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W979">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X979">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y979">
         <v>-1</v>
       </c>
       <c r="Z979">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA979">
-        <v>0.46</v>
+        <v>-1</v>
       </c>
       <c r="AB979">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC979">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="980" spans="1:29">
@@ -87688,7 +87688,7 @@
         <v>978</v>
       </c>
       <c r="B980">
-        <v>5706766</v>
+        <v>5635290</v>
       </c>
       <c r="C980" t="s">
         <v>28</v>
@@ -87700,76 +87700,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F980" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G980" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H980">
+        <v>2</v>
+      </c>
+      <c r="I980">
         <v>1</v>
       </c>
-      <c r="I980">
-        <v>4</v>
-      </c>
       <c r="J980" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K980">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="L980">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M980">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N980">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O980">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P980">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="Q980">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R980">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="S980">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T980">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U980">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="V980">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="W980">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X980">
         <v>-1</v>
       </c>
       <c r="Y980">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z980">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA980">
-        <v>1.06</v>
+        <v>0.46</v>
       </c>
       <c r="AB980">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC980">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="981" spans="1:29">
@@ -92672,7 +92672,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C1036" t="s">
         <v>28</v>
@@ -92684,76 +92684,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1036" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G1036" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1036">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1036" t="s">
         <v>57</v>
       </c>
       <c r="K1036">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L1036">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1036">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1036">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1036">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1036">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q1036">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1036">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S1036">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T1036">
         <v>2.25</v>
       </c>
       <c r="U1036">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V1036">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W1036">
         <v>-1</v>
       </c>
       <c r="X1036">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y1036">
         <v>-1</v>
       </c>
       <c r="Z1036">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA1036">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1036">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1036">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1037" spans="1:29">
@@ -92761,7 +92761,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C1037" t="s">
         <v>28</v>
@@ -92773,76 +92773,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1037" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1037" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1037">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1037" t="s">
         <v>57</v>
       </c>
       <c r="K1037">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L1037">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1037">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N1037">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1037">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P1037">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q1037">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1037">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S1037">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T1037">
         <v>2.25</v>
       </c>
       <c r="U1037">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V1037">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="W1037">
         <v>-1</v>
       </c>
       <c r="X1037">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1037">
         <v>-1</v>
       </c>
       <c r="Z1037">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1037">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1037">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1037">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="1038" spans="1:29">
@@ -93651,7 +93651,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>6777938</v>
+        <v>6777764</v>
       </c>
       <c r="C1047" t="s">
         <v>28</v>
@@ -93663,58 +93663,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1047" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1047" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1047">
         <v>2</v>
       </c>
       <c r="I1047">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1047" t="s">
         <v>56</v>
       </c>
       <c r="K1047">
+        <v>1.5</v>
+      </c>
+      <c r="L1047">
+        <v>4.333</v>
+      </c>
+      <c r="M1047">
+        <v>6</v>
+      </c>
+      <c r="N1047">
+        <v>1.444</v>
+      </c>
+      <c r="O1047">
+        <v>4.5</v>
+      </c>
+      <c r="P1047">
         <v>7</v>
       </c>
-      <c r="L1047">
-        <v>4.9</v>
-      </c>
-      <c r="M1047">
-        <v>1.4</v>
-      </c>
-      <c r="N1047">
-        <v>7.5</v>
-      </c>
-      <c r="O1047">
-        <v>5</v>
-      </c>
-      <c r="P1047">
-        <v>1.4</v>
-      </c>
       <c r="Q1047">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R1047">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S1047">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T1047">
         <v>2.75</v>
       </c>
       <c r="U1047">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V1047">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W1047">
-        <v>6.5</v>
+        <v>0.444</v>
       </c>
       <c r="X1047">
         <v>-1</v>
@@ -93723,16 +93723,16 @@
         <v>-1</v>
       </c>
       <c r="Z1047">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AA1047">
         <v>-1</v>
       </c>
       <c r="AB1047">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AC1047">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="1048" spans="1:29">
@@ -93740,7 +93740,7 @@
         <v>1046</v>
       </c>
       <c r="B1048">
-        <v>6777935</v>
+        <v>6777938</v>
       </c>
       <c r="C1048" t="s">
         <v>28</v>
@@ -93752,58 +93752,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1048" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G1048" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1048">
         <v>2</v>
       </c>
       <c r="I1048">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1048" t="s">
         <v>56</v>
       </c>
       <c r="K1048">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="L1048">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="M1048">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="N1048">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="O1048">
         <v>5</v>
       </c>
       <c r="P1048">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="Q1048">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R1048">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S1048">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T1048">
         <v>2.75</v>
       </c>
       <c r="U1048">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V1048">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="W1048">
-        <v>0.3999999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="X1048">
         <v>-1</v>
@@ -93812,16 +93812,16 @@
         <v>-1</v>
       </c>
       <c r="Z1048">
-        <v>0.8700000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA1048">
         <v>-1</v>
       </c>
       <c r="AB1048">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="AC1048">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1049" spans="1:29">
@@ -93829,7 +93829,7 @@
         <v>1047</v>
       </c>
       <c r="B1049">
-        <v>6777934</v>
+        <v>6777935</v>
       </c>
       <c r="C1049" t="s">
         <v>28</v>
@@ -93841,76 +93841,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1049" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1049" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H1049">
+        <v>2</v>
+      </c>
+      <c r="I1049">
         <v>0</v>
       </c>
-      <c r="I1049">
-        <v>1</v>
-      </c>
       <c r="J1049" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1049">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L1049">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M1049">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N1049">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O1049">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P1049">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q1049">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1049">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S1049">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T1049">
         <v>2.75</v>
       </c>
       <c r="U1049">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V1049">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W1049">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X1049">
         <v>-1</v>
       </c>
       <c r="Y1049">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z1049">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA1049">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1049">
         <v>-1</v>
       </c>
       <c r="AC1049">
-        <v>0.8400000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:29">
@@ -93918,7 +93918,7 @@
         <v>1048</v>
       </c>
       <c r="B1050">
-        <v>6777931</v>
+        <v>6777934</v>
       </c>
       <c r="C1050" t="s">
         <v>28</v>
@@ -93930,55 +93930,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1050" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G1050" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H1050">
         <v>0</v>
       </c>
       <c r="I1050">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1050" t="s">
         <v>55</v>
       </c>
       <c r="K1050">
+        <v>1.533</v>
+      </c>
+      <c r="L1050">
+        <v>4.333</v>
+      </c>
+      <c r="M1050">
+        <v>5.5</v>
+      </c>
+      <c r="N1050">
+        <v>1.55</v>
+      </c>
+      <c r="O1050">
+        <v>4.2</v>
+      </c>
+      <c r="P1050">
         <v>6</v>
       </c>
-      <c r="L1050">
-        <v>4.7</v>
-      </c>
-      <c r="M1050">
-        <v>1.45</v>
-      </c>
-      <c r="N1050">
-        <v>5.5</v>
-      </c>
-      <c r="O1050">
-        <v>4.5</v>
-      </c>
-      <c r="P1050">
-        <v>1.533</v>
-      </c>
       <c r="Q1050">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R1050">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S1050">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T1050">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1050">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V1050">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W1050">
         <v>-1</v>
@@ -93987,19 +93987,19 @@
         <v>-1</v>
       </c>
       <c r="Y1050">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z1050">
         <v>-1</v>
       </c>
       <c r="AA1050">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB1050">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC1050">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="1051" spans="1:29">
@@ -94007,7 +94007,7 @@
         <v>1049</v>
       </c>
       <c r="B1051">
-        <v>6777764</v>
+        <v>6777931</v>
       </c>
       <c r="C1051" t="s">
         <v>28</v>
@@ -94019,76 +94019,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F1051" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1051" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1051" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1051">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="L1051">
-        <v>4.333</v>
+        <v>4.7</v>
       </c>
       <c r="M1051">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="N1051">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="O1051">
         <v>4.5</v>
       </c>
       <c r="P1051">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="Q1051">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R1051">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S1051">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T1051">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1051">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="V1051">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="W1051">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X1051">
         <v>-1</v>
       </c>
       <c r="Y1051">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z1051">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA1051">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1051">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC1051">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1052" spans="1:29">
@@ -106862,19 +106862,19 @@
         <v>1.25</v>
       </c>
       <c r="R1195">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S1195">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T1195">
         <v>2.75</v>
       </c>
       <c r="U1195">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V1195">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106924,31 +106924,31 @@
         <v>2.75</v>
       </c>
       <c r="N1196">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="O1196">
         <v>3.25</v>
       </c>
       <c r="P1196">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q1196">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1196">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="S1196">
-        <v>2.125</v>
+        <v>1.79</v>
       </c>
       <c r="T1196">
         <v>2.5</v>
       </c>
       <c r="U1196">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V1196">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -107010,19 +107010,19 @@
         <v>0.75</v>
       </c>
       <c r="R1197">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S1197">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T1197">
         <v>3</v>
       </c>
       <c r="U1197">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V1197">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W1197">
         <v>0</v>
@@ -107072,31 +107072,31 @@
         <v>6.5</v>
       </c>
       <c r="N1198">
-        <v>1.571</v>
+        <v>1.6</v>
       </c>
       <c r="O1198">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P1198">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q1198">
         <v>-1</v>
       </c>
       <c r="R1198">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="S1198">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T1198">
         <v>2.25</v>
       </c>
       <c r="U1198">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V1198">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="W1198">
         <v>0</v>
@@ -107158,19 +107158,19 @@
         <v>-0.5</v>
       </c>
       <c r="R1199">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S1199">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T1199">
         <v>3</v>
       </c>
       <c r="U1199">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V1199">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107193,7 +107193,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>6778056</v>
+        <v>6778060</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -107205,46 +107205,46 @@
         <v>45322.6875</v>
       </c>
       <c r="F1200" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G1200" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K1200">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L1200">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M1200">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="N1200">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="O1200">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="P1200">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="Q1200">
-        <v>-0.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R1200">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S1200">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T1200">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U1200">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V1200">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="W1200">
         <v>0</v>
@@ -107267,7 +107267,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>6778060</v>
+        <v>6778056</v>
       </c>
       <c r="C1201" t="s">
         <v>28</v>
@@ -107279,46 +107279,46 @@
         <v>45322.6875</v>
       </c>
       <c r="F1201" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G1201" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K1201">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L1201">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M1201">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="N1201">
-        <v>1.1</v>
+        <v>1.65</v>
       </c>
       <c r="O1201">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="P1201">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="Q1201">
-        <v>-2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1201">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S1201">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="T1201">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U1201">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V1201">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107380,10 +107380,10 @@
         <v>-1</v>
       </c>
       <c r="R1202">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S1202">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T1202">
         <v>3.25</v>
@@ -107528,10 +107528,10 @@
         <v>0</v>
       </c>
       <c r="R1204">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S1204">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T1204">
         <v>2.75</v>
@@ -107676,10 +107676,10 @@
         <v>-1</v>
       </c>
       <c r="R1206">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S1206">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T1206">
         <v>2.75</v>
@@ -107824,19 +107824,19 @@
         <v>-1.5</v>
       </c>
       <c r="R1208">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="S1208">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T1208">
         <v>3</v>
       </c>
       <c r="U1208">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V1208">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W1208">
         <v>0</v>
@@ -107933,7 +107933,7 @@
         <v>1208</v>
       </c>
       <c r="B1210">
-        <v>6778061</v>
+        <v>6777780</v>
       </c>
       <c r="C1210" t="s">
         <v>28</v>
@@ -107945,46 +107945,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1210" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="G1210" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K1210">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L1210">
         <v>4</v>
       </c>
       <c r="M1210">
+        <v>4.2</v>
+      </c>
+      <c r="N1210">
+        <v>1.727</v>
+      </c>
+      <c r="O1210">
+        <v>4</v>
+      </c>
+      <c r="P1210">
         <v>4.5</v>
-      </c>
-      <c r="N1210">
-        <v>1.75</v>
-      </c>
-      <c r="O1210">
-        <v>3.8</v>
-      </c>
-      <c r="P1210">
-        <v>4.333</v>
       </c>
       <c r="Q1210">
         <v>-0.75</v>
       </c>
       <c r="R1210">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S1210">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T1210">
         <v>2.75</v>
       </c>
       <c r="U1210">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V1210">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W1210">
         <v>0</v>
@@ -108007,7 +108007,7 @@
         <v>1209</v>
       </c>
       <c r="B1211">
-        <v>6778066</v>
+        <v>6778061</v>
       </c>
       <c r="C1211" t="s">
         <v>28</v>
@@ -108019,37 +108019,37 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1211" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G1211" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="K1211">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L1211">
         <v>4</v>
       </c>
       <c r="M1211">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N1211">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O1211">
         <v>3.8</v>
       </c>
       <c r="P1211">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q1211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1211">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="S1211">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="T1211">
         <v>2.75</v>
@@ -108081,7 +108081,7 @@
         <v>1210</v>
       </c>
       <c r="B1212">
-        <v>6777780</v>
+        <v>6778066</v>
       </c>
       <c r="C1212" t="s">
         <v>28</v>
@@ -108093,46 +108093,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F1212" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G1212" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1212">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L1212">
         <v>4</v>
       </c>
       <c r="M1212">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N1212">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O1212">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P1212">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q1212">
         <v>-0.75</v>
       </c>
       <c r="R1212">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="S1212">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="T1212">
         <v>2.75</v>
       </c>
       <c r="U1212">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V1212">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="W1212">
         <v>0</v>
@@ -108194,10 +108194,10 @@
         <v>-0.25</v>
       </c>
       <c r="R1213">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="S1213">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="T1213">
         <v>3</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6053" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6041" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -549,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC1209"/>
+  <dimension ref="A1:AC1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -53601,7 +53601,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>4233284</v>
+        <v>4231985</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53613,76 +53613,76 @@
         <v>44703.5</v>
       </c>
       <c r="F597" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G597" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H597">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I597">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J597" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K597">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L597">
         <v>3.5</v>
       </c>
       <c r="M597">
-        <v>3.25</v>
+        <v>2.625</v>
       </c>
       <c r="N597">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O597">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P597">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q597">
+        <v>-0.25</v>
+      </c>
+      <c r="R597">
+        <v>2.06</v>
+      </c>
+      <c r="S597">
+        <v>1.84</v>
+      </c>
+      <c r="T597">
+        <v>3</v>
+      </c>
+      <c r="U597">
+        <v>1.86</v>
+      </c>
+      <c r="V597">
+        <v>2.04</v>
+      </c>
+      <c r="W597">
+        <v>-1</v>
+      </c>
+      <c r="X597">
+        <v>-1</v>
+      </c>
+      <c r="Y597">
+        <v>1.8</v>
+      </c>
+      <c r="Z597">
+        <v>-1</v>
+      </c>
+      <c r="AA597">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="AB597">
         <v>0</v>
       </c>
-      <c r="R597">
-        <v>1.95</v>
-      </c>
-      <c r="S597">
-        <v>1.95</v>
-      </c>
-      <c r="T597">
-        <v>2.5</v>
-      </c>
-      <c r="U597">
-        <v>1.84</v>
-      </c>
-      <c r="V597">
-        <v>2.06</v>
-      </c>
-      <c r="W597">
-        <v>1.6</v>
-      </c>
-      <c r="X597">
-        <v>-1</v>
-      </c>
-      <c r="Y597">
-        <v>-1</v>
-      </c>
-      <c r="Z597">
-        <v>0.95</v>
-      </c>
-      <c r="AA597">
-        <v>-1</v>
-      </c>
-      <c r="AB597">
-        <v>0.8400000000000001</v>
-      </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53690,7 +53690,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>4231986</v>
+        <v>4233284</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53702,13 +53702,13 @@
         <v>44703.5</v>
       </c>
       <c r="F598" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G598" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -53717,43 +53717,43 @@
         <v>56</v>
       </c>
       <c r="K598">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L598">
         <v>3.5</v>
       </c>
       <c r="M598">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N598">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="O598">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P598">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q598">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R598">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S598">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T598">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U598">
+        <v>1.84</v>
+      </c>
+      <c r="V598">
         <v>2.06</v>
       </c>
-      <c r="V598">
-        <v>1.84</v>
-      </c>
       <c r="W598">
-        <v>0.6499999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53762,13 +53762,13 @@
         <v>-1</v>
       </c>
       <c r="Z598">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA598">
         <v>-1</v>
       </c>
       <c r="AB598">
-        <v>1.06</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC598">
         <v>-1</v>
@@ -53779,7 +53779,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>4231985</v>
+        <v>4231986</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53791,76 +53791,76 @@
         <v>44703.5</v>
       </c>
       <c r="F599" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G599" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H599">
+        <v>4</v>
+      </c>
+      <c r="I599">
         <v>1</v>
       </c>
-      <c r="I599">
+      <c r="J599" t="s">
+        <v>56</v>
+      </c>
+      <c r="K599">
         <v>2</v>
-      </c>
-      <c r="J599" t="s">
-        <v>55</v>
-      </c>
-      <c r="K599">
-        <v>2.5</v>
       </c>
       <c r="L599">
         <v>3.5</v>
       </c>
       <c r="M599">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N599">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="O599">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P599">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q599">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R599">
+        <v>2.025</v>
+      </c>
+      <c r="S599">
+        <v>1.775</v>
+      </c>
+      <c r="T599">
+        <v>3.25</v>
+      </c>
+      <c r="U599">
         <v>2.06</v>
       </c>
-      <c r="S599">
+      <c r="V599">
         <v>1.84</v>
       </c>
-      <c r="T599">
-        <v>3</v>
-      </c>
-      <c r="U599">
-        <v>1.86</v>
-      </c>
-      <c r="V599">
-        <v>2.04</v>
-      </c>
       <c r="W599">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X599">
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z599">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA599">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC599">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -54847,7 +54847,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5164183</v>
+        <v>5164184</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54859,58 +54859,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F611" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G611" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H611">
         <v>2</v>
       </c>
       <c r="I611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J611" t="s">
         <v>56</v>
       </c>
       <c r="K611">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L611">
         <v>3.5</v>
       </c>
       <c r="M611">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N611">
-        <v>3.9</v>
+        <v>2.375</v>
       </c>
       <c r="O611">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P611">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q611">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R611">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="S611">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="T611">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U611">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V611">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W611">
-        <v>2.9</v>
+        <v>1.375</v>
       </c>
       <c r="X611">
         <v>-1</v>
@@ -54919,16 +54919,16 @@
         <v>-1</v>
       </c>
       <c r="Z611">
-        <v>0.8999999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AA611">
         <v>-1</v>
       </c>
       <c r="AB611">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AC611">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -54936,7 +54936,7 @@
         <v>610</v>
       </c>
       <c r="B612">
-        <v>5164184</v>
+        <v>5164183</v>
       </c>
       <c r="C612" t="s">
         <v>28</v>
@@ -54948,58 +54948,58 @@
         <v>44779.45833333334</v>
       </c>
       <c r="F612" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G612" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H612">
         <v>2</v>
       </c>
       <c r="I612">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J612" t="s">
         <v>56</v>
       </c>
       <c r="K612">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L612">
         <v>3.5</v>
       </c>
       <c r="M612">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N612">
-        <v>2.375</v>
+        <v>3.9</v>
       </c>
       <c r="O612">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P612">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q612">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R612">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="S612">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T612">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U612">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="V612">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="W612">
-        <v>1.375</v>
+        <v>2.9</v>
       </c>
       <c r="X612">
         <v>-1</v>
@@ -55008,16 +55008,16 @@
         <v>-1</v>
       </c>
       <c r="Z612">
-        <v>1.09</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA612">
         <v>-1</v>
       </c>
       <c r="AB612">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC612">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="613" spans="1:29">
@@ -59119,7 +59119,7 @@
         <v>657</v>
       </c>
       <c r="B659">
-        <v>5164821</v>
+        <v>5164826</v>
       </c>
       <c r="C659" t="s">
         <v>28</v>
@@ -59131,76 +59131,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F659" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G659" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H659">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I659">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J659" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K659">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L659">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M659">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N659">
         <v>2.1</v>
       </c>
       <c r="O659">
+        <v>3.5</v>
+      </c>
+      <c r="P659">
         <v>3.6</v>
       </c>
-      <c r="P659">
-        <v>3.3</v>
-      </c>
       <c r="Q659">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R659">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="S659">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="T659">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U659">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V659">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W659">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X659">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y659">
         <v>-1</v>
       </c>
       <c r="Z659">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA659">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB659">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC659">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="660" spans="1:29">
@@ -59475,7 +59475,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5164826</v>
+        <v>5164821</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59487,76 +59487,76 @@
         <v>44807.45833333334</v>
       </c>
       <c r="F663" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G663" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I663">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J663" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K663">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L663">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M663">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N663">
         <v>2.1</v>
       </c>
       <c r="O663">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P663">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q663">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R663">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S663">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="T663">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U663">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V663">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X663">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA663">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC663">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -64014,7 +64014,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>5164885</v>
+        <v>5164887</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64026,58 +64026,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F714" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G714" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H714">
         <v>3</v>
       </c>
       <c r="I714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J714" t="s">
         <v>56</v>
       </c>
       <c r="K714">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L714">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M714">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="N714">
-        <v>2.45</v>
+        <v>1.222</v>
       </c>
       <c r="O714">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="P714">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q714">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R714">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="S714">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="T714">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U714">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V714">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W714">
-        <v>1.45</v>
+        <v>0.222</v>
       </c>
       <c r="X714">
         <v>-1</v>
@@ -64086,13 +64086,13 @@
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>1.09</v>
+        <v>0.445</v>
       </c>
       <c r="AA714">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB714">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC714">
         <v>-1</v>
@@ -64103,7 +64103,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>5164887</v>
+        <v>5164885</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64115,58 +64115,58 @@
         <v>44856.45833333334</v>
       </c>
       <c r="F715" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G715" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H715">
         <v>3</v>
       </c>
       <c r="I715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J715" t="s">
         <v>56</v>
       </c>
       <c r="K715">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L715">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M715">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="N715">
-        <v>1.222</v>
+        <v>2.45</v>
       </c>
       <c r="O715">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P715">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q715">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R715">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="S715">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="T715">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U715">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="V715">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="W715">
-        <v>0.222</v>
+        <v>1.45</v>
       </c>
       <c r="X715">
         <v>-1</v>
@@ -64175,13 +64175,13 @@
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>0.445</v>
+        <v>1.09</v>
       </c>
       <c r="AA715">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB715">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC715">
         <v>-1</v>
@@ -70867,7 +70867,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>5164950</v>
+        <v>5164953</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70879,10 +70879,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F791" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G791" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H791">
         <v>1</v>
@@ -70894,61 +70894,61 @@
         <v>56</v>
       </c>
       <c r="K791">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L791">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M791">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="N791">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O791">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P791">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q791">
+        <v>-1.25</v>
+      </c>
+      <c r="R791">
+        <v>2.08</v>
+      </c>
+      <c r="S791">
+        <v>1.82</v>
+      </c>
+      <c r="T791">
+        <v>2.75</v>
+      </c>
+      <c r="U791">
+        <v>1.91</v>
+      </c>
+      <c r="V791">
+        <v>1.99</v>
+      </c>
+      <c r="W791">
+        <v>0.5</v>
+      </c>
+      <c r="X791">
+        <v>-1</v>
+      </c>
+      <c r="Y791">
+        <v>-1</v>
+      </c>
+      <c r="Z791">
         <v>-0.5</v>
       </c>
-      <c r="R791">
-        <v>1.89</v>
-      </c>
-      <c r="S791">
-        <v>2.04</v>
-      </c>
-      <c r="T791">
-        <v>2.25</v>
-      </c>
-      <c r="U791">
-        <v>2</v>
-      </c>
-      <c r="V791">
-        <v>1.9</v>
-      </c>
-      <c r="W791">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X791">
-        <v>-1</v>
-      </c>
-      <c r="Y791">
-        <v>-1</v>
-      </c>
-      <c r="Z791">
-        <v>0.8899999999999999</v>
-      </c>
       <c r="AA791">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AB791">
         <v>-1</v>
       </c>
       <c r="AC791">
-        <v>0.8999999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70956,7 +70956,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>5164953</v>
+        <v>5164950</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70968,10 +70968,10 @@
         <v>44941.45833333334</v>
       </c>
       <c r="F792" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G792" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H792">
         <v>1</v>
@@ -70983,43 +70983,43 @@
         <v>56</v>
       </c>
       <c r="K792">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L792">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M792">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="N792">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O792">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P792">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q792">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R792">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="S792">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="T792">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U792">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V792">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W792">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X792">
         <v>-1</v>
@@ -71028,16 +71028,16 @@
         <v>-1</v>
       </c>
       <c r="Z792">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA792">
-        <v>0.41</v>
+        <v>-1</v>
       </c>
       <c r="AB792">
         <v>-1</v>
       </c>
       <c r="AC792">
-        <v>0.99</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -72558,7 +72558,7 @@
         <v>808</v>
       </c>
       <c r="B810">
-        <v>5164970</v>
+        <v>5164967</v>
       </c>
       <c r="C810" t="s">
         <v>28</v>
@@ -72570,28 +72570,28 @@
         <v>44961.5</v>
       </c>
       <c r="F810" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G810" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J810" t="s">
         <v>56</v>
       </c>
       <c r="K810">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L810">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M810">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N810">
         <v>1.363</v>
@@ -72600,25 +72600,25 @@
         <v>5</v>
       </c>
       <c r="P810">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q810">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R810">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="S810">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="T810">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U810">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V810">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W810">
         <v>0.363</v>
@@ -72630,16 +72630,16 @@
         <v>-1</v>
       </c>
       <c r="Z810">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA810">
-        <v>0.5149999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB810">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AC810">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="811" spans="1:29">
@@ -72647,7 +72647,7 @@
         <v>809</v>
       </c>
       <c r="B811">
-        <v>5164973</v>
+        <v>5164970</v>
       </c>
       <c r="C811" t="s">
         <v>28</v>
@@ -72659,58 +72659,58 @@
         <v>44961.5</v>
       </c>
       <c r="F811" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G811" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H811">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J811" t="s">
         <v>56</v>
       </c>
       <c r="K811">
+        <v>1.444</v>
+      </c>
+      <c r="L811">
         <v>4.333</v>
       </c>
-      <c r="L811">
-        <v>3.75</v>
-      </c>
       <c r="M811">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N811">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O811">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P811">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="Q811">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R811">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S811">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T811">
         <v>2.75</v>
       </c>
       <c r="U811">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V811">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W811">
-        <v>2.8</v>
+        <v>0.363</v>
       </c>
       <c r="X811">
         <v>-1</v>
@@ -72719,13 +72719,13 @@
         <v>-1</v>
       </c>
       <c r="Z811">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA811">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB811">
-        <v>0.5249999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AC811">
         <v>-0.5</v>
@@ -72736,7 +72736,7 @@
         <v>810</v>
       </c>
       <c r="B812">
-        <v>5164967</v>
+        <v>5164973</v>
       </c>
       <c r="C812" t="s">
         <v>28</v>
@@ -72748,13 +72748,13 @@
         <v>44961.5</v>
       </c>
       <c r="F812" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G812" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I812">
         <v>0</v>
@@ -72763,43 +72763,43 @@
         <v>56</v>
       </c>
       <c r="K812">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="L812">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M812">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N812">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O812">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P812">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q812">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R812">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S812">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T812">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U812">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V812">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W812">
-        <v>0.363</v>
+        <v>2.8</v>
       </c>
       <c r="X812">
         <v>-1</v>
@@ -72808,16 +72808,16 @@
         <v>-1</v>
       </c>
       <c r="Z812">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA812">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB812">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC812">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="813" spans="1:29">
@@ -81903,7 +81903,7 @@
         <v>913</v>
       </c>
       <c r="B915">
-        <v>5497625</v>
+        <v>5475752</v>
       </c>
       <c r="C915" t="s">
         <v>28</v>
@@ -81915,58 +81915,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F915" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G915" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H915">
+        <v>3</v>
+      </c>
+      <c r="I915">
         <v>2</v>
-      </c>
-      <c r="I915">
-        <v>1</v>
       </c>
       <c r="J915" t="s">
         <v>56</v>
       </c>
       <c r="K915">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="L915">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M915">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N915">
-        <v>2.375</v>
+        <v>1.181</v>
       </c>
       <c r="O915">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P915">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q915">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R915">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S915">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="T915">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U915">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V915">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W915">
-        <v>1.375</v>
+        <v>0.181</v>
       </c>
       <c r="X915">
         <v>-1</v>
@@ -81975,13 +81975,13 @@
         <v>-1</v>
       </c>
       <c r="Z915">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA915">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB915">
-        <v>0.95</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC915">
         <v>-1</v>
@@ -82170,7 +82170,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>5475752</v>
+        <v>5497625</v>
       </c>
       <c r="C918" t="s">
         <v>28</v>
@@ -82182,58 +82182,58 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F918" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G918" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H918">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I918">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J918" t="s">
         <v>56</v>
       </c>
       <c r="K918">
-        <v>1.285</v>
+        <v>2.45</v>
       </c>
       <c r="L918">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="M918">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N918">
-        <v>1.181</v>
+        <v>2.375</v>
       </c>
       <c r="O918">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="P918">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="Q918">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R918">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="S918">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="T918">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U918">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V918">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W918">
-        <v>0.181</v>
+        <v>1.375</v>
       </c>
       <c r="X918">
         <v>-1</v>
@@ -82242,13 +82242,13 @@
         <v>-1</v>
       </c>
       <c r="Z918">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA918">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB918">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC918">
         <v>-1</v>
@@ -92672,7 +92672,7 @@
         <v>1034</v>
       </c>
       <c r="B1036">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C1036" t="s">
         <v>28</v>
@@ -92684,76 +92684,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1036" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G1036" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1036">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1036" t="s">
         <v>57</v>
       </c>
       <c r="K1036">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L1036">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M1036">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N1036">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O1036">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P1036">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q1036">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1036">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S1036">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T1036">
         <v>2.25</v>
       </c>
       <c r="U1036">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V1036">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="W1036">
         <v>-1</v>
       </c>
       <c r="X1036">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y1036">
         <v>-1</v>
       </c>
       <c r="Z1036">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA1036">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB1036">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1036">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="1037" spans="1:29">
@@ -92761,7 +92761,7 @@
         <v>1035</v>
       </c>
       <c r="B1037">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C1037" t="s">
         <v>28</v>
@@ -92773,76 +92773,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F1037" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G1037" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1037">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1037" t="s">
         <v>57</v>
       </c>
       <c r="K1037">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L1037">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1037">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N1037">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O1037">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P1037">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q1037">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1037">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S1037">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T1037">
         <v>2.25</v>
       </c>
       <c r="U1037">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V1037">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W1037">
         <v>-1</v>
       </c>
       <c r="X1037">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y1037">
         <v>-1</v>
       </c>
       <c r="Z1037">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA1037">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1037">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1037">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="1038" spans="1:29">
@@ -100326,7 +100326,7 @@
         <v>1120</v>
       </c>
       <c r="B1122">
-        <v>6777989</v>
+        <v>6777771</v>
       </c>
       <c r="C1122" t="s">
         <v>28</v>
@@ -100338,40 +100338,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G1122" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H1122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1122" t="s">
         <v>57</v>
       </c>
       <c r="K1122">
+        <v>2</v>
+      </c>
+      <c r="L1122">
+        <v>3.4</v>
+      </c>
+      <c r="M1122">
         <v>3.75</v>
       </c>
-      <c r="L1122">
+      <c r="N1122">
+        <v>1.909</v>
+      </c>
+      <c r="O1122">
+        <v>3.6</v>
+      </c>
+      <c r="P1122">
         <v>4</v>
       </c>
-      <c r="M1122">
-        <v>1.833</v>
-      </c>
-      <c r="N1122">
-        <v>3</v>
-      </c>
-      <c r="O1122">
-        <v>4</v>
-      </c>
-      <c r="P1122">
-        <v>2.1</v>
-      </c>
       <c r="Q1122">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1122">
         <v>1.95</v>
@@ -100380,34 +100380,34 @@
         <v>1.95</v>
       </c>
       <c r="T1122">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U1122">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="V1122">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="W1122">
         <v>-1</v>
       </c>
       <c r="X1122">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y1122">
         <v>-1</v>
       </c>
       <c r="Z1122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA1122">
+        <v>0.95</v>
+      </c>
+      <c r="AB1122">
         <v>-0.5</v>
       </c>
-      <c r="AB1122">
-        <v>1.03</v>
-      </c>
       <c r="AC1122">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1123" spans="1:29">
@@ -100415,7 +100415,7 @@
         <v>1121</v>
       </c>
       <c r="B1123">
-        <v>6777771</v>
+        <v>6777989</v>
       </c>
       <c r="C1123" t="s">
         <v>28</v>
@@ -100427,40 +100427,40 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1123" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G1123" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1123" t="s">
         <v>57</v>
       </c>
       <c r="K1123">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L1123">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1123">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="N1123">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O1123">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P1123">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q1123">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R1123">
         <v>1.95</v>
@@ -100469,34 +100469,34 @@
         <v>1.95</v>
       </c>
       <c r="T1123">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U1123">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="V1123">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="W1123">
         <v>-1</v>
       </c>
       <c r="X1123">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Y1123">
         <v>-1</v>
       </c>
       <c r="Z1123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA1123">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1123">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AC1123">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1124" spans="1:29">
@@ -100504,7 +100504,7 @@
         <v>1122</v>
       </c>
       <c r="B1124">
-        <v>6777993</v>
+        <v>6777992</v>
       </c>
       <c r="C1124" t="s">
         <v>28</v>
@@ -100516,58 +100516,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1124" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G1124" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H1124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1124" t="s">
         <v>56</v>
       </c>
       <c r="K1124">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L1124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M1124">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N1124">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O1124">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P1124">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q1124">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R1124">
         <v>1.97</v>
       </c>
       <c r="S1124">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T1124">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1124">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V1124">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="W1124">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="X1124">
         <v>-1</v>
@@ -100576,13 +100576,13 @@
         <v>-1</v>
       </c>
       <c r="Z1124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA1124">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="AB1124">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC1124">
         <v>-1</v>
@@ -100593,7 +100593,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>6777992</v>
+        <v>6777993</v>
       </c>
       <c r="C1125" t="s">
         <v>28</v>
@@ -100605,58 +100605,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F1125" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G1125" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H1125">
+        <v>4</v>
+      </c>
+      <c r="I1125">
         <v>3</v>
-      </c>
-      <c r="I1125">
-        <v>2</v>
       </c>
       <c r="J1125" t="s">
         <v>56</v>
       </c>
       <c r="K1125">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L1125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M1125">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="N1125">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O1125">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P1125">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q1125">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R1125">
         <v>1.97</v>
       </c>
       <c r="S1125">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T1125">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U1125">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V1125">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="W1125">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="X1125">
         <v>-1</v>
@@ -100665,13 +100665,13 @@
         <v>-1</v>
       </c>
       <c r="Z1125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA1125">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
       <c r="AB1125">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC1125">
         <v>-1</v>
@@ -100949,7 +100949,7 @@
         <v>1127</v>
       </c>
       <c r="B1129">
-        <v>6777998</v>
+        <v>6778001</v>
       </c>
       <c r="C1129" t="s">
         <v>28</v>
@@ -100961,76 +100961,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F1129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1129">
+        <v>0</v>
+      </c>
+      <c r="I1129">
         <v>2</v>
       </c>
-      <c r="I1129">
-        <v>1</v>
-      </c>
       <c r="J1129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1129">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L1129">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="M1129">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="N1129">
-        <v>1.8</v>
+        <v>15</v>
       </c>
       <c r="O1129">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P1129">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="Q1129">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
       <c r="R1129">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S1129">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="T1129">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U1129">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="V1129">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="W1129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1129">
         <v>-1</v>
       </c>
       <c r="Y1129">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z1129">
-        <v>0.5149999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AA1129">
         <v>-0.5</v>
       </c>
       <c r="AB1129">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AC1129">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="1130" spans="1:29">
@@ -101038,7 +101038,7 @@
         <v>1128</v>
       </c>
       <c r="B1130">
-        <v>6778001</v>
+        <v>6777998</v>
       </c>
       <c r="C1130" t="s">
         <v>28</v>
@@ -101050,76 +101050,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F1130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G1130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K1130">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="L1130">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="M1130">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="N1130">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="O1130">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="P1130">
-        <v>1.181</v>
+        <v>4.2</v>
       </c>
       <c r="Q1130">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1130">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S1130">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T1130">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U1130">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V1130">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="W1130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1130">
         <v>-1</v>
       </c>
       <c r="Y1130">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z1130">
-        <v>0.42</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA1130">
         <v>-0.5</v>
       </c>
       <c r="AB1130">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AC1130">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1131" spans="1:29">
@@ -102195,7 +102195,7 @@
         <v>1141</v>
       </c>
       <c r="B1143">
-        <v>6777773</v>
+        <v>6778008</v>
       </c>
       <c r="C1143" t="s">
         <v>28</v>
@@ -102207,13 +102207,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F1143" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G1143" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H1143">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I1143">
         <v>0</v>
@@ -102222,43 +102222,43 @@
         <v>56</v>
       </c>
       <c r="K1143">
+        <v>4.2</v>
+      </c>
+      <c r="L1143">
+        <v>3.6</v>
+      </c>
+      <c r="M1143">
+        <v>1.833</v>
+      </c>
+      <c r="N1143">
         <v>2.5</v>
-      </c>
-      <c r="L1143">
-        <v>3.5</v>
-      </c>
-      <c r="M1143">
-        <v>2.6</v>
-      </c>
-      <c r="N1143">
-        <v>2.2</v>
       </c>
       <c r="O1143">
         <v>3.5</v>
       </c>
       <c r="P1143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q1143">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R1143">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S1143">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="T1143">
         <v>2.5</v>
       </c>
       <c r="U1143">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V1143">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="W1143">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="X1143">
         <v>-1</v>
@@ -102267,16 +102267,16 @@
         <v>-1</v>
       </c>
       <c r="Z1143">
-        <v>0.8899999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1143">
         <v>-1</v>
       </c>
       <c r="AB1143">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1143">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="1144" spans="1:29">
@@ -102284,7 +102284,7 @@
         <v>1142</v>
       </c>
       <c r="B1144">
-        <v>6778008</v>
+        <v>6777773</v>
       </c>
       <c r="C1144" t="s">
         <v>28</v>
@@ -102296,13 +102296,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F1144" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G1144" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H1144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I1144">
         <v>0</v>
@@ -102311,43 +102311,43 @@
         <v>56</v>
       </c>
       <c r="K1144">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L1144">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M1144">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="N1144">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="O1144">
         <v>3.5</v>
       </c>
       <c r="P1144">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q1144">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1144">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S1144">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="T1144">
         <v>2.5</v>
       </c>
       <c r="U1144">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="V1144">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="W1144">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X1144">
         <v>-1</v>
@@ -102356,16 +102356,16 @@
         <v>-1</v>
       </c>
       <c r="Z1144">
-        <v>0.8500000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA1144">
         <v>-1</v>
       </c>
       <c r="AB1144">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC1144">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1145" spans="1:29">
@@ -106823,7 +106823,7 @@
         <v>1193</v>
       </c>
       <c r="B1195">
-        <v>6778056</v>
+        <v>6777779</v>
       </c>
       <c r="C1195" t="s">
         <v>28</v>
@@ -106832,49 +106832,49 @@
         <v>28</v>
       </c>
       <c r="E1195" s="2">
-        <v>45322.6875</v>
+        <v>45323.6875</v>
       </c>
       <c r="F1195" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G1195" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K1195">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L1195">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M1195">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N1195">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O1195">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P1195">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q1195">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1195">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="S1195">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="T1195">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1195">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="V1195">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="W1195">
         <v>0</v>
@@ -106897,7 +106897,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>6778060</v>
+        <v>7587638</v>
       </c>
       <c r="C1196" t="s">
         <v>28</v>
@@ -106906,49 +106906,49 @@
         <v>28</v>
       </c>
       <c r="E1196" s="2">
-        <v>45322.6875</v>
+        <v>45323.71875</v>
       </c>
       <c r="F1196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1196" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K1196">
-        <v>1.125</v>
+        <v>2.75</v>
       </c>
       <c r="L1196">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="M1196">
-        <v>17</v>
+        <v>2.375</v>
       </c>
       <c r="N1196">
-        <v>1.09</v>
+        <v>2.625</v>
       </c>
       <c r="O1196">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="P1196">
-        <v>19</v>
+        <v>2.625</v>
       </c>
       <c r="Q1196">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R1196">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="S1196">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T1196">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U1196">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V1196">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W1196">
         <v>0</v>
@@ -106971,7 +106971,7 @@
         <v>1195</v>
       </c>
       <c r="B1197">
-        <v>6778059</v>
+        <v>6778067</v>
       </c>
       <c r="C1197" t="s">
         <v>28</v>
@@ -106980,49 +106980,49 @@
         <v>28</v>
       </c>
       <c r="E1197" s="2">
-        <v>45322.71875</v>
+        <v>45325.39583333334</v>
       </c>
       <c r="F1197" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G1197" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K1197">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L1197">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M1197">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N1197">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="O1197">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P1197">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q1197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1197">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="S1197">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="T1197">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U1197">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V1197">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="W1197">
         <v>0</v>
@@ -107045,7 +107045,7 @@
         <v>1196</v>
       </c>
       <c r="B1198">
-        <v>6777779</v>
+        <v>6778064</v>
       </c>
       <c r="C1198" t="s">
         <v>28</v>
@@ -107054,49 +107054,49 @@
         <v>28</v>
       </c>
       <c r="E1198" s="2">
-        <v>45323.6875</v>
+        <v>45325.5</v>
       </c>
       <c r="F1198" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G1198" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="K1198">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="L1198">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M1198">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N1198">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O1198">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P1198">
+        <v>5.5</v>
+      </c>
+      <c r="Q1198">
+        <v>-0.75</v>
+      </c>
+      <c r="R1198">
+        <v>1.84</v>
+      </c>
+      <c r="S1198">
+        <v>2.06</v>
+      </c>
+      <c r="T1198">
         <v>2.75</v>
       </c>
-      <c r="Q1198">
-        <v>0</v>
-      </c>
-      <c r="R1198">
-        <v>1.81</v>
-      </c>
-      <c r="S1198">
-        <v>2.09</v>
-      </c>
-      <c r="T1198">
-        <v>3</v>
-      </c>
       <c r="U1198">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="V1198">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W1198">
         <v>0</v>
@@ -107119,7 +107119,7 @@
         <v>1197</v>
       </c>
       <c r="B1199">
-        <v>7587638</v>
+        <v>6778065</v>
       </c>
       <c r="C1199" t="s">
         <v>28</v>
@@ -107128,49 +107128,49 @@
         <v>28</v>
       </c>
       <c r="E1199" s="2">
-        <v>45323.71875</v>
+        <v>45325.5</v>
       </c>
       <c r="F1199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1199" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K1199">
         <v>2.75</v>
       </c>
       <c r="L1199">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M1199">
+        <v>2.55</v>
+      </c>
+      <c r="N1199">
+        <v>3</v>
+      </c>
+      <c r="O1199">
+        <v>3.3</v>
+      </c>
+      <c r="P1199">
         <v>2.375</v>
       </c>
-      <c r="N1199">
-        <v>2.625</v>
-      </c>
-      <c r="O1199">
-        <v>3.6</v>
-      </c>
-      <c r="P1199">
-        <v>2.55</v>
-      </c>
       <c r="Q1199">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R1199">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="S1199">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T1199">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U1199">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="V1199">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W1199">
         <v>0</v>
@@ -107193,7 +107193,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>6778067</v>
+        <v>6780945</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -107202,49 +107202,49 @@
         <v>28</v>
       </c>
       <c r="E1200" s="2">
-        <v>45325.39583333334</v>
+        <v>45325.5</v>
       </c>
       <c r="F1200" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G1200" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K1200">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L1200">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M1200">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N1200">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O1200">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P1200">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q1200">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R1200">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S1200">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T1200">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1200">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V1200">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="W1200">
         <v>0</v>
@@ -107267,7 +107267,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>6778064</v>
+        <v>6778068</v>
       </c>
       <c r="C1201" t="s">
         <v>28</v>
@@ -107276,49 +107276,49 @@
         <v>28</v>
       </c>
       <c r="E1201" s="2">
-        <v>45325.5</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F1201" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G1201" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K1201">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="L1201">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M1201">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N1201">
-        <v>1.615</v>
+        <v>5.25</v>
       </c>
       <c r="O1201">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P1201">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q1201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R1201">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S1201">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="T1201">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1201">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V1201">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W1201">
         <v>0</v>
@@ -107341,7 +107341,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>6778065</v>
+        <v>6777780</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107350,49 +107350,49 @@
         <v>28</v>
       </c>
       <c r="E1202" s="2">
-        <v>45325.5</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F1202" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K1202">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L1202">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M1202">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N1202">
+        <v>1.75</v>
+      </c>
+      <c r="O1202">
+        <v>4</v>
+      </c>
+      <c r="P1202">
+        <v>4.2</v>
+      </c>
+      <c r="Q1202">
+        <v>-0.75</v>
+      </c>
+      <c r="R1202">
+        <v>2</v>
+      </c>
+      <c r="S1202">
+        <v>1.9</v>
+      </c>
+      <c r="T1202">
         <v>3</v>
       </c>
-      <c r="O1202">
-        <v>3.3</v>
-      </c>
-      <c r="P1202">
-        <v>2.375</v>
-      </c>
-      <c r="Q1202">
-        <v>0.25</v>
-      </c>
-      <c r="R1202">
-        <v>1.8</v>
-      </c>
-      <c r="S1202">
-        <v>2.1</v>
-      </c>
-      <c r="T1202">
-        <v>2.5</v>
-      </c>
       <c r="U1202">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="V1202">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W1202">
         <v>0</v>
@@ -107415,7 +107415,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6780945</v>
+        <v>6778061</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107424,43 +107424,43 @@
         <v>28</v>
       </c>
       <c r="E1203" s="2">
-        <v>45325.5</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G1203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K1203">
-        <v>1.363</v>
+        <v>1.727</v>
       </c>
       <c r="L1203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M1203">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="N1203">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O1203">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P1203">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q1203">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1203">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S1203">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T1203">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1203">
         <v>1.87</v>
@@ -107489,7 +107489,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6778068</v>
+        <v>6778066</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107498,49 +107498,49 @@
         <v>28</v>
       </c>
       <c r="E1204" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F1204" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1204" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K1204">
+        <v>1.571</v>
+      </c>
+      <c r="L1204">
+        <v>4</v>
+      </c>
+      <c r="M1204">
         <v>6</v>
       </c>
-      <c r="L1204">
-        <v>4.5</v>
-      </c>
-      <c r="M1204">
-        <v>1.5</v>
-      </c>
       <c r="N1204">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="O1204">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P1204">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="Q1204">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1204">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="S1204">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="T1204">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1204">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V1204">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W1204">
         <v>0</v>
@@ -107563,7 +107563,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6777780</v>
+        <v>6778062</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107572,49 +107572,49 @@
         <v>28</v>
       </c>
       <c r="E1205" s="2">
-        <v>45326.45833333334</v>
+        <v>45326.5625</v>
       </c>
       <c r="F1205" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G1205" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K1205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L1205">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M1205">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N1205">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="O1205">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P1205">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q1205">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1205">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S1205">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T1205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U1205">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="V1205">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="W1205">
         <v>0</v>
@@ -107637,7 +107637,7 @@
         <v>1204</v>
       </c>
       <c r="B1206">
-        <v>6778061</v>
+        <v>6778063</v>
       </c>
       <c r="C1206" t="s">
         <v>28</v>
@@ -107646,49 +107646,49 @@
         <v>28</v>
       </c>
       <c r="E1206" s="2">
-        <v>45326.45833333334</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F1206" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1206" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K1206">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L1206">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M1206">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="N1206">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="O1206">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P1206">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q1206">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R1206">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S1206">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T1206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U1206">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V1206">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W1206">
         <v>0</v>
@@ -107703,228 +107703,6 @@
         <v>0</v>
       </c>
       <c r="AA1206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:27">
-      <c r="A1207" s="1">
-        <v>1205</v>
-      </c>
-      <c r="B1207">
-        <v>6778066</v>
-      </c>
-      <c r="C1207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1207" s="2">
-        <v>45326.45833333334</v>
-      </c>
-      <c r="F1207" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1207" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1207">
-        <v>1.571</v>
-      </c>
-      <c r="L1207">
-        <v>4</v>
-      </c>
-      <c r="M1207">
-        <v>6</v>
-      </c>
-      <c r="N1207">
-        <v>1.615</v>
-      </c>
-      <c r="O1207">
-        <v>4</v>
-      </c>
-      <c r="P1207">
-        <v>5.5</v>
-      </c>
-      <c r="Q1207">
-        <v>-0.75</v>
-      </c>
-      <c r="R1207">
-        <v>1.81</v>
-      </c>
-      <c r="S1207">
-        <v>2.09</v>
-      </c>
-      <c r="T1207">
-        <v>2.75</v>
-      </c>
-      <c r="U1207">
-        <v>1.95</v>
-      </c>
-      <c r="V1207">
-        <v>1.95</v>
-      </c>
-      <c r="W1207">
-        <v>0</v>
-      </c>
-      <c r="X1207">
-        <v>0</v>
-      </c>
-      <c r="Y1207">
-        <v>0</v>
-      </c>
-      <c r="Z1207">
-        <v>0</v>
-      </c>
-      <c r="AA1207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:27">
-      <c r="A1208" s="1">
-        <v>1206</v>
-      </c>
-      <c r="B1208">
-        <v>6778062</v>
-      </c>
-      <c r="C1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1208" s="2">
-        <v>45326.5625</v>
-      </c>
-      <c r="F1208" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1208" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1208">
-        <v>2</v>
-      </c>
-      <c r="L1208">
-        <v>3.8</v>
-      </c>
-      <c r="M1208">
-        <v>3.5</v>
-      </c>
-      <c r="N1208">
-        <v>2.05</v>
-      </c>
-      <c r="O1208">
-        <v>3.75</v>
-      </c>
-      <c r="P1208">
-        <v>3.3</v>
-      </c>
-      <c r="Q1208">
-        <v>-0.25</v>
-      </c>
-      <c r="R1208">
-        <v>1.84</v>
-      </c>
-      <c r="S1208">
-        <v>2.06</v>
-      </c>
-      <c r="T1208">
-        <v>2.75</v>
-      </c>
-      <c r="U1208">
-        <v>1.87</v>
-      </c>
-      <c r="V1208">
-        <v>2.03</v>
-      </c>
-      <c r="W1208">
-        <v>0</v>
-      </c>
-      <c r="X1208">
-        <v>0</v>
-      </c>
-      <c r="Y1208">
-        <v>0</v>
-      </c>
-      <c r="Z1208">
-        <v>0</v>
-      </c>
-      <c r="AA1208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:27">
-      <c r="A1209" s="1">
-        <v>1207</v>
-      </c>
-      <c r="B1209">
-        <v>6778063</v>
-      </c>
-      <c r="C1209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1209" s="2">
-        <v>45327.70833333334</v>
-      </c>
-      <c r="F1209" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1209" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1209">
-        <v>8</v>
-      </c>
-      <c r="L1209">
-        <v>4.2</v>
-      </c>
-      <c r="M1209">
-        <v>1.45</v>
-      </c>
-      <c r="N1209">
-        <v>8</v>
-      </c>
-      <c r="O1209">
-        <v>4.333</v>
-      </c>
-      <c r="P1209">
-        <v>1.444</v>
-      </c>
-      <c r="Q1209">
-        <v>1.25</v>
-      </c>
-      <c r="R1209">
-        <v>2</v>
-      </c>
-      <c r="S1209">
-        <v>1.9</v>
-      </c>
-      <c r="T1209">
-        <v>3</v>
-      </c>
-      <c r="U1209">
-        <v>2</v>
-      </c>
-      <c r="V1209">
-        <v>1.9</v>
-      </c>
-      <c r="W1209">
-        <v>0</v>
-      </c>
-      <c r="X1209">
-        <v>0</v>
-      </c>
-      <c r="Y1209">
-        <v>0</v>
-      </c>
-      <c r="Z1209">
-        <v>0</v>
-      </c>
-      <c r="AA1209">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Leeds</t>
   </si>
   <si>
-    <t>Aston Villa</t>
+    <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
+    <t>Aston Villa</t>
   </si>
   <si>
     <t>Chelsea</t>
@@ -157,10 +157,10 @@
     <t>Liverpool</t>
   </si>
   <si>
-    <t>Bournemouth</t>
+    <t>West Ham</t>
   </si>
   <si>
-    <t>West Ham</t>
+    <t>Bournemouth</t>
   </si>
   <si>
     <t>Burnley</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC445"/>
+  <dimension ref="A1:AC451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1364,7 +1364,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5164939</v>
+        <v>5164942</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>2.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.25</v>
+      </c>
+      <c r="R11">
         <v>1.95</v>
       </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.97</v>
-      </c>
       <c r="S11">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5164942</v>
+        <v>5164939</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,73 +1542,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>1.91</v>
+      </c>
+      <c r="V12">
+        <v>1.99</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
         <v>2.5</v>
       </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
       <c r="Y12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1806,7 +1806,7 @@
         <v>44939.70833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2343,7 +2343,7 @@
         <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2432,7 +2432,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -2951,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5164619</v>
+        <v>5164964</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2966,73 +2966,73 @@
         <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P28">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3040,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5164960</v>
+        <v>5164963</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3052,76 +3052,76 @@
         <v>44947.5</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L29">
         <v>3.3</v>
       </c>
       <c r="M29">
+        <v>2.375</v>
+      </c>
+      <c r="N29">
+        <v>2.6</v>
+      </c>
+      <c r="O29">
+        <v>3.2</v>
+      </c>
+      <c r="P29">
+        <v>2.9</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1.84</v>
+      </c>
+      <c r="S29">
+        <v>2.06</v>
+      </c>
+      <c r="T29">
         <v>2.25</v>
       </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29">
-        <v>3.8</v>
-      </c>
-      <c r="P29">
-        <v>1.85</v>
-      </c>
-      <c r="Q29">
-        <v>0.5</v>
-      </c>
-      <c r="R29">
-        <v>2.11</v>
-      </c>
-      <c r="S29">
-        <v>1.82</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
       <c r="U29">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="V29">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z29">
-        <v>1.11</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB29">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5164964</v>
+        <v>5164619</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3144,73 +3144,73 @@
         <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30">
+        <v>2.4</v>
+      </c>
+      <c r="L30">
+        <v>3.3</v>
+      </c>
+      <c r="M30">
+        <v>2.9</v>
+      </c>
+      <c r="N30">
+        <v>2.75</v>
+      </c>
+      <c r="O30">
+        <v>3.1</v>
+      </c>
+      <c r="P30">
+        <v>2.625</v>
+      </c>
+      <c r="Q30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30">
-        <v>1.727</v>
-      </c>
-      <c r="L30">
-        <v>3.6</v>
-      </c>
-      <c r="M30">
-        <v>4.75</v>
-      </c>
-      <c r="N30">
-        <v>1.833</v>
-      </c>
-      <c r="O30">
-        <v>3.5</v>
-      </c>
-      <c r="P30">
-        <v>4.5</v>
-      </c>
-      <c r="Q30">
-        <v>-0.5</v>
-      </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
         <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.5149999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5164963</v>
+        <v>5164960</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3230,76 +3230,76 @@
         <v>44947.5</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P31">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.84</v>
+        <v>2.11</v>
       </c>
       <c r="S31">
-        <v>2.06</v>
+        <v>1.82</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V31">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y31">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.11</v>
       </c>
       <c r="AA31">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC31">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3319,7 +3319,7 @@
         <v>44947.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3930,7 +3930,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5164973</v>
+        <v>5164970</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3942,58 +3942,58 @@
         <v>44961.5</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>54</v>
       </c>
       <c r="K39">
+        <v>1.444</v>
+      </c>
+      <c r="L39">
         <v>4.333</v>
       </c>
-      <c r="L39">
-        <v>3.75</v>
-      </c>
       <c r="M39">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>3.8</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P39">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S39">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T39">
         <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="W39">
-        <v>2.8</v>
+        <v>0.363</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -4002,13 +4002,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB39">
-        <v>0.5249999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="AC39">
         <v>-0.5</v>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5164970</v>
+        <v>5164973</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,58 +4031,58 @@
         <v>44961.5</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>54</v>
       </c>
       <c r="K40">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="L40">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>3.8</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
         <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="V40">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>0.363</v>
+        <v>2.8</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4091,13 +4091,13 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA40">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.49</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC40">
         <v>-0.5</v>
@@ -4123,7 +4123,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4298,7 +4298,7 @@
         <v>44961.5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4390,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4743,7 +4743,7 @@
         <v>44968.39583333334</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4820,7 +4820,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5164978</v>
+        <v>5164981</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4832,73 +4832,73 @@
         <v>44968.5</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L49">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Q49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S49">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W49">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z49">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB49">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4909,7 +4909,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5164976</v>
+        <v>5164978</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4921,76 +4921,76 @@
         <v>44968.5</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
         <v>2.05</v>
       </c>
       <c r="N50">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O50">
         <v>3.75</v>
       </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R50">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S50">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V50">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X50">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8799999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC50">
-        <v>0.52</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4998,7 +4998,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>5164981</v>
+        <v>5164976</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5010,76 +5010,76 @@
         <v>44968.5</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K51">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M51">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N51">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S51">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T51">
         <v>2.25</v>
       </c>
       <c r="U51">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="V51">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y51">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA51">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5277,7 +5277,7 @@
         <v>44968.60416666666</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54" t="s">
         <v>44</v>
@@ -5458,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5722,7 +5722,7 @@
         <v>44975.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5164986</v>
+        <v>5164987</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,76 +5811,76 @@
         <v>44975.5</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
       <c r="J60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K60">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N60">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q60">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S60">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V60">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA60">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5164987</v>
+        <v>5164991</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5900,76 +5900,76 @@
         <v>44975.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
       <c r="J61" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K61">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L61">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S61">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="V61">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z61">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.9299999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5977,7 +5977,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5164991</v>
+        <v>5164616</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5989,76 +5989,76 @@
         <v>44975.5</v>
       </c>
       <c r="F62" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>9.5</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>1.285</v>
       </c>
       <c r="N62">
+        <v>9</v>
+      </c>
+      <c r="O62">
+        <v>5.25</v>
+      </c>
+      <c r="P62">
+        <v>1.333</v>
+      </c>
+      <c r="Q62">
         <v>1.75</v>
       </c>
-      <c r="O62">
-        <v>3.6</v>
-      </c>
-      <c r="P62">
-        <v>4.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
       <c r="R62">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S62">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U62">
-        <v>1.775</v>
+        <v>2.04</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y62">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA62">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
         <v>-1</v>
       </c>
       <c r="AC62">
-        <v>1.025</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5164616</v>
+        <v>5164985</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,76 +6078,76 @@
         <v>44975.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K63">
-        <v>9.5</v>
+        <v>1.75</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
+        <v>4.75</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
+        <v>4.2</v>
+      </c>
+      <c r="P63">
         <v>6</v>
       </c>
-      <c r="M63">
-        <v>1.285</v>
-      </c>
-      <c r="N63">
-        <v>9</v>
-      </c>
-      <c r="O63">
-        <v>5.25</v>
-      </c>
-      <c r="P63">
-        <v>1.333</v>
-      </c>
       <c r="Q63">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S63">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V63">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z63">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8600000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5164985</v>
+        <v>5164986</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,10 +6167,10 @@
         <v>44975.5</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6182,41 +6182,41 @@
         <v>52</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.99</v>
+      </c>
+      <c r="V64">
         <v>1.91</v>
       </c>
-      <c r="V64">
-        <v>1.99</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
@@ -6224,19 +6224,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.99</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6259,7 +6259,7 @@
         <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6526,7 +6526,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6704,7 +6704,7 @@
         <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>44982.5</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>30</v>
@@ -7057,7 +7057,7 @@
         <v>44982.60416666666</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G74" t="s">
         <v>45</v>
@@ -7146,7 +7146,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7680,10 +7680,10 @@
         <v>44989.5</v>
       </c>
       <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s">
         <v>38</v>
-      </c>
-      <c r="G81" t="s">
-        <v>39</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7757,7 +7757,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5165005</v>
+        <v>5165001</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7769,58 +7769,58 @@
         <v>44989.5</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>54</v>
       </c>
       <c r="K82">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L82">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R82">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S82">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U82">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="V82">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="W82">
-        <v>0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7829,16 +7829,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>1.09</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7861,7 +7861,7 @@
         <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5165001</v>
+        <v>5165005</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,58 +7947,58 @@
         <v>44989.5</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>54</v>
       </c>
       <c r="K84">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="L84">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M84">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="N84">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q84">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="S84">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="V84">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="W84">
-        <v>0.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,16 +8007,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>1.09</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8392,7 +8392,7 @@
         <v>44996.39583333334</v>
       </c>
       <c r="F89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8837,7 +8837,7 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -9015,10 +9015,10 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9549,10 +9549,10 @@
         <v>45003.5</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9997,7 +9997,7 @@
         <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10261,7 +10261,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
         <v>34</v>
@@ -10350,7 +10350,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
         <v>41</v>
@@ -10620,7 +10620,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>45018.41666666666</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
         <v>36</v>
@@ -11062,7 +11062,7 @@
         <v>45020.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G119" t="s">
         <v>43</v>
@@ -11154,7 +11154,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11418,7 +11418,7 @@
         <v>45021.66666666666</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123" t="s">
         <v>44</v>
@@ -11688,7 +11688,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11777,7 +11777,7 @@
         <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11863,7 +11863,7 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -12222,7 +12222,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12397,7 +12397,7 @@
         <v>45031.35416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5424543</v>
+        <v>5423223</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,76 +12575,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>54</v>
+      </c>
+      <c r="K136">
+        <v>2.5</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>2.8</v>
+      </c>
+      <c r="N136">
+        <v>2.8</v>
+      </c>
+      <c r="O136">
+        <v>3.1</v>
+      </c>
+      <c r="P136">
+        <v>2.625</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>2.01</v>
+      </c>
+      <c r="S136">
+        <v>1.89</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
         <v>2</v>
       </c>
-      <c r="J136" t="s">
-        <v>52</v>
-      </c>
-      <c r="K136">
-        <v>2.4</v>
-      </c>
-      <c r="L136">
-        <v>3.3</v>
-      </c>
-      <c r="M136">
-        <v>2.875</v>
-      </c>
-      <c r="N136">
-        <v>3</v>
-      </c>
-      <c r="O136">
-        <v>3.4</v>
-      </c>
-      <c r="P136">
-        <v>2.375</v>
-      </c>
-      <c r="Q136">
-        <v>0.25</v>
-      </c>
-      <c r="R136">
-        <v>1.82</v>
-      </c>
-      <c r="S136">
-        <v>2.08</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>2.03</v>
-      </c>
       <c r="V136">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA136">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1.03</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>5423223</v>
+        <v>5424543</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,76 +12664,76 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>2</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K137">
+        <v>2.4</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.875</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
+        <v>2.375</v>
+      </c>
+      <c r="Q137">
+        <v>0.25</v>
+      </c>
+      <c r="R137">
+        <v>1.82</v>
+      </c>
+      <c r="S137">
+        <v>2.08</v>
+      </c>
+      <c r="T137">
         <v>2.5</v>
       </c>
-      <c r="L137">
-        <v>3.2</v>
-      </c>
-      <c r="M137">
-        <v>2.8</v>
-      </c>
-      <c r="N137">
-        <v>2.8</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.625</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>2.01</v>
-      </c>
-      <c r="S137">
-        <v>1.89</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
       <c r="U137">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W137">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z137">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
       <c r="AC137">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12756,7 +12756,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12845,7 +12845,7 @@
         <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -13020,7 +13020,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F141" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5497625</v>
+        <v>5498401</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,76 +13554,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
         <v>3.2</v>
       </c>
       <c r="M147">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
         <v>3.3</v>
       </c>
       <c r="P147">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q147">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="W147">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5498401</v>
+        <v>5498524</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,76 +13643,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
         <v>39</v>
       </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>53</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O148">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P148">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S148">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="V148">
-        <v>1.81</v>
+        <v>2.01</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC148">
-        <v>0.8100000000000001</v>
+        <v>0.5049999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13720,7 +13720,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5498524</v>
+        <v>5497625</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13732,76 +13732,76 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K149">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M149">
         <v>3</v>
       </c>
       <c r="N149">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="S149">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="T149">
         <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V149">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X149">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC149">
-        <v>0.5049999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13809,7 +13809,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5470334</v>
+        <v>5499343</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13821,73 +13821,73 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G150" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H150">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K150">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N150">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O150">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R150">
-        <v>1.93</v>
+        <v>2.175</v>
       </c>
       <c r="S150">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V150">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="W150">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z150">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB150">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13898,7 +13898,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5499343</v>
+        <v>5470334</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13910,73 +13910,73 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>54</v>
+      </c>
+      <c r="K151">
+        <v>1.909</v>
+      </c>
+      <c r="L151">
+        <v>3.6</v>
+      </c>
+      <c r="M151">
         <v>4</v>
       </c>
-      <c r="J151" t="s">
-        <v>52</v>
-      </c>
-      <c r="K151">
-        <v>3</v>
-      </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
-      <c r="M151">
-        <v>2.4</v>
-      </c>
       <c r="N151">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P151">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>2.175</v>
+        <v>1.93</v>
       </c>
       <c r="S151">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -14002,7 +14002,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14088,7 +14088,7 @@
         <v>45041.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14343,7 +14343,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5505005</v>
+        <v>5510828</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14355,13 +14355,13 @@
         <v>45042.65625</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>2</v>
@@ -14370,40 +14370,40 @@
         <v>52</v>
       </c>
       <c r="K156">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L156">
+        <v>3.5</v>
+      </c>
+      <c r="M156">
+        <v>1.909</v>
+      </c>
+      <c r="N156">
+        <v>3.5</v>
+      </c>
+      <c r="O156">
         <v>3.8</v>
       </c>
-      <c r="M156">
-        <v>5</v>
-      </c>
-      <c r="N156">
-        <v>1.75</v>
-      </c>
-      <c r="O156">
-        <v>3.75</v>
-      </c>
       <c r="P156">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V156">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="W156">
         <v>-1</v>
@@ -14412,19 +14412,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>3.75</v>
+        <v>1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.5149999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14432,7 +14432,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5510828</v>
+        <v>5505005</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14444,13 +14444,13 @@
         <v>45042.65625</v>
       </c>
       <c r="F157" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -14459,40 +14459,40 @@
         <v>52</v>
       </c>
       <c r="K157">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="N157">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O157">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="V157">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="W157">
         <v>-1</v>
@@ -14501,19 +14501,19 @@
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>1</v>
+        <v>3.75</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>1.02</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14714,7 +14714,7 @@
         <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14889,10 +14889,10 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15159,7 +15159,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G167" t="s">
         <v>37</v>
@@ -15782,7 +15782,7 @@
         <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H172">
         <v>3</v>
@@ -16049,7 +16049,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16227,7 +16227,7 @@
         <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16313,7 +16313,7 @@
         <v>45052.45833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
         <v>40</v>
@@ -16580,7 +16580,7 @@
         <v>45053.625</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G181" t="s">
         <v>35</v>
@@ -17114,7 +17114,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17381,10 +17381,10 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H190">
         <v>2</v>
@@ -17473,7 +17473,7 @@
         <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -18004,7 +18004,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G197" t="s">
         <v>35</v>
@@ -18185,7 +18185,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18274,7 +18274,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18449,7 +18449,7 @@
         <v>45067.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18983,7 +18983,7 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>43</v>
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>5701228</v>
+        <v>5701225</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,76 +19250,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K211">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L211">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N211">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O211">
         <v>4</v>
       </c>
       <c r="P211">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V211">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X211">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.41</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>1.05</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5635290</v>
+        <v>5701228</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K213">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M213">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N213">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="O213">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P213">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.46</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB213">
         <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.8600000000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5701225</v>
+        <v>5635290</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,58 +19517,58 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G214" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
         <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>54</v>
       </c>
       <c r="K214">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N214">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P214">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R214">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="S214">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U214">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V214">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="W214">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19577,16 +19577,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.41</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.9299999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5702358</v>
+        <v>5706766</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,73 +19606,73 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="O215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="V215">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB215">
-        <v>1.03</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19698,7 +19698,7 @@
         <v>34</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5706766</v>
+        <v>5702358</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,73 +19784,73 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I217">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M217">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N217">
-        <v>2.75</v>
+        <v>1.285</v>
       </c>
       <c r="O217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P217">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R217">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U217">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="V217">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA217">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AC217">
         <v>-1</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6777647</v>
+        <v>6777650</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M220">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="N220">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P220">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q220">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
+        <v>2.1</v>
+      </c>
+      <c r="S220">
+        <v>1.83</v>
+      </c>
+      <c r="T220">
         <v>2</v>
       </c>
-      <c r="S220">
+      <c r="U220">
         <v>1.9</v>
       </c>
-      <c r="T220">
-        <v>2.75</v>
-      </c>
-      <c r="U220">
-        <v>1.92</v>
-      </c>
       <c r="V220">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6777650</v>
+        <v>6777647</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
+        <v>2.8</v>
+      </c>
+      <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
+        <v>2.4</v>
+      </c>
+      <c r="N221">
         <v>2.625</v>
       </c>
-      <c r="L221">
-        <v>3.3</v>
-      </c>
-      <c r="M221">
-        <v>2.625</v>
-      </c>
-      <c r="N221">
-        <v>3.6</v>
-      </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R221">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y221">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA221">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20410,7 +20410,7 @@
         <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224">
         <v>5</v>
@@ -21033,7 +21033,7 @@
         <v>46</v>
       </c>
       <c r="G231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H231">
         <v>3</v>
@@ -21297,7 +21297,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
         <v>33</v>
@@ -21386,7 +21386,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G235" t="s">
         <v>40</v>
@@ -21475,7 +21475,7 @@
         <v>45159.66666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
         <v>32</v>
@@ -21653,7 +21653,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="F238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G238" t="s">
         <v>29</v>
@@ -21730,7 +21730,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6777901</v>
+        <v>6777898</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21742,76 +21742,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K239">
+        <v>1.25</v>
+      </c>
+      <c r="L239">
+        <v>7</v>
+      </c>
+      <c r="M239">
+        <v>9</v>
+      </c>
+      <c r="N239">
+        <v>1.3</v>
+      </c>
+      <c r="O239">
+        <v>5.75</v>
+      </c>
+      <c r="P239">
+        <v>10</v>
+      </c>
+      <c r="Q239">
+        <v>-1.75</v>
+      </c>
+      <c r="R239">
+        <v>2.02</v>
+      </c>
+      <c r="S239">
+        <v>1.88</v>
+      </c>
+      <c r="T239">
+        <v>3.25</v>
+      </c>
+      <c r="U239">
         <v>2.05</v>
       </c>
-      <c r="L239">
-        <v>3.3</v>
-      </c>
-      <c r="M239">
-        <v>3.6</v>
-      </c>
-      <c r="N239">
-        <v>2.4</v>
-      </c>
-      <c r="O239">
-        <v>3.3</v>
-      </c>
-      <c r="P239">
-        <v>2.9</v>
-      </c>
-      <c r="Q239">
-        <v>-0.25</v>
-      </c>
-      <c r="R239">
-        <v>2.09</v>
-      </c>
-      <c r="S239">
-        <v>1.81</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>2</v>
-      </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y239">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.8100000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21819,7 +21819,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6777898</v>
+        <v>6777899</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21831,76 +21831,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
         <v>53</v>
       </c>
       <c r="K240">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="L240">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N240">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O240">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q240">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S240">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T240">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>0.8799999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AB240">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6777899</v>
+        <v>6777901</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21920,76 +21920,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G241" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K241">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M241">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N241">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P241">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q241">
         <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S241">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V241">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>0.445</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22101,7 +22101,7 @@
         <v>43</v>
       </c>
       <c r="G243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H243">
         <v>1</v>
@@ -22190,7 +22190,7 @@
         <v>49</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22457,7 +22457,7 @@
         <v>51</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22635,7 +22635,7 @@
         <v>31</v>
       </c>
       <c r="G249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -23080,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H254">
         <v>3</v>
@@ -23166,7 +23166,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23421,7 +23421,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6777762</v>
+        <v>6777921</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23433,76 +23433,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G258" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
         <v>1</v>
       </c>
-      <c r="I258">
-        <v>3</v>
-      </c>
       <c r="J258" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K258">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="L258">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M258">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="N258">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O258">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P258">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="Q258">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R258">
+        <v>2.01</v>
+      </c>
+      <c r="S258">
+        <v>1.92</v>
+      </c>
+      <c r="T258">
+        <v>3.25</v>
+      </c>
+      <c r="U258">
         <v>1.84</v>
       </c>
-      <c r="S258">
-        <v>2.09</v>
-      </c>
-      <c r="T258">
-        <v>2.75</v>
-      </c>
-      <c r="U258">
-        <v>1.97</v>
-      </c>
       <c r="V258">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>1.09</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB258">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23510,7 +23510,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>6777921</v>
+        <v>6777762</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23522,76 +23522,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="G259" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259">
+        <v>3</v>
+      </c>
+      <c r="J259" t="s">
+        <v>52</v>
+      </c>
+      <c r="K259">
+        <v>8</v>
+      </c>
+      <c r="L259">
+        <v>4.5</v>
+      </c>
+      <c r="M259">
+        <v>1.4</v>
+      </c>
+      <c r="N259">
+        <v>5.25</v>
+      </c>
+      <c r="O259">
+        <v>4.2</v>
+      </c>
+      <c r="P259">
+        <v>1.6</v>
+      </c>
+      <c r="Q259">
         <v>1</v>
       </c>
-      <c r="J259" t="s">
-        <v>54</v>
-      </c>
-      <c r="K259">
-        <v>1.333</v>
-      </c>
-      <c r="L259">
-        <v>5</v>
-      </c>
-      <c r="M259">
-        <v>9</v>
-      </c>
-      <c r="N259">
-        <v>1.285</v>
-      </c>
-      <c r="O259">
-        <v>5.75</v>
-      </c>
-      <c r="P259">
-        <v>10</v>
-      </c>
-      <c r="Q259">
-        <v>-1.75</v>
-      </c>
       <c r="R259">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S259">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T259">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U259">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="V259">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="W259">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.9199999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AC259">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:29">
@@ -23599,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6777918</v>
+        <v>6777916</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23611,73 +23611,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G260" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H260">
+        <v>3</v>
+      </c>
+      <c r="I260">
         <v>1</v>
       </c>
-      <c r="I260">
-        <v>3</v>
-      </c>
       <c r="J260" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K260">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L260">
         <v>3.6</v>
       </c>
       <c r="M260">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N260">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O260">
+        <v>3.6</v>
+      </c>
+      <c r="P260">
         <v>4</v>
-      </c>
-      <c r="P260">
-        <v>3.25</v>
       </c>
       <c r="Q260">
         <v>-0.5</v>
       </c>
       <c r="R260">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S260">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T260">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V260">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA260">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.9299999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC260">
         <v>-1</v>
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6777916</v>
+        <v>6777918</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,73 +23700,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
         <v>3</v>
       </c>
-      <c r="I261">
-        <v>1</v>
-      </c>
       <c r="J261" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K261">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L261">
         <v>3.6</v>
       </c>
       <c r="M261">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N261">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q261">
         <v>-0.5</v>
       </c>
       <c r="R261">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S261">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U261">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V261">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W261">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z261">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB261">
-        <v>0.9199999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC261">
         <v>-1</v>
@@ -23967,7 +23967,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
         <v>40</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
         <v>53</v>
       </c>
       <c r="K267">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L267">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M267">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N267">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O267">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P267">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q267">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R267">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S267">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T267">
         <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V267">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA267">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC267">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6777929</v>
+        <v>6777928</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="L268">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="N268">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O268">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q268">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S268">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T268">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V268">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W268">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB268">
         <v>-1</v>
       </c>
       <c r="AC268">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24400,7 +24400,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6780963</v>
+        <v>6777929</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24412,76 +24412,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K269">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L269">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M269">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="N269">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="O269">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P269">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R269">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S269">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T269">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U269">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X269">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>0.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24682,7 +24682,7 @@
         <v>46</v>
       </c>
       <c r="G272" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H272">
         <v>3</v>
@@ -24860,7 +24860,7 @@
         <v>40</v>
       </c>
       <c r="G274" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24949,7 +24949,7 @@
         <v>43</v>
       </c>
       <c r="G275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H275">
         <v>3</v>
@@ -25124,7 +25124,7 @@
         <v>45199.35416666666</v>
       </c>
       <c r="F277" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
         <v>43</v>
@@ -25213,7 +25213,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G278" t="s">
         <v>50</v>
@@ -25302,7 +25302,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F279" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G279" t="s">
         <v>32</v>
@@ -25394,7 +25394,7 @@
         <v>35</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H280">
         <v>0</v>
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6777941</v>
+        <v>6777945</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,76 +26192,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289">
         <v>1</v>
       </c>
-      <c r="I289">
-        <v>4</v>
-      </c>
       <c r="J289" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K289">
+        <v>1.6</v>
+      </c>
+      <c r="L289">
+        <v>4.333</v>
+      </c>
+      <c r="M289">
+        <v>5</v>
+      </c>
+      <c r="N289">
+        <v>1.65</v>
+      </c>
+      <c r="O289">
         <v>4.2</v>
       </c>
-      <c r="L289">
-        <v>3.8</v>
-      </c>
-      <c r="M289">
-        <v>1.8</v>
-      </c>
-      <c r="N289">
-        <v>5.25</v>
-      </c>
-      <c r="O289">
-        <v>4</v>
-      </c>
       <c r="P289">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="Q289">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R289">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T289">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U289">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V289">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA289">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB289">
-        <v>0.8600000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6777943</v>
+        <v>6777944</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,58 +26281,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F290" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H290">
         <v>3</v>
       </c>
       <c r="I290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
         <v>54</v>
       </c>
       <c r="K290">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L290">
         <v>3.6</v>
       </c>
       <c r="M290">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N290">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O290">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P290">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q290">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S290">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="T290">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V290">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W290">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,13 +26341,13 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.8999999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA290">
         <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.8500000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26358,7 +26358,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6777944</v>
+        <v>6777943</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26370,58 +26370,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G291" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="s">
         <v>54</v>
       </c>
       <c r="K291">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L291">
         <v>3.6</v>
       </c>
       <c r="M291">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N291">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O291">
+        <v>3.6</v>
+      </c>
+      <c r="P291">
         <v>4</v>
       </c>
-      <c r="P291">
-        <v>7</v>
-      </c>
       <c r="Q291">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="T291">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W291">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26430,13 +26430,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.8300000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.99</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6777945</v>
+        <v>6777941</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,76 +26459,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G292" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K292">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="L292">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M292">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N292">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O292">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P292">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q292">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R292">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S292">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T292">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V292">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W292">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z292">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB292">
-        <v>0.425</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC292">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26548,7 +26548,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
         <v>30</v>
@@ -26729,7 +26729,7 @@
         <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H295">
         <v>1</v>
@@ -26815,7 +26815,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G296" t="s">
         <v>44</v>
@@ -27174,7 +27174,7 @@
         <v>44</v>
       </c>
       <c r="G300" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H300">
         <v>4</v>
@@ -27349,7 +27349,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G302" t="s">
         <v>42</v>
@@ -27705,10 +27705,10 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G306" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H306">
         <v>4</v>
@@ -27883,7 +27883,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G308" t="s">
         <v>29</v>
@@ -28061,7 +28061,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G310" t="s">
         <v>49</v>
@@ -28328,7 +28328,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F313" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G313" t="s">
         <v>33</v>
@@ -28417,7 +28417,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G314" t="s">
         <v>51</v>
@@ -28865,7 +28865,7 @@
         <v>45</v>
       </c>
       <c r="G319" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H319">
         <v>6</v>
@@ -29028,7 +29028,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>6777768</v>
+        <v>6777964</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29040,76 +29040,76 @@
         <v>45234.5</v>
       </c>
       <c r="F321" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G321" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321" t="s">
+        <v>53</v>
+      </c>
+      <c r="K321">
+        <v>3.6</v>
+      </c>
+      <c r="L321">
+        <v>3.5</v>
+      </c>
+      <c r="M321">
         <v>2</v>
       </c>
-      <c r="J321" t="s">
-        <v>54</v>
-      </c>
-      <c r="K321">
-        <v>2.375</v>
-      </c>
-      <c r="L321">
+      <c r="N321">
+        <v>2.8</v>
+      </c>
+      <c r="O321">
         <v>3.4</v>
       </c>
-      <c r="M321">
-        <v>2.875</v>
-      </c>
-      <c r="N321">
-        <v>2.15</v>
-      </c>
-      <c r="O321">
-        <v>3.5</v>
-      </c>
       <c r="P321">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q321">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R321">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="S321">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="T321">
         <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V321">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="W321">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X321">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y321">
         <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB321">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29132,7 +29132,7 @@
         <v>49</v>
       </c>
       <c r="G322" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29206,7 +29206,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6777964</v>
+        <v>6777768</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29218,76 +29218,76 @@
         <v>45234.5</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G323" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K323">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L323">
+        <v>3.4</v>
+      </c>
+      <c r="M323">
+        <v>2.875</v>
+      </c>
+      <c r="N323">
+        <v>2.15</v>
+      </c>
+      <c r="O323">
         <v>3.5</v>
       </c>
-      <c r="M323">
-        <v>2</v>
-      </c>
-      <c r="N323">
-        <v>2.8</v>
-      </c>
-      <c r="O323">
-        <v>3.4</v>
-      </c>
       <c r="P323">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="S323">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="T323">
         <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V323">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X323">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC323">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29399,7 +29399,7 @@
         <v>30</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29740,7 +29740,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6777974</v>
+        <v>6780956</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29752,76 +29752,76 @@
         <v>45241.5</v>
       </c>
       <c r="F329" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" t="s">
+        <v>54</v>
+      </c>
+      <c r="K329">
+        <v>1.25</v>
+      </c>
+      <c r="L329">
+        <v>6</v>
+      </c>
+      <c r="M329">
+        <v>12</v>
+      </c>
+      <c r="N329">
+        <v>1.3</v>
+      </c>
+      <c r="O329">
+        <v>5.75</v>
+      </c>
+      <c r="P329">
+        <v>9</v>
+      </c>
+      <c r="Q329">
+        <v>-1.75</v>
+      </c>
+      <c r="R329">
+        <v>2.07</v>
+      </c>
+      <c r="S329">
+        <v>1.86</v>
+      </c>
+      <c r="T329">
+        <v>3.25</v>
+      </c>
+      <c r="U329">
         <v>2</v>
       </c>
-      <c r="I329">
-        <v>3</v>
-      </c>
-      <c r="J329" t="s">
-        <v>52</v>
-      </c>
-      <c r="K329">
-        <v>2.3</v>
-      </c>
-      <c r="L329">
-        <v>3.4</v>
-      </c>
-      <c r="M329">
-        <v>3.1</v>
-      </c>
-      <c r="N329">
-        <v>2.6</v>
-      </c>
-      <c r="O329">
-        <v>3</v>
-      </c>
-      <c r="P329">
-        <v>2.9</v>
-      </c>
-      <c r="Q329">
-        <v>0</v>
-      </c>
-      <c r="R329">
-        <v>1.88</v>
-      </c>
-      <c r="S329">
-        <v>2.05</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
-      <c r="U329">
-        <v>1.84</v>
-      </c>
       <c r="V329">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
         <v>-1</v>
       </c>
       <c r="AA329">
-        <v>1.05</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB329">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29829,7 +29829,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6777978</v>
+        <v>6777974</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29841,73 +29841,73 @@
         <v>45241.5</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G330" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
         <v>3</v>
       </c>
-      <c r="I330">
-        <v>1</v>
-      </c>
       <c r="J330" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K330">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L330">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M330">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="N330">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O330">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P330">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="Q330">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R330">
+        <v>1.88</v>
+      </c>
+      <c r="S330">
+        <v>2.05</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>1.84</v>
+      </c>
+      <c r="V330">
         <v>2.06</v>
       </c>
-      <c r="S330">
-        <v>1.84</v>
-      </c>
-      <c r="T330">
-        <v>2.75</v>
-      </c>
-      <c r="U330">
-        <v>1.83</v>
-      </c>
-      <c r="V330">
-        <v>2.07</v>
-      </c>
       <c r="W330">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB330">
-        <v>0.8300000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29918,7 +29918,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>6780956</v>
+        <v>6777978</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29930,16 +29930,16 @@
         <v>45241.5</v>
       </c>
       <c r="F331" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G331" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H331">
+        <v>3</v>
+      </c>
+      <c r="I331">
         <v>1</v>
-      </c>
-      <c r="I331">
-        <v>0</v>
       </c>
       <c r="J331" t="s">
         <v>54</v>
@@ -29954,34 +29954,34 @@
         <v>12</v>
       </c>
       <c r="N331">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O331">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P331">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q331">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R331">
+        <v>2.06</v>
+      </c>
+      <c r="S331">
+        <v>1.84</v>
+      </c>
+      <c r="T331">
+        <v>2.75</v>
+      </c>
+      <c r="U331">
+        <v>1.83</v>
+      </c>
+      <c r="V331">
         <v>2.07</v>
       </c>
-      <c r="S331">
-        <v>1.86</v>
-      </c>
-      <c r="T331">
-        <v>3.25</v>
-      </c>
-      <c r="U331">
-        <v>2</v>
-      </c>
-      <c r="V331">
-        <v>1.9</v>
-      </c>
       <c r="W331">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X331">
         <v>-1</v>
@@ -29990,16 +29990,16 @@
         <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA331">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC331">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30019,7 +30019,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F332" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -30286,7 +30286,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G335" t="s">
         <v>30</v>
@@ -30375,7 +30375,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F336" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G336" t="s">
         <v>41</v>
@@ -30645,7 +30645,7 @@
         <v>51</v>
       </c>
       <c r="G339" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H339">
         <v>2</v>
@@ -30734,7 +30734,7 @@
         <v>49</v>
       </c>
       <c r="G340" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H340">
         <v>1</v>
@@ -31001,7 +31001,7 @@
         <v>50</v>
       </c>
       <c r="G343" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H343">
         <v>1</v>
@@ -31179,7 +31179,7 @@
         <v>29</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6777989</v>
+        <v>6777993</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,73 +31888,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G353" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K353">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="L353">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M353">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="N353">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O353">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P353">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="Q353">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R353">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T353">
         <v>3.25</v>
       </c>
       <c r="U353">
+        <v>1.87</v>
+      </c>
+      <c r="V353">
         <v>2.03</v>
       </c>
-      <c r="V353">
-        <v>1.87</v>
-      </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X353">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA353">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AB353">
-        <v>1.03</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC353">
         <v>-1</v>
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,73 +31977,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G354" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354">
         <v>2</v>
       </c>
       <c r="J354" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K354">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L354">
         <v>4</v>
       </c>
       <c r="M354">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N354">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O354">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P354">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q354">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R354">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S354">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T354">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U354">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V354">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W354">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA354">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB354">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC354">
         <v>-1</v>
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6777993</v>
+        <v>6777992</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,58 +32066,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H355">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J355" t="s">
         <v>54</v>
       </c>
       <c r="K355">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L355">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M355">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N355">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O355">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P355">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q355">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R355">
         <v>1.97</v>
       </c>
       <c r="S355">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T355">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V355">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="W355">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32126,13 +32126,13 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA355">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="AB355">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32155,10 +32155,10 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H356">
         <v>1</v>
@@ -32499,7 +32499,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6778000</v>
+        <v>6777998</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32511,76 +32511,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F360" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G360" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H360">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I360">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
         <v>54</v>
       </c>
       <c r="K360">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L360">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M360">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N360">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O360">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P360">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q360">
+        <v>-0.75</v>
+      </c>
+      <c r="R360">
+        <v>2.03</v>
+      </c>
+      <c r="S360">
+        <v>1.87</v>
+      </c>
+      <c r="T360">
+        <v>2.75</v>
+      </c>
+      <c r="U360">
+        <v>1.83</v>
+      </c>
+      <c r="V360">
+        <v>2.07</v>
+      </c>
+      <c r="W360">
+        <v>0.8</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
+        <v>-1</v>
+      </c>
+      <c r="Z360">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="AA360">
         <v>-0.5</v>
       </c>
-      <c r="R360">
-        <v>2.05</v>
-      </c>
-      <c r="S360">
-        <v>1.85</v>
-      </c>
-      <c r="T360">
-        <v>2.25</v>
-      </c>
-      <c r="U360">
-        <v>1.9</v>
-      </c>
-      <c r="V360">
-        <v>2</v>
-      </c>
-      <c r="W360">
-        <v>1</v>
-      </c>
-      <c r="X360">
-        <v>-1</v>
-      </c>
-      <c r="Y360">
-        <v>-1</v>
-      </c>
-      <c r="Z360">
-        <v>1.05</v>
-      </c>
-      <c r="AA360">
-        <v>-1</v>
-      </c>
       <c r="AB360">
-        <v>0.8999999999999999</v>
+        <v>0.415</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32588,7 +32588,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6777998</v>
+        <v>6778000</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32600,58 +32600,58 @@
         <v>45266.6875</v>
       </c>
       <c r="F361" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361" t="s">
         <v>54</v>
       </c>
       <c r="K361">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L361">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M361">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N361">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O361">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q361">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R361">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S361">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T361">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="W361">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X361">
         <v>-1</v>
@@ -32660,16 +32660,16 @@
         <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.5149999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>0.415</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC361">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32689,10 +32689,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32867,7 +32867,7 @@
         <v>45266.71875</v>
       </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G364" t="s">
         <v>45</v>
@@ -33137,7 +33137,7 @@
         <v>29</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H367">
         <v>1</v>
@@ -33223,7 +33223,7 @@
         <v>45269.39583333334</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G368" t="s">
         <v>46</v>
@@ -33404,7 +33404,7 @@
         <v>35</v>
       </c>
       <c r="G370" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -33668,7 +33668,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
         <v>32</v>
@@ -33760,7 +33760,7 @@
         <v>41</v>
       </c>
       <c r="G374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H374">
         <v>5</v>
@@ -34383,7 +34383,7 @@
         <v>45</v>
       </c>
       <c r="G381" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H381">
         <v>2</v>
@@ -34558,7 +34558,7 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F383" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G383" t="s">
         <v>42</v>
@@ -34739,7 +34739,7 @@
         <v>31</v>
       </c>
       <c r="G385" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H385">
         <v>1</v>
@@ -34914,7 +34914,7 @@
         <v>45281.70833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G387" t="s">
         <v>43</v>
@@ -35003,7 +35003,7 @@
         <v>45282.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G388" t="s">
         <v>50</v>
@@ -35092,7 +35092,7 @@
         <v>45283.39583333334</v>
       </c>
       <c r="F389" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G389" t="s">
         <v>35</v>
@@ -35451,7 +35451,7 @@
         <v>30</v>
       </c>
       <c r="G393" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H393">
         <v>2</v>
@@ -35893,7 +35893,7 @@
         <v>45286.5</v>
       </c>
       <c r="F398" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G398" t="s">
         <v>41</v>
@@ -36074,7 +36074,7 @@
         <v>35</v>
       </c>
       <c r="G400" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H400">
         <v>3</v>
@@ -36163,7 +36163,7 @@
         <v>40</v>
       </c>
       <c r="G401" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H401">
         <v>2</v>
@@ -36519,7 +36519,7 @@
         <v>32</v>
       </c>
       <c r="G405" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H405">
         <v>0</v>
@@ -36872,7 +36872,7 @@
         <v>45290.5</v>
       </c>
       <c r="F409" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G409" t="s">
         <v>31</v>
@@ -36961,7 +36961,7 @@
         <v>45290.5</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G410" t="s">
         <v>49</v>
@@ -37142,7 +37142,7 @@
         <v>29</v>
       </c>
       <c r="G412" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H412">
         <v>3</v>
@@ -37406,7 +37406,7 @@
         <v>45293.6875</v>
       </c>
       <c r="F415" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G415" t="s">
         <v>43</v>
@@ -37765,7 +37765,7 @@
         <v>33</v>
       </c>
       <c r="G419" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>32</v>
       </c>
       <c r="G421" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H421">
         <v>5</v>
@@ -38121,7 +38121,7 @@
         <v>50</v>
       </c>
       <c r="G423" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H423">
         <v>2</v>
@@ -38207,7 +38207,7 @@
         <v>45312.5625</v>
       </c>
       <c r="F424" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G424" t="s">
         <v>46</v>
@@ -38652,7 +38652,7 @@
         <v>45321.70833333334</v>
       </c>
       <c r="F429" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G429" t="s">
         <v>50</v>
@@ -38741,7 +38741,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F430" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G430" t="s">
         <v>44</v>
@@ -38818,7 +38818,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6778060</v>
+        <v>6778056</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38830,58 +38830,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F431" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G431" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H431">
         <v>3</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="s">
         <v>54</v>
       </c>
       <c r="K431">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L431">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M431">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="N431">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O431">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P431">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q431">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R431">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S431">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T431">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U431">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V431">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W431">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X431">
         <v>-1</v>
@@ -38890,13 +38890,13 @@
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA431">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB431">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC431">
         <v>-1</v>
@@ -38907,7 +38907,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6778056</v>
+        <v>6778060</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38919,58 +38919,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F432" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G432" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H432">
         <v>3</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J432" t="s">
         <v>54</v>
       </c>
       <c r="K432">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M432">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="N432">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O432">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P432">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q432">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R432">
+        <v>2.06</v>
+      </c>
+      <c r="S432">
+        <v>1.84</v>
+      </c>
+      <c r="T432">
+        <v>3.5</v>
+      </c>
+      <c r="U432">
+        <v>1.9</v>
+      </c>
+      <c r="V432">
         <v>2</v>
       </c>
-      <c r="S432">
-        <v>1.9</v>
-      </c>
-      <c r="T432">
-        <v>3.25</v>
-      </c>
-      <c r="U432">
-        <v>1.95</v>
-      </c>
-      <c r="V432">
-        <v>1.95</v>
-      </c>
       <c r="W432">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -38979,13 +38979,13 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB432">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39097,10 +39097,10 @@
         <v>45323.6875</v>
       </c>
       <c r="F434" t="s">
+        <v>47</v>
+      </c>
+      <c r="G434" t="s">
         <v>48</v>
-      </c>
-      <c r="G434" t="s">
-        <v>47</v>
       </c>
       <c r="H434">
         <v>1</v>
@@ -39263,7 +39263,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>6778067</v>
+        <v>6778064</v>
       </c>
       <c r="C436" t="s">
         <v>28</v>
@@ -39272,49 +39272,49 @@
         <v>28</v>
       </c>
       <c r="E436" s="2">
-        <v>45325.39583333334</v>
+        <v>45325.5</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G436" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K436">
+        <v>1.7</v>
+      </c>
+      <c r="L436">
+        <v>4</v>
+      </c>
+      <c r="M436">
+        <v>4.75</v>
+      </c>
+      <c r="N436">
+        <v>1.727</v>
+      </c>
+      <c r="O436">
+        <v>3.8</v>
+      </c>
+      <c r="P436">
+        <v>5</v>
+      </c>
+      <c r="Q436">
+        <v>-0.75</v>
+      </c>
+      <c r="R436">
+        <v>1.98</v>
+      </c>
+      <c r="S436">
+        <v>1.95</v>
+      </c>
+      <c r="T436">
         <v>2.5</v>
       </c>
-      <c r="L436">
-        <v>3.5</v>
-      </c>
-      <c r="M436">
-        <v>2.7</v>
-      </c>
-      <c r="N436">
-        <v>3</v>
-      </c>
-      <c r="O436">
-        <v>3.6</v>
-      </c>
-      <c r="P436">
-        <v>2.25</v>
-      </c>
-      <c r="Q436">
-        <v>0.25</v>
-      </c>
-      <c r="R436">
-        <v>1.93</v>
-      </c>
-      <c r="S436">
-        <v>2</v>
-      </c>
-      <c r="T436">
-        <v>2.75</v>
-      </c>
       <c r="U436">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="V436">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W436">
         <v>0</v>
@@ -39337,7 +39337,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>6778064</v>
+        <v>6778065</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39349,46 +39349,46 @@
         <v>45325.5</v>
       </c>
       <c r="F437" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G437" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K437">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L437">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M437">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N437">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O437">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P437">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q437">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R437">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="S437">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="T437">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U437">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="V437">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="W437">
         <v>0</v>
@@ -39411,7 +39411,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>6778065</v>
+        <v>6780945</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39423,46 +39423,46 @@
         <v>45325.5</v>
       </c>
       <c r="F438" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G438" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K438">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="L438">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M438">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N438">
-        <v>2.9</v>
+        <v>1.444</v>
       </c>
       <c r="O438">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P438">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q438">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R438">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="S438">
-        <v>2.14</v>
+        <v>1.94</v>
       </c>
       <c r="T438">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U438">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="V438">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
         <v>0</v>
@@ -39485,7 +39485,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>6780945</v>
+        <v>6778068</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39494,49 +39494,49 @@
         <v>28</v>
       </c>
       <c r="E439" s="2">
-        <v>45325.5</v>
+        <v>45325.60416666666</v>
       </c>
       <c r="F439" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G439" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K439">
-        <v>1.363</v>
+        <v>6</v>
       </c>
       <c r="L439">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M439">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N439">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="O439">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P439">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q439">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R439">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="S439">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T439">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V439">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W439">
         <v>0</v>
@@ -39559,7 +39559,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>6778068</v>
+        <v>6777780</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39568,49 +39568,49 @@
         <v>28</v>
       </c>
       <c r="E440" s="2">
-        <v>45325.60416666666</v>
+        <v>45326.45833333334</v>
       </c>
       <c r="F440" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G440" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K440">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L440">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M440">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="N440">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="O440">
         <v>4.2</v>
       </c>
       <c r="P440">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="Q440">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R440">
+        <v>1.83</v>
+      </c>
+      <c r="S440">
         <v>2.1</v>
-      </c>
-      <c r="S440">
-        <v>1.83</v>
       </c>
       <c r="T440">
         <v>2.75</v>
       </c>
       <c r="U440">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="V440">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W440">
         <v>0</v>
@@ -39633,7 +39633,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>6778061</v>
+        <v>6778066</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39645,46 +39645,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F441" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G441" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K441">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L441">
         <v>4</v>
       </c>
       <c r="M441">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N441">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O441">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P441">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q441">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R441">
+        <v>2.01</v>
+      </c>
+      <c r="S441">
         <v>1.92</v>
-      </c>
-      <c r="S441">
-        <v>2.01</v>
       </c>
       <c r="T441">
         <v>2.75</v>
       </c>
       <c r="U441">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V441">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W441">
         <v>0</v>
@@ -39707,7 +39707,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>6777780</v>
+        <v>6778061</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39719,46 +39719,46 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G442" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K442">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L442">
         <v>4</v>
       </c>
       <c r="M442">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N442">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O442">
         <v>4.2</v>
       </c>
       <c r="P442">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q442">
         <v>-0.75</v>
       </c>
       <c r="R442">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S442">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="T442">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U442">
+        <v>2.07</v>
+      </c>
+      <c r="V442">
         <v>1.83</v>
-      </c>
-      <c r="V442">
-        <v>2.07</v>
       </c>
       <c r="W442">
         <v>0</v>
@@ -39781,7 +39781,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6778066</v>
+        <v>6778062</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39790,49 +39790,49 @@
         <v>28</v>
       </c>
       <c r="E443" s="2">
-        <v>45326.45833333334</v>
+        <v>45326.5625</v>
       </c>
       <c r="F443" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G443" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K443">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L443">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M443">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N443">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O443">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P443">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q443">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R443">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="S443">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="T443">
         <v>2.75</v>
       </c>
       <c r="U443">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V443">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W443">
         <v>0</v>
@@ -39855,7 +39855,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6778062</v>
+        <v>6778063</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -39864,49 +39864,49 @@
         <v>28</v>
       </c>
       <c r="E444" s="2">
-        <v>45326.5625</v>
+        <v>45327.70833333334</v>
       </c>
       <c r="F444" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G444" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K444">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L444">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M444">
-        <v>3.5</v>
+        <v>1.45</v>
       </c>
       <c r="N444">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O444">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P444">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q444">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R444">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S444">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T444">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U444">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="V444">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W444">
         <v>0</v>
@@ -39929,7 +39929,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6778063</v>
+        <v>6778073</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -39938,49 +39938,49 @@
         <v>28</v>
       </c>
       <c r="E445" s="2">
-        <v>45327.70833333334</v>
+        <v>45332.39583333334</v>
       </c>
       <c r="F445" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G445" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K445">
-        <v>8</v>
+        <v>1.222</v>
       </c>
       <c r="L445">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M445">
-        <v>1.45</v>
+        <v>10</v>
       </c>
       <c r="N445">
+        <v>1.222</v>
+      </c>
+      <c r="O445">
         <v>7</v>
       </c>
-      <c r="O445">
-        <v>4.75</v>
-      </c>
       <c r="P445">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="Q445">
-        <v>1.25</v>
+        <v>-2</v>
       </c>
       <c r="R445">
+        <v>2.06</v>
+      </c>
+      <c r="S445">
+        <v>1.84</v>
+      </c>
+      <c r="T445">
+        <v>3.25</v>
+      </c>
+      <c r="U445">
+        <v>1.87</v>
+      </c>
+      <c r="V445">
         <v>2.03</v>
-      </c>
-      <c r="S445">
-        <v>1.9</v>
-      </c>
-      <c r="T445">
-        <v>3</v>
-      </c>
-      <c r="U445">
-        <v>1.97</v>
-      </c>
-      <c r="V445">
-        <v>1.93</v>
       </c>
       <c r="W445">
         <v>0</v>
@@ -39995,6 +39995,450 @@
         <v>0</v>
       </c>
       <c r="AA445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:29">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <v>6778071</v>
+      </c>
+      <c r="C446" t="s">
+        <v>28</v>
+      </c>
+      <c r="D446" t="s">
+        <v>28</v>
+      </c>
+      <c r="E446" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F446" t="s">
+        <v>41</v>
+      </c>
+      <c r="G446" t="s">
+        <v>48</v>
+      </c>
+      <c r="K446">
+        <v>2.3</v>
+      </c>
+      <c r="L446">
+        <v>3.5</v>
+      </c>
+      <c r="M446">
+        <v>2.9</v>
+      </c>
+      <c r="N446">
+        <v>2.3</v>
+      </c>
+      <c r="O446">
+        <v>3.5</v>
+      </c>
+      <c r="P446">
+        <v>2.9</v>
+      </c>
+      <c r="Q446">
+        <v>-0.25</v>
+      </c>
+      <c r="R446">
+        <v>2.07</v>
+      </c>
+      <c r="S446">
+        <v>1.83</v>
+      </c>
+      <c r="T446">
+        <v>2.75</v>
+      </c>
+      <c r="U446">
+        <v>1.99</v>
+      </c>
+      <c r="V446">
+        <v>1.91</v>
+      </c>
+      <c r="W446">
+        <v>0</v>
+      </c>
+      <c r="X446">
+        <v>0</v>
+      </c>
+      <c r="Y446">
+        <v>0</v>
+      </c>
+      <c r="Z446">
+        <v>0</v>
+      </c>
+      <c r="AA446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:29">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <v>6778072</v>
+      </c>
+      <c r="C447" t="s">
+        <v>28</v>
+      </c>
+      <c r="D447" t="s">
+        <v>28</v>
+      </c>
+      <c r="E447" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F447" t="s">
+        <v>46</v>
+      </c>
+      <c r="G447" t="s">
+        <v>49</v>
+      </c>
+      <c r="K447">
+        <v>1.25</v>
+      </c>
+      <c r="L447">
+        <v>7</v>
+      </c>
+      <c r="M447">
+        <v>8.5</v>
+      </c>
+      <c r="N447">
+        <v>1.222</v>
+      </c>
+      <c r="O447">
+        <v>7</v>
+      </c>
+      <c r="P447">
+        <v>9.5</v>
+      </c>
+      <c r="Q447">
+        <v>-2</v>
+      </c>
+      <c r="R447">
+        <v>1.99</v>
+      </c>
+      <c r="S447">
+        <v>1.91</v>
+      </c>
+      <c r="T447">
+        <v>3.5</v>
+      </c>
+      <c r="U447">
+        <v>1.95</v>
+      </c>
+      <c r="V447">
+        <v>1.95</v>
+      </c>
+      <c r="W447">
+        <v>0</v>
+      </c>
+      <c r="X447">
+        <v>0</v>
+      </c>
+      <c r="Y447">
+        <v>0</v>
+      </c>
+      <c r="Z447">
+        <v>0</v>
+      </c>
+      <c r="AA447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:29">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <v>6778075</v>
+      </c>
+      <c r="C448" t="s">
+        <v>28</v>
+      </c>
+      <c r="D448" t="s">
+        <v>28</v>
+      </c>
+      <c r="E448" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F448" t="s">
+        <v>29</v>
+      </c>
+      <c r="G448" t="s">
+        <v>43</v>
+      </c>
+      <c r="K448">
+        <v>1.833</v>
+      </c>
+      <c r="L448">
+        <v>4</v>
+      </c>
+      <c r="M448">
+        <v>3.8</v>
+      </c>
+      <c r="N448">
+        <v>1.833</v>
+      </c>
+      <c r="O448">
+        <v>4</v>
+      </c>
+      <c r="P448">
+        <v>3.8</v>
+      </c>
+      <c r="Q448">
+        <v>-0.5</v>
+      </c>
+      <c r="R448">
+        <v>1.86</v>
+      </c>
+      <c r="S448">
+        <v>2.04</v>
+      </c>
+      <c r="T448">
+        <v>3.25</v>
+      </c>
+      <c r="U448">
+        <v>1.92</v>
+      </c>
+      <c r="V448">
+        <v>1.98</v>
+      </c>
+      <c r="W448">
+        <v>0</v>
+      </c>
+      <c r="X448">
+        <v>0</v>
+      </c>
+      <c r="Y448">
+        <v>0</v>
+      </c>
+      <c r="Z448">
+        <v>0</v>
+      </c>
+      <c r="AA448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:27">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <v>6778076</v>
+      </c>
+      <c r="C449" t="s">
+        <v>28</v>
+      </c>
+      <c r="D449" t="s">
+        <v>28</v>
+      </c>
+      <c r="E449" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F449" t="s">
+        <v>42</v>
+      </c>
+      <c r="G449" t="s">
+        <v>31</v>
+      </c>
+      <c r="K449">
+        <v>2.1</v>
+      </c>
+      <c r="L449">
+        <v>3.4</v>
+      </c>
+      <c r="M449">
+        <v>3.5</v>
+      </c>
+      <c r="N449">
+        <v>2.05</v>
+      </c>
+      <c r="O449">
+        <v>3.5</v>
+      </c>
+      <c r="P449">
+        <v>3.4</v>
+      </c>
+      <c r="Q449">
+        <v>-0.25</v>
+      </c>
+      <c r="R449">
+        <v>1.84</v>
+      </c>
+      <c r="S449">
+        <v>2.06</v>
+      </c>
+      <c r="T449">
+        <v>2.5</v>
+      </c>
+      <c r="U449">
+        <v>1.88</v>
+      </c>
+      <c r="V449">
+        <v>2.02</v>
+      </c>
+      <c r="W449">
+        <v>0</v>
+      </c>
+      <c r="X449">
+        <v>0</v>
+      </c>
+      <c r="Y449">
+        <v>0</v>
+      </c>
+      <c r="Z449">
+        <v>0</v>
+      </c>
+      <c r="AA449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:27">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <v>6780944</v>
+      </c>
+      <c r="C450" t="s">
+        <v>28</v>
+      </c>
+      <c r="D450" t="s">
+        <v>28</v>
+      </c>
+      <c r="E450" s="2">
+        <v>45332.5</v>
+      </c>
+      <c r="F450" t="s">
+        <v>51</v>
+      </c>
+      <c r="G450" t="s">
+        <v>50</v>
+      </c>
+      <c r="K450">
+        <v>2.05</v>
+      </c>
+      <c r="L450">
+        <v>3.4</v>
+      </c>
+      <c r="M450">
+        <v>3.4</v>
+      </c>
+      <c r="N450">
+        <v>1.95</v>
+      </c>
+      <c r="O450">
+        <v>3.6</v>
+      </c>
+      <c r="P450">
+        <v>3.6</v>
+      </c>
+      <c r="Q450">
+        <v>-0.5</v>
+      </c>
+      <c r="R450">
+        <v>2.02</v>
+      </c>
+      <c r="S450">
+        <v>1.88</v>
+      </c>
+      <c r="T450">
+        <v>2.5</v>
+      </c>
+      <c r="U450">
+        <v>1.89</v>
+      </c>
+      <c r="V450">
+        <v>2.01</v>
+      </c>
+      <c r="W450">
+        <v>0</v>
+      </c>
+      <c r="X450">
+        <v>0</v>
+      </c>
+      <c r="Y450">
+        <v>0</v>
+      </c>
+      <c r="Z450">
+        <v>0</v>
+      </c>
+      <c r="AA450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:27">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <v>6778074</v>
+      </c>
+      <c r="C451" t="s">
+        <v>28</v>
+      </c>
+      <c r="D451" t="s">
+        <v>28</v>
+      </c>
+      <c r="E451" s="2">
+        <v>45332.60416666666</v>
+      </c>
+      <c r="F451" t="s">
+        <v>30</v>
+      </c>
+      <c r="G451" t="s">
+        <v>44</v>
+      </c>
+      <c r="K451">
+        <v>4.333</v>
+      </c>
+      <c r="L451">
+        <v>3.5</v>
+      </c>
+      <c r="M451">
+        <v>1.833</v>
+      </c>
+      <c r="N451">
+        <v>4.333</v>
+      </c>
+      <c r="O451">
+        <v>3.5</v>
+      </c>
+      <c r="P451">
+        <v>1.833</v>
+      </c>
+      <c r="Q451">
+        <v>0.5</v>
+      </c>
+      <c r="R451">
+        <v>2.03</v>
+      </c>
+      <c r="S451">
+        <v>1.87</v>
+      </c>
+      <c r="T451">
+        <v>2.75</v>
+      </c>
+      <c r="U451">
+        <v>2.04</v>
+      </c>
+      <c r="V451">
+        <v>1.86</v>
+      </c>
+      <c r="W451">
+        <v>0</v>
+      </c>
+      <c r="X451">
+        <v>0</v>
+      </c>
+      <c r="Y451">
+        <v>0</v>
+      </c>
+      <c r="Z451">
+        <v>0</v>
+      </c>
+      <c r="AA451">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Brentford</t>
   </si>
   <si>
-    <t>Leicester</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
     <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Leicester</t>
   </si>
   <si>
     <t>Man Utd</t>
@@ -130,10 +130,10 @@
     <t>Leeds</t>
   </si>
   <si>
-    <t>Aston Villa</t>
+    <t>Crystal Palace</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
+    <t>Aston Villa</t>
   </si>
   <si>
     <t>Chelsea</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC467"/>
+  <dimension ref="A1:AC472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5164945</v>
+        <v>5164943</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -919,52 +919,52 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>52</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>3.2</v>
       </c>
-      <c r="N5">
-        <v>2.3</v>
-      </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
+        <v>1.85</v>
+      </c>
+      <c r="S5">
         <v>2.05</v>
       </c>
-      <c r="S5">
-        <v>1.88</v>
-      </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -973,19 +973,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.9</v>
+        <v>1.375</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5164943</v>
+        <v>5164938</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1008,73 +1008,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6">
+        <v>1.833</v>
+      </c>
+      <c r="L6">
+        <v>3.75</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6">
-        <v>3.6</v>
-      </c>
-      <c r="L6">
-        <v>3.5</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
       <c r="N6">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P6">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V6">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5164938</v>
+        <v>5164945</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1097,73 +1097,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9199999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5164939</v>
+        <v>5164942</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N11">
+        <v>3.3</v>
+      </c>
+      <c r="O11">
+        <v>3.4</v>
+      </c>
+      <c r="P11">
+        <v>2.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.25</v>
+      </c>
+      <c r="R11">
         <v>1.95</v>
       </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
-      <c r="P11">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
-      <c r="R11">
-        <v>1.97</v>
-      </c>
       <c r="S11">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5164942</v>
+        <v>5164939</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,73 +1542,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>1.91</v>
+      </c>
+      <c r="V12">
+        <v>1.99</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
         <v>2.5</v>
       </c>
-      <c r="U12">
-        <v>2</v>
-      </c>
-      <c r="V12">
-        <v>1.9</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
       <c r="Y12">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1806,7 +1806,7 @@
         <v>44939.70833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5164620</v>
+        <v>5164955</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1984,13 +1984,13 @@
         <v>44940.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1999,43 +1999,43 @@
         <v>54</v>
       </c>
       <c r="K17">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M17">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N17">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
         <v>3.2</v>
       </c>
       <c r="P17">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="S17">
-        <v>1.97</v>
+        <v>2.125</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="V17">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="W17">
-        <v>1.625</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2044,16 +2044,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9299999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.415</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2061,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5164955</v>
+        <v>5164620</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2073,13 +2073,13 @@
         <v>44940.5</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2088,43 +2088,43 @@
         <v>54</v>
       </c>
       <c r="K18">
+        <v>3.1</v>
+      </c>
+      <c r="L18">
+        <v>3.4</v>
+      </c>
+      <c r="M18">
+        <v>2.25</v>
+      </c>
+      <c r="N18">
         <v>2.625</v>
-      </c>
-      <c r="L18">
-        <v>3.3</v>
-      </c>
-      <c r="M18">
-        <v>2.6</v>
-      </c>
-      <c r="N18">
-        <v>2.5</v>
       </c>
       <c r="O18">
         <v>3.2</v>
       </c>
       <c r="P18">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="S18">
-        <v>2.125</v>
+        <v>1.97</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V18">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.625</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2133,16 +2133,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.78</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.8899999999999999</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2162,7 +2162,7 @@
         <v>44940.5</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2432,7 +2432,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2610,7 +2610,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -2951,7 +2951,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5164964</v>
+        <v>5164960</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2963,76 +2963,76 @@
         <v>44947.5</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="N28">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="O28">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="S28">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V28">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="W28">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8500000000000001</v>
+        <v>1.11</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC28">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5164960</v>
+        <v>5164964</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3141,76 +3141,76 @@
         <v>44947.5</v>
       </c>
       <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
         <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>43</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
+        <v>4.75</v>
+      </c>
+      <c r="N30">
+        <v>1.833</v>
+      </c>
+      <c r="O30">
+        <v>3.5</v>
+      </c>
+      <c r="P30">
+        <v>4.5</v>
+      </c>
+      <c r="Q30">
+        <v>-0.5</v>
+      </c>
+      <c r="R30">
+        <v>1.85</v>
+      </c>
+      <c r="S30">
+        <v>2.05</v>
+      </c>
+      <c r="T30">
         <v>2.25</v>
       </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
-      <c r="P30">
-        <v>1.85</v>
-      </c>
-      <c r="Q30">
-        <v>0.5</v>
-      </c>
-      <c r="R30">
-        <v>2.11</v>
-      </c>
-      <c r="S30">
-        <v>1.82</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
-      </c>
       <c r="U30">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V30">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X30">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1.11</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3319,7 +3319,7 @@
         <v>44947.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -3586,7 +3586,7 @@
         <v>44948.5625</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -3853,10 +3853,10 @@
         <v>44961.39583333334</v>
       </c>
       <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
         <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4120,10 +4120,10 @@
         <v>44961.5</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4301,7 +4301,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4921,7 +4921,7 @@
         <v>44968.5</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5010,7 +5010,7 @@
         <v>44968.5</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
         <v>43</v>
@@ -5188,7 +5188,7 @@
         <v>44968.5</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5458,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5547,7 +5547,7 @@
         <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5633,7 +5633,7 @@
         <v>44972.6875</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5722,10 +5722,10 @@
         <v>44975.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5814,7 +5814,7 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6066,7 +6066,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5164986</v>
+        <v>5164987</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6078,76 +6078,76 @@
         <v>44975.5</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K63">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="Q63">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="S63">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V63">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA63">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6155,7 +6155,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5164985</v>
+        <v>5164986</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6167,10 +6167,10 @@
         <v>44975.5</v>
       </c>
       <c r="F64" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6182,41 +6182,41 @@
         <v>52</v>
       </c>
       <c r="K64">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="N64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O64">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="S64">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="T64">
         <v>2.75</v>
       </c>
       <c r="U64">
+        <v>1.99</v>
+      </c>
+      <c r="V64">
         <v>1.91</v>
       </c>
-      <c r="V64">
-        <v>1.99</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
@@ -6224,19 +6224,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.99</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5164987</v>
+        <v>5164985</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,76 +6256,76 @@
         <v>44975.5</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K65">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L65">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M65">
+        <v>4.75</v>
+      </c>
+      <c r="N65">
+        <v>1.5</v>
+      </c>
+      <c r="O65">
+        <v>4.2</v>
+      </c>
+      <c r="P65">
+        <v>6</v>
+      </c>
+      <c r="Q65">
+        <v>-1</v>
+      </c>
+      <c r="R65">
+        <v>1.86</v>
+      </c>
+      <c r="S65">
+        <v>2.04</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="N65">
-        <v>2.7</v>
-      </c>
-      <c r="O65">
-        <v>3.2</v>
-      </c>
-      <c r="P65">
-        <v>2.7</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>1.97</v>
-      </c>
-      <c r="S65">
-        <v>1.93</v>
-      </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
       <c r="U65">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V65">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W65">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z65">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.9299999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6437,7 +6437,7 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6790,10 +6790,10 @@
         <v>44982.5</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5164996</v>
+        <v>5164994</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6879,76 +6879,76 @@
         <v>44982.5</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K72">
+        <v>2.7</v>
+      </c>
+      <c r="L72">
+        <v>3.25</v>
+      </c>
+      <c r="M72">
+        <v>2.6</v>
+      </c>
+      <c r="N72">
+        <v>2.6</v>
+      </c>
+      <c r="O72">
+        <v>3.2</v>
+      </c>
+      <c r="P72">
+        <v>2.875</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>54</v>
-      </c>
-      <c r="K72">
-        <v>1.85</v>
-      </c>
-      <c r="L72">
-        <v>3.5</v>
-      </c>
-      <c r="M72">
-        <v>4.2</v>
-      </c>
-      <c r="N72">
-        <v>1.95</v>
-      </c>
-      <c r="O72">
-        <v>3.6</v>
-      </c>
-      <c r="P72">
-        <v>3.8</v>
-      </c>
-      <c r="Q72">
-        <v>-0.5</v>
-      </c>
       <c r="R72">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="S72">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>2.09</v>
       </c>
       <c r="W72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z72">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6956,7 +6956,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5164994</v>
+        <v>5164996</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6968,76 +6968,76 @@
         <v>44982.5</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K73">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.81</v>
+        <v>1.98</v>
       </c>
       <c r="S73">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA73">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7146,7 +7146,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7324,10 +7324,10 @@
         <v>44986.69791666666</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7858,10 +7858,10 @@
         <v>44989.5</v>
       </c>
       <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="s">
         <v>38</v>
-      </c>
-      <c r="G83" t="s">
-        <v>39</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7947,7 +7947,7 @@
         <v>44989.5</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>48</v>
@@ -8039,7 +8039,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8128,7 +8128,7 @@
         <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8481,7 +8481,7 @@
         <v>44996.5</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>40</v>
@@ -8748,7 +8748,7 @@
         <v>44996.5</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>31</v>
@@ -8837,7 +8837,7 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -8929,7 +8929,7 @@
         <v>47</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6331200</v>
+        <v>5165013</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>1.363</v>
+        <v>5.25</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M96">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="N96">
+        <v>7.5</v>
+      </c>
+      <c r="O96">
+        <v>4.75</v>
+      </c>
+      <c r="P96">
+        <v>1.4</v>
+      </c>
+      <c r="Q96">
         <v>1.25</v>
       </c>
-      <c r="O96">
-        <v>5.75</v>
-      </c>
-      <c r="P96">
-        <v>12</v>
-      </c>
-      <c r="Q96">
-        <v>-1.75</v>
-      </c>
       <c r="R96">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="S96">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="V96">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.485</v>
       </c>
       <c r="AC96">
-        <v>0.8899999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5165013</v>
+        <v>6331200</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>44997.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M97">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="N97">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="O97">
+        <v>5.75</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97">
+        <v>-1.75</v>
+      </c>
+      <c r="R97">
+        <v>1.99</v>
+      </c>
+      <c r="S97">
+        <v>1.94</v>
+      </c>
+      <c r="T97">
+        <v>3.25</v>
+      </c>
+      <c r="U97">
+        <v>2.04</v>
+      </c>
+      <c r="V97">
+        <v>1.89</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>4.75</v>
       </c>
-      <c r="P97">
-        <v>1.4</v>
-      </c>
-      <c r="Q97">
-        <v>1.25</v>
-      </c>
-      <c r="R97">
-        <v>1.92</v>
-      </c>
-      <c r="S97">
-        <v>1.98</v>
-      </c>
-      <c r="T97">
-        <v>2.75</v>
-      </c>
-      <c r="U97">
-        <v>1.97</v>
-      </c>
-      <c r="V97">
-        <v>1.93</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AB97">
-        <v>0.485</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9374,7 +9374,7 @@
         <v>43</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9641,7 +9641,7 @@
         <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9727,7 +9727,7 @@
         <v>45003.5</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
         <v>48</v>
@@ -9908,7 +9908,7 @@
         <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9994,10 +9994,10 @@
         <v>45004.45833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10350,7 +10350,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
         <v>37</v>
@@ -10439,10 +10439,10 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10620,7 +10620,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10884,7 +10884,7 @@
         <v>45019.66666666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>29</v>
@@ -11062,10 +11062,10 @@
         <v>45020.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5390857</v>
+        <v>5165033</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,55 +11596,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
         <v>1</v>
-      </c>
-      <c r="I125">
-        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>52</v>
       </c>
       <c r="K125">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M125">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S125">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W125">
         <v>-1</v>
@@ -11653,19 +11653,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.909</v>
+        <v>2.75</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.99</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>5165033</v>
+        <v>5390857</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,55 +11685,55 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>52</v>
       </c>
       <c r="K126">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="L126">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M126">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N126">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="S126">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11742,19 +11742,19 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>2.75</v>
+        <v>0.909</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11851,7 +11851,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5165035</v>
+        <v>5164610</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11863,13 +11863,13 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -11878,43 +11878,43 @@
         <v>54</v>
       </c>
       <c r="K128">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="L128">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M128">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="N128">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q128">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R128">
+        <v>2.01</v>
+      </c>
+      <c r="S128">
+        <v>1.89</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
         <v>1.91</v>
       </c>
-      <c r="S128">
-        <v>2.02</v>
-      </c>
-      <c r="T128">
-        <v>2.25</v>
-      </c>
-      <c r="U128">
-        <v>1.94</v>
-      </c>
       <c r="V128">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="W128">
-        <v>3.75</v>
+        <v>0.571</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11923,7 +11923,7 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.9099999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AA128">
         <v>-1</v>
@@ -11932,7 +11932,7 @@
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5164610</v>
+        <v>5165035</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,13 +12041,13 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12056,43 +12056,43 @@
         <v>54</v>
       </c>
       <c r="K130">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M130">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N130">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O130">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="S130">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V130">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="W130">
-        <v>0.571</v>
+        <v>3.75</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12101,7 +12101,7 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1.01</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -12110,7 +12110,7 @@
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12222,7 +12222,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12311,7 +12311,7 @@
         <v>46</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12397,7 +12397,7 @@
         <v>45031.35416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12489,7 +12489,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
         <v>41</v>
@@ -12934,7 +12934,7 @@
         <v>45</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13023,7 +13023,7 @@
         <v>47</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13287,7 +13287,7 @@
         <v>45037.66666666666</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>36</v>
@@ -13465,7 +13465,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
         <v>42</v>
@@ -13557,7 +13557,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13643,10 +13643,10 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13809,7 +13809,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5499343</v>
+        <v>5470334</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13821,73 +13821,73 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G150" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>54</v>
+      </c>
+      <c r="K150">
+        <v>1.909</v>
+      </c>
+      <c r="L150">
+        <v>3.6</v>
+      </c>
+      <c r="M150">
         <v>4</v>
       </c>
-      <c r="J150" t="s">
-        <v>52</v>
-      </c>
-      <c r="K150">
-        <v>3</v>
-      </c>
-      <c r="L150">
-        <v>3.25</v>
-      </c>
-      <c r="M150">
-        <v>2.4</v>
-      </c>
       <c r="N150">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P150">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>2.175</v>
+        <v>1.93</v>
       </c>
       <c r="S150">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U150">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="V150">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.77</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13898,7 +13898,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5470334</v>
+        <v>5499343</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13910,73 +13910,73 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H151">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J151" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K151">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M151">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N151">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.93</v>
+        <v>2.175</v>
       </c>
       <c r="S151">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="T151">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="W151">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z151">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.77</v>
       </c>
       <c r="AB151">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -14002,7 +14002,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14088,7 +14088,7 @@
         <v>45041.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14180,7 +14180,7 @@
         <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14536,7 +14536,7 @@
         <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -14622,7 +14622,7 @@
         <v>45043.65625</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14889,7 +14889,7 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
         <v>47</v>
@@ -15159,7 +15159,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15601,10 +15601,10 @@
         <v>45047.66666666666</v>
       </c>
       <c r="F170" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" t="s">
         <v>32</v>
-      </c>
-      <c r="G170" t="s">
-        <v>33</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15690,7 +15690,7 @@
         <v>45048.66666666666</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G171" t="s">
         <v>40</v>
@@ -16138,7 +16138,7 @@
         <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16316,7 +16316,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16494,7 +16494,7 @@
         <v>44</v>
       </c>
       <c r="G180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -16672,7 +16672,7 @@
         <v>41</v>
       </c>
       <c r="G182" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>5</v>
@@ -16761,7 +16761,7 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5601954</v>
+        <v>5601958</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L186">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M186">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>1.533</v>
+        <v>1.363</v>
       </c>
       <c r="O186">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P186">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q186">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R186">
+        <v>2.07</v>
+      </c>
+      <c r="S186">
+        <v>1.83</v>
+      </c>
+      <c r="T186">
+        <v>3</v>
+      </c>
+      <c r="U186">
         <v>1.97</v>
       </c>
-      <c r="S186">
+      <c r="V186">
         <v>1.93</v>
       </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>2.06</v>
-      </c>
-      <c r="V186">
-        <v>1.84</v>
-      </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X186">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA186">
+        <v>-1</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
         <v>0.9299999999999999</v>
-      </c>
-      <c r="AB186">
-        <v>1.06</v>
-      </c>
-      <c r="AC186">
-        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5601958</v>
+        <v>5601954</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17114,76 +17114,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H187">
         <v>2</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K187">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L187">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M187">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N187">
-        <v>1.363</v>
+        <v>1.533</v>
       </c>
       <c r="O187">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="Q187">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="S187">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T187">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="V187">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="W187">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AC187">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17203,7 +17203,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
         <v>29</v>
@@ -17292,7 +17292,7 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G189" t="s">
         <v>48</v>
@@ -17470,7 +17470,7 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
         <v>45</v>
@@ -17648,7 +17648,7 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G193" t="s">
         <v>43</v>
@@ -17737,7 +17737,7 @@
         <v>45061.66666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>46</v>
@@ -18096,7 +18096,7 @@
         <v>42</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18185,7 +18185,7 @@
         <v>41</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18274,7 +18274,7 @@
         <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18363,7 +18363,7 @@
         <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H201">
         <v>1</v>
@@ -18719,7 +18719,7 @@
         <v>44</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18983,7 +18983,7 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
         <v>47</v>
@@ -19072,7 +19072,7 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
         <v>30</v>
@@ -19238,7 +19238,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>5701222</v>
+        <v>5701224</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19250,76 +19250,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211">
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K211">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L211">
         <v>3.4</v>
       </c>
       <c r="M211">
+        <v>2.4</v>
+      </c>
+      <c r="N211">
+        <v>2.8</v>
+      </c>
+      <c r="O211">
+        <v>3.6</v>
+      </c>
+      <c r="P211">
+        <v>2.375</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.83</v>
+      </c>
+      <c r="S211">
+        <v>2.07</v>
+      </c>
+      <c r="T211">
         <v>3</v>
       </c>
-      <c r="N211">
-        <v>1.85</v>
-      </c>
-      <c r="O211">
-        <v>4</v>
-      </c>
-      <c r="P211">
-        <v>3.8</v>
-      </c>
-      <c r="Q211">
+      <c r="U211">
+        <v>1.87</v>
+      </c>
+      <c r="V211">
+        <v>2.03</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>2.6</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.415</v>
+      </c>
+      <c r="AA211">
         <v>-0.5</v>
       </c>
-      <c r="R211">
-        <v>1.87</v>
-      </c>
-      <c r="S211">
-        <v>2.03</v>
-      </c>
-      <c r="T211">
-        <v>3.25</v>
-      </c>
-      <c r="U211">
-        <v>2.07</v>
-      </c>
-      <c r="V211">
-        <v>1.83</v>
-      </c>
-      <c r="W211">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X211">
-        <v>-1</v>
-      </c>
-      <c r="Y211">
-        <v>-1</v>
-      </c>
-      <c r="Z211">
-        <v>0.8700000000000001</v>
-      </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.415</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19327,7 +19327,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5701223</v>
+        <v>5701222</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19339,58 +19339,58 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H212">
+        <v>2</v>
+      </c>
+      <c r="I212">
         <v>1</v>
-      </c>
-      <c r="I212">
-        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>54</v>
       </c>
       <c r="K212">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="L212">
+        <v>3.4</v>
+      </c>
+      <c r="M212">
+        <v>3</v>
+      </c>
+      <c r="N212">
+        <v>1.85</v>
+      </c>
+      <c r="O212">
         <v>4</v>
       </c>
-      <c r="M212">
-        <v>1.571</v>
-      </c>
-      <c r="N212">
-        <v>3.3</v>
-      </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
       <c r="P212">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R212">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S212">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U212">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="V212">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="W212">
-        <v>2.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X212">
         <v>-1</v>
@@ -19399,16 +19399,16 @@
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>1.05</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>1.03</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5701226</v>
+        <v>5701223</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,76 +19428,76 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G213" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>54</v>
+      </c>
+      <c r="K213">
+        <v>5.5</v>
+      </c>
+      <c r="L213">
         <v>4</v>
       </c>
-      <c r="I213">
-        <v>4</v>
-      </c>
-      <c r="J213" t="s">
-        <v>53</v>
-      </c>
-      <c r="K213">
-        <v>7.5</v>
-      </c>
-      <c r="L213">
-        <v>4.5</v>
-      </c>
       <c r="M213">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="N213">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="O213">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q213">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T213">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X213">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5706766</v>
+        <v>5701226</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,73 +19517,73 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G214" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
         <v>4</v>
       </c>
       <c r="J214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K214">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M214">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="O214">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P214">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R214">
-        <v>1.84</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2.06</v>
+        <v>1.775</v>
       </c>
       <c r="T214">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U214">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y214">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA214">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.8899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19594,7 +19594,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5702358</v>
+        <v>5706766</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19606,73 +19606,73 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G215" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J215" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="N215">
-        <v>1.285</v>
+        <v>2.75</v>
       </c>
       <c r="O215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P215">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="Q215">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="V215">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="W215">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z215">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB215">
-        <v>1.03</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19683,7 +19683,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>5701225</v>
+        <v>5702358</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19698,10 +19698,10 @@
         <v>33</v>
       </c>
       <c r="G216" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -19710,43 +19710,43 @@
         <v>54</v>
       </c>
       <c r="K216">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N216">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="O216">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P216">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R216">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S216">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U216">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="V216">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="W216">
-        <v>0.615</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19755,16 +19755,16 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC216">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19772,7 +19772,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>5701224</v>
+        <v>5701225</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19784,67 +19784,67 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K217">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L217">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M217">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N217">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O217">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P217">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q217">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S217">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U217">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="V217">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.415</v>
+        <v>0.41</v>
       </c>
       <c r="AA217">
         <v>-0.5</v>
@@ -19853,7 +19853,7 @@
         <v>-1</v>
       </c>
       <c r="AC217">
-        <v>1.03</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19962,7 +19962,7 @@
         <v>45150.375</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G219" t="s">
         <v>30</v>
@@ -20054,7 +20054,7 @@
         <v>50</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20140,7 +20140,7 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
         <v>41</v>
@@ -20410,7 +20410,7 @@
         <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H224">
         <v>5</v>
@@ -21297,10 +21297,10 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>4</v>
@@ -21475,10 +21475,10 @@
         <v>45159.66666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -21742,7 +21742,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G239" t="s">
         <v>42</v>
@@ -21819,7 +21819,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6777899</v>
+        <v>6777898</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21831,76 +21831,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>53</v>
       </c>
       <c r="K240">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M240">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N240">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P240">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R240">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S240">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U240">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V240">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.53</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB240">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC240">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21908,7 +21908,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6777898</v>
+        <v>6777902</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21920,61 +21920,61 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K241">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="L241">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M241">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N241">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="O241">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="P241">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q241">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R241">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="S241">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="T241">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X241">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
@@ -21983,10 +21983,10 @@
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8799999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB241">
-        <v>1.05</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6777902</v>
+        <v>6777899</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G242" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="L242">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M242">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="N242">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O242">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P242">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q242">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S242">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="V242">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W242">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA242">
-        <v>0.8600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AB242">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6777900</v>
+        <v>6777904</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,55 +22187,55 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H244">
         <v>1</v>
       </c>
       <c r="I244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>52</v>
       </c>
       <c r="K244">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="L244">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M244">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="N244">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O244">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P244">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R244">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S244">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U244">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V244">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W244">
         <v>-1</v>
@@ -22244,19 +22244,19 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z244">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA244">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6777904</v>
+        <v>6777900</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,55 +22276,55 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G245" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J245" t="s">
         <v>52</v>
       </c>
       <c r="K245">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="L245">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M245">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="N245">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O245">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P245">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q245">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R245">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S245">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="T245">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V245">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W245">
         <v>-1</v>
@@ -22333,19 +22333,19 @@
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z245">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22546,7 +22546,7 @@
         <v>50</v>
       </c>
       <c r="G248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -23077,7 +23077,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G254" t="s">
         <v>42</v>
@@ -23169,7 +23169,7 @@
         <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H255">
         <v>3</v>
@@ -23255,7 +23255,7 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G256" t="s">
         <v>35</v>
@@ -23522,10 +23522,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F259" t="s">
+        <v>39</v>
+      </c>
+      <c r="G259" t="s">
         <v>38</v>
-      </c>
-      <c r="G259" t="s">
-        <v>39</v>
       </c>
       <c r="H259">
         <v>3</v>
@@ -23599,7 +23599,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6777921</v>
+        <v>6780964</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23611,58 +23611,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="s">
         <v>54</v>
       </c>
       <c r="K260">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L260">
+        <v>3.75</v>
+      </c>
+      <c r="M260">
         <v>5</v>
       </c>
-      <c r="M260">
-        <v>9</v>
-      </c>
       <c r="N260">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O260">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P260">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q260">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R260">
+        <v>1.86</v>
+      </c>
+      <c r="S260">
+        <v>2.04</v>
+      </c>
+      <c r="T260">
+        <v>2.25</v>
+      </c>
+      <c r="U260">
+        <v>1.89</v>
+      </c>
+      <c r="V260">
         <v>2.01</v>
       </c>
-      <c r="S260">
-        <v>1.92</v>
-      </c>
-      <c r="T260">
-        <v>3.25</v>
-      </c>
-      <c r="U260">
-        <v>1.84</v>
-      </c>
-      <c r="V260">
-        <v>2.06</v>
-      </c>
       <c r="W260">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X260">
         <v>-1</v>
@@ -23671,16 +23671,16 @@
         <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA260">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC260">
-        <v>0.53</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23688,7 +23688,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6777918</v>
+        <v>6777921</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23700,76 +23700,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261">
         <v>1</v>
       </c>
-      <c r="I261">
-        <v>3</v>
-      </c>
       <c r="J261" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K261">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L261">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M261">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N261">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="O261">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P261">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R261">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="S261">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="T261">
         <v>3.25</v>
       </c>
       <c r="U261">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="V261">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0.8700000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB261">
-        <v>0.9299999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23777,7 +23777,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6780964</v>
+        <v>6777918</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23789,76 +23789,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G262" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H262">
         <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
+        <v>3.6</v>
+      </c>
+      <c r="M262">
         <v>3.75</v>
       </c>
-      <c r="M262">
-        <v>5</v>
-      </c>
       <c r="N262">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P262">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q262">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="S262">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="T262">
+        <v>3.25</v>
+      </c>
+      <c r="U262">
+        <v>1.93</v>
+      </c>
+      <c r="V262">
+        <v>1.97</v>
+      </c>
+      <c r="W262">
+        <v>-1</v>
+      </c>
+      <c r="X262">
+        <v>-1</v>
+      </c>
+      <c r="Y262">
         <v>2.25</v>
       </c>
-      <c r="U262">
-        <v>1.89</v>
-      </c>
-      <c r="V262">
-        <v>2.01</v>
-      </c>
-      <c r="W262">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X262">
-        <v>-1</v>
-      </c>
-      <c r="Y262">
-        <v>-1</v>
-      </c>
       <c r="Z262">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB262">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC262">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24056,10 +24056,10 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F265" t="s">
+        <v>32</v>
+      </c>
+      <c r="G265" t="s">
         <v>33</v>
-      </c>
-      <c r="G265" t="s">
-        <v>34</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
         <v>53</v>
       </c>
       <c r="K268">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N268">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q268">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R268">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="S268">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="V268">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24400,7 +24400,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24412,76 +24412,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>53</v>
       </c>
       <c r="K269">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N269">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O269">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q269">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S269">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V269">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA269">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24504,7 +24504,7 @@
         <v>31</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H270">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G274" t="s">
         <v>29</v>
@@ -24949,7 +24949,7 @@
         <v>40</v>
       </c>
       <c r="G275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H275">
         <v>0</v>
@@ -25124,7 +25124,7 @@
         <v>45199.35416666666</v>
       </c>
       <c r="F277" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
         <v>43</v>
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6777935</v>
+        <v>6780962</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,76 +25302,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F279" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G279" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
         <v>2</v>
       </c>
-      <c r="I279">
-        <v>0</v>
-      </c>
       <c r="J279" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L279">
+        <v>3.6</v>
+      </c>
+      <c r="M279">
+        <v>5.5</v>
+      </c>
+      <c r="N279">
+        <v>1.615</v>
+      </c>
+      <c r="O279">
+        <v>3.8</v>
+      </c>
+      <c r="P279">
+        <v>5.75</v>
+      </c>
+      <c r="Q279">
+        <v>-0.75</v>
+      </c>
+      <c r="R279">
+        <v>1.83</v>
+      </c>
+      <c r="S279">
+        <v>2.07</v>
+      </c>
+      <c r="T279">
+        <v>2.5</v>
+      </c>
+      <c r="U279">
+        <v>2.04</v>
+      </c>
+      <c r="V279">
+        <v>1.86</v>
+      </c>
+      <c r="W279">
+        <v>-1</v>
+      </c>
+      <c r="X279">
+        <v>-1</v>
+      </c>
+      <c r="Y279">
         <v>4.75</v>
       </c>
-      <c r="M279">
-        <v>10</v>
-      </c>
-      <c r="N279">
-        <v>1.4</v>
-      </c>
-      <c r="O279">
-        <v>5</v>
-      </c>
-      <c r="P279">
-        <v>7</v>
-      </c>
-      <c r="Q279">
-        <v>-1.25</v>
-      </c>
-      <c r="R279">
-        <v>1.87</v>
-      </c>
-      <c r="S279">
-        <v>2.03</v>
-      </c>
-      <c r="T279">
-        <v>2.75</v>
-      </c>
-      <c r="U279">
-        <v>1.9</v>
-      </c>
-      <c r="V279">
-        <v>2</v>
-      </c>
-      <c r="W279">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X279">
-        <v>-1</v>
-      </c>
-      <c r="Y279">
-        <v>-1</v>
-      </c>
       <c r="Z279">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA279">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC279">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6777934</v>
+        <v>6777935</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,76 +25391,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
         <v>0</v>
       </c>
-      <c r="I280">
-        <v>1</v>
-      </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K280">
-        <v>1.533</v>
+        <v>1.333</v>
       </c>
       <c r="L280">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M280">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N280">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O280">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P280">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q280">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S280">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V280">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA280">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
         <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.8400000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25468,7 +25468,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6777931</v>
+        <v>6777934</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25480,55 +25480,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F281" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G281" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H281">
         <v>0</v>
       </c>
       <c r="I281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
         <v>52</v>
       </c>
       <c r="K281">
+        <v>1.533</v>
+      </c>
+      <c r="L281">
+        <v>4.333</v>
+      </c>
+      <c r="M281">
+        <v>5.5</v>
+      </c>
+      <c r="N281">
+        <v>1.55</v>
+      </c>
+      <c r="O281">
+        <v>4.2</v>
+      </c>
+      <c r="P281">
         <v>6</v>
       </c>
-      <c r="L281">
-        <v>4.7</v>
-      </c>
-      <c r="M281">
-        <v>1.45</v>
-      </c>
-      <c r="N281">
-        <v>5.5</v>
-      </c>
-      <c r="O281">
-        <v>4.5</v>
-      </c>
-      <c r="P281">
-        <v>1.533</v>
-      </c>
       <c r="Q281">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R281">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T281">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V281">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W281">
         <v>-1</v>
@@ -25537,19 +25537,19 @@
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0.5329999999999999</v>
+        <v>5</v>
       </c>
       <c r="Z281">
         <v>-1</v>
       </c>
       <c r="AA281">
-        <v>0.8999999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB281">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25557,7 +25557,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>6777938</v>
+        <v>6777931</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25569,76 +25569,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G282" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>4</v>
+      </c>
+      <c r="J282" t="s">
+        <v>52</v>
+      </c>
+      <c r="K282">
+        <v>6</v>
+      </c>
+      <c r="L282">
+        <v>4.7</v>
+      </c>
+      <c r="M282">
+        <v>1.45</v>
+      </c>
+      <c r="N282">
+        <v>5.5</v>
+      </c>
+      <c r="O282">
+        <v>4.5</v>
+      </c>
+      <c r="P282">
+        <v>1.533</v>
+      </c>
+      <c r="Q282">
+        <v>1</v>
+      </c>
+      <c r="R282">
         <v>2</v>
       </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-      <c r="J282" t="s">
-        <v>54</v>
-      </c>
-      <c r="K282">
-        <v>7</v>
-      </c>
-      <c r="L282">
-        <v>4.9</v>
-      </c>
-      <c r="M282">
-        <v>1.4</v>
-      </c>
-      <c r="N282">
-        <v>7.5</v>
-      </c>
-      <c r="O282">
-        <v>5</v>
-      </c>
-      <c r="P282">
-        <v>1.4</v>
-      </c>
-      <c r="Q282">
-        <v>1.25</v>
-      </c>
-      <c r="R282">
-        <v>2.01</v>
-      </c>
       <c r="S282">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V282">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="W282">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z282">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB282">
-        <v>0.455</v>
+        <v>1.05</v>
       </c>
       <c r="AC282">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25646,7 +25646,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>6780962</v>
+        <v>6777938</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25658,76 +25658,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
         <v>1</v>
       </c>
-      <c r="I283">
-        <v>2</v>
-      </c>
       <c r="J283" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K283">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="L283">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="M283">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N283">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P283">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R283">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="S283">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U283">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V283">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA283">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>1.04</v>
+        <v>0.455</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26358,7 +26358,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6777941</v>
+        <v>6777943</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26370,73 +26370,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G291" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291" t="s">
+        <v>54</v>
+      </c>
+      <c r="K291">
+        <v>1.95</v>
+      </c>
+      <c r="L291">
+        <v>3.6</v>
+      </c>
+      <c r="M291">
+        <v>3.6</v>
+      </c>
+      <c r="N291">
+        <v>1.909</v>
+      </c>
+      <c r="O291">
+        <v>3.6</v>
+      </c>
+      <c r="P291">
         <v>4</v>
       </c>
-      <c r="J291" t="s">
-        <v>52</v>
-      </c>
-      <c r="K291">
-        <v>4.2</v>
-      </c>
-      <c r="L291">
-        <v>3.8</v>
-      </c>
-      <c r="M291">
-        <v>1.8</v>
-      </c>
-      <c r="N291">
-        <v>5.25</v>
-      </c>
-      <c r="O291">
-        <v>4</v>
-      </c>
-      <c r="P291">
-        <v>1.666</v>
-      </c>
       <c r="Q291">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R291">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T291">
         <v>2.5</v>
       </c>
       <c r="U291">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W291">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X291">
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA291">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.8600000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6777943</v>
+        <v>6777941</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,73 +26459,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G292" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I292">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J292" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K292">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L292">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M292">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N292">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O292">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P292">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R292">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S292">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T292">
         <v>2.5</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V292">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W292">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X292">
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z292">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB292">
-        <v>0.8500000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -26548,7 +26548,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F293" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G293" t="s">
         <v>30</v>
@@ -26640,7 +26640,7 @@
         <v>42</v>
       </c>
       <c r="G294" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -26904,7 +26904,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
         <v>45</v>
@@ -26996,7 +26996,7 @@
         <v>46</v>
       </c>
       <c r="G298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H298">
         <v>2</v>
@@ -27441,7 +27441,7 @@
         <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H303">
         <v>4</v>
@@ -27530,7 +27530,7 @@
         <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H304">
         <v>2</v>
@@ -27705,7 +27705,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G306" t="s">
         <v>47</v>
@@ -27883,7 +27883,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G308" t="s">
         <v>29</v>
@@ -28150,7 +28150,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F311" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G311" t="s">
         <v>50</v>
@@ -28331,7 +28331,7 @@
         <v>47</v>
       </c>
       <c r="G313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -28405,7 +28405,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6777957</v>
+        <v>6777960</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28417,76 +28417,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G314" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K314">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="L314">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M314">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="N314">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="O314">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P314">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q314">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R314">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="S314">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T314">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U314">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V314">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W314">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X314">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA314">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC314">
-        <v>1.05</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28494,7 +28494,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6777960</v>
+        <v>6777957</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28506,76 +28506,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G315" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>53</v>
+      </c>
+      <c r="K315">
+        <v>1.533</v>
+      </c>
+      <c r="L315">
+        <v>4.333</v>
+      </c>
+      <c r="M315">
+        <v>5.5</v>
+      </c>
+      <c r="N315">
+        <v>1.615</v>
+      </c>
+      <c r="O315">
+        <v>4</v>
+      </c>
+      <c r="P315">
+        <v>5.5</v>
+      </c>
+      <c r="Q315">
+        <v>-1</v>
+      </c>
+      <c r="R315">
+        <v>2.04</v>
+      </c>
+      <c r="S315">
+        <v>1.86</v>
+      </c>
+      <c r="T315">
+        <v>2.75</v>
+      </c>
+      <c r="U315">
+        <v>1.85</v>
+      </c>
+      <c r="V315">
+        <v>2.05</v>
+      </c>
+      <c r="W315">
+        <v>-1</v>
+      </c>
+      <c r="X315">
         <v>3</v>
       </c>
-      <c r="I315">
-        <v>0</v>
-      </c>
-      <c r="J315" t="s">
-        <v>54</v>
-      </c>
-      <c r="K315">
-        <v>1.3</v>
-      </c>
-      <c r="L315">
-        <v>5</v>
-      </c>
-      <c r="M315">
-        <v>10</v>
-      </c>
-      <c r="N315">
-        <v>1.222</v>
-      </c>
-      <c r="O315">
-        <v>7</v>
-      </c>
-      <c r="P315">
-        <v>11</v>
-      </c>
-      <c r="Q315">
-        <v>-1.75</v>
-      </c>
-      <c r="R315">
-        <v>1.92</v>
-      </c>
-      <c r="S315">
-        <v>1.98</v>
-      </c>
-      <c r="T315">
-        <v>3.25</v>
-      </c>
-      <c r="U315">
-        <v>1.99</v>
-      </c>
-      <c r="V315">
-        <v>1.91</v>
-      </c>
-      <c r="W315">
-        <v>0.222</v>
-      </c>
-      <c r="X315">
-        <v>-1</v>
-      </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.455</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28595,7 +28595,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G316" t="s">
         <v>51</v>
@@ -28862,7 +28862,7 @@
         <v>45234.5</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G319" t="s">
         <v>43</v>
@@ -28954,7 +28954,7 @@
         <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H320">
         <v>0</v>
@@ -29310,7 +29310,7 @@
         <v>44</v>
       </c>
       <c r="G324" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -29399,7 +29399,7 @@
         <v>30</v>
       </c>
       <c r="G325" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29752,10 +29752,10 @@
         <v>45241.5</v>
       </c>
       <c r="F329" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -29841,7 +29841,7 @@
         <v>45241.5</v>
       </c>
       <c r="F330" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G330" t="s">
         <v>49</v>
@@ -30286,7 +30286,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G335" t="s">
         <v>41</v>
@@ -30823,7 +30823,7 @@
         <v>51</v>
       </c>
       <c r="G341" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H341">
         <v>2</v>
@@ -31090,7 +31090,7 @@
         <v>31</v>
       </c>
       <c r="G344" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -31179,7 +31179,7 @@
         <v>29</v>
       </c>
       <c r="G345" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31265,7 +31265,7 @@
         <v>45256.5625</v>
       </c>
       <c r="F346" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G346" t="s">
         <v>35</v>
@@ -31532,7 +31532,7 @@
         <v>45262.5</v>
       </c>
       <c r="F349" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G349" t="s">
         <v>42</v>
@@ -31713,7 +31713,7 @@
         <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,61 +31888,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G353" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K353">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M353">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O353">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P353">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R353">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U353">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V353">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X353">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
@@ -31951,13 +31951,13 @@
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC353">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,73 +31977,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G354" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I354">
         <v>2</v>
       </c>
       <c r="J354" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K354">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L354">
         <v>4</v>
       </c>
       <c r="M354">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N354">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O354">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P354">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q354">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R354">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S354">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T354">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U354">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V354">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W354">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X354">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA354">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB354">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC354">
         <v>-1</v>
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,73 +32066,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G355" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355">
         <v>2</v>
       </c>
       <c r="J355" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K355">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L355">
         <v>4</v>
       </c>
       <c r="M355">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N355">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O355">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P355">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q355">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R355">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S355">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T355">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U355">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V355">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W355">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA355">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB355">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,61 +32155,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G356" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356" t="s">
+        <v>53</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>3.4</v>
+      </c>
+      <c r="M356">
+        <v>3.75</v>
+      </c>
+      <c r="N356">
+        <v>1.909</v>
+      </c>
+      <c r="O356">
+        <v>3.6</v>
+      </c>
+      <c r="P356">
         <v>4</v>
       </c>
-      <c r="I356">
-        <v>3</v>
-      </c>
-      <c r="J356" t="s">
-        <v>54</v>
-      </c>
-      <c r="K356">
-        <v>1.285</v>
-      </c>
-      <c r="L356">
-        <v>6</v>
-      </c>
-      <c r="M356">
-        <v>8.5</v>
-      </c>
-      <c r="N356">
-        <v>1.25</v>
-      </c>
-      <c r="O356">
-        <v>7</v>
-      </c>
-      <c r="P356">
-        <v>10</v>
-      </c>
       <c r="Q356">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S356">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V356">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W356">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y356">
         <v>-1</v>
@@ -32218,13 +32218,13 @@
         <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB356">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32425,7 +32425,7 @@
         <v>51</v>
       </c>
       <c r="G359" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H359">
         <v>3</v>
@@ -32689,7 +32689,7 @@
         <v>45266.6875</v>
       </c>
       <c r="F362" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G362" t="s">
         <v>48</v>
@@ -32855,7 +32855,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32867,58 +32867,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F364" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>54</v>
       </c>
       <c r="K364">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M364">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N364">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P364">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R364">
+        <v>1.82</v>
+      </c>
+      <c r="S364">
         <v>2.08</v>
-      </c>
-      <c r="S364">
-        <v>1.82</v>
       </c>
       <c r="T364">
         <v>3</v>
       </c>
       <c r="U364">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V364">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W364">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32927,16 +32927,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32944,7 +32944,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32956,58 +32956,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F365" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G365" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H365">
+        <v>2</v>
+      </c>
+      <c r="I365">
         <v>1</v>
-      </c>
-      <c r="I365">
-        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>54</v>
       </c>
       <c r="K365">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M365">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N365">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O365">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P365">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R365">
+        <v>2.08</v>
+      </c>
+      <c r="S365">
         <v>1.82</v>
-      </c>
-      <c r="S365">
-        <v>2.08</v>
       </c>
       <c r="T365">
         <v>3</v>
       </c>
       <c r="U365">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V365">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W365">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33016,16 +33016,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA365">
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC365">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33045,7 +33045,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F366" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G366" t="s">
         <v>44</v>
@@ -33223,7 +33223,7 @@
         <v>45269.39583333334</v>
       </c>
       <c r="F368" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G368" t="s">
         <v>46</v>
@@ -33668,10 +33668,10 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H373">
         <v>1</v>
@@ -33935,7 +33935,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G376" t="s">
         <v>40</v>
@@ -34294,7 +34294,7 @@
         <v>45</v>
       </c>
       <c r="G380" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H380">
         <v>2</v>
@@ -34472,7 +34472,7 @@
         <v>49</v>
       </c>
       <c r="G382" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -34561,7 +34561,7 @@
         <v>31</v>
       </c>
       <c r="G383" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -34635,7 +34635,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6777774</v>
+        <v>6778013</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34647,13 +34647,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F384" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G384" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H384">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384">
         <v>0</v>
@@ -34662,34 +34662,34 @@
         <v>54</v>
       </c>
       <c r="K384">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L384">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M384">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N384">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="O384">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P384">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q384">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R384">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="S384">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U384">
         <v>2.03</v>
@@ -34698,7 +34698,7 @@
         <v>1.87</v>
       </c>
       <c r="W384">
-        <v>0.909</v>
+        <v>0.45</v>
       </c>
       <c r="X384">
         <v>-1</v>
@@ -34707,16 +34707,16 @@
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="AA384">
         <v>-1</v>
       </c>
       <c r="AB384">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34724,7 +34724,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6778013</v>
+        <v>6777774</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34736,13 +34736,13 @@
         <v>45277.45833333334</v>
       </c>
       <c r="F385" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G385" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I385">
         <v>0</v>
@@ -34751,34 +34751,34 @@
         <v>54</v>
       </c>
       <c r="K385">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L385">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M385">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N385">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="O385">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P385">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q385">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R385">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="S385">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T385">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U385">
         <v>2.03</v>
@@ -34787,7 +34787,7 @@
         <v>1.87</v>
       </c>
       <c r="W385">
-        <v>0.45</v>
+        <v>0.909</v>
       </c>
       <c r="X385">
         <v>-1</v>
@@ -34796,16 +34796,16 @@
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="AA385">
         <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC385">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -34914,7 +34914,7 @@
         <v>45281.70833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G387" t="s">
         <v>43</v>
@@ -35003,7 +35003,7 @@
         <v>45282.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G388" t="s">
         <v>50</v>
@@ -35451,7 +35451,7 @@
         <v>29</v>
       </c>
       <c r="G393" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H393">
         <v>2</v>
@@ -35540,7 +35540,7 @@
         <v>46</v>
       </c>
       <c r="G394" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H394">
         <v>1</v>
@@ -36074,7 +36074,7 @@
         <v>35</v>
       </c>
       <c r="G400" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H400">
         <v>3</v>
@@ -36163,7 +36163,7 @@
         <v>40</v>
       </c>
       <c r="G401" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H401">
         <v>2</v>
@@ -36338,7 +36338,7 @@
         <v>45287.71875</v>
       </c>
       <c r="F403" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G403" t="s">
         <v>45</v>
@@ -36516,7 +36516,7 @@
         <v>45288.71875</v>
       </c>
       <c r="F405" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G405" t="s">
         <v>47</v>
@@ -36697,7 +36697,7 @@
         <v>42</v>
       </c>
       <c r="G407" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H407">
         <v>3</v>
@@ -36783,7 +36783,7 @@
         <v>45290.5</v>
       </c>
       <c r="F408" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G408" t="s">
         <v>31</v>
@@ -36872,7 +36872,7 @@
         <v>45290.5</v>
       </c>
       <c r="F409" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G409" t="s">
         <v>49</v>
@@ -37231,7 +37231,7 @@
         <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H413">
         <v>2</v>
@@ -37762,10 +37762,10 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F419" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G419" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>45311.39583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G421" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H421">
         <v>5</v>
@@ -38388,7 +38388,7 @@
         <v>30</v>
       </c>
       <c r="G426" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H426">
         <v>1</v>
@@ -38477,7 +38477,7 @@
         <v>41</v>
       </c>
       <c r="G427" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H427">
         <v>0</v>
@@ -38652,7 +38652,7 @@
         <v>45321.70833333334</v>
       </c>
       <c r="F429" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G429" t="s">
         <v>50</v>
@@ -38741,7 +38741,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F430" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G430" t="s">
         <v>44</v>
@@ -39275,7 +39275,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F436" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G436" t="s">
         <v>29</v>
@@ -39367,7 +39367,7 @@
         <v>43</v>
       </c>
       <c r="G437" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H437">
         <v>4</v>
@@ -39634,7 +39634,7 @@
         <v>50</v>
       </c>
       <c r="G440" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H440">
         <v>0</v>
@@ -39987,7 +39987,7 @@
         <v>45326.5625</v>
       </c>
       <c r="F444" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G444" t="s">
         <v>46</v>
@@ -40168,7 +40168,7 @@
         <v>45</v>
       </c>
       <c r="G446" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H446">
         <v>2</v>
@@ -40509,7 +40509,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>6778076</v>
+        <v>6778071</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40521,76 +40521,76 @@
         <v>45332.5</v>
       </c>
       <c r="F450" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G450" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H450">
+        <v>3</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+      <c r="J450" t="s">
+        <v>54</v>
+      </c>
+      <c r="K450">
+        <v>2.3</v>
+      </c>
+      <c r="L450">
+        <v>3.5</v>
+      </c>
+      <c r="M450">
+        <v>2.9</v>
+      </c>
+      <c r="N450">
+        <v>2.45</v>
+      </c>
+      <c r="O450">
+        <v>3.6</v>
+      </c>
+      <c r="P450">
+        <v>2.7</v>
+      </c>
+      <c r="Q450">
         <v>0</v>
       </c>
-      <c r="I450">
+      <c r="R450">
+        <v>1.9</v>
+      </c>
+      <c r="S450">
         <v>2</v>
-      </c>
-      <c r="J450" t="s">
-        <v>52</v>
-      </c>
-      <c r="K450">
-        <v>2.1</v>
-      </c>
-      <c r="L450">
-        <v>3.4</v>
-      </c>
-      <c r="M450">
-        <v>3.5</v>
-      </c>
-      <c r="N450">
-        <v>2.2</v>
-      </c>
-      <c r="O450">
-        <v>3.5</v>
-      </c>
-      <c r="P450">
-        <v>3.2</v>
-      </c>
-      <c r="Q450">
-        <v>-0.25</v>
-      </c>
-      <c r="R450">
-        <v>1.93</v>
-      </c>
-      <c r="S450">
-        <v>1.97</v>
       </c>
       <c r="T450">
         <v>2.75</v>
       </c>
       <c r="U450">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V450">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W450">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X450">
         <v>-1</v>
       </c>
       <c r="Y450">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z450">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA450">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB450">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC450">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40598,7 +40598,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>6778071</v>
+        <v>6778076</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40610,76 +40610,76 @@
         <v>45332.5</v>
       </c>
       <c r="F451" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G451" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K451">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L451">
+        <v>3.4</v>
+      </c>
+      <c r="M451">
         <v>3.5</v>
       </c>
-      <c r="M451">
-        <v>2.9</v>
-      </c>
       <c r="N451">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O451">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P451">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q451">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R451">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S451">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T451">
         <v>2.75</v>
       </c>
       <c r="U451">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V451">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W451">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X451">
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z451">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA451">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB451">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC451">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40791,7 +40791,7 @@
         <v>47</v>
       </c>
       <c r="G453" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H453">
         <v>0</v>
@@ -40877,7 +40877,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F454" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G454" t="s">
         <v>35</v>
@@ -40966,7 +40966,7 @@
         <v>45334.70833333334</v>
       </c>
       <c r="F455" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G455" t="s">
         <v>40</v>
@@ -41043,7 +41043,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>6778077</v>
+        <v>6777782</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41052,49 +41052,49 @@
         <v>28</v>
       </c>
       <c r="E456" s="2">
-        <v>45339.39583333334</v>
+        <v>45339.5</v>
       </c>
       <c r="F456" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G456" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K456">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L456">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M456">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="N456">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="O456">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P456">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="Q456">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S456">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T456">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U456">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V456">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W456">
         <v>0</v>
@@ -41117,7 +41117,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>6777782</v>
+        <v>6778078</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41129,46 +41129,46 @@
         <v>45339.5</v>
       </c>
       <c r="F457" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G457" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K457">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="L457">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M457">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="N457">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="O457">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P457">
-        <v>2.875</v>
+        <v>1.285</v>
       </c>
       <c r="Q457">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R457">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S457">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="T457">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V457">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W457">
         <v>0</v>
@@ -41191,7 +41191,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>6778078</v>
+        <v>6778080</v>
       </c>
       <c r="C458" t="s">
         <v>28</v>
@@ -41203,46 +41203,46 @@
         <v>45339.5</v>
       </c>
       <c r="F458" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G458" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K458">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="L458">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M458">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N458">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="O458">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P458">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="Q458">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R458">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="S458">
-        <v>1.99</v>
+        <v>2.09</v>
       </c>
       <c r="T458">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U458">
+        <v>1.85</v>
+      </c>
+      <c r="V458">
         <v>2.05</v>
-      </c>
-      <c r="V458">
-        <v>1.85</v>
       </c>
       <c r="W458">
         <v>0</v>
@@ -41265,7 +41265,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>6778080</v>
+        <v>6778082</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41277,46 +41277,46 @@
         <v>45339.5</v>
       </c>
       <c r="F459" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G459" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K459">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L459">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M459">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N459">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O459">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P459">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q459">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R459">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S459">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="T459">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U459">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="V459">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="W459">
         <v>0</v>
@@ -41339,7 +41339,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>6778082</v>
+        <v>6778084</v>
       </c>
       <c r="C460" t="s">
         <v>28</v>
@@ -41351,46 +41351,46 @@
         <v>45339.5</v>
       </c>
       <c r="F460" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G460" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K460">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L460">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M460">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N460">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="O460">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P460">
+        <v>5</v>
+      </c>
+      <c r="Q460">
+        <v>-1</v>
+      </c>
+      <c r="R460">
+        <v>1.89</v>
+      </c>
+      <c r="S460">
+        <v>2.01</v>
+      </c>
+      <c r="T460">
         <v>3.5</v>
       </c>
-      <c r="Q460">
-        <v>-0.5</v>
-      </c>
-      <c r="R460">
-        <v>2.01</v>
-      </c>
-      <c r="S460">
-        <v>1.89</v>
-      </c>
-      <c r="T460">
-        <v>3.25</v>
-      </c>
       <c r="U460">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V460">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W460">
         <v>0</v>
@@ -41413,7 +41413,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6778084</v>
+        <v>6778081</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41422,49 +41422,49 @@
         <v>28</v>
       </c>
       <c r="E461" s="2">
-        <v>45339.5</v>
+        <v>45339.60416666666</v>
       </c>
       <c r="F461" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G461" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K461">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L461">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M461">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N461">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="O461">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="P461">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q461">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R461">
+        <v>1.98</v>
+      </c>
+      <c r="S461">
         <v>1.92</v>
       </c>
-      <c r="S461">
-        <v>1.98</v>
-      </c>
       <c r="T461">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U461">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="V461">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="W461">
         <v>0</v>
@@ -41487,7 +41487,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6778081</v>
+        <v>6778083</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41496,49 +41496,49 @@
         <v>28</v>
       </c>
       <c r="E462" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.45833333334</v>
       </c>
       <c r="F462" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G462" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K462">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="L462">
+        <v>4</v>
+      </c>
+      <c r="M462">
+        <v>1.615</v>
+      </c>
+      <c r="N462">
         <v>5</v>
       </c>
-      <c r="M462">
-        <v>6.5</v>
-      </c>
-      <c r="N462">
-        <v>1.363</v>
-      </c>
       <c r="O462">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="P462">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q462">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="R462">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="S462">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="T462">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U462">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V462">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W462">
         <v>0</v>
@@ -41561,7 +41561,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>6778083</v>
+        <v>6780943</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41570,49 +41570,49 @@
         <v>28</v>
       </c>
       <c r="E463" s="2">
-        <v>45340.45833333334</v>
+        <v>45340.5625</v>
       </c>
       <c r="F463" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G463" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K463">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L463">
+        <v>3.6</v>
+      </c>
+      <c r="M463">
+        <v>1.909</v>
+      </c>
+      <c r="N463">
         <v>4</v>
       </c>
-      <c r="M463">
-        <v>1.615</v>
-      </c>
-      <c r="N463">
-        <v>5</v>
-      </c>
       <c r="O463">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P463">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="Q463">
         <v>0.75</v>
       </c>
       <c r="R463">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="S463">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="T463">
         <v>3</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V463">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="W463">
         <v>0</v>
@@ -41635,7 +41635,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6780943</v>
+        <v>6778079</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41644,49 +41644,49 @@
         <v>28</v>
       </c>
       <c r="E464" s="2">
-        <v>45340.5625</v>
+        <v>45341.70833333334</v>
       </c>
       <c r="F464" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G464" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K464">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="L464">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M464">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N464">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="O464">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P464">
-        <v>1.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q464">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R464">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="S464">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T464">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U464">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W464">
         <v>0</v>
@@ -41709,7 +41709,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6778079</v>
+        <v>7698026</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41718,49 +41718,49 @@
         <v>28</v>
       </c>
       <c r="E465" s="2">
-        <v>45341.70833333334</v>
+        <v>45342.6875</v>
       </c>
       <c r="F465" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G465" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K465">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="L465">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M465">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="N465">
-        <v>1.666</v>
+        <v>1.222</v>
       </c>
       <c r="O465">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P465">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q465">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R465">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="S465">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="T465">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U465">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V465">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="W465">
         <v>0</v>
@@ -41783,7 +41783,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7698026</v>
+        <v>7813610</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41792,49 +41792,49 @@
         <v>28</v>
       </c>
       <c r="E466" s="2">
-        <v>45342.6875</v>
+        <v>45343.6875</v>
       </c>
       <c r="F466" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G466" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K466">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="L466">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M466">
         <v>13</v>
       </c>
       <c r="N466">
-        <v>1.222</v>
+        <v>1.181</v>
       </c>
       <c r="O466">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P466">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q466">
         <v>-2</v>
       </c>
       <c r="R466">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="S466">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="T466">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U466">
+        <v>1.99</v>
+      </c>
+      <c r="V466">
         <v>1.91</v>
-      </c>
-      <c r="V466">
-        <v>1.99</v>
       </c>
       <c r="W466">
         <v>0</v>
@@ -41857,7 +41857,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>7813610</v>
+        <v>6778087</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -41866,49 +41866,49 @@
         <v>28</v>
       </c>
       <c r="E467" s="2">
-        <v>45343.6875</v>
+        <v>45346.5</v>
       </c>
       <c r="F467" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G467" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="K467">
-        <v>1.2</v>
+        <v>1.444</v>
       </c>
       <c r="L467">
+        <v>4.5</v>
+      </c>
+      <c r="M467">
         <v>6.5</v>
       </c>
-      <c r="M467">
-        <v>13</v>
-      </c>
       <c r="N467">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O467">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P467">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q467">
-        <v>-2.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R467">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="S467">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T467">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U467">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V467">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W467">
         <v>0</v>
@@ -41923,6 +41923,376 @@
         <v>0</v>
       </c>
       <c r="AA467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:27">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468">
+        <v>6778088</v>
+      </c>
+      <c r="C468" t="s">
+        <v>28</v>
+      </c>
+      <c r="D468" t="s">
+        <v>28</v>
+      </c>
+      <c r="E468" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F468" t="s">
+        <v>43</v>
+      </c>
+      <c r="G468" t="s">
+        <v>32</v>
+      </c>
+      <c r="K468">
+        <v>1.727</v>
+      </c>
+      <c r="L468">
+        <v>3.8</v>
+      </c>
+      <c r="M468">
+        <v>4.5</v>
+      </c>
+      <c r="N468">
+        <v>1.85</v>
+      </c>
+      <c r="O468">
+        <v>3.75</v>
+      </c>
+      <c r="P468">
+        <v>4</v>
+      </c>
+      <c r="Q468">
+        <v>-0.5</v>
+      </c>
+      <c r="R468">
+        <v>1.91</v>
+      </c>
+      <c r="S468">
+        <v>1.99</v>
+      </c>
+      <c r="T468">
+        <v>2.75</v>
+      </c>
+      <c r="U468">
+        <v>1.95</v>
+      </c>
+      <c r="V468">
+        <v>1.95</v>
+      </c>
+      <c r="W468">
+        <v>0</v>
+      </c>
+      <c r="X468">
+        <v>0</v>
+      </c>
+      <c r="Y468">
+        <v>0</v>
+      </c>
+      <c r="Z468">
+        <v>0</v>
+      </c>
+      <c r="AA468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:27">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469">
+        <v>6778090</v>
+      </c>
+      <c r="C469" t="s">
+        <v>28</v>
+      </c>
+      <c r="D469" t="s">
+        <v>28</v>
+      </c>
+      <c r="E469" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F469" t="s">
+        <v>38</v>
+      </c>
+      <c r="G469" t="s">
+        <v>49</v>
+      </c>
+      <c r="K469">
+        <v>1.833</v>
+      </c>
+      <c r="L469">
+        <v>3.6</v>
+      </c>
+      <c r="M469">
+        <v>4.2</v>
+      </c>
+      <c r="N469">
+        <v>1.909</v>
+      </c>
+      <c r="O469">
+        <v>3.5</v>
+      </c>
+      <c r="P469">
+        <v>4</v>
+      </c>
+      <c r="Q469">
+        <v>-0.5</v>
+      </c>
+      <c r="R469">
+        <v>1.95</v>
+      </c>
+      <c r="S469">
+        <v>1.95</v>
+      </c>
+      <c r="T469">
+        <v>2.25</v>
+      </c>
+      <c r="U469">
+        <v>1.83</v>
+      </c>
+      <c r="V469">
+        <v>2.07</v>
+      </c>
+      <c r="W469">
+        <v>0</v>
+      </c>
+      <c r="X469">
+        <v>0</v>
+      </c>
+      <c r="Y469">
+        <v>0</v>
+      </c>
+      <c r="Z469">
+        <v>0</v>
+      </c>
+      <c r="AA469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:27">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470">
+        <v>6778091</v>
+      </c>
+      <c r="C470" t="s">
+        <v>28</v>
+      </c>
+      <c r="D470" t="s">
+        <v>28</v>
+      </c>
+      <c r="E470" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F470" t="s">
+        <v>35</v>
+      </c>
+      <c r="G470" t="s">
+        <v>41</v>
+      </c>
+      <c r="K470">
+        <v>1.615</v>
+      </c>
+      <c r="L470">
+        <v>3.75</v>
+      </c>
+      <c r="M470">
+        <v>5.5</v>
+      </c>
+      <c r="N470">
+        <v>1.55</v>
+      </c>
+      <c r="O470">
+        <v>4</v>
+      </c>
+      <c r="P470">
+        <v>6</v>
+      </c>
+      <c r="Q470">
+        <v>-1</v>
+      </c>
+      <c r="R470">
+        <v>1.98</v>
+      </c>
+      <c r="S470">
+        <v>1.92</v>
+      </c>
+      <c r="T470">
+        <v>3</v>
+      </c>
+      <c r="U470">
+        <v>1.98</v>
+      </c>
+      <c r="V470">
+        <v>1.92</v>
+      </c>
+      <c r="W470">
+        <v>0</v>
+      </c>
+      <c r="X470">
+        <v>0</v>
+      </c>
+      <c r="Y470">
+        <v>0</v>
+      </c>
+      <c r="Z470">
+        <v>0</v>
+      </c>
+      <c r="AA470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:27">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471">
+        <v>6778085</v>
+      </c>
+      <c r="C471" t="s">
+        <v>28</v>
+      </c>
+      <c r="D471" t="s">
+        <v>28</v>
+      </c>
+      <c r="E471" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F471" t="s">
+        <v>48</v>
+      </c>
+      <c r="G471" t="s">
+        <v>45</v>
+      </c>
+      <c r="K471">
+        <v>7</v>
+      </c>
+      <c r="L471">
+        <v>4.75</v>
+      </c>
+      <c r="M471">
+        <v>1.4</v>
+      </c>
+      <c r="N471">
+        <v>7</v>
+      </c>
+      <c r="O471">
+        <v>4.5</v>
+      </c>
+      <c r="P471">
+        <v>1.444</v>
+      </c>
+      <c r="Q471">
+        <v>1.25</v>
+      </c>
+      <c r="R471">
+        <v>1.92</v>
+      </c>
+      <c r="S471">
+        <v>1.98</v>
+      </c>
+      <c r="T471">
+        <v>3.25</v>
+      </c>
+      <c r="U471">
+        <v>1.99</v>
+      </c>
+      <c r="V471">
+        <v>1.91</v>
+      </c>
+      <c r="W471">
+        <v>0</v>
+      </c>
+      <c r="X471">
+        <v>0</v>
+      </c>
+      <c r="Y471">
+        <v>0</v>
+      </c>
+      <c r="Z471">
+        <v>0</v>
+      </c>
+      <c r="AA471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:27">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472">
+        <v>6778086</v>
+      </c>
+      <c r="C472" t="s">
+        <v>28</v>
+      </c>
+      <c r="D472" t="s">
+        <v>28</v>
+      </c>
+      <c r="E472" s="2">
+        <v>45346.70833333334</v>
+      </c>
+      <c r="F472" t="s">
+        <v>33</v>
+      </c>
+      <c r="G472" t="s">
+        <v>44</v>
+      </c>
+      <c r="K472">
+        <v>1.571</v>
+      </c>
+      <c r="L472">
+        <v>4.333</v>
+      </c>
+      <c r="M472">
+        <v>5</v>
+      </c>
+      <c r="N472">
+        <v>1.4</v>
+      </c>
+      <c r="O472">
+        <v>4.5</v>
+      </c>
+      <c r="P472">
+        <v>7.5</v>
+      </c>
+      <c r="Q472">
+        <v>-1.25</v>
+      </c>
+      <c r="R472">
+        <v>1.9</v>
+      </c>
+      <c r="S472">
+        <v>2</v>
+      </c>
+      <c r="T472">
+        <v>3</v>
+      </c>
+      <c r="U472">
+        <v>1.88</v>
+      </c>
+      <c r="V472">
+        <v>2.02</v>
+      </c>
+      <c r="W472">
+        <v>0</v>
+      </c>
+      <c r="X472">
+        <v>0</v>
+      </c>
+      <c r="Y472">
+        <v>0</v>
+      </c>
+      <c r="Z472">
+        <v>0</v>
+      </c>
+      <c r="AA472">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -130,10 +130,10 @@
     <t>Leeds</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
+    <t>Aston Villa</t>
   </si>
   <si>
-    <t>Aston Villa</t>
+    <t>Crystal Palace</t>
   </si>
   <si>
     <t>Chelsea</t>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC475"/>
+  <dimension ref="A1:AC482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5164942</v>
+        <v>5164939</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1453,73 +1453,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T11">
+        <v>2.25</v>
+      </c>
+      <c r="U11">
+        <v>1.91</v>
+      </c>
+      <c r="V11">
+        <v>1.99</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.5</v>
       </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5164939</v>
+        <v>5164942</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1542,73 +1542,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
         <v>3.5</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N12">
+        <v>3.3</v>
+      </c>
+      <c r="O12">
+        <v>3.4</v>
+      </c>
+      <c r="P12">
+        <v>2.2</v>
+      </c>
+      <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
         <v>1.95</v>
       </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.97</v>
-      </c>
       <c r="S12">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U12">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.495</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1806,7 +1806,7 @@
         <v>44939.70833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -2521,7 +2521,7 @@
         <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2696,7 +2696,7 @@
         <v>44944.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -3055,7 +3055,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>44947.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
@@ -4019,7 +4019,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5164967</v>
+        <v>5164965</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4031,76 +4031,76 @@
         <v>44961.5</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="N40">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q40">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
+        <v>1.83</v>
+      </c>
+      <c r="S40">
         <v>2.07</v>
       </c>
-      <c r="S40">
-        <v>1.83</v>
-      </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="V40">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="W40">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8300000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC40">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4197,7 +4197,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5164965</v>
+        <v>5164967</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4209,76 +4209,76 @@
         <v>44961.5</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N42">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R42">
+        <v>2.07</v>
+      </c>
+      <c r="S42">
         <v>1.83</v>
       </c>
-      <c r="S42">
+      <c r="T42">
+        <v>3</v>
+      </c>
+      <c r="U42">
         <v>2.07</v>
       </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>2.01</v>
-      </c>
       <c r="V42">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>1.07</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB42">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4301,7 +4301,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4832,7 +4832,7 @@
         <v>44968.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -5458,7 +5458,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5722,7 +5722,7 @@
         <v>44975.39583333334</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>33</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5164987</v>
+        <v>5164991</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,76 +5811,76 @@
         <v>44975.5</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>1</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N60">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="S60">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="V60">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="W60">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z60">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.9299999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5888,7 +5888,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5164991</v>
+        <v>5164987</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5900,76 +5900,76 @@
         <v>44975.5</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
       <c r="J61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K61">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N61">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="S61">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.775</v>
+        <v>1.97</v>
       </c>
       <c r="V61">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA61">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>1.025</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6170,7 +6170,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6882,7 +6882,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7146,7 +7146,7 @@
         <v>44982.69791666666</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5165001</v>
+        <v>5165002</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,40 +7858,40 @@
         <v>44989.5</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>54</v>
       </c>
       <c r="K83">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="L83">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="N83">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="P83">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q83">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
         <v>1.84</v>
@@ -7900,16 +7900,16 @@
         <v>2.09</v>
       </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
-        <v>0.2</v>
+        <v>1.15</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,16 +7918,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA83">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5165002</v>
+        <v>5165001</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,40 +7947,40 @@
         <v>44989.5</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>54</v>
       </c>
       <c r="K84">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M84">
-        <v>3.75</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="O84">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R84">
         <v>1.84</v>
@@ -7989,16 +7989,16 @@
         <v>2.09</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W84">
-        <v>1.15</v>
+        <v>0.2</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,16 +8007,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8469,7 +8469,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5165015</v>
+        <v>5164613</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8481,73 +8481,73 @@
         <v>44996.5</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
         <v>1</v>
       </c>
-      <c r="I90">
-        <v>3</v>
-      </c>
       <c r="J90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K90">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="T90">
         <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5164613</v>
+        <v>5165015</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,73 +8748,73 @@
         <v>44996.5</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
         <v>3</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
       <c r="J93" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>4</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N93">
-        <v>1.444</v>
+        <v>3.8</v>
       </c>
       <c r="O93">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q93">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S93">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V93">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z93">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8837,7 +8837,7 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
         <v>45</v>
@@ -9018,7 +9018,7 @@
         <v>47</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>45003.5</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
         <v>48</v>
@@ -9997,7 +9997,7 @@
         <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -10350,7 +10350,7 @@
         <v>45017.45833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
         <v>34</v>
@@ -10620,7 +10620,7 @@
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5164610</v>
+        <v>5165033</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11952,76 +11952,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K129">
         <v>1.65</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="S129">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="T129">
         <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="V129">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W129">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z129">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.99</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5165033</v>
+        <v>5164610</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K130">
         <v>1.65</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P130">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="S130">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V130">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA130">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.9299999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12222,7 +12222,7 @@
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12397,7 +12397,7 @@
         <v>45031.35416666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -12756,7 +12756,7 @@
         <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -13554,7 +13554,7 @@
         <v>45038.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
         <v>32</v>
@@ -14002,7 +14002,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14088,7 +14088,7 @@
         <v>45041.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
         <v>41</v>
@@ -14889,7 +14889,7 @@
         <v>45045.35416666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
         <v>47</v>
@@ -15159,7 +15159,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15767,7 +15767,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6457765</v>
+        <v>6452998</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15779,13 +15779,13 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -15794,25 +15794,25 @@
         <v>54</v>
       </c>
       <c r="K172">
-        <v>1.333</v>
+        <v>1.166</v>
       </c>
       <c r="L172">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M172">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N172">
-        <v>1.3</v>
+        <v>1.166</v>
       </c>
       <c r="O172">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="P172">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q172">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="R172">
         <v>1.86</v>
@@ -15821,16 +15821,16 @@
         <v>2.04</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U172">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V172">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="W172">
-        <v>0.3</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15839,16 +15839,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA172">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.9099999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15856,7 +15856,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6452998</v>
+        <v>6457765</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15868,13 +15868,13 @@
         <v>45049.66666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G173" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -15883,25 +15883,25 @@
         <v>54</v>
       </c>
       <c r="K173">
-        <v>1.166</v>
+        <v>1.333</v>
       </c>
       <c r="L173">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N173">
-        <v>1.166</v>
+        <v>1.3</v>
       </c>
       <c r="O173">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="P173">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q173">
-        <v>-2</v>
+        <v>-1.5</v>
       </c>
       <c r="R173">
         <v>1.86</v>
@@ -15910,16 +15910,16 @@
         <v>2.04</v>
       </c>
       <c r="T173">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U173">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V173">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="W173">
-        <v>0.1659999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="X173">
         <v>-1</v>
@@ -15928,16 +15928,16 @@
         <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB173">
         <v>-1</v>
       </c>
       <c r="AC173">
-        <v>0.8400000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -16049,7 +16049,7 @@
         <v>42</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16316,7 +16316,7 @@
         <v>29</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>5574470</v>
+        <v>5601952</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
+        <v>3</v>
+      </c>
+      <c r="N186">
+        <v>2.2</v>
+      </c>
+      <c r="O186">
+        <v>3.6</v>
+      </c>
+      <c r="P186">
+        <v>3</v>
+      </c>
+      <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
+        <v>1.95</v>
+      </c>
+      <c r="T186">
         <v>2.75</v>
       </c>
-      <c r="N186">
-        <v>2.625</v>
-      </c>
-      <c r="O186">
-        <v>3.5</v>
-      </c>
-      <c r="P186">
-        <v>2.55</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>1.97</v>
-      </c>
-      <c r="S186">
-        <v>1.93</v>
-      </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA186">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17102,7 +17102,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>5601952</v>
+        <v>5592152</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17117,55 +17117,55 @@
         <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H187">
         <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>54</v>
       </c>
       <c r="K187">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M187">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N187">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P187">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V187">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W187">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17174,16 +17174,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17191,7 +17191,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5592152</v>
+        <v>5574470</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17203,76 +17203,76 @@
         <v>45059.45833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
         <v>2</v>
       </c>
-      <c r="I188">
+      <c r="J188" t="s">
+        <v>52</v>
+      </c>
+      <c r="K188">
+        <v>2.5</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.75</v>
+      </c>
+      <c r="N188">
+        <v>2.625</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>2.55</v>
+      </c>
+      <c r="Q188">
         <v>0</v>
       </c>
-      <c r="J188" t="s">
-        <v>54</v>
-      </c>
-      <c r="K188">
-        <v>1.95</v>
-      </c>
-      <c r="L188">
-        <v>3.5</v>
-      </c>
-      <c r="M188">
-        <v>3.75</v>
-      </c>
-      <c r="N188">
-        <v>1.727</v>
-      </c>
-      <c r="O188">
-        <v>3.75</v>
-      </c>
-      <c r="P188">
-        <v>4.75</v>
-      </c>
-      <c r="Q188">
-        <v>-0.75</v>
-      </c>
       <c r="R188">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="S188">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z188">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8600000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -18007,7 +18007,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18096,7 +18096,7 @@
         <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -19161,7 +19161,7 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -19339,7 +19339,7 @@
         <v>45074.52083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
         <v>43</v>
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6777650</v>
+        <v>6777647</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
+        <v>2.8</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.4</v>
+      </c>
+      <c r="N220">
         <v>2.625</v>
       </c>
-      <c r="L220">
-        <v>3.3</v>
-      </c>
-      <c r="M220">
-        <v>2.625</v>
-      </c>
-      <c r="N220">
-        <v>3.6</v>
-      </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R220">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y220">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA220">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB220">
         <v>-1</v>
       </c>
       <c r="AC220">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6777647</v>
+        <v>6777648</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K221">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M221">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="N221">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P221">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S221">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U221">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="V221">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X221">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC221">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20217,7 +20217,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6777649</v>
+        <v>6777650</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20229,10 +20229,10 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G222" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20244,40 +20244,40 @@
         <v>52</v>
       </c>
       <c r="K222">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="N222">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O222">
         <v>3.2</v>
       </c>
       <c r="P222">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="S222">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="W222">
         <v>-1</v>
@@ -20286,19 +20286,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="Z222">
         <v>-1</v>
       </c>
       <c r="AA222">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6777648</v>
+        <v>6777649</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20318,76 +20318,76 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I223">
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K223">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="L223">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N223">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="O223">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="Q223">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="S223">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V223">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W223">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z223">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB223">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20410,7 +20410,7 @@
         <v>44</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H224">
         <v>5</v>
@@ -21297,7 +21297,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
         <v>32</v>
@@ -21475,7 +21475,7 @@
         <v>45159.66666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21745,7 +21745,7 @@
         <v>31</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22190,7 +22190,7 @@
         <v>49</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -23080,7 +23080,7 @@
         <v>46</v>
       </c>
       <c r="G254" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H254">
         <v>3</v>
@@ -23166,7 +23166,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G255" t="s">
         <v>42</v>
@@ -23789,10 +23789,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F262" t="s">
+        <v>38</v>
+      </c>
+      <c r="G262" t="s">
         <v>39</v>
-      </c>
-      <c r="G262" t="s">
-        <v>38</v>
       </c>
       <c r="H262">
         <v>3</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>6777929</v>
+        <v>6777928</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G267" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="L267">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M267">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="N267">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O267">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P267">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q267">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S267">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T267">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V267">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W267">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y267">
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB267">
         <v>-1</v>
       </c>
       <c r="AC267">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>6780963</v>
+        <v>6777929</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F268" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G268" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K268">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L268">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M268">
-        <v>2.3</v>
+        <v>17</v>
       </c>
       <c r="N268">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="O268">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P268">
-        <v>2.375</v>
+        <v>13</v>
       </c>
       <c r="Q268">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R268">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S268">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T268">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U268">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V268">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X268">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.4399999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>0.52</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24400,7 +24400,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6777928</v>
+        <v>6780963</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24412,76 +24412,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J269" t="s">
         <v>53</v>
       </c>
       <c r="K269">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M269">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N269">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="O269">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P269">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q269">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="S269">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T269">
         <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="V269">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="AA269">
-        <v>0.8300000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC269">
-        <v>0.9399999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24771,7 +24771,7 @@
         <v>40</v>
       </c>
       <c r="G273" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -25124,7 +25124,7 @@
         <v>45199.35416666666</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G277" t="s">
         <v>43</v>
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>6777938</v>
+        <v>6777935</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,58 +25302,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F279" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G279" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H279">
         <v>2</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="s">
         <v>54</v>
       </c>
       <c r="K279">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="L279">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="M279">
+        <v>10</v>
+      </c>
+      <c r="N279">
         <v>1.4</v>
-      </c>
-      <c r="N279">
-        <v>7.5</v>
       </c>
       <c r="O279">
         <v>5</v>
       </c>
       <c r="P279">
-        <v>1.4</v>
+        <v>7</v>
       </c>
       <c r="Q279">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R279">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="S279">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="T279">
         <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V279">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="W279">
-        <v>6.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X279">
         <v>-1</v>
@@ -25362,16 +25362,16 @@
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>1.01</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA279">
         <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>6777934</v>
+        <v>6777938</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,76 +25391,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G280" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K280">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="L280">
-        <v>4.333</v>
+        <v>4.9</v>
       </c>
       <c r="M280">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="N280">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="O280">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P280">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="Q280">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R280">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="S280">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T280">
         <v>2.75</v>
       </c>
       <c r="U280">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V280">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W280">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X280">
         <v>-1</v>
       </c>
       <c r="Y280">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA280">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
       <c r="AC280">
-        <v>0.8400000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25468,7 +25468,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>6777935</v>
+        <v>6777934</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25480,76 +25480,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F281" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G281" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K281">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="L281">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="M281">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="N281">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O281">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P281">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q281">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R281">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="S281">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="T281">
         <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V281">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="W281">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z281">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA281">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB281">
         <v>-1</v>
       </c>
       <c r="AC281">
-        <v>1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6777945</v>
+        <v>6777941</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,76 +26192,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G289" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J289" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K289">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="L289">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M289">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="N289">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O289">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P289">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q289">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R289">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="S289">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V289">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W289">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z289">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB289">
-        <v>0.425</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC289">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6777941</v>
+        <v>6777943</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,73 +26281,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F290" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G290" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290" t="s">
+        <v>54</v>
+      </c>
+      <c r="K290">
+        <v>1.95</v>
+      </c>
+      <c r="L290">
+        <v>3.6</v>
+      </c>
+      <c r="M290">
+        <v>3.6</v>
+      </c>
+      <c r="N290">
+        <v>1.909</v>
+      </c>
+      <c r="O290">
+        <v>3.6</v>
+      </c>
+      <c r="P290">
         <v>4</v>
       </c>
-      <c r="J290" t="s">
-        <v>52</v>
-      </c>
-      <c r="K290">
-        <v>4.2</v>
-      </c>
-      <c r="L290">
-        <v>3.8</v>
-      </c>
-      <c r="M290">
-        <v>1.8</v>
-      </c>
-      <c r="N290">
-        <v>5.25</v>
-      </c>
-      <c r="O290">
-        <v>4</v>
-      </c>
-      <c r="P290">
-        <v>1.666</v>
-      </c>
       <c r="Q290">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R290">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T290">
         <v>2.5</v>
       </c>
       <c r="U290">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V290">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA290">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>0.8600000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26358,7 +26358,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>6777943</v>
+        <v>6777944</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26370,58 +26370,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F291" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G291" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H291">
         <v>3</v>
       </c>
       <c r="I291">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" t="s">
         <v>54</v>
       </c>
       <c r="K291">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L291">
         <v>3.6</v>
       </c>
       <c r="M291">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N291">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O291">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P291">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S291">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="T291">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U291">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="V291">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="W291">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X291">
         <v>-1</v>
@@ -26430,13 +26430,13 @@
         <v>-1</v>
       </c>
       <c r="Z291">
-        <v>0.8999999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA291">
         <v>-1</v>
       </c>
       <c r="AB291">
-        <v>0.8500000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26447,7 +26447,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6777944</v>
+        <v>6777945</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26459,13 +26459,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F292" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -26474,43 +26474,43 @@
         <v>54</v>
       </c>
       <c r="K292">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="L292">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M292">
+        <v>5</v>
+      </c>
+      <c r="N292">
+        <v>1.65</v>
+      </c>
+      <c r="O292">
+        <v>4.2</v>
+      </c>
+      <c r="P292">
         <v>4.75</v>
       </c>
-      <c r="N292">
-        <v>1.5</v>
-      </c>
-      <c r="O292">
-        <v>4</v>
-      </c>
-      <c r="P292">
-        <v>7</v>
-      </c>
       <c r="Q292">
         <v>-1</v>
       </c>
       <c r="R292">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S292">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="T292">
         <v>2.75</v>
       </c>
       <c r="U292">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="V292">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W292">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X292">
         <v>-1</v>
@@ -26519,16 +26519,16 @@
         <v>-1</v>
       </c>
       <c r="Z292">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA292">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB292">
-        <v>0.99</v>
+        <v>0.425</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26548,7 +26548,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F293" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G293" t="s">
         <v>30</v>
@@ -26818,7 +26818,7 @@
         <v>42</v>
       </c>
       <c r="G296" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H296">
         <v>1</v>
@@ -27352,7 +27352,7 @@
         <v>44</v>
       </c>
       <c r="G302" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H302">
         <v>4</v>
@@ -27705,7 +27705,7 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F306" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G306" t="s">
         <v>47</v>
@@ -27883,7 +27883,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
         <v>29</v>
@@ -28417,7 +28417,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G314" t="s">
         <v>51</v>
@@ -29132,7 +29132,7 @@
         <v>49</v>
       </c>
       <c r="G322" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>30</v>
       </c>
       <c r="G325" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H325">
         <v>2</v>
@@ -29752,7 +29752,7 @@
         <v>45241.5</v>
       </c>
       <c r="F329" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G329" t="s">
         <v>32</v>
@@ -30286,7 +30286,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F335" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G335" t="s">
         <v>41</v>
@@ -31001,7 +31001,7 @@
         <v>51</v>
       </c>
       <c r="G343" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H343">
         <v>2</v>
@@ -31179,7 +31179,7 @@
         <v>29</v>
       </c>
       <c r="G345" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H345">
         <v>1</v>
@@ -31980,7 +31980,7 @@
         <v>48</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -32069,7 +32069,7 @@
         <v>47</v>
       </c>
       <c r="G355" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -32499,7 +32499,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>6777998</v>
+        <v>6778003</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32511,76 +32511,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F360" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G360" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
         <v>2</v>
       </c>
-      <c r="I360">
-        <v>1</v>
-      </c>
       <c r="J360" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K360">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L360">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M360">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N360">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O360">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P360">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q360">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R360">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S360">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T360">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U360">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V360">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="W360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X360">
         <v>-1</v>
       </c>
       <c r="Y360">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z360">
-        <v>0.5149999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA360">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB360">
         <v>-0.5</v>
       </c>
-      <c r="AB360">
-        <v>0.415</v>
-      </c>
       <c r="AC360">
-        <v>-0.5</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32588,7 +32588,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6778001</v>
+        <v>6778000</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32600,76 +32600,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F361" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H361">
+        <v>5</v>
+      </c>
+      <c r="I361">
         <v>0</v>
       </c>
-      <c r="I361">
+      <c r="J361" t="s">
+        <v>54</v>
+      </c>
+      <c r="K361">
+        <v>2.05</v>
+      </c>
+      <c r="L361">
+        <v>3.3</v>
+      </c>
+      <c r="M361">
+        <v>3.6</v>
+      </c>
+      <c r="N361">
         <v>2</v>
       </c>
-      <c r="J361" t="s">
-        <v>52</v>
-      </c>
-      <c r="K361">
-        <v>8.5</v>
-      </c>
-      <c r="L361">
-        <v>6.5</v>
-      </c>
-      <c r="M361">
-        <v>1.25</v>
-      </c>
-      <c r="N361">
-        <v>15</v>
-      </c>
       <c r="O361">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>2.05</v>
+      </c>
+      <c r="S361">
+        <v>1.85</v>
+      </c>
+      <c r="T361">
         <v>2.25</v>
       </c>
-      <c r="R361">
-        <v>1.84</v>
-      </c>
-      <c r="S361">
-        <v>2.06</v>
-      </c>
-      <c r="T361">
-        <v>3.75</v>
-      </c>
       <c r="U361">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC361">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32677,7 +32677,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6778003</v>
+        <v>6777998</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32689,76 +32689,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F362" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J362" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M362">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N362">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O362">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P362">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q362">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S362">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T362">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U362">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V362">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="W362">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X362">
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AA362">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB362">
+        <v>0.415</v>
+      </c>
+      <c r="AC362">
         <v>-0.5</v>
-      </c>
-      <c r="AC362">
-        <v>0.53</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32766,7 +32766,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6778000</v>
+        <v>6778001</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32778,76 +32778,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F363" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G363" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H363">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J363" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K363">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="L363">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M363">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N363">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P363">
+        <v>1.181</v>
+      </c>
+      <c r="Q363">
+        <v>2.25</v>
+      </c>
+      <c r="R363">
+        <v>1.84</v>
+      </c>
+      <c r="S363">
+        <v>2.06</v>
+      </c>
+      <c r="T363">
         <v>3.75</v>
       </c>
-      <c r="Q363">
+      <c r="U363">
+        <v>2.04</v>
+      </c>
+      <c r="V363">
+        <v>1.86</v>
+      </c>
+      <c r="W363">
+        <v>-1</v>
+      </c>
+      <c r="X363">
+        <v>-1</v>
+      </c>
+      <c r="Y363">
+        <v>0.181</v>
+      </c>
+      <c r="Z363">
+        <v>0.42</v>
+      </c>
+      <c r="AA363">
         <v>-0.5</v>
       </c>
-      <c r="R363">
-        <v>2.05</v>
-      </c>
-      <c r="S363">
-        <v>1.85</v>
-      </c>
-      <c r="T363">
-        <v>2.25</v>
-      </c>
-      <c r="U363">
-        <v>1.9</v>
-      </c>
-      <c r="V363">
-        <v>2</v>
-      </c>
-      <c r="W363">
-        <v>1</v>
-      </c>
-      <c r="X363">
-        <v>-1</v>
-      </c>
-      <c r="Y363">
-        <v>-1</v>
-      </c>
-      <c r="Z363">
-        <v>1.05</v>
-      </c>
-      <c r="AA363">
-        <v>-1</v>
-      </c>
       <c r="AB363">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32855,7 +32855,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32867,58 +32867,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F364" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G364" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H364">
+        <v>2</v>
+      </c>
+      <c r="I364">
         <v>1</v>
-      </c>
-      <c r="I364">
-        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>54</v>
       </c>
       <c r="K364">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N364">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O364">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P364">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R364">
+        <v>2.08</v>
+      </c>
+      <c r="S364">
         <v>1.82</v>
-      </c>
-      <c r="S364">
-        <v>2.08</v>
       </c>
       <c r="T364">
         <v>3</v>
       </c>
       <c r="U364">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V364">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W364">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32927,16 +32927,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC364">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32944,7 +32944,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32956,58 +32956,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F365" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G365" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>54</v>
       </c>
       <c r="K365">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L365">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M365">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N365">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O365">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P365">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R365">
+        <v>1.82</v>
+      </c>
+      <c r="S365">
         <v>2.08</v>
-      </c>
-      <c r="S365">
-        <v>1.82</v>
       </c>
       <c r="T365">
         <v>3</v>
       </c>
       <c r="U365">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V365">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W365">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33016,16 +33016,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA365">
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33223,7 +33223,7 @@
         <v>45269.39583333334</v>
       </c>
       <c r="F368" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G368" t="s">
         <v>46</v>
@@ -33668,7 +33668,7 @@
         <v>45269.60416666666</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
         <v>33</v>
@@ -34190,7 +34190,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6778019</v>
+        <v>6778018</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34202,76 +34202,76 @@
         <v>45276.5</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G379" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J379" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K379">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="L379">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M379">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N379">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="O379">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P379">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q379">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R379">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="S379">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="T379">
         <v>2.75</v>
       </c>
       <c r="U379">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="V379">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="W379">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB379">
-        <v>0.5249999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34279,7 +34279,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6778018</v>
+        <v>6778016</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34291,76 +34291,76 @@
         <v>45276.5</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H380">
         <v>2</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K380">
-        <v>1.181</v>
+        <v>1.142</v>
       </c>
       <c r="L380">
         <v>7</v>
       </c>
       <c r="M380">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N380">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O380">
         <v>7.5</v>
       </c>
       <c r="P380">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q380">
         <v>-2</v>
       </c>
       <c r="R380">
+        <v>1.87</v>
+      </c>
+      <c r="S380">
         <v>2.03</v>
       </c>
-      <c r="S380">
-        <v>1.87</v>
-      </c>
       <c r="T380">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U380">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V380">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X380">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y380">
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA380">
-        <v>0.8700000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB380">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34368,7 +34368,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6778016</v>
+        <v>6778019</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34380,13 +34380,13 @@
         <v>45276.5</v>
       </c>
       <c r="F381" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G381" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I381">
         <v>0</v>
@@ -34395,43 +34395,43 @@
         <v>54</v>
       </c>
       <c r="K381">
-        <v>1.142</v>
+        <v>1.5</v>
       </c>
       <c r="L381">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="M381">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N381">
-        <v>1.181</v>
+        <v>1.909</v>
       </c>
       <c r="O381">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P381">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q381">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R381">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S381">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T381">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U381">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V381">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="W381">
-        <v>0.181</v>
+        <v>0.909</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34440,16 +34440,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA381">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC381">
-        <v>1.04</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="382" spans="1:29">
@@ -34739,7 +34739,7 @@
         <v>31</v>
       </c>
       <c r="G385" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H385">
         <v>1</v>
@@ -34914,7 +34914,7 @@
         <v>45281.70833333334</v>
       </c>
       <c r="F387" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G387" t="s">
         <v>43</v>
@@ -35003,7 +35003,7 @@
         <v>45282.70833333334</v>
       </c>
       <c r="F388" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G388" t="s">
         <v>50</v>
@@ -36074,7 +36074,7 @@
         <v>35</v>
       </c>
       <c r="G400" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H400">
         <v>3</v>
@@ -36252,7 +36252,7 @@
         <v>40</v>
       </c>
       <c r="G402" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H402">
         <v>2</v>
@@ -36682,7 +36682,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6778038</v>
+        <v>6778044</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36694,58 +36694,58 @@
         <v>45290.5</v>
       </c>
       <c r="F407" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G407" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H407">
         <v>3</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>54</v>
       </c>
       <c r="K407">
+        <v>2.6</v>
+      </c>
+      <c r="L407">
+        <v>3.3</v>
+      </c>
+      <c r="M407">
+        <v>2.75</v>
+      </c>
+      <c r="N407">
+        <v>2.9</v>
+      </c>
+      <c r="O407">
+        <v>3.25</v>
+      </c>
+      <c r="P407">
         <v>2.5</v>
       </c>
-      <c r="L407">
-        <v>3.4</v>
-      </c>
-      <c r="M407">
-        <v>2.8</v>
-      </c>
-      <c r="N407">
-        <v>2.05</v>
-      </c>
-      <c r="O407">
-        <v>3.3</v>
-      </c>
-      <c r="P407">
-        <v>3.75</v>
-      </c>
       <c r="Q407">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R407">
+        <v>2.08</v>
+      </c>
+      <c r="S407">
         <v>1.82</v>
-      </c>
-      <c r="S407">
-        <v>2.11</v>
       </c>
       <c r="T407">
         <v>2.25</v>
       </c>
       <c r="U407">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="V407">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="W407">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36754,13 +36754,13 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA407">
         <v>-1</v>
       </c>
       <c r="AB407">
-        <v>1.06</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC407">
         <v>-1</v>
@@ -36771,7 +36771,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>6778044</v>
+        <v>6778038</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36783,58 +36783,58 @@
         <v>45290.5</v>
       </c>
       <c r="F408" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G408" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H408">
         <v>3</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408" t="s">
         <v>54</v>
       </c>
       <c r="K408">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L408">
+        <v>3.4</v>
+      </c>
+      <c r="M408">
+        <v>2.8</v>
+      </c>
+      <c r="N408">
+        <v>2.05</v>
+      </c>
+      <c r="O408">
         <v>3.3</v>
       </c>
-      <c r="M408">
-        <v>2.75</v>
-      </c>
-      <c r="N408">
-        <v>2.9</v>
-      </c>
-      <c r="O408">
-        <v>3.25</v>
-      </c>
       <c r="P408">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q408">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="S408">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="T408">
         <v>2.25</v>
       </c>
       <c r="U408">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V408">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W408">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="X408">
         <v>-1</v>
@@ -36843,13 +36843,13 @@
         <v>-1</v>
       </c>
       <c r="Z408">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA408">
         <v>-1</v>
       </c>
       <c r="AB408">
-        <v>0.9299999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC408">
         <v>-1</v>
@@ -36961,7 +36961,7 @@
         <v>45290.5</v>
       </c>
       <c r="F410" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G410" t="s">
         <v>49</v>
@@ -37127,7 +37127,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6778043</v>
+        <v>6778039</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37139,13 +37139,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="F412" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G412" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H412">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412">
         <v>1</v>
@@ -37154,43 +37154,43 @@
         <v>54</v>
       </c>
       <c r="K412">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L412">
         <v>4.6</v>
       </c>
       <c r="M412">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N412">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="O412">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P412">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q412">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R412">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S412">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T412">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U412">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V412">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W412">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="X412">
         <v>-1</v>
@@ -37199,16 +37199,16 @@
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA412">
         <v>-1</v>
       </c>
       <c r="AB412">
-        <v>0.5249999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37216,7 +37216,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6778039</v>
+        <v>6778043</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37228,13 +37228,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="F413" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G413" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I413">
         <v>1</v>
@@ -37243,43 +37243,43 @@
         <v>54</v>
       </c>
       <c r="K413">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L413">
         <v>4.6</v>
       </c>
       <c r="M413">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N413">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="O413">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P413">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="Q413">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R413">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S413">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T413">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U413">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V413">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="W413">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="X413">
         <v>-1</v>
@@ -37288,16 +37288,16 @@
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA413">
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.8600000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37765,7 +37765,7 @@
         <v>32</v>
       </c>
       <c r="G419" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>33</v>
       </c>
       <c r="G421" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H421">
         <v>5</v>
@@ -38652,7 +38652,7 @@
         <v>45321.70833333334</v>
       </c>
       <c r="F429" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G429" t="s">
         <v>50</v>
@@ -38741,7 +38741,7 @@
         <v>45321.71875</v>
       </c>
       <c r="F430" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G430" t="s">
         <v>44</v>
@@ -38818,7 +38818,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>6778060</v>
+        <v>6778056</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38830,58 +38830,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F431" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G431" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H431">
         <v>3</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="s">
         <v>54</v>
       </c>
       <c r="K431">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L431">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M431">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="N431">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O431">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P431">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q431">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R431">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S431">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T431">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U431">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V431">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W431">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X431">
         <v>-1</v>
@@ -38890,13 +38890,13 @@
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA431">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB431">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC431">
         <v>-1</v>
@@ -38907,7 +38907,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>6778056</v>
+        <v>6778060</v>
       </c>
       <c r="C432" t="s">
         <v>28</v>
@@ -38919,58 +38919,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F432" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G432" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H432">
         <v>3</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J432" t="s">
         <v>54</v>
       </c>
       <c r="K432">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L432">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M432">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="N432">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O432">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P432">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q432">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R432">
+        <v>2.06</v>
+      </c>
+      <c r="S432">
+        <v>1.84</v>
+      </c>
+      <c r="T432">
+        <v>3.5</v>
+      </c>
+      <c r="U432">
+        <v>1.9</v>
+      </c>
+      <c r="V432">
         <v>2</v>
       </c>
-      <c r="S432">
-        <v>1.9</v>
-      </c>
-      <c r="T432">
-        <v>3.25</v>
-      </c>
-      <c r="U432">
-        <v>1.95</v>
-      </c>
-      <c r="V432">
-        <v>1.95</v>
-      </c>
       <c r="W432">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X432">
         <v>-1</v>
@@ -38979,13 +38979,13 @@
         <v>-1</v>
       </c>
       <c r="Z432">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA432">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB432">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC432">
         <v>-1</v>
@@ -39367,7 +39367,7 @@
         <v>43</v>
       </c>
       <c r="G437" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H437">
         <v>4</v>
@@ -39634,7 +39634,7 @@
         <v>50</v>
       </c>
       <c r="G440" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H440">
         <v>0</v>
@@ -39708,7 +39708,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>6777780</v>
+        <v>6778066</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39720,76 +39720,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F441" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G441" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H441">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J441" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K441">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L441">
         <v>4</v>
       </c>
       <c r="M441">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N441">
         <v>1.55</v>
       </c>
       <c r="O441">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P441">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q441">
         <v>-1</v>
       </c>
       <c r="R441">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S441">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T441">
         <v>3</v>
       </c>
       <c r="U441">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V441">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W441">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X441">
         <v>-1</v>
       </c>
       <c r="Y441">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z441">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA441">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB441">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC441">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -39797,7 +39797,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>6778061</v>
+        <v>6777780</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39809,76 +39809,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F442" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G442" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J442" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K442">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L442">
         <v>4</v>
       </c>
       <c r="M442">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N442">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O442">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P442">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q442">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R442">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S442">
-        <v>2.025</v>
+        <v>2.03</v>
       </c>
       <c r="T442">
         <v>3</v>
       </c>
       <c r="U442">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V442">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X442">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y442">
         <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA442">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB442">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC442">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="443" spans="1:29">
@@ -39886,7 +39886,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>6778066</v>
+        <v>6778061</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39898,76 +39898,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F443" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G443" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K443">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L443">
         <v>4</v>
       </c>
       <c r="M443">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N443">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O443">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P443">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q443">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R443">
-        <v>1.88</v>
+        <v>1.775</v>
       </c>
       <c r="S443">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T443">
         <v>3</v>
       </c>
       <c r="U443">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V443">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W443">
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y443">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB443">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40242,7 +40242,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>6778071</v>
+        <v>6778072</v>
       </c>
       <c r="C447" t="s">
         <v>28</v>
@@ -40254,10 +40254,10 @@
         <v>45332.5</v>
       </c>
       <c r="F447" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G447" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H447">
         <v>3</v>
@@ -40269,43 +40269,43 @@
         <v>54</v>
       </c>
       <c r="K447">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L447">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M447">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="N447">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="O447">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P447">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q447">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R447">
+        <v>1.97</v>
+      </c>
+      <c r="S447">
+        <v>1.93</v>
+      </c>
+      <c r="T447">
+        <v>3.75</v>
+      </c>
+      <c r="U447">
+        <v>2</v>
+      </c>
+      <c r="V447">
         <v>1.9</v>
       </c>
-      <c r="S447">
-        <v>2</v>
-      </c>
-      <c r="T447">
-        <v>2.75</v>
-      </c>
-      <c r="U447">
-        <v>2.04</v>
-      </c>
-      <c r="V447">
-        <v>1.86</v>
-      </c>
       <c r="W447">
-        <v>1.45</v>
+        <v>0.181</v>
       </c>
       <c r="X447">
         <v>-1</v>
@@ -40314,16 +40314,16 @@
         <v>-1</v>
       </c>
       <c r="Z447">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA447">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB447">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="AC447">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="448" spans="1:29">
@@ -40331,7 +40331,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>6778075</v>
+        <v>6778071</v>
       </c>
       <c r="C448" t="s">
         <v>28</v>
@@ -40343,13 +40343,13 @@
         <v>45332.5</v>
       </c>
       <c r="F448" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G448" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -40358,43 +40358,43 @@
         <v>54</v>
       </c>
       <c r="K448">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L448">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M448">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N448">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O448">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P448">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q448">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R448">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S448">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T448">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U448">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="V448">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="W448">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X448">
         <v>-1</v>
@@ -40403,16 +40403,16 @@
         <v>-1</v>
       </c>
       <c r="Z448">
-        <v>0.465</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA448">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB448">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AC448">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449" spans="1:29">
@@ -40598,7 +40598,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>6778072</v>
+        <v>6778075</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40610,13 +40610,13 @@
         <v>45332.5</v>
       </c>
       <c r="F451" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G451" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451">
         <v>1</v>
@@ -40625,43 +40625,43 @@
         <v>54</v>
       </c>
       <c r="K451">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L451">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M451">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="N451">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="O451">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P451">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q451">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R451">
+        <v>1.93</v>
+      </c>
+      <c r="S451">
         <v>1.97</v>
       </c>
-      <c r="S451">
-        <v>1.93</v>
-      </c>
       <c r="T451">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U451">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V451">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W451">
-        <v>0.181</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X451">
         <v>-1</v>
@@ -40670,16 +40670,16 @@
         <v>-1</v>
       </c>
       <c r="Z451">
+        <v>0.465</v>
+      </c>
+      <c r="AA451">
         <v>-0.5</v>
       </c>
-      <c r="AA451">
-        <v>0.465</v>
-      </c>
       <c r="AB451">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC451">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40877,7 +40877,7 @@
         <v>45333.5625</v>
       </c>
       <c r="F454" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G454" t="s">
         <v>35</v>
@@ -40966,7 +40966,7 @@
         <v>45334.70833333334</v>
       </c>
       <c r="F455" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G455" t="s">
         <v>40</v>
@@ -41310,7 +41310,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>6778078</v>
+        <v>6778080</v>
       </c>
       <c r="C459" t="s">
         <v>28</v>
@@ -41322,55 +41322,55 @@
         <v>45339.5</v>
       </c>
       <c r="F459" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G459" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I459">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J459" t="s">
         <v>52</v>
       </c>
       <c r="K459">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="L459">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M459">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N459">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="O459">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P459">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="Q459">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R459">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="S459">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="T459">
         <v>3</v>
       </c>
       <c r="U459">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V459">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="W459">
         <v>-1</v>
@@ -41379,19 +41379,19 @@
         <v>-1</v>
       </c>
       <c r="Y459">
-        <v>0.2849999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="Z459">
         <v>-1</v>
       </c>
       <c r="AA459">
-        <v>0.8400000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB459">
-        <v>0.9199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC459">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="460" spans="1:29">
@@ -41488,7 +41488,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6778080</v>
+        <v>6778078</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41500,55 +41500,55 @@
         <v>45339.5</v>
       </c>
       <c r="F461" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G461" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J461" t="s">
         <v>52</v>
       </c>
       <c r="K461">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="L461">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M461">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="N461">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="O461">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P461">
-        <v>2.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q461">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R461">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="S461">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="T461">
         <v>3</v>
       </c>
       <c r="U461">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="V461">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="W461">
         <v>-1</v>
@@ -41557,19 +41557,19 @@
         <v>-1</v>
       </c>
       <c r="Y461">
-        <v>1.25</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z461">
         <v>-1</v>
       </c>
       <c r="AA461">
-        <v>0.99</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB461">
-        <v>0</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC461">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41859,7 +41859,7 @@
         <v>32</v>
       </c>
       <c r="G465" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -42111,7 +42111,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6778088</v>
+        <v>6778087</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42123,46 +42123,46 @@
         <v>45346.5</v>
       </c>
       <c r="F468" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G468" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K468">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="L468">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M468">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N468">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O468">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P468">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q468">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R468">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="S468">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="T468">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U468">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V468">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W468">
         <v>0</v>
@@ -42185,7 +42185,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6778090</v>
+        <v>6778088</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42197,46 +42197,46 @@
         <v>45346.5</v>
       </c>
       <c r="F469" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G469" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K469">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L469">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M469">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N469">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O469">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P469">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q469">
         <v>-0.5</v>
       </c>
       <c r="R469">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="S469">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="T469">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U469">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V469">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="W469">
         <v>0</v>
@@ -42259,7 +42259,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>6778091</v>
+        <v>6778090</v>
       </c>
       <c r="C470" t="s">
         <v>28</v>
@@ -42271,46 +42271,46 @@
         <v>45346.5</v>
       </c>
       <c r="F470" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G470" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K470">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L470">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M470">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N470">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O470">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P470">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q470">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R470">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S470">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T470">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U470">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V470">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="W470">
         <v>0</v>
@@ -42333,7 +42333,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>6778087</v>
+        <v>6778091</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42345,46 +42345,46 @@
         <v>45346.5</v>
       </c>
       <c r="F471" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G471" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K471">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L471">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M471">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="N471">
-        <v>1.533</v>
+        <v>1.65</v>
       </c>
       <c r="O471">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P471">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q471">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R471">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S471">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="T471">
         <v>3</v>
       </c>
       <c r="U471">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="V471">
-        <v>1.9</v>
+        <v>2.01</v>
       </c>
       <c r="W471">
         <v>0</v>
@@ -42434,31 +42434,31 @@
         <v>1.4</v>
       </c>
       <c r="N472">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O472">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P472">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q472">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R472">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S472">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="T472">
         <v>3.25</v>
       </c>
       <c r="U472">
-        <v>1.99</v>
+        <v>2.07</v>
       </c>
       <c r="V472">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W472">
         <v>0</v>
@@ -42508,10 +42508,10 @@
         <v>5</v>
       </c>
       <c r="N473">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O473">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P473">
         <v>8</v>
@@ -42520,19 +42520,19 @@
         <v>-1.5</v>
       </c>
       <c r="R473">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S473">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T473">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U473">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="V473">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="W473">
         <v>0</v>
@@ -42594,19 +42594,19 @@
         <v>-1.25</v>
       </c>
       <c r="R474">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="S474">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="T474">
         <v>2.75</v>
       </c>
       <c r="U474">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V474">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W474">
         <v>0</v>
@@ -42677,10 +42677,10 @@
         <v>2.75</v>
       </c>
       <c r="U475">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V475">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W475">
         <v>0</v>
@@ -42695,6 +42695,524 @@
         <v>0</v>
       </c>
       <c r="AA475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:29">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476">
+        <v>6958687</v>
+      </c>
+      <c r="C476" t="s">
+        <v>28</v>
+      </c>
+      <c r="D476" t="s">
+        <v>28</v>
+      </c>
+      <c r="E476" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F476" t="s">
+        <v>31</v>
+      </c>
+      <c r="G476" t="s">
+        <v>40</v>
+      </c>
+      <c r="K476">
+        <v>3</v>
+      </c>
+      <c r="L476">
+        <v>3.4</v>
+      </c>
+      <c r="M476">
+        <v>2.3</v>
+      </c>
+      <c r="N476">
+        <v>3.4</v>
+      </c>
+      <c r="O476">
+        <v>3.6</v>
+      </c>
+      <c r="P476">
+        <v>2.05</v>
+      </c>
+      <c r="Q476">
+        <v>0.25</v>
+      </c>
+      <c r="R476">
+        <v>2.05</v>
+      </c>
+      <c r="S476">
+        <v>1.85</v>
+      </c>
+      <c r="T476">
+        <v>3</v>
+      </c>
+      <c r="U476">
+        <v>1.92</v>
+      </c>
+      <c r="V476">
+        <v>1.98</v>
+      </c>
+      <c r="W476">
+        <v>0</v>
+      </c>
+      <c r="X476">
+        <v>0</v>
+      </c>
+      <c r="Y476">
+        <v>0</v>
+      </c>
+      <c r="Z476">
+        <v>0</v>
+      </c>
+      <c r="AA476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:29">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477">
+        <v>6777784</v>
+      </c>
+      <c r="C477" t="s">
+        <v>28</v>
+      </c>
+      <c r="D477" t="s">
+        <v>28</v>
+      </c>
+      <c r="E477" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F477" t="s">
+        <v>32</v>
+      </c>
+      <c r="G477" t="s">
+        <v>47</v>
+      </c>
+      <c r="K477">
+        <v>2.1</v>
+      </c>
+      <c r="L477">
+        <v>3.6</v>
+      </c>
+      <c r="M477">
+        <v>3.25</v>
+      </c>
+      <c r="N477">
+        <v>1.85</v>
+      </c>
+      <c r="O477">
+        <v>3.8</v>
+      </c>
+      <c r="P477">
+        <v>3.8</v>
+      </c>
+      <c r="Q477">
+        <v>-0.5</v>
+      </c>
+      <c r="R477">
+        <v>1.89</v>
+      </c>
+      <c r="S477">
+        <v>2.01</v>
+      </c>
+      <c r="T477">
+        <v>2.5</v>
+      </c>
+      <c r="U477">
+        <v>1.85</v>
+      </c>
+      <c r="V477">
+        <v>2.05</v>
+      </c>
+      <c r="W477">
+        <v>0</v>
+      </c>
+      <c r="X477">
+        <v>0</v>
+      </c>
+      <c r="Y477">
+        <v>0</v>
+      </c>
+      <c r="Z477">
+        <v>0</v>
+      </c>
+      <c r="AA477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:29">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478">
+        <v>6778094</v>
+      </c>
+      <c r="C478" t="s">
+        <v>28</v>
+      </c>
+      <c r="D478" t="s">
+        <v>28</v>
+      </c>
+      <c r="E478" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F478" t="s">
+        <v>41</v>
+      </c>
+      <c r="G478" t="s">
+        <v>43</v>
+      </c>
+      <c r="K478">
+        <v>2.75</v>
+      </c>
+      <c r="L478">
+        <v>3.6</v>
+      </c>
+      <c r="M478">
+        <v>2.375</v>
+      </c>
+      <c r="N478">
+        <v>2.75</v>
+      </c>
+      <c r="O478">
+        <v>3.6</v>
+      </c>
+      <c r="P478">
+        <v>2.4</v>
+      </c>
+      <c r="Q478">
+        <v>0</v>
+      </c>
+      <c r="R478">
+        <v>2.09</v>
+      </c>
+      <c r="S478">
+        <v>1.81</v>
+      </c>
+      <c r="T478">
+        <v>2.75</v>
+      </c>
+      <c r="U478">
+        <v>1.86</v>
+      </c>
+      <c r="V478">
+        <v>2.04</v>
+      </c>
+      <c r="W478">
+        <v>0</v>
+      </c>
+      <c r="X478">
+        <v>0</v>
+      </c>
+      <c r="Y478">
+        <v>0</v>
+      </c>
+      <c r="Z478">
+        <v>0</v>
+      </c>
+      <c r="AA478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:29">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479">
+        <v>6778095</v>
+      </c>
+      <c r="C479" t="s">
+        <v>28</v>
+      </c>
+      <c r="D479" t="s">
+        <v>28</v>
+      </c>
+      <c r="E479" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F479" t="s">
+        <v>44</v>
+      </c>
+      <c r="G479" t="s">
+        <v>42</v>
+      </c>
+      <c r="K479">
+        <v>1.833</v>
+      </c>
+      <c r="L479">
+        <v>4</v>
+      </c>
+      <c r="M479">
+        <v>3.75</v>
+      </c>
+      <c r="N479">
+        <v>1.8</v>
+      </c>
+      <c r="O479">
+        <v>4</v>
+      </c>
+      <c r="P479">
+        <v>3.8</v>
+      </c>
+      <c r="Q479">
+        <v>-0.5</v>
+      </c>
+      <c r="R479">
+        <v>1.84</v>
+      </c>
+      <c r="S479">
+        <v>2.06</v>
+      </c>
+      <c r="T479">
+        <v>3</v>
+      </c>
+      <c r="U479">
+        <v>2.03</v>
+      </c>
+      <c r="V479">
+        <v>1.87</v>
+      </c>
+      <c r="W479">
+        <v>0</v>
+      </c>
+      <c r="X479">
+        <v>0</v>
+      </c>
+      <c r="Y479">
+        <v>0</v>
+      </c>
+      <c r="Z479">
+        <v>0</v>
+      </c>
+      <c r="AA479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:29">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480">
+        <v>6778096</v>
+      </c>
+      <c r="C480" t="s">
+        <v>28</v>
+      </c>
+      <c r="D480" t="s">
+        <v>28</v>
+      </c>
+      <c r="E480" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F480" t="s">
+        <v>30</v>
+      </c>
+      <c r="G480" t="s">
+        <v>46</v>
+      </c>
+      <c r="K480">
+        <v>7.5</v>
+      </c>
+      <c r="L480">
+        <v>4.5</v>
+      </c>
+      <c r="M480">
+        <v>1.4</v>
+      </c>
+      <c r="N480">
+        <v>6</v>
+      </c>
+      <c r="O480">
+        <v>4.333</v>
+      </c>
+      <c r="P480">
+        <v>1.5</v>
+      </c>
+      <c r="Q480">
+        <v>1.25</v>
+      </c>
+      <c r="R480">
+        <v>1.82</v>
+      </c>
+      <c r="S480">
+        <v>2.08</v>
+      </c>
+      <c r="T480">
+        <v>3.25</v>
+      </c>
+      <c r="U480">
+        <v>2.02</v>
+      </c>
+      <c r="V480">
+        <v>1.88</v>
+      </c>
+      <c r="W480">
+        <v>0</v>
+      </c>
+      <c r="X480">
+        <v>0</v>
+      </c>
+      <c r="Y480">
+        <v>0</v>
+      </c>
+      <c r="Z480">
+        <v>0</v>
+      </c>
+      <c r="AA480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:27">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481">
+        <v>6778098</v>
+      </c>
+      <c r="C481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>28</v>
+      </c>
+      <c r="E481" s="2">
+        <v>45353.5</v>
+      </c>
+      <c r="F481" t="s">
+        <v>29</v>
+      </c>
+      <c r="G481" t="s">
+        <v>39</v>
+      </c>
+      <c r="K481">
+        <v>1.727</v>
+      </c>
+      <c r="L481">
+        <v>3.75</v>
+      </c>
+      <c r="M481">
+        <v>4.5</v>
+      </c>
+      <c r="N481">
+        <v>1.533</v>
+      </c>
+      <c r="O481">
+        <v>4</v>
+      </c>
+      <c r="P481">
+        <v>6.5</v>
+      </c>
+      <c r="Q481">
+        <v>-1</v>
+      </c>
+      <c r="R481">
+        <v>1.89</v>
+      </c>
+      <c r="S481">
+        <v>2.01</v>
+      </c>
+      <c r="T481">
+        <v>3</v>
+      </c>
+      <c r="U481">
+        <v>1.9</v>
+      </c>
+      <c r="V481">
+        <v>2</v>
+      </c>
+      <c r="W481">
+        <v>0</v>
+      </c>
+      <c r="X481">
+        <v>0</v>
+      </c>
+      <c r="Y481">
+        <v>0</v>
+      </c>
+      <c r="Z481">
+        <v>0</v>
+      </c>
+      <c r="AA481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:27">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482">
+        <v>6780941</v>
+      </c>
+      <c r="C482" t="s">
+        <v>28</v>
+      </c>
+      <c r="D482" t="s">
+        <v>28</v>
+      </c>
+      <c r="E482" s="2">
+        <v>45353.60416666666</v>
+      </c>
+      <c r="F482" t="s">
+        <v>51</v>
+      </c>
+      <c r="G482" t="s">
+        <v>38</v>
+      </c>
+      <c r="K482">
+        <v>4</v>
+      </c>
+      <c r="L482">
+        <v>4</v>
+      </c>
+      <c r="M482">
+        <v>1.8</v>
+      </c>
+      <c r="N482">
+        <v>4</v>
+      </c>
+      <c r="O482">
+        <v>4</v>
+      </c>
+      <c r="P482">
+        <v>1.8</v>
+      </c>
+      <c r="Q482">
+        <v>0.75</v>
+      </c>
+      <c r="R482">
+        <v>1.86</v>
+      </c>
+      <c r="S482">
+        <v>2.04</v>
+      </c>
+      <c r="T482">
+        <v>3</v>
+      </c>
+      <c r="U482">
+        <v>1.89</v>
+      </c>
+      <c r="V482">
+        <v>2.01</v>
+      </c>
+      <c r="W482">
+        <v>0</v>
+      </c>
+      <c r="X482">
+        <v>0</v>
+      </c>
+      <c r="Y482">
+        <v>0</v>
+      </c>
+      <c r="Z482">
+        <v>0</v>
+      </c>
+      <c r="AA482">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -31876,7 +31876,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31888,61 +31888,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F353" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G353" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K353">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M353">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O353">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P353">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R353">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S353">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U353">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V353">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X353">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
@@ -31951,13 +31951,13 @@
         <v>-1</v>
       </c>
       <c r="AA353">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC353">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,61 +31977,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F354" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G354" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H354">
+        <v>1</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354" t="s">
+        <v>53</v>
+      </c>
+      <c r="K354">
+        <v>2</v>
+      </c>
+      <c r="L354">
+        <v>3.4</v>
+      </c>
+      <c r="M354">
+        <v>3.75</v>
+      </c>
+      <c r="N354">
+        <v>1.909</v>
+      </c>
+      <c r="O354">
+        <v>3.6</v>
+      </c>
+      <c r="P354">
         <v>4</v>
       </c>
-      <c r="I354">
-        <v>3</v>
-      </c>
-      <c r="J354" t="s">
-        <v>54</v>
-      </c>
-      <c r="K354">
-        <v>1.285</v>
-      </c>
-      <c r="L354">
-        <v>6</v>
-      </c>
-      <c r="M354">
-        <v>8.5</v>
-      </c>
-      <c r="N354">
-        <v>1.25</v>
-      </c>
-      <c r="O354">
-        <v>7</v>
-      </c>
-      <c r="P354">
-        <v>10</v>
-      </c>
       <c r="Q354">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S354">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T354">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V354">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W354">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X354">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y354">
         <v>-1</v>
@@ -32040,13 +32040,13 @@
         <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB354">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC354">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,73 +32066,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I355">
         <v>2</v>
       </c>
       <c r="J355" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K355">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L355">
         <v>4</v>
       </c>
       <c r="M355">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N355">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O355">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P355">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q355">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R355">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S355">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T355">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U355">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V355">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X355">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA355">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB355">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,73 +32155,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G356" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356">
         <v>2</v>
       </c>
       <c r="J356" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K356">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L356">
         <v>4</v>
       </c>
       <c r="M356">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N356">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O356">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P356">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q356">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R356">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S356">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T356">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U356">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V356">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W356">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA356">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB356">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32588,7 +32588,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>6778001</v>
+        <v>6778000</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32600,76 +32600,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F361" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H361">
+        <v>5</v>
+      </c>
+      <c r="I361">
         <v>0</v>
       </c>
-      <c r="I361">
+      <c r="J361" t="s">
+        <v>54</v>
+      </c>
+      <c r="K361">
+        <v>2.05</v>
+      </c>
+      <c r="L361">
+        <v>3.3</v>
+      </c>
+      <c r="M361">
+        <v>3.6</v>
+      </c>
+      <c r="N361">
         <v>2</v>
       </c>
-      <c r="J361" t="s">
-        <v>52</v>
-      </c>
-      <c r="K361">
-        <v>8.5</v>
-      </c>
-      <c r="L361">
-        <v>6.5</v>
-      </c>
-      <c r="M361">
-        <v>1.25</v>
-      </c>
-      <c r="N361">
-        <v>15</v>
-      </c>
       <c r="O361">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>2.05</v>
+      </c>
+      <c r="S361">
+        <v>1.85</v>
+      </c>
+      <c r="T361">
         <v>2.25</v>
       </c>
-      <c r="R361">
-        <v>1.84</v>
-      </c>
-      <c r="S361">
-        <v>2.06</v>
-      </c>
-      <c r="T361">
-        <v>3.75</v>
-      </c>
       <c r="U361">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V361">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W361">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X361">
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
       <c r="AA361">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB361">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC361">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32677,7 +32677,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>6778003</v>
+        <v>6778001</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32689,10 +32689,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F362" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G362" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -32704,40 +32704,40 @@
         <v>52</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M362">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N362">
+        <v>15</v>
+      </c>
+      <c r="O362">
+        <v>7.5</v>
+      </c>
+      <c r="P362">
+        <v>1.181</v>
+      </c>
+      <c r="Q362">
         <v>2.25</v>
       </c>
-      <c r="O362">
-        <v>3.5</v>
-      </c>
-      <c r="P362">
-        <v>3.1</v>
-      </c>
-      <c r="Q362">
-        <v>-0.25</v>
-      </c>
       <c r="R362">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S362">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T362">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U362">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V362">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32746,19 +32746,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="Z362">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA362">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB362">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>0.53</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32766,7 +32766,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>6778000</v>
+        <v>6778003</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32778,76 +32778,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F363" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G363" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H363">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I363">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J363" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K363">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L363">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M363">
         <v>3.6</v>
       </c>
       <c r="N363">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O363">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q363">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S363">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T363">
         <v>2.25</v>
       </c>
       <c r="U363">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W363">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X363">
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z363">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB363">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC363">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -42693,10 +42693,10 @@
         <v>2.75</v>
       </c>
       <c r="U474">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V474">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W474">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6777898</v>
+        <v>6777899</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>51</v>
       </c>
       <c r="K25">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S25">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T25">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="V25">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8799999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AB25">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6777899</v>
+        <v>6777898</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2776,76 +2776,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>51</v>
       </c>
       <c r="K26">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="L26">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="O26">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P26">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R26">
-        <v>1.84</v>
+        <v>2.02</v>
       </c>
       <c r="S26">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V26">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.53</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB26">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC26">
-        <v>0.445</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6777910</v>
+        <v>6777911</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3844,58 +3844,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>50</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>1.6</v>
+      </c>
+      <c r="O38">
+        <v>4.75</v>
+      </c>
+      <c r="P38">
+        <v>4.75</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>2.03</v>
+      </c>
+      <c r="S38">
+        <v>1.87</v>
+      </c>
+      <c r="T38">
         <v>3.5</v>
       </c>
-      <c r="N38">
-        <v>1.85</v>
-      </c>
-      <c r="O38">
-        <v>3.4</v>
-      </c>
-      <c r="P38">
-        <v>4.5</v>
-      </c>
-      <c r="Q38">
-        <v>-0.5</v>
-      </c>
-      <c r="R38">
-        <v>1.88</v>
-      </c>
-      <c r="S38">
-        <v>2.02</v>
-      </c>
-      <c r="T38">
-        <v>2.25</v>
-      </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="V38">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="W38">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3904,16 +3904,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8799999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3921,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6777911</v>
+        <v>6777910</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3933,58 +3933,58 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
       </c>
       <c r="K39">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>3.5</v>
+      </c>
+      <c r="N39">
+        <v>1.85</v>
+      </c>
+      <c r="O39">
+        <v>3.4</v>
+      </c>
+      <c r="P39">
         <v>4.5</v>
       </c>
-      <c r="M39">
-        <v>4.75</v>
-      </c>
-      <c r="N39">
-        <v>1.6</v>
-      </c>
-      <c r="O39">
-        <v>4.75</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
       <c r="Q39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="S39">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="T39">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="W39">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.03</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6777762</v>
+        <v>6777921</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
-      <c r="I42">
-        <v>3</v>
-      </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>8</v>
+        <v>1.333</v>
       </c>
       <c r="L42">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="N42">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="O42">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P42">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>-1.75</v>
       </c>
       <c r="R42">
+        <v>2.01</v>
+      </c>
+      <c r="S42">
+        <v>1.92</v>
+      </c>
+      <c r="T42">
+        <v>3.25</v>
+      </c>
+      <c r="U42">
         <v>1.84</v>
       </c>
-      <c r="S42">
-        <v>2.09</v>
-      </c>
-      <c r="T42">
-        <v>2.75</v>
-      </c>
-      <c r="U42">
-        <v>1.97</v>
-      </c>
       <c r="V42">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>1.09</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6777916</v>
+        <v>6777762</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,73 +4289,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
         <v>3</v>
       </c>
-      <c r="I43">
+      <c r="J43" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>4.5</v>
+      </c>
+      <c r="M43">
+        <v>1.4</v>
+      </c>
+      <c r="N43">
+        <v>5.25</v>
+      </c>
+      <c r="O43">
+        <v>4.2</v>
+      </c>
+      <c r="P43">
+        <v>1.6</v>
+      </c>
+      <c r="Q43">
         <v>1</v>
       </c>
-      <c r="J43" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43">
-        <v>1.8</v>
-      </c>
-      <c r="L43">
-        <v>3.6</v>
-      </c>
-      <c r="M43">
-        <v>4.333</v>
-      </c>
-      <c r="N43">
-        <v>1.95</v>
-      </c>
-      <c r="O43">
-        <v>3.6</v>
-      </c>
-      <c r="P43">
-        <v>4</v>
-      </c>
-      <c r="Q43">
-        <v>-0.5</v>
-      </c>
       <c r="R43">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="S43">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="T43">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="V43">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W43">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z43">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AB43">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6777918</v>
+        <v>6777916</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,73 +4378,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L44">
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N44">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O44">
+        <v>3.6</v>
+      </c>
+      <c r="P44">
         <v>4</v>
-      </c>
-      <c r="P44">
-        <v>3.25</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="S44">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V44">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA44">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9299999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6780964</v>
+        <v>6777918</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
+        <v>3.6</v>
+      </c>
+      <c r="M45">
         <v>3.75</v>
       </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
       <c r="N45">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="S45">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="T45">
+        <v>3.25</v>
+      </c>
+      <c r="U45">
+        <v>1.93</v>
+      </c>
+      <c r="V45">
+        <v>1.97</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>2.25</v>
       </c>
-      <c r="U45">
-        <v>1.89</v>
-      </c>
-      <c r="V45">
-        <v>2.01</v>
-      </c>
-      <c r="W45">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC45">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6777921</v>
+        <v>6780964</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,58 +4556,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>50</v>
       </c>
       <c r="K46">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L46">
+        <v>3.75</v>
+      </c>
+      <c r="M46">
         <v>5</v>
       </c>
-      <c r="M46">
-        <v>9</v>
-      </c>
       <c r="N46">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O46">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q46">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
+        <v>1.86</v>
+      </c>
+      <c r="S46">
+        <v>2.04</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.89</v>
+      </c>
+      <c r="V46">
         <v>2.01</v>
       </c>
-      <c r="S46">
-        <v>1.92</v>
-      </c>
-      <c r="T46">
-        <v>3.25</v>
-      </c>
-      <c r="U46">
-        <v>1.84</v>
-      </c>
-      <c r="V46">
-        <v>2.06</v>
-      </c>
       <c r="W46">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4616,16 +4616,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="AA46">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.53</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6777927</v>
+        <v>6777925</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,49 +5624,49 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="M58">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N58">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O58">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S58">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U58">
         <v>1.93</v>
@@ -5675,25 +5675,25 @@
         <v>1.97</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA58">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC58">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6777925</v>
+        <v>6777927</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,49 +5713,49 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K59">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L59">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M59">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N59">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O59">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P59">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T59">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
         <v>1.93</v>
@@ -5764,25 +5764,25 @@
         <v>1.97</v>
       </c>
       <c r="W59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z59">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB59">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6777941</v>
+        <v>6777943</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,73 +7137,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>50</v>
+      </c>
+      <c r="K75">
+        <v>1.95</v>
+      </c>
+      <c r="L75">
+        <v>3.6</v>
+      </c>
+      <c r="M75">
+        <v>3.6</v>
+      </c>
+      <c r="N75">
+        <v>1.909</v>
+      </c>
+      <c r="O75">
+        <v>3.6</v>
+      </c>
+      <c r="P75">
         <v>4</v>
       </c>
-      <c r="J75" t="s">
-        <v>49</v>
-      </c>
-      <c r="K75">
-        <v>4.2</v>
-      </c>
-      <c r="L75">
-        <v>3.8</v>
-      </c>
-      <c r="M75">
-        <v>1.8</v>
-      </c>
-      <c r="N75">
-        <v>5.25</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
-      <c r="P75">
-        <v>1.666</v>
-      </c>
       <c r="Q75">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R75">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8600000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6777943</v>
+        <v>6777941</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N76">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q76">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R76">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W76">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.8500000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6777940</v>
+        <v>6777765</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7419,61 +7419,61 @@
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N78">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S78">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.53</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6777765</v>
+        <v>6777940</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,10 +7493,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7508,61 +7508,61 @@
         <v>51</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
+        <v>2.3</v>
+      </c>
+      <c r="N79">
+        <v>3.2</v>
+      </c>
+      <c r="O79">
+        <v>4.2</v>
+      </c>
+      <c r="P79">
+        <v>2.05</v>
+      </c>
+      <c r="Q79">
+        <v>0.25</v>
+      </c>
+      <c r="R79">
+        <v>2.06</v>
+      </c>
+      <c r="S79">
+        <v>1.84</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.15</v>
-      </c>
-      <c r="N79">
-        <v>3.4</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>2</v>
-      </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.83</v>
-      </c>
-      <c r="S79">
-        <v>2.07</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
       <c r="U79">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6777966</v>
+        <v>6777969</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,13 +9807,13 @@
         <v>45234.5</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H105">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -9822,43 +9822,43 @@
         <v>50</v>
       </c>
       <c r="K105">
-        <v>1.125</v>
+        <v>3</v>
       </c>
       <c r="L105">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>17</v>
+        <v>2.375</v>
       </c>
       <c r="N105">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="O105">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>21</v>
+        <v>1.85</v>
       </c>
       <c r="Q105">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V105">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="W105">
-        <v>0.09000000000000008</v>
+        <v>3.2</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,13 +9867,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8600000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6777969</v>
+        <v>6777964</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45234.5</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="Q106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="S106">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V106">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="W106">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6777964</v>
+        <v>6777966</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45234.5</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>3.6</v>
+        <v>1.125</v>
       </c>
       <c r="L107">
+        <v>8.5</v>
+      </c>
+      <c r="M107">
+        <v>17</v>
+      </c>
+      <c r="N107">
+        <v>1.09</v>
+      </c>
+      <c r="O107">
+        <v>11</v>
+      </c>
+      <c r="P107">
+        <v>21</v>
+      </c>
+      <c r="Q107">
+        <v>-2.5</v>
+      </c>
+      <c r="R107">
+        <v>1.85</v>
+      </c>
+      <c r="S107">
+        <v>2.05</v>
+      </c>
+      <c r="T107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>2</v>
-      </c>
-      <c r="N107">
-        <v>2.8</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
-      <c r="P107">
-        <v>2.45</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>2.09</v>
-      </c>
-      <c r="S107">
-        <v>1.84</v>
-      </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
       <c r="U107">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="V107">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X107">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6777990</v>
+        <v>6777991</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,58 +12210,58 @@
         <v>45262.5</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>50</v>
       </c>
       <c r="K132">
-        <v>1.285</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M132">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>1.222</v>
+        <v>1.727</v>
       </c>
       <c r="O132">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q132">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V132">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="W132">
-        <v>0.222</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12270,16 +12270,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA132">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.415</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6777991</v>
+        <v>6780954</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,58 +12299,58 @@
         <v>45262.5</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H133">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>50</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12359,13 +12359,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6780954</v>
+        <v>6777990</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,13 +12388,13 @@
         <v>45262.5</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12403,43 +12403,43 @@
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="W134">
-        <v>0.5329999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12448,16 +12448,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB134">
-        <v>1</v>
+        <v>0.415</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V138">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W138">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777993</v>
+        <v>6777992</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,58 +12833,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N139">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="O139">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q139">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R139">
         <v>1.97</v>
       </c>
       <c r="S139">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V139">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="W139">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12893,13 +12893,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.96</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777989</v>
+        <v>6777993</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,73 +12922,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G140" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>1.833</v>
+        <v>8.5</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P140">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
+        <v>1.87</v>
+      </c>
+      <c r="V140">
         <v>2.03</v>
       </c>
-      <c r="V140">
-        <v>1.87</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X140">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.96</v>
       </c>
       <c r="AB140">
-        <v>1.03</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6778000</v>
+        <v>6778003</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
         <v>3.6</v>
       </c>
       <c r="N144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6778003</v>
+        <v>6778001</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,10 +13367,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13382,40 +13382,40 @@
         <v>49</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N145">
+        <v>15</v>
+      </c>
+      <c r="O145">
+        <v>7.5</v>
+      </c>
+      <c r="P145">
+        <v>1.181</v>
+      </c>
+      <c r="Q145">
         <v>2.25</v>
       </c>
-      <c r="O145">
-        <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>3.1</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
       <c r="R145">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S145">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U145">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V145">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13424,19 +13424,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA145">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.53</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6778001</v>
+        <v>6778000</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146">
+        <v>2.05</v>
+      </c>
+      <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>3.6</v>
+      </c>
+      <c r="N146">
         <v>2</v>
       </c>
-      <c r="J146" t="s">
-        <v>49</v>
-      </c>
-      <c r="K146">
-        <v>8.5</v>
-      </c>
-      <c r="L146">
-        <v>6.5</v>
-      </c>
-      <c r="M146">
-        <v>1.25</v>
-      </c>
-      <c r="N146">
-        <v>15</v>
-      </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="Q146">
+        <v>-0.5</v>
+      </c>
+      <c r="R146">
+        <v>2.05</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
         <v>2.25</v>
       </c>
-      <c r="R146">
-        <v>1.84</v>
-      </c>
-      <c r="S146">
-        <v>2.06</v>
-      </c>
-      <c r="T146">
-        <v>3.75</v>
-      </c>
       <c r="U146">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,58 +13634,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F148" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
         <v>1</v>
-      </c>
-      <c r="I148">
-        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R148">
+        <v>2.08</v>
+      </c>
+      <c r="S148">
         <v>1.82</v>
-      </c>
-      <c r="S148">
-        <v>2.08</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V148">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W148">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC148">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,58 +13723,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N149">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R149">
+        <v>1.82</v>
+      </c>
+      <c r="S149">
         <v>2.08</v>
-      </c>
-      <c r="S149">
-        <v>1.82</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W149">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13783,16 +13783,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6778018</v>
+        <v>6778019</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45276.5</v>
       </c>
       <c r="F163" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163" t="s">
+        <v>50</v>
+      </c>
+      <c r="K163">
+        <v>1.5</v>
+      </c>
+      <c r="L163">
+        <v>4.333</v>
+      </c>
+      <c r="M163">
+        <v>6</v>
+      </c>
+      <c r="N163">
+        <v>1.909</v>
+      </c>
+      <c r="O163">
+        <v>3.8</v>
+      </c>
+      <c r="P163">
+        <v>4</v>
+      </c>
+      <c r="Q163">
+        <v>-0.5</v>
+      </c>
+      <c r="R163">
+        <v>1.9</v>
+      </c>
+      <c r="S163">
         <v>2</v>
-      </c>
-      <c r="I163">
-        <v>2</v>
-      </c>
-      <c r="J163" t="s">
-        <v>51</v>
-      </c>
-      <c r="K163">
-        <v>1.181</v>
-      </c>
-      <c r="L163">
-        <v>7</v>
-      </c>
-      <c r="M163">
-        <v>13</v>
-      </c>
-      <c r="N163">
-        <v>1.166</v>
-      </c>
-      <c r="O163">
-        <v>7.5</v>
-      </c>
-      <c r="P163">
-        <v>15</v>
-      </c>
-      <c r="Q163">
-        <v>-2</v>
-      </c>
-      <c r="R163">
-        <v>2.03</v>
-      </c>
-      <c r="S163">
-        <v>1.87</v>
       </c>
       <c r="T163">
         <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="V163">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X163">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA163">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.97</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6778019</v>
+        <v>6778016</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,13 +15058,13 @@
         <v>45276.5</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15073,43 +15073,43 @@
         <v>50</v>
       </c>
       <c r="K164">
-        <v>1.5</v>
+        <v>1.142</v>
       </c>
       <c r="L164">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N164">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="P164">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S164">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V164">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W164">
-        <v>0.909</v>
+        <v>0.181</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15118,16 +15118,16 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC164">
-        <v>-0.5</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6778016</v>
+        <v>6778018</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
-        <v>1.142</v>
+        <v>1.181</v>
       </c>
       <c r="L165">
         <v>7</v>
       </c>
       <c r="M165">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N165">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O165">
         <v>7.5</v>
       </c>
       <c r="P165">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q165">
         <v>-2</v>
       </c>
       <c r="R165">
+        <v>2.03</v>
+      </c>
+      <c r="S165">
         <v>1.87</v>
       </c>
-      <c r="S165">
-        <v>2.03</v>
-      </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="V165">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="W165">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC165">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6778060</v>
+        <v>6778056</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,58 +19597,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>50</v>
       </c>
       <c r="K215">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L215">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M215">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="N215">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O215">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P215">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q215">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19657,13 +19657,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA215">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6778056</v>
+        <v>6778060</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,58 +19686,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
         <v>50</v>
       </c>
       <c r="K216">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M216">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="N216">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O216">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P216">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q216">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R216">
+        <v>2.06</v>
+      </c>
+      <c r="S216">
+        <v>1.84</v>
+      </c>
+      <c r="T216">
+        <v>3.5</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
         <v>2</v>
       </c>
-      <c r="S216">
-        <v>1.9</v>
-      </c>
-      <c r="T216">
-        <v>3.25</v>
-      </c>
-      <c r="U216">
-        <v>1.95</v>
-      </c>
-      <c r="V216">
-        <v>1.95</v>
-      </c>
       <c r="W216">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19746,13 +19746,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB216">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6780944</v>
+        <v>6778071</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,73 +21021,73 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M231">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="N231">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="O231">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S231">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T231">
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="V231">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA231">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6778076</v>
+        <v>6780944</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,55 +21110,55 @@
         <v>45332.5</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>49</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L232">
         <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S232">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V232">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21167,19 +21167,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC232">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6778075</v>
+        <v>6778076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,40 +21199,40 @@
         <v>45332.5</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
         <v>2</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N233">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
         <v>1.93</v>
@@ -21241,34 +21241,34 @@
         <v>1.97</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V233">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="W233">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z233">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6778072</v>
+        <v>6778075</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,13 +21288,13 @@
         <v>45332.5</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -21303,43 +21303,43 @@
         <v>50</v>
       </c>
       <c r="K234">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="N234">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="O234">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q234">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
+        <v>1.93</v>
+      </c>
+      <c r="S234">
         <v>1.97</v>
       </c>
-      <c r="S234">
-        <v>1.93</v>
-      </c>
       <c r="T234">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W234">
-        <v>0.181</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21348,16 +21348,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>0.465</v>
+      </c>
+      <c r="AA234">
         <v>-0.5</v>
       </c>
-      <c r="AA234">
-        <v>0.465</v>
-      </c>
       <c r="AB234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6778071</v>
+        <v>6778072</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,10 +21377,10 @@
         <v>45332.5</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G235" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -21392,43 +21392,43 @@
         <v>50</v>
       </c>
       <c r="K235">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="M235">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="N235">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="P235">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R235">
+        <v>1.97</v>
+      </c>
+      <c r="S235">
+        <v>1.93</v>
+      </c>
+      <c r="T235">
+        <v>3.75</v>
+      </c>
+      <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.9</v>
       </c>
-      <c r="S235">
-        <v>2</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>2.04</v>
-      </c>
-      <c r="V235">
-        <v>1.86</v>
-      </c>
       <c r="W235">
-        <v>1.45</v>
+        <v>0.181</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21437,16 +21437,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AB235">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6778080</v>
+        <v>6778084</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,10 +21911,10 @@
         <v>45339.5</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H241">
         <v>1</v>
@@ -21926,40 +21926,40 @@
         <v>49</v>
       </c>
       <c r="K241">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M241">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N241">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="P241">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R241">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="S241">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U241">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V241">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21968,19 +21968,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.99</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6778082</v>
+        <v>6778080</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,76 +22000,76 @@
         <v>45339.5</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G242" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L242">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N242">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O242">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="S242">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="T242">
         <v>3</v>
       </c>
       <c r="U242">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V242">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8700000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB242">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22077,7 +22077,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6778084</v>
+        <v>6778082</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22089,76 +22089,76 @@
         <v>45339.5</v>
       </c>
       <c r="F243" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K243">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L243">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M243">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N243">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P243">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q243">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="S243">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T243">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V243">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y243">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8300000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC243">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -25863,10 +25863,10 @@
         <v>3.25</v>
       </c>
       <c r="U285">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V285">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W285">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>-0.25</v>
       </c>
       <c r="R286">
+        <v>1.93</v>
+      </c>
+      <c r="S286">
         <v>1.97</v>
-      </c>
-      <c r="S286">
-        <v>1.93</v>
       </c>
       <c r="T286">
         <v>2.25</v>
@@ -26064,31 +26064,31 @@
         <v>7.5</v>
       </c>
       <c r="N288">
-        <v>1.285</v>
+        <v>1.3</v>
       </c>
       <c r="O288">
         <v>6</v>
       </c>
       <c r="P288">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q288">
         <v>-1.5</v>
       </c>
       <c r="R288">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S288">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="T288">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U288">
+        <v>1.83</v>
+      </c>
+      <c r="V288">
         <v>2.07</v>
-      </c>
-      <c r="V288">
-        <v>1.83</v>
       </c>
       <c r="W288">
         <v>0</v>
@@ -26224,19 +26224,19 @@
         <v>0.75</v>
       </c>
       <c r="R290">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S290">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V290">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26298,10 +26298,10 @@
         <v>-1</v>
       </c>
       <c r="R291">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S291">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="T291">
         <v>3</v>
@@ -26372,19 +26372,19 @@
         <v>0.25</v>
       </c>
       <c r="R292">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S292">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T292">
         <v>3</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V292">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26446,19 +26446,19 @@
         <v>-1.5</v>
       </c>
       <c r="R293">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="S293">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T293">
         <v>3.5</v>
       </c>
       <c r="U293">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V293">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="W293">
         <v>0</v>
@@ -26520,10 +26520,10 @@
         <v>-0.5</v>
       </c>
       <c r="R294">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S294">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="T294">
         <v>2.5</v>
@@ -26925,7 +26925,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7971129</v>
+        <v>7971130</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -26937,46 +26937,46 @@
         <v>45385.64583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K300">
-        <v>1.181</v>
+        <v>2.5</v>
       </c>
       <c r="L300">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="M300">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="N300">
-        <v>1.166</v>
+        <v>2.7</v>
       </c>
       <c r="O300">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="P300">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q300">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R300">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="S300">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="T300">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U300">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="V300">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7971130</v>
+        <v>7971129</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27011,46 +27011,46 @@
         <v>45385.64583333334</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G301" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="K301">
-        <v>2.5</v>
+        <v>1.181</v>
       </c>
       <c r="L301">
+        <v>6.5</v>
+      </c>
+      <c r="M301">
+        <v>17</v>
+      </c>
+      <c r="N301">
+        <v>1.166</v>
+      </c>
+      <c r="O301">
+        <v>7.5</v>
+      </c>
+      <c r="P301">
+        <v>15</v>
+      </c>
+      <c r="Q301">
+        <v>-2.25</v>
+      </c>
+      <c r="R301">
+        <v>1.95</v>
+      </c>
+      <c r="S301">
+        <v>1.95</v>
+      </c>
+      <c r="T301">
         <v>3.75</v>
       </c>
-      <c r="M301">
-        <v>2.5</v>
-      </c>
-      <c r="N301">
-        <v>2.7</v>
-      </c>
-      <c r="O301">
-        <v>3.8</v>
-      </c>
-      <c r="P301">
-        <v>2.3</v>
-      </c>
-      <c r="Q301">
-        <v>0.25</v>
-      </c>
-      <c r="R301">
-        <v>1.82</v>
-      </c>
-      <c r="S301">
-        <v>2.08</v>
-      </c>
-      <c r="T301">
-        <v>3</v>
-      </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V301">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27174,31 +27174,31 @@
         <v>21</v>
       </c>
       <c r="N303">
-        <v>1.09</v>
+        <v>1.071</v>
       </c>
       <c r="O303">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P303">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q303">
         <v>-2.75</v>
       </c>
       <c r="R303">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T303">
         <v>4</v>
       </c>
       <c r="U303">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V303">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W303">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -109,13 +109,13 @@
     <t>Arsenal</t>
   </si>
   <si>
+    <t>Everton</t>
+  </si>
+  <si>
     <t>Bournemouth</t>
   </si>
   <si>
     <t>Brighton</t>
-  </si>
-  <si>
-    <t>Everton</t>
   </si>
   <si>
     <t>Sheff Utd</t>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC304"/>
+  <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6777647</v>
+        <v>6777649</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -821,73 +821,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T4">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V4">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6777648</v>
+        <v>6777647</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L5">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="O5">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2.75</v>
+      </c>
+      <c r="U5">
         <v>1.92</v>
       </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>1.88</v>
-      </c>
       <c r="V5">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6777649</v>
+        <v>6777648</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>1.25</v>
+      </c>
+      <c r="O6">
+        <v>6.5</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>-1.75</v>
+      </c>
+      <c r="R6">
+        <v>2.01</v>
+      </c>
+      <c r="S6">
+        <v>1.92</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>2.3</v>
-      </c>
-      <c r="O6">
-        <v>3.2</v>
-      </c>
-      <c r="P6">
-        <v>3.2</v>
-      </c>
-      <c r="Q6">
-        <v>-0.25</v>
-      </c>
-      <c r="R6">
-        <v>2.03</v>
-      </c>
-      <c r="S6">
-        <v>1.87</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
       <c r="U6">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V6">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA6">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC6">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1622,7 +1622,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2067,7 +2067,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2420,7 +2420,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2598,7 +2598,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2865,7 +2865,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3313,7 +3313,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3580,7 +3580,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -3755,7 +3755,7 @@
         <v>45171.5625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6777921</v>
+        <v>6777762</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>4.5</v>
+      </c>
+      <c r="M42">
+        <v>1.4</v>
+      </c>
+      <c r="N42">
+        <v>5.25</v>
+      </c>
+      <c r="O42">
+        <v>4.2</v>
+      </c>
+      <c r="P42">
+        <v>1.6</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
-      <c r="J42" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42">
-        <v>1.333</v>
-      </c>
-      <c r="L42">
-        <v>5</v>
-      </c>
-      <c r="M42">
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <v>1.285</v>
-      </c>
-      <c r="O42">
-        <v>5.75</v>
-      </c>
-      <c r="P42">
-        <v>10</v>
-      </c>
-      <c r="Q42">
-        <v>-1.75</v>
-      </c>
       <c r="R42">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="S42">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="V42">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="W42">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.9199999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AC42">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6777762</v>
+        <v>6777916</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,73 +4289,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>3</v>
-      </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="N43">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="Q43">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="S43">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V43">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA43">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.97</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6777916</v>
+        <v>6777918</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,73 +4378,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>3</v>
       </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S44">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V44">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="W44">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z44">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.9199999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6777918</v>
+        <v>6780964</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,76 +4467,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>1.65</v>
+      </c>
+      <c r="O45">
         <v>3.6</v>
       </c>
-      <c r="M45">
-        <v>3.75</v>
-      </c>
-      <c r="N45">
-        <v>2</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q45">
+        <v>-0.75</v>
+      </c>
+      <c r="R45">
+        <v>1.86</v>
+      </c>
+      <c r="S45">
+        <v>2.04</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>1.89</v>
+      </c>
+      <c r="V45">
+        <v>2.01</v>
+      </c>
+      <c r="W45">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>0.43</v>
+      </c>
+      <c r="AA45">
         <v>-0.5</v>
       </c>
-      <c r="R45">
-        <v>2.03</v>
-      </c>
-      <c r="S45">
-        <v>1.87</v>
-      </c>
-      <c r="T45">
-        <v>3.25</v>
-      </c>
-      <c r="U45">
-        <v>1.93</v>
-      </c>
-      <c r="V45">
-        <v>1.97</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>2.25</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
-      </c>
-      <c r="AA45">
-        <v>0.8700000000000001</v>
-      </c>
       <c r="AB45">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4544,7 +4544,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6780964</v>
+        <v>6777921</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4556,58 +4556,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>50</v>
       </c>
       <c r="K46">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="L46">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N46">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R46">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="S46">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V46">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="W46">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4616,16 +4616,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AB46">
         <v>-0.5</v>
       </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
       <c r="AC46">
-        <v>1.01</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4734,7 +4734,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -4823,7 +4823,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -5271,7 +5271,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6777925</v>
+        <v>6777927</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,49 +5624,49 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P58">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T58">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
         <v>1.93</v>
@@ -5675,25 +5675,25 @@
         <v>1.97</v>
       </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB58">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6777927</v>
+        <v>6777925</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,49 +5713,49 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
         <v>1.93</v>
@@ -5764,25 +5764,25 @@
         <v>1.97</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC59">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5894,7 +5894,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>6</v>
@@ -6069,7 +6069,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -6425,7 +6425,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>48</v>
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6777943</v>
+        <v>6777941</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,73 +7137,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="S75">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="T75">
         <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="W75">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6777941</v>
+        <v>6777943</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76">
+        <v>1.95</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>3.6</v>
+      </c>
+      <c r="N76">
+        <v>1.909</v>
+      </c>
+      <c r="O76">
+        <v>3.6</v>
+      </c>
+      <c r="P76">
         <v>4</v>
       </c>
-      <c r="J76" t="s">
-        <v>49</v>
-      </c>
-      <c r="K76">
-        <v>4.2</v>
-      </c>
-      <c r="L76">
-        <v>3.8</v>
-      </c>
-      <c r="M76">
-        <v>1.8</v>
-      </c>
-      <c r="N76">
-        <v>5.25</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
-      <c r="P76">
-        <v>1.666</v>
-      </c>
       <c r="Q76">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R76">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S76">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T76">
         <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA76">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8600000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6777765</v>
+        <v>6777940</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7419,61 +7419,61 @@
         <v>51</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>3.2</v>
+      </c>
+      <c r="O78">
+        <v>4.2</v>
+      </c>
+      <c r="P78">
+        <v>2.05</v>
+      </c>
+      <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.06</v>
+      </c>
+      <c r="S78">
+        <v>1.84</v>
+      </c>
+      <c r="T78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>2.15</v>
-      </c>
-      <c r="N78">
-        <v>3.4</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>2</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.83</v>
-      </c>
-      <c r="S78">
-        <v>2.07</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6777940</v>
+        <v>6777765</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,10 +7493,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7508,61 +7508,61 @@
         <v>51</v>
       </c>
       <c r="K79">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N79">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O79">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R79">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S79">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T79">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.53</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7763,7 +7763,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7938,7 +7938,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
         <v>40</v>
@@ -8208,7 +8208,7 @@
         <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8828,7 +8828,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
         <v>29</v>
@@ -9098,7 +9098,7 @@
         <v>46</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>41</v>
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6777964</v>
+        <v>6777966</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,76 +9896,76 @@
         <v>45234.5</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K106">
-        <v>3.6</v>
+        <v>1.125</v>
       </c>
       <c r="L106">
+        <v>8.5</v>
+      </c>
+      <c r="M106">
+        <v>17</v>
+      </c>
+      <c r="N106">
+        <v>1.09</v>
+      </c>
+      <c r="O106">
+        <v>11</v>
+      </c>
+      <c r="P106">
+        <v>21</v>
+      </c>
+      <c r="Q106">
+        <v>-2.5</v>
+      </c>
+      <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>2.05</v>
+      </c>
+      <c r="T106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>2</v>
-      </c>
-      <c r="N106">
-        <v>2.8</v>
-      </c>
-      <c r="O106">
-        <v>3.4</v>
-      </c>
-      <c r="P106">
-        <v>2.45</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
-        <v>2.09</v>
-      </c>
-      <c r="S106">
-        <v>1.84</v>
-      </c>
-      <c r="T106">
-        <v>2.75</v>
-      </c>
       <c r="U106">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="V106">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6777966</v>
+        <v>6777964</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,76 +9985,76 @@
         <v>45234.5</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>1.125</v>
+        <v>3.6</v>
       </c>
       <c r="L107">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N107">
-        <v>1.09</v>
+        <v>2.8</v>
       </c>
       <c r="O107">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>21</v>
+        <v>2.45</v>
       </c>
       <c r="Q107">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="S107">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="T107">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="V107">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="W107">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10611,7 +10611,7 @@
         <v>47</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10786,7 +10786,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -10863,7 +10863,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6777975</v>
+        <v>6777972</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10875,76 +10875,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117">
+        <v>1.285</v>
+      </c>
+      <c r="L117">
+        <v>5.5</v>
+      </c>
+      <c r="M117">
+        <v>11</v>
+      </c>
+      <c r="N117">
+        <v>1.25</v>
+      </c>
+      <c r="O117">
+        <v>6</v>
+      </c>
+      <c r="P117">
+        <v>10</v>
+      </c>
+      <c r="Q117">
+        <v>-1.75</v>
+      </c>
+      <c r="R117">
+        <v>1.98</v>
+      </c>
+      <c r="S117">
+        <v>1.92</v>
+      </c>
+      <c r="T117">
         <v>3</v>
       </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
-        <v>50</v>
-      </c>
-      <c r="K117">
-        <v>1.444</v>
-      </c>
-      <c r="L117">
-        <v>4.8</v>
-      </c>
-      <c r="M117">
-        <v>6.5</v>
-      </c>
-      <c r="N117">
-        <v>1.363</v>
-      </c>
-      <c r="O117">
-        <v>5.5</v>
-      </c>
-      <c r="P117">
-        <v>7.5</v>
-      </c>
-      <c r="Q117">
-        <v>-1.5</v>
-      </c>
-      <c r="R117">
-        <v>2.05</v>
-      </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>3.25</v>
-      </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W117">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10952,7 +10952,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6777972</v>
+        <v>6777971</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10964,76 +10964,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L118">
+        <v>4.2</v>
+      </c>
+      <c r="M118">
         <v>5.5</v>
       </c>
-      <c r="M118">
-        <v>11</v>
-      </c>
       <c r="N118">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q118">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="S118">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6777971</v>
+        <v>6777769</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11053,49 +11053,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>50</v>
       </c>
       <c r="K119">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M119">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P119">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q119">
         <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="S119">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
         <v>1.95</v>
@@ -11104,7 +11104,7 @@
         <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11113,10 +11113,10 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8700000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
         <v>0.95</v>
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6777769</v>
+        <v>6777975</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,58 +11142,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>50</v>
       </c>
       <c r="K120">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="M120">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11202,16 +11202,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.53</v>
+        <v>1.05</v>
       </c>
       <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>-0.5</v>
       </c>
-      <c r="AB120">
-        <v>0.95</v>
-      </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11575,7 +11575,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6777986</v>
+        <v>6777987</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11587,13 +11587,13 @@
         <v>45255.5</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
         <v>3</v>
@@ -11602,31 +11602,31 @@
         <v>49</v>
       </c>
       <c r="K125">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N125">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="T125">
         <v>2.5</v>
@@ -11644,13 +11644,13 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.05</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB125">
         <v>0.95</v>
@@ -11664,7 +11664,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6777987</v>
+        <v>6780955</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11676,73 +11676,73 @@
         <v>45255.5</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="I126">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L126">
         <v>3.25</v>
       </c>
       <c r="M126">
+        <v>1.909</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>3.25</v>
+      </c>
+      <c r="P126">
+        <v>2</v>
+      </c>
+      <c r="Q126">
+        <v>0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.89</v>
+      </c>
+      <c r="S126">
+        <v>2.04</v>
+      </c>
+      <c r="T126">
         <v>2.25</v>
       </c>
-      <c r="N126">
-        <v>3.4</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>2.15</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>2.04</v>
-      </c>
-      <c r="S126">
-        <v>1.86</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11753,7 +11753,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6780955</v>
+        <v>6777986</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11765,34 +11765,34 @@
         <v>45255.5</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M127">
         <v>1.909</v>
       </c>
       <c r="N127">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O127">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
         <v>2</v>
@@ -11801,37 +11801,37 @@
         <v>0.5</v>
       </c>
       <c r="R127">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z127">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB127">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -12032,7 +12032,7 @@
         <v>45256.5625</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>38</v>
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6777991</v>
+        <v>6777990</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,58 +12210,58 @@
         <v>45262.5</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>50</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N132">
-        <v>1.727</v>
+        <v>1.222</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P132">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V132">
-        <v>2.04</v>
+        <v>2.07</v>
       </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12270,16 +12270,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.8600000000000001</v>
+        <v>0.415</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6780954</v>
+        <v>6777991</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,58 +12299,58 @@
         <v>45262.5</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>50</v>
       </c>
       <c r="K133">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O133">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W133">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -12359,13 +12359,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6777990</v>
+        <v>6780954</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,13 +12388,13 @@
         <v>45262.5</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12403,43 +12403,43 @@
         <v>50</v>
       </c>
       <c r="K134">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L134">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N134">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
@@ -12448,16 +12448,16 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA134">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.415</v>
+        <v>1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12480,7 +12480,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T138">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V138">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777992</v>
+        <v>6777993</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,58 +12833,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G139" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H139">
+        <v>4</v>
+      </c>
+      <c r="I139">
         <v>3</v>
-      </c>
-      <c r="I139">
-        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>50</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="N139">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R139">
         <v>1.97</v>
       </c>
       <c r="S139">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V139">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="W139">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12893,13 +12893,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.96</v>
       </c>
       <c r="AB139">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777993</v>
+        <v>6777989</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,73 +12922,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>3.75</v>
+      </c>
+      <c r="L140">
         <v>4</v>
       </c>
-      <c r="I140">
+      <c r="M140">
+        <v>1.833</v>
+      </c>
+      <c r="N140">
         <v>3</v>
       </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>1.285</v>
-      </c>
-      <c r="L140">
-        <v>6</v>
-      </c>
-      <c r="M140">
-        <v>8.5</v>
-      </c>
-      <c r="N140">
-        <v>1.25</v>
-      </c>
       <c r="O140">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P140">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R140">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
         <v>3.25</v>
       </c>
       <c r="U140">
+        <v>2.03</v>
+      </c>
+      <c r="V140">
         <v>1.87</v>
       </c>
-      <c r="V140">
-        <v>2.03</v>
-      </c>
       <c r="W140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA140">
-        <v>0.96</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>0.8700000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6778003</v>
+        <v>6778000</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F144" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
         <v>3.6</v>
       </c>
       <c r="N144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6778001</v>
+        <v>6778003</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,10 +13367,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13382,41 +13382,41 @@
         <v>49</v>
       </c>
       <c r="K145">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="L145">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>2.02</v>
+      </c>
+      <c r="S145">
+        <v>1.88</v>
+      </c>
+      <c r="T145">
         <v>2.25</v>
       </c>
-      <c r="R145">
+      <c r="U145">
         <v>1.84</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>2.06</v>
       </c>
-      <c r="T145">
-        <v>3.75</v>
-      </c>
-      <c r="U145">
-        <v>2.04</v>
-      </c>
-      <c r="V145">
-        <v>1.86</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
@@ -13424,19 +13424,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="Z145">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB145">
         <v>-0.5</v>
       </c>
-      <c r="AB145">
-        <v>-1</v>
-      </c>
       <c r="AC145">
-        <v>0.8600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6778000</v>
+        <v>6778001</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="L146">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N146">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P146">
+        <v>1.181</v>
+      </c>
+      <c r="Q146">
+        <v>2.25</v>
+      </c>
+      <c r="R146">
+        <v>1.84</v>
+      </c>
+      <c r="S146">
+        <v>2.06</v>
+      </c>
+      <c r="T146">
         <v>3.75</v>
       </c>
-      <c r="Q146">
+      <c r="U146">
+        <v>2.04</v>
+      </c>
+      <c r="V146">
+        <v>1.86</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
+        <v>0.181</v>
+      </c>
+      <c r="Z146">
+        <v>0.42</v>
+      </c>
+      <c r="AA146">
         <v>-0.5</v>
       </c>
-      <c r="R146">
-        <v>2.05</v>
-      </c>
-      <c r="S146">
-        <v>1.85</v>
-      </c>
-      <c r="T146">
-        <v>2.25</v>
-      </c>
-      <c r="U146">
-        <v>1.9</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
-      <c r="W146">
-        <v>1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
-      <c r="Z146">
-        <v>1.05</v>
-      </c>
-      <c r="AA146">
-        <v>-1</v>
-      </c>
       <c r="AB146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13545,7 +13545,7 @@
         <v>45266.6875</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>36</v>
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,58 +13634,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N148">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148">
+        <v>1.82</v>
+      </c>
+      <c r="S148">
         <v>2.08</v>
-      </c>
-      <c r="S148">
-        <v>1.82</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W148">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,58 +13723,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149">
+        <v>2.08</v>
+      </c>
+      <c r="S149">
         <v>1.82</v>
-      </c>
-      <c r="S149">
-        <v>2.08</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W149">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13783,16 +13783,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13812,7 +13812,7 @@
         <v>45267.6875</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -14082,7 +14082,7 @@
         <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14346,7 +14346,7 @@
         <v>45269.5</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -14524,7 +14524,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>37</v>
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6778016</v>
+        <v>6778018</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45276.5</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
-        <v>1.142</v>
+        <v>1.181</v>
       </c>
       <c r="L164">
         <v>7</v>
       </c>
       <c r="M164">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N164">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="O164">
         <v>7.5</v>
       </c>
       <c r="P164">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q164">
         <v>-2</v>
       </c>
       <c r="R164">
+        <v>2.03</v>
+      </c>
+      <c r="S164">
         <v>1.87</v>
       </c>
-      <c r="S164">
-        <v>2.03</v>
-      </c>
       <c r="T164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U164">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="V164">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="W164">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC164">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15135,7 +15135,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6778018</v>
+        <v>6778016</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15147,76 +15147,76 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
-        <v>1.181</v>
+        <v>1.142</v>
       </c>
       <c r="L165">
         <v>7</v>
       </c>
       <c r="M165">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N165">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="O165">
         <v>7.5</v>
       </c>
       <c r="P165">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q165">
         <v>-2</v>
       </c>
       <c r="R165">
+        <v>1.87</v>
+      </c>
+      <c r="S165">
         <v>2.03</v>
       </c>
-      <c r="S165">
-        <v>1.87</v>
-      </c>
       <c r="T165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U165">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V165">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X165">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.8700000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15239,7 +15239,7 @@
         <v>29</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15417,7 +15417,7 @@
         <v>30</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -15684,7 +15684,7 @@
         <v>47</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6780950</v>
+        <v>6778027</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,58 +15948,58 @@
         <v>45283.5</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
         <v>1</v>
-      </c>
-      <c r="I174">
-        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>50</v>
       </c>
       <c r="K174">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="L174">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N174">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O174">
         <v>4.2</v>
       </c>
       <c r="P174">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q174">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S174">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U174">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W174">
-        <v>4.25</v>
+        <v>0.7</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16008,16 +16008,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8100000000000001</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6778027</v>
+        <v>6780950</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,58 +16037,58 @@
         <v>45283.5</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R175">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="S175">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W175">
-        <v>0.7</v>
+        <v>4.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16097,16 +16097,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16129,7 +16129,7 @@
         <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6778029</v>
+        <v>6780949</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45286.5</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>3</v>
       </c>
-      <c r="I181">
-        <v>0</v>
-      </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K181">
         <v>2.25</v>
       </c>
       <c r="L181">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q181">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
+        <v>2.07</v>
+      </c>
+      <c r="S181">
+        <v>1.83</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.97</v>
+      </c>
+      <c r="V181">
         <v>1.93</v>
       </c>
-      <c r="S181">
-        <v>1.97</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.86</v>
-      </c>
-      <c r="V181">
-        <v>2.04</v>
-      </c>
       <c r="W181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z181">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB181">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="AC181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6780949</v>
+        <v>6778029</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45286.5</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K182">
         <v>2.25</v>
       </c>
       <c r="L182">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M182">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R182">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S182">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T182">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V182">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W182">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA182">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,73 +16927,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
       </c>
-      <c r="I185">
+      <c r="J185" t="s">
+        <v>50</v>
+      </c>
+      <c r="K185">
+        <v>1.5</v>
+      </c>
+      <c r="L185">
         <v>4</v>
       </c>
-      <c r="J185" t="s">
-        <v>49</v>
-      </c>
-      <c r="K185">
-        <v>1.909</v>
-      </c>
-      <c r="L185">
-        <v>3.4</v>
-      </c>
       <c r="M185">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N185">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="S185">
+        <v>1.86</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
         <v>1.99</v>
       </c>
-      <c r="T185">
-        <v>2.25</v>
-      </c>
-      <c r="U185">
-        <v>1.86</v>
-      </c>
       <c r="V185">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA185">
+        <v>-0.5</v>
+      </c>
+      <c r="AB185">
         <v>0.99</v>
-      </c>
-      <c r="AB185">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,73 +17016,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K186">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L186">
+        <v>3.4</v>
+      </c>
+      <c r="M186">
         <v>4</v>
       </c>
-      <c r="M186">
-        <v>7</v>
-      </c>
       <c r="N186">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O186">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="S186">
+        <v>1.99</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
         <v>1.86</v>
       </c>
-      <c r="T186">
-        <v>2.5</v>
-      </c>
-      <c r="U186">
-        <v>1.99</v>
-      </c>
       <c r="V186">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z186">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB186">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17105,7 +17105,7 @@
         <v>45287.71875</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
         <v>44</v>
@@ -17194,7 +17194,7 @@
         <v>45288.6875</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
         <v>43</v>
@@ -17642,7 +17642,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H193">
         <v>3</v>
@@ -17909,7 +17909,7 @@
         <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18176,7 +18176,7 @@
         <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18529,7 +18529,7 @@
         <v>45305.45833333334</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
         <v>45</v>
@@ -18974,7 +18974,7 @@
         <v>45312.5625</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G208" t="s">
         <v>42</v>
@@ -19063,7 +19063,7 @@
         <v>45313.69791666666</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
         <v>40</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6778054</v>
+        <v>6780946</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G211" t="s">
         <v>33</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
+        <v>1.571</v>
+      </c>
+      <c r="N211">
+        <v>4.2</v>
+      </c>
+      <c r="O211">
+        <v>4.2</v>
+      </c>
+      <c r="P211">
+        <v>1.8</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>1.85</v>
+      </c>
+      <c r="S211">
+        <v>2.05</v>
+      </c>
+      <c r="T211">
         <v>2.75</v>
       </c>
-      <c r="N211">
-        <v>2.25</v>
-      </c>
-      <c r="O211">
+      <c r="U211">
+        <v>1.88</v>
+      </c>
+      <c r="V211">
+        <v>2.02</v>
+      </c>
+      <c r="W211">
         <v>3.2</v>
       </c>
-      <c r="P211">
-        <v>3.5</v>
-      </c>
-      <c r="Q211">
-        <v>-0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.92</v>
-      </c>
-      <c r="S211">
-        <v>1.98</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6780946</v>
+        <v>6778054</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N212">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AB212">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19867,7 +19867,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H218">
         <v>1</v>
@@ -20042,7 +20042,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>43</v>
@@ -20309,7 +20309,7 @@
         <v>45325.5</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
         <v>47</v>
@@ -20576,7 +20576,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G226" t="s">
         <v>39</v>
@@ -20935,7 +20935,7 @@
         <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6778071</v>
+        <v>6780944</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,73 +21021,73 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
         <v>3</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
       <c r="J231" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K231">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N231">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="P231">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T231">
         <v>2.75</v>
       </c>
       <c r="U231">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="V231">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W231">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z231">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB231">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6780944</v>
+        <v>6778076</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,55 +21110,55 @@
         <v>45332.5</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>49</v>
       </c>
       <c r="K232">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L232">
         <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N232">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="O232">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S232">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V232">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21167,19 +21167,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="AB232">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6778076</v>
+        <v>6778075</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,40 +21199,40 @@
         <v>45332.5</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K233">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N233">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P233">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R233">
         <v>1.93</v>
@@ -21241,34 +21241,34 @@
         <v>1.97</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U233">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="V233">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AA233">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6778075</v>
+        <v>6778072</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,13 +21288,13 @@
         <v>45332.5</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -21303,43 +21303,43 @@
         <v>50</v>
       </c>
       <c r="K234">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M234">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="N234">
-        <v>1.727</v>
+        <v>1.181</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R234">
+        <v>1.97</v>
+      </c>
+      <c r="S234">
         <v>1.93</v>
       </c>
-      <c r="S234">
-        <v>1.97</v>
-      </c>
       <c r="T234">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U234">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V234">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W234">
-        <v>0.7270000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21348,16 +21348,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>-0.5</v>
+      </c>
+      <c r="AA234">
         <v>0.465</v>
       </c>
-      <c r="AA234">
+      <c r="AB234">
+        <v>0.5</v>
+      </c>
+      <c r="AC234">
         <v>-0.5</v>
-      </c>
-      <c r="AB234">
-        <v>-1</v>
-      </c>
-      <c r="AC234">
-        <v>1.03</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6778072</v>
+        <v>6778071</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,10 +21377,10 @@
         <v>45332.5</v>
       </c>
       <c r="F235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H235">
         <v>3</v>
@@ -21392,43 +21392,43 @@
         <v>50</v>
       </c>
       <c r="K235">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L235">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="N235">
-        <v>1.181</v>
+        <v>2.45</v>
       </c>
       <c r="O235">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q235">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W235">
-        <v>0.181</v>
+        <v>1.45</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21437,16 +21437,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.5</v>
+        <v>1.04</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -22092,7 +22092,7 @@
         <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22448,7 +22448,7 @@
         <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22623,7 +22623,7 @@
         <v>45341.70833333334</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G249" t="s">
         <v>47</v>
@@ -22979,10 +22979,10 @@
         <v>45346.5</v>
       </c>
       <c r="F253" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H253">
         <v>1</v>
@@ -23246,7 +23246,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G256" t="s">
         <v>44</v>
@@ -23694,7 +23694,7 @@
         <v>41</v>
       </c>
       <c r="G261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H261">
         <v>3</v>
@@ -24047,7 +24047,7 @@
         <v>45353.5</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G265" t="s">
         <v>46</v>
@@ -24228,7 +24228,7 @@
         <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24495,7 +24495,7 @@
         <v>38</v>
       </c>
       <c r="G270" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H270">
         <v>2</v>
@@ -24759,7 +24759,7 @@
         <v>45360.5</v>
       </c>
       <c r="F273" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G273" t="s">
         <v>34</v>
@@ -25115,7 +25115,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
         <v>39</v>
@@ -25382,7 +25382,7 @@
         <v>45364.6875</v>
       </c>
       <c r="F280" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G280" t="s">
         <v>48</v>
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7023570</v>
+        <v>7027718</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25824,49 +25824,49 @@
         <v>28</v>
       </c>
       <c r="E285" s="2">
-        <v>45381.39583333334</v>
+        <v>45382.41666666666</v>
       </c>
       <c r="F285" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G285" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K285">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L285">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M285">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N285">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O285">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P285">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R285">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S285">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V285">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W285">
         <v>0</v>
@@ -25889,7 +25889,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7025367</v>
+        <v>7027719</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25898,34 +25898,34 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45381.5</v>
+        <v>45382.52083333334</v>
       </c>
       <c r="F286" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G286" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K286">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L286">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M286">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N286">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O286">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P286">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q286">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
         <v>1.93</v>
@@ -25934,7 +25934,7 @@
         <v>1.97</v>
       </c>
       <c r="T286">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U286">
         <v>1.85</v>
@@ -25963,7 +25963,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6778104</v>
+        <v>7971132</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25972,49 +25972,49 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45381.5</v>
+        <v>45384.64583333334</v>
       </c>
       <c r="F287" t="s">
+        <v>35</v>
+      </c>
+      <c r="G287" t="s">
         <v>31</v>
       </c>
-      <c r="G287" t="s">
-        <v>33</v>
-      </c>
       <c r="K287">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L287">
+        <v>3.7</v>
+      </c>
+      <c r="M287">
+        <v>4.2</v>
+      </c>
+      <c r="N287">
+        <v>2.05</v>
+      </c>
+      <c r="O287">
+        <v>3.7</v>
+      </c>
+      <c r="P287">
         <v>3.4</v>
       </c>
-      <c r="M287">
-        <v>3.4</v>
-      </c>
-      <c r="N287">
-        <v>2.2</v>
-      </c>
-      <c r="O287">
-        <v>3.6</v>
-      </c>
-      <c r="P287">
-        <v>3.2</v>
-      </c>
       <c r="Q287">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R287">
+        <v>2.05</v>
+      </c>
+      <c r="S287">
+        <v>1.85</v>
+      </c>
+      <c r="T287">
+        <v>3</v>
+      </c>
+      <c r="U287">
         <v>1.95</v>
       </c>
-      <c r="S287">
+      <c r="V287">
         <v>1.95</v>
-      </c>
-      <c r="T287">
-        <v>2.75</v>
-      </c>
-      <c r="U287">
-        <v>1.93</v>
-      </c>
-      <c r="V287">
-        <v>1.97</v>
       </c>
       <c r="W287">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>6778105</v>
+        <v>7089252</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26046,49 +26046,49 @@
         <v>28</v>
       </c>
       <c r="E288" s="2">
-        <v>45381.5</v>
+        <v>45384.64583333334</v>
       </c>
       <c r="F288" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G288" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K288">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="L288">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M288">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="N288">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="O288">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="P288">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q288">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R288">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S288">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="V288">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="W288">
         <v>0</v>
@@ -26111,7 +26111,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6780938</v>
+        <v>7092484</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26120,49 +26120,49 @@
         <v>28</v>
       </c>
       <c r="E289" s="2">
-        <v>45381.5</v>
+        <v>45384.65625</v>
       </c>
       <c r="F289" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K289">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L289">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="M289">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N289">
-        <v>1.2</v>
+        <v>1.909</v>
       </c>
       <c r="O289">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="P289">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="Q289">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T289">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V289">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26185,7 +26185,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6999459</v>
+        <v>7041556</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26194,49 +26194,49 @@
         <v>28</v>
       </c>
       <c r="E290" s="2">
-        <v>45381.5</v>
+        <v>45384.65625</v>
       </c>
       <c r="F290" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K290">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="L290">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M290">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="N290">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="O290">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P290">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="Q290">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R290">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="S290">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T290">
         <v>2.75</v>
       </c>
       <c r="U290">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V290">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="W290">
         <v>0</v>
@@ -26259,7 +26259,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7023569</v>
+        <v>7060824</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26268,49 +26268,49 @@
         <v>28</v>
       </c>
       <c r="E291" s="2">
-        <v>45381.60416666666</v>
+        <v>45384.67708333334</v>
       </c>
       <c r="F291" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K291">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="L291">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M291">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="N291">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O291">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P291">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q291">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R291">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S291">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U291">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V291">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="W291">
         <v>0</v>
@@ -26333,7 +26333,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7025368</v>
+        <v>7971129</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26342,49 +26342,49 @@
         <v>28</v>
       </c>
       <c r="E292" s="2">
-        <v>45381.70833333334</v>
+        <v>45385.64583333334</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G292" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K292">
-        <v>2.625</v>
+        <v>1.181</v>
       </c>
       <c r="L292">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M292">
-        <v>2.6</v>
+        <v>17</v>
       </c>
       <c r="N292">
-        <v>2.9</v>
+        <v>1.142</v>
       </c>
       <c r="O292">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="P292">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="Q292">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R292">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S292">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T292">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U292">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V292">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7027718</v>
+        <v>7971130</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26416,49 +26416,49 @@
         <v>28</v>
       </c>
       <c r="E293" s="2">
-        <v>45382.41666666666</v>
+        <v>45385.64583333334</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K293">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L293">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M293">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N293">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O293">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P293">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q293">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R293">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="S293">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="T293">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U293">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V293">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W293">
         <v>0</v>
@@ -26481,7 +26481,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7027719</v>
+        <v>7060828</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26490,49 +26490,49 @@
         <v>28</v>
       </c>
       <c r="E294" s="2">
-        <v>45382.52083333334</v>
+        <v>45385.67708333334</v>
       </c>
       <c r="F294" t="s">
         <v>44</v>
       </c>
       <c r="G294" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K294">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L294">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="M294">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N294">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O294">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="P294">
-        <v>3.8</v>
+        <v>9.5</v>
       </c>
       <c r="Q294">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R294">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S294">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T294">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U294">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V294">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W294">
         <v>0</v>
@@ -26555,7 +26555,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7971132</v>
+        <v>7971133</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26564,49 +26564,49 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45384.64583333334</v>
+        <v>45386.64583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K295">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L295">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="M295">
-        <v>4.2</v>
+        <v>21</v>
       </c>
       <c r="N295">
-        <v>1.8</v>
+        <v>1.071</v>
       </c>
       <c r="O295">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="P295">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="Q295">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R295">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S295">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="T295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U295">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V295">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W295">
         <v>0</v>
@@ -26629,7 +26629,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7089252</v>
+        <v>7971131</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26638,43 +26638,43 @@
         <v>28</v>
       </c>
       <c r="E296" s="2">
-        <v>45384.64583333334</v>
+        <v>45386.67708333334</v>
       </c>
       <c r="F296" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G296" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K296">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L296">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M296">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N296">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O296">
+        <v>3.6</v>
+      </c>
+      <c r="P296">
+        <v>3.6</v>
+      </c>
+      <c r="Q296">
+        <v>-0.5</v>
+      </c>
+      <c r="R296">
+        <v>2.03</v>
+      </c>
+      <c r="S296">
+        <v>1.87</v>
+      </c>
+      <c r="T296">
         <v>3.25</v>
-      </c>
-      <c r="P296">
-        <v>2.7</v>
-      </c>
-      <c r="Q296">
-        <v>0</v>
-      </c>
-      <c r="R296">
-        <v>1.9</v>
-      </c>
-      <c r="S296">
-        <v>2</v>
-      </c>
-      <c r="T296">
-        <v>2.5</v>
       </c>
       <c r="U296">
         <v>2.01</v>
@@ -26703,7 +26703,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7092484</v>
+        <v>7093675</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26712,49 +26712,49 @@
         <v>28</v>
       </c>
       <c r="E297" s="2">
-        <v>45384.65625</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F297" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G297" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K297">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="L297">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M297">
-        <v>4.2</v>
+        <v>1.333</v>
       </c>
       <c r="N297">
-        <v>1.909</v>
+        <v>9</v>
       </c>
       <c r="O297">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P297">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S297">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T297">
         <v>2.75</v>
       </c>
       <c r="U297">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V297">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26777,7 +26777,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7041556</v>
+        <v>7128321</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26786,49 +26786,49 @@
         <v>28</v>
       </c>
       <c r="E298" s="2">
-        <v>45384.65625</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F298" t="s">
+        <v>31</v>
+      </c>
+      <c r="G298" t="s">
         <v>29</v>
       </c>
-      <c r="G298" t="s">
-        <v>40</v>
-      </c>
       <c r="K298">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L298">
         <v>3.5</v>
       </c>
       <c r="M298">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N298">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O298">
         <v>3.5</v>
       </c>
       <c r="P298">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q298">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R298">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="T298">
         <v>2.75</v>
       </c>
       <c r="U298">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="V298">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -26851,7 +26851,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7060824</v>
+        <v>7128320</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -26860,49 +26860,49 @@
         <v>28</v>
       </c>
       <c r="E299" s="2">
-        <v>45384.67708333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F299" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="K299">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M299">
+        <v>5</v>
+      </c>
+      <c r="N299">
+        <v>1.7</v>
+      </c>
+      <c r="O299">
+        <v>3.6</v>
+      </c>
+      <c r="P299">
+        <v>5</v>
+      </c>
+      <c r="Q299">
+        <v>-0.75</v>
+      </c>
+      <c r="R299">
+        <v>1.9</v>
+      </c>
+      <c r="S299">
         <v>2</v>
-      </c>
-      <c r="N299">
-        <v>3.1</v>
-      </c>
-      <c r="O299">
-        <v>4</v>
-      </c>
-      <c r="P299">
-        <v>2.05</v>
-      </c>
-      <c r="Q299">
-        <v>0.25</v>
-      </c>
-      <c r="R299">
-        <v>2.02</v>
-      </c>
-      <c r="S299">
-        <v>1.88</v>
       </c>
       <c r="T299">
         <v>3.25</v>
       </c>
       <c r="U299">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V299">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W299">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7971130</v>
+        <v>7098221</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -26934,34 +26934,34 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45385.64583333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K300">
         <v>2.5</v>
       </c>
       <c r="L300">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O300">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P300">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q300">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
         <v>1.82</v>
@@ -26970,13 +26970,13 @@
         <v>2.08</v>
       </c>
       <c r="T300">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U300">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V300">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7971129</v>
+        <v>7093676</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27008,49 +27008,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45385.64583333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K301">
-        <v>1.181</v>
+        <v>2.75</v>
       </c>
       <c r="L301">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M301">
-        <v>17</v>
+        <v>2.5</v>
       </c>
       <c r="N301">
-        <v>1.166</v>
+        <v>2.5</v>
       </c>
       <c r="O301">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="P301">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="Q301">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R301">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S301">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T301">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U301">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="V301">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27073,7 +27073,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7060828</v>
+        <v>7124401</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27082,49 +27082,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45385.67708333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F302" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G302" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K302">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L302">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N302">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="O302">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P302">
-        <v>9.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q302">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R302">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S302">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T302">
         <v>3.25</v>
       </c>
       <c r="U302">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="V302">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27147,7 +27147,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7971133</v>
+        <v>7092485</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27156,49 +27156,49 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45386.64583333334</v>
+        <v>45388.5625</v>
       </c>
       <c r="F303" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G303" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K303">
-        <v>1.125</v>
+        <v>4.5</v>
       </c>
       <c r="L303">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M303">
-        <v>21</v>
+        <v>1.727</v>
       </c>
       <c r="N303">
-        <v>1.071</v>
+        <v>5.5</v>
       </c>
       <c r="O303">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P303">
-        <v>23</v>
+        <v>1.571</v>
       </c>
       <c r="Q303">
-        <v>-2.75</v>
+        <v>1</v>
       </c>
       <c r="R303">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S303">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="T303">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U303">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="V303">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27213,80 +27213,6 @@
         <v>0</v>
       </c>
       <c r="AA303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:27">
-      <c r="A304" s="1">
-        <v>302</v>
-      </c>
-      <c r="B304">
-        <v>7971131</v>
-      </c>
-      <c r="C304" t="s">
-        <v>28</v>
-      </c>
-      <c r="D304" t="s">
-        <v>28</v>
-      </c>
-      <c r="E304" s="2">
-        <v>45386.67708333334</v>
-      </c>
-      <c r="F304" t="s">
-        <v>37</v>
-      </c>
-      <c r="G304" t="s">
-        <v>38</v>
-      </c>
-      <c r="K304">
-        <v>1.909</v>
-      </c>
-      <c r="L304">
-        <v>3.6</v>
-      </c>
-      <c r="M304">
-        <v>3.75</v>
-      </c>
-      <c r="N304">
-        <v>1.95</v>
-      </c>
-      <c r="O304">
-        <v>3.6</v>
-      </c>
-      <c r="P304">
-        <v>3.6</v>
-      </c>
-      <c r="Q304">
-        <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>2.02</v>
-      </c>
-      <c r="S304">
-        <v>1.88</v>
-      </c>
-      <c r="T304">
-        <v>3.25</v>
-      </c>
-      <c r="U304">
-        <v>2</v>
-      </c>
-      <c r="V304">
-        <v>1.9</v>
-      </c>
-      <c r="W304">
-        <v>0</v>
-      </c>
-      <c r="X304">
-        <v>0</v>
-      </c>
-      <c r="Y304">
-        <v>0</v>
-      </c>
-      <c r="Z304">
-        <v>0</v>
-      </c>
-      <c r="AA304">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC314"/>
+  <dimension ref="A1:AC311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6777985</v>
+        <v>6777770</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,73 +11409,73 @@
         <v>45255.5</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123">
+        <v>3.3</v>
+      </c>
+      <c r="L123">
+        <v>3.5</v>
+      </c>
+      <c r="M123">
         <v>2.1</v>
       </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
-      <c r="M123">
-        <v>3.1</v>
-      </c>
       <c r="N123">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O123">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
+        <v>2.15</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.98</v>
+      </c>
+      <c r="S123">
+        <v>1.92</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-      <c r="R123">
-        <v>2.02</v>
-      </c>
-      <c r="S123">
-        <v>1.88</v>
-      </c>
-      <c r="T123">
-        <v>2.75</v>
-      </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z123">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6777770</v>
+        <v>6777985</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,73 +11498,73 @@
         <v>45255.5</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S124">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA124">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,61 +12655,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>51</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>3.4</v>
+      </c>
+      <c r="M137">
+        <v>3.75</v>
+      </c>
+      <c r="N137">
+        <v>1.909</v>
+      </c>
+      <c r="O137">
+        <v>3.6</v>
+      </c>
+      <c r="P137">
         <v>4</v>
       </c>
-      <c r="I137">
-        <v>3</v>
-      </c>
-      <c r="J137" t="s">
-        <v>50</v>
-      </c>
-      <c r="K137">
-        <v>1.285</v>
-      </c>
-      <c r="L137">
-        <v>6</v>
-      </c>
-      <c r="M137">
-        <v>8.5</v>
-      </c>
-      <c r="N137">
-        <v>1.25</v>
-      </c>
-      <c r="O137">
-        <v>7</v>
-      </c>
-      <c r="P137">
-        <v>10</v>
-      </c>
       <c r="Q137">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S137">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V137">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W137">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y137">
         <v>-1</v>
@@ -12718,13 +12718,13 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O138">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P138">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U138">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V138">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W138">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA138">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K139">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L139">
         <v>4</v>
       </c>
       <c r="M139">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O139">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P139">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T139">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V139">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X139">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O140">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P140">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T140">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U140">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V140">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X140">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AB140">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6778006</v>
+        <v>6778009</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45269.5</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K153">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L153">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M153">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N153">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P153">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q153">
         <v>-1</v>
       </c>
       <c r="R153">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="T153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V153">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.97</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6778009</v>
+        <v>6778006</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45269.5</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K154">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M154">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N154">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O154">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P154">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q154">
         <v>-1</v>
       </c>
       <c r="R154">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="S154">
-        <v>1.775</v>
+        <v>1.97</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y154">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.7749999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6778038</v>
+        <v>6778037</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,58 +17550,58 @@
         <v>45290.5</v>
       </c>
       <c r="F192" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>3</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>50</v>
       </c>
       <c r="K192">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L192">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M192">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N192">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O192">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P192">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R192">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="S192">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U192">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="V192">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W192">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,13 +17610,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB192">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6778037</v>
+        <v>6778038</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,58 +17639,58 @@
         <v>45290.5</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>50</v>
       </c>
       <c r="K193">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L193">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M193">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O193">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P193">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="S193">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="T193">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V193">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W193">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17699,13 +17699,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA193">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6778054</v>
+        <v>6780946</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L211">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
+        <v>1.571</v>
+      </c>
+      <c r="N211">
+        <v>4.2</v>
+      </c>
+      <c r="O211">
+        <v>4.2</v>
+      </c>
+      <c r="P211">
+        <v>1.8</v>
+      </c>
+      <c r="Q211">
+        <v>0.75</v>
+      </c>
+      <c r="R211">
+        <v>1.85</v>
+      </c>
+      <c r="S211">
+        <v>2.05</v>
+      </c>
+      <c r="T211">
         <v>2.75</v>
       </c>
-      <c r="N211">
-        <v>2.25</v>
-      </c>
-      <c r="O211">
+      <c r="U211">
+        <v>1.88</v>
+      </c>
+      <c r="V211">
+        <v>2.02</v>
+      </c>
+      <c r="W211">
         <v>3.2</v>
       </c>
-      <c r="P211">
-        <v>3.5</v>
-      </c>
-      <c r="Q211">
-        <v>-0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.92</v>
-      </c>
-      <c r="S211">
-        <v>1.98</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.95</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>-1</v>
-      </c>
       <c r="X211">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6780946</v>
+        <v>6778054</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I212">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N212">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P212">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q212">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S212">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AB212">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6778066</v>
+        <v>6778061</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L225">
         <v>4</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N225">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O225">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>1.88</v>
+        <v>1.775</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T225">
         <v>3</v>
       </c>
       <c r="U225">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y225">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB225">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6778061</v>
+        <v>6778066</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K226">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L226">
         <v>4</v>
       </c>
       <c r="M226">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N226">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P226">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.88</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC226">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6778082</v>
+        <v>6778080</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,76 +21911,76 @@
         <v>45339.5</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L241">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M241">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O241">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P241">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="S241">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V241">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8700000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB241">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6778080</v>
+        <v>6778082</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,76 +22178,76 @@
         <v>45339.5</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K244">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L244">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M244">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N244">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O244">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P244">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="S244">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="T244">
         <v>3</v>
       </c>
       <c r="U244">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V244">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y244">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.99</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22967,7 +22967,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6778090</v>
+        <v>6778087</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22979,40 +22979,40 @@
         <v>45346.5</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G253" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
         <v>50</v>
       </c>
       <c r="K253">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L253">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M253">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N253">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O253">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R253">
         <v>1.98</v>
@@ -23021,16 +23021,16 @@
         <v>1.92</v>
       </c>
       <c r="T253">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U253">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="V253">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="W253">
-        <v>0.95</v>
+        <v>0.571</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23045,7 +23045,7 @@
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6778087</v>
+        <v>6778090</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,40 +23068,40 @@
         <v>45346.5</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G254" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
         <v>50</v>
       </c>
       <c r="K254">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L254">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
         <v>1.98</v>
@@ -23110,16 +23110,16 @@
         <v>1.92</v>
       </c>
       <c r="T254">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="V254">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="W254">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23134,7 +23134,7 @@
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23679,7 +23679,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6958687</v>
+        <v>6778094</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23691,76 +23691,76 @@
         <v>45353.5</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K261">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L261">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M261">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="N261">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O261">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P261">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q261">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>2.01</v>
+        <v>1.87</v>
       </c>
       <c r="S261">
-        <v>1.89</v>
+        <v>2.03</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V261">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.5049999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA261">
+        <v>-1</v>
+      </c>
+      <c r="AB261">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC261">
         <v>-0.5</v>
-      </c>
-      <c r="AB261">
-        <v>1.025</v>
-      </c>
-      <c r="AC261">
-        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6778098</v>
+        <v>6958687</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,73 +23780,73 @@
         <v>45353.5</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262">
+        <v>2</v>
+      </c>
+      <c r="J262" t="s">
+        <v>51</v>
+      </c>
+      <c r="K262">
         <v>3</v>
       </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262" t="s">
-        <v>50</v>
-      </c>
-      <c r="K262">
-        <v>1.727</v>
-      </c>
       <c r="L262">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M262">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N262">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O262">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P262">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q262">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>1.88</v>
+        <v>2.01</v>
       </c>
       <c r="S262">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="T262">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U262">
-        <v>2.03</v>
+        <v>2.025</v>
       </c>
       <c r="V262">
-        <v>1.87</v>
+        <v>1.775</v>
       </c>
       <c r="W262">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8799999999999999</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB262">
-        <v>1.03</v>
+        <v>1.025</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6778095</v>
+        <v>6778098</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,58 +23869,58 @@
         <v>45353.5</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G263" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
         <v>50</v>
       </c>
       <c r="K263">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M263">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N263">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P263">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R263">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S263">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="T263">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U263">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="V263">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="W263">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23929,16 +23929,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.9099999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6778094</v>
+        <v>6778095</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,10 +23958,10 @@
         <v>45353.5</v>
       </c>
       <c r="F264" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -23973,61 +23973,61 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="N264">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O264">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P264">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q264">
+        <v>-0.75</v>
+      </c>
+      <c r="R264">
+        <v>1.91</v>
+      </c>
+      <c r="S264">
+        <v>1.99</v>
+      </c>
+      <c r="T264">
+        <v>3</v>
+      </c>
+      <c r="U264">
+        <v>1.86</v>
+      </c>
+      <c r="V264">
+        <v>2.04</v>
+      </c>
+      <c r="W264">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X264">
+        <v>-1</v>
+      </c>
+      <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="AA264">
+        <v>-1</v>
+      </c>
+      <c r="AB264">
         <v>0</v>
       </c>
-      <c r="R264">
-        <v>1.87</v>
-      </c>
-      <c r="S264">
-        <v>2.03</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>2.05</v>
-      </c>
-      <c r="V264">
-        <v>1.85</v>
-      </c>
-      <c r="W264">
-        <v>1.5</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
-      <c r="Z264">
-        <v>0.8700000000000001</v>
-      </c>
-      <c r="AA264">
-        <v>-1</v>
-      </c>
-      <c r="AB264">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AC264">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7971129</v>
+        <v>7971133</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27159,49 +27159,49 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45385.64583333334</v>
+        <v>45386.64583333334</v>
       </c>
       <c r="F300" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K300">
-        <v>1.181</v>
+        <v>1.125</v>
       </c>
       <c r="L300">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M300">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N300">
-        <v>1.09</v>
+        <v>1.083</v>
       </c>
       <c r="O300">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P300">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q300">
-        <v>-2.75</v>
+        <v>-3</v>
       </c>
       <c r="R300">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S300">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="U300">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="V300">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7971130</v>
+        <v>7971131</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27233,49 +27233,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45385.64583333334</v>
+        <v>45386.67708333334</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K301">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L301">
+        <v>3.6</v>
+      </c>
+      <c r="M301">
         <v>3.75</v>
       </c>
-      <c r="M301">
-        <v>2.5</v>
-      </c>
       <c r="N301">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O301">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P301">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="T301">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U301">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="V301">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27298,7 +27298,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7060828</v>
+        <v>7093675</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27307,49 +27307,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45385.67708333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F302" t="s">
+        <v>47</v>
+      </c>
+      <c r="G302" t="s">
         <v>44</v>
       </c>
-      <c r="G302" t="s">
-        <v>45</v>
-      </c>
       <c r="K302">
+        <v>8.5</v>
+      </c>
+      <c r="L302">
+        <v>5</v>
+      </c>
+      <c r="M302">
         <v>1.333</v>
       </c>
-      <c r="L302">
-        <v>5.5</v>
-      </c>
-      <c r="M302">
-        <v>7.5</v>
-      </c>
       <c r="N302">
-        <v>1.285</v>
+        <v>8</v>
       </c>
       <c r="O302">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P302">
-        <v>8.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q302">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R302">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S302">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="T302">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V302">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27372,7 +27372,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7971133</v>
+        <v>7128320</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27381,49 +27381,49 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45386.64583333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K303">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L303">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M303">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="N303">
-        <v>1.09</v>
+        <v>1.65</v>
       </c>
       <c r="O303">
-        <v>12</v>
+        <v>3.8</v>
       </c>
       <c r="P303">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="Q303">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R303">
+        <v>1.83</v>
+      </c>
+      <c r="S303">
+        <v>2.07</v>
+      </c>
+      <c r="T303">
+        <v>3.25</v>
+      </c>
+      <c r="U303">
+        <v>2.06</v>
+      </c>
+      <c r="V303">
         <v>1.84</v>
-      </c>
-      <c r="S303">
-        <v>2.06</v>
-      </c>
-      <c r="T303">
-        <v>4.25</v>
-      </c>
-      <c r="U303">
-        <v>2.04</v>
-      </c>
-      <c r="V303">
-        <v>1.86</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27446,7 +27446,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7971131</v>
+        <v>7124401</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27455,49 +27455,49 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45386.67708333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G304" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K304">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L304">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M304">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N304">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O304">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P304">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q304">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R304">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S304">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T304">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U304">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V304">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7093675</v>
+        <v>7098221</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27529,49 +27529,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K305">
-        <v>8.5</v>
+        <v>2.5</v>
       </c>
       <c r="L305">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M305">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="N305">
-        <v>8.5</v>
+        <v>2.55</v>
       </c>
       <c r="O305">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="P305">
-        <v>1.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q305">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R305">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S305">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="T305">
         <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V305">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7128320</v>
+        <v>7093676</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27606,46 +27606,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G306" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K306">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L306">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M306">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N306">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="O306">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P306">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q306">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R306">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S306">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T306">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U306">
+        <v>1.85</v>
+      </c>
+      <c r="V306">
         <v>2.05</v>
-      </c>
-      <c r="V306">
-        <v>1.85</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27668,7 +27668,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7124401</v>
+        <v>7128321</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27680,46 +27680,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K307">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L307">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M307">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="N307">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O307">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P307">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="Q307">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S307">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="T307">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7098221</v>
+        <v>7092485</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27751,49 +27751,49 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.5625</v>
       </c>
       <c r="F308" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G308" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K308">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M308">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="N308">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="O308">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="Q308">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R308">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="S308">
-        <v>1.81</v>
+        <v>2.05</v>
       </c>
       <c r="T308">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U308">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V308">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7093676</v>
+        <v>7092486</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27825,49 +27825,49 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F309" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G309" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K309">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="L309">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M309">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="N309">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="O309">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P309">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q309">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R309">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="S309">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="T309">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U309">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V309">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27890,7 +27890,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7128321</v>
+        <v>7124402</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -27899,49 +27899,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.5625</v>
       </c>
       <c r="F310" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G310" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K310">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L310">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M310">
-        <v>5</v>
+        <v>1.533</v>
       </c>
       <c r="N310">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="O310">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P310">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="Q310">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R310">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="S310">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V310">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -27964,7 +27964,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7092485</v>
+        <v>7128342</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -27973,49 +27973,49 @@
         <v>28</v>
       </c>
       <c r="E311" s="2">
-        <v>45388.5625</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G311" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K311">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L311">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M311">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="N311">
-        <v>5.25</v>
+        <v>1.4</v>
       </c>
       <c r="O311">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P311">
-        <v>1.615</v>
+        <v>7.5</v>
       </c>
       <c r="Q311">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="R311">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S311">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="T311">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U311">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V311">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28030,228 +28030,6 @@
         <v>0</v>
       </c>
       <c r="AA311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:27">
-      <c r="A312" s="1">
-        <v>310</v>
-      </c>
-      <c r="B312">
-        <v>7092486</v>
-      </c>
-      <c r="C312" t="s">
-        <v>28</v>
-      </c>
-      <c r="D312" t="s">
-        <v>28</v>
-      </c>
-      <c r="E312" s="2">
-        <v>45389.47916666666</v>
-      </c>
-      <c r="F312" t="s">
-        <v>38</v>
-      </c>
-      <c r="G312" t="s">
-        <v>40</v>
-      </c>
-      <c r="K312">
-        <v>4</v>
-      </c>
-      <c r="L312">
-        <v>3.4</v>
-      </c>
-      <c r="M312">
-        <v>1.909</v>
-      </c>
-      <c r="N312">
-        <v>4.2</v>
-      </c>
-      <c r="O312">
-        <v>3.8</v>
-      </c>
-      <c r="P312">
-        <v>1.75</v>
-      </c>
-      <c r="Q312">
-        <v>0.75</v>
-      </c>
-      <c r="R312">
-        <v>1.92</v>
-      </c>
-      <c r="S312">
-        <v>1.98</v>
-      </c>
-      <c r="T312">
-        <v>3.5</v>
-      </c>
-      <c r="U312">
-        <v>2.03</v>
-      </c>
-      <c r="V312">
-        <v>1.87</v>
-      </c>
-      <c r="W312">
-        <v>0</v>
-      </c>
-      <c r="X312">
-        <v>0</v>
-      </c>
-      <c r="Y312">
-        <v>0</v>
-      </c>
-      <c r="Z312">
-        <v>0</v>
-      </c>
-      <c r="AA312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:27">
-      <c r="A313" s="1">
-        <v>311</v>
-      </c>
-      <c r="B313">
-        <v>7124402</v>
-      </c>
-      <c r="C313" t="s">
-        <v>28</v>
-      </c>
-      <c r="D313" t="s">
-        <v>28</v>
-      </c>
-      <c r="E313" s="2">
-        <v>45389.5625</v>
-      </c>
-      <c r="F313" t="s">
-        <v>32</v>
-      </c>
-      <c r="G313" t="s">
-        <v>37</v>
-      </c>
-      <c r="K313">
-        <v>5.5</v>
-      </c>
-      <c r="L313">
-        <v>4.333</v>
-      </c>
-      <c r="M313">
-        <v>1.533</v>
-      </c>
-      <c r="N313">
-        <v>7.5</v>
-      </c>
-      <c r="O313">
-        <v>4.75</v>
-      </c>
-      <c r="P313">
-        <v>1.4</v>
-      </c>
-      <c r="Q313">
-        <v>1.25</v>
-      </c>
-      <c r="R313">
-        <v>2.03</v>
-      </c>
-      <c r="S313">
-        <v>1.87</v>
-      </c>
-      <c r="T313">
-        <v>3.25</v>
-      </c>
-      <c r="U313">
-        <v>1.9</v>
-      </c>
-      <c r="V313">
-        <v>2</v>
-      </c>
-      <c r="W313">
-        <v>0</v>
-      </c>
-      <c r="X313">
-        <v>0</v>
-      </c>
-      <c r="Y313">
-        <v>0</v>
-      </c>
-      <c r="Z313">
-        <v>0</v>
-      </c>
-      <c r="AA313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>7128342</v>
-      </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-      <c r="D314" t="s">
-        <v>28</v>
-      </c>
-      <c r="E314" s="2">
-        <v>45389.58333333334</v>
-      </c>
-      <c r="F314" t="s">
-        <v>43</v>
-      </c>
-      <c r="G314" t="s">
-        <v>39</v>
-      </c>
-      <c r="K314">
-        <v>1.4</v>
-      </c>
-      <c r="L314">
-        <v>4.75</v>
-      </c>
-      <c r="M314">
-        <v>7</v>
-      </c>
-      <c r="N314">
-        <v>1.4</v>
-      </c>
-      <c r="O314">
-        <v>4.75</v>
-      </c>
-      <c r="P314">
-        <v>7.5</v>
-      </c>
-      <c r="Q314">
-        <v>-1.5</v>
-      </c>
-      <c r="R314">
-        <v>2.04</v>
-      </c>
-      <c r="S314">
-        <v>1.86</v>
-      </c>
-      <c r="T314">
-        <v>3.25</v>
-      </c>
-      <c r="U314">
-        <v>1.93</v>
-      </c>
-      <c r="V314">
-        <v>1.97</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11397,7 +11397,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6777770</v>
+        <v>6777985</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11409,73 +11409,73 @@
         <v>45255.5</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123">
         <v>1</v>
       </c>
-      <c r="I123">
-        <v>2</v>
-      </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O123">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S123">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA123">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11486,7 +11486,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6777985</v>
+        <v>6777770</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11498,73 +11498,73 @@
         <v>45255.5</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K124">
+        <v>3.3</v>
+      </c>
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
         <v>2.1</v>
       </c>
-      <c r="L124">
-        <v>3.75</v>
-      </c>
-      <c r="M124">
-        <v>3.1</v>
-      </c>
       <c r="N124">
-        <v>2.625</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
+        <v>2.15</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>1.98</v>
+      </c>
+      <c r="S124">
+        <v>1.92</v>
+      </c>
+      <c r="T124">
         <v>2.5</v>
       </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>2.02</v>
-      </c>
-      <c r="S124">
-        <v>1.88</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,61 +12655,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V137">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
@@ -12718,13 +12718,13 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T138">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V138">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L139">
         <v>4</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N139">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V139">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W139">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>3.75</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
+        <v>3.6</v>
+      </c>
+      <c r="P140">
         <v>4</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>1.285</v>
-      </c>
-      <c r="L140">
-        <v>6</v>
-      </c>
-      <c r="M140">
-        <v>8.5</v>
-      </c>
-      <c r="N140">
-        <v>1.25</v>
-      </c>
-      <c r="O140">
-        <v>7</v>
-      </c>
-      <c r="P140">
-        <v>10</v>
-      </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V140">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6778009</v>
+        <v>6778006</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14079,76 +14079,76 @@
         <v>45269.5</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K153">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L153">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M153">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N153">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O153">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
         <v>-1</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.97</v>
       </c>
       <c r="T153">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y153">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.7749999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6778006</v>
+        <v>6778009</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14168,76 +14168,76 @@
         <v>45269.5</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L154">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N154">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q154">
         <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.97</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC154">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6778037</v>
+        <v>6778038</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,58 +17550,58 @@
         <v>45290.5</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>50</v>
       </c>
       <c r="K192">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="L192">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M192">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N192">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O192">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P192">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="S192">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="T192">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V192">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W192">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,13 +17610,13 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA192">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6778038</v>
+        <v>6778037</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,58 +17639,58 @@
         <v>45290.5</v>
       </c>
       <c r="F193" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>50</v>
       </c>
       <c r="K193">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L193">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M193">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N193">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O193">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P193">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="S193">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U193">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="V193">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W193">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17699,13 +17699,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB193">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -19229,7 +19229,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6780946</v>
+        <v>6778054</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19241,76 +19241,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F211" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="L211">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M211">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N211">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q211">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="S211">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AB211">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6778054</v>
+        <v>6780946</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I212">
         <v>0</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M212">
+        <v>1.571</v>
+      </c>
+      <c r="N212">
+        <v>4.2</v>
+      </c>
+      <c r="O212">
+        <v>4.2</v>
+      </c>
+      <c r="P212">
+        <v>1.8</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.85</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
         <v>2.75</v>
       </c>
-      <c r="N212">
-        <v>2.25</v>
-      </c>
-      <c r="O212">
+      <c r="U212">
+        <v>1.88</v>
+      </c>
+      <c r="V212">
+        <v>2.02</v>
+      </c>
+      <c r="W212">
         <v>3.2</v>
       </c>
-      <c r="P212">
-        <v>3.5</v>
-      </c>
-      <c r="Q212">
-        <v>-0.25</v>
-      </c>
-      <c r="R212">
-        <v>1.92</v>
-      </c>
-      <c r="S212">
-        <v>1.98</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>1.95</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA212">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6778061</v>
+        <v>6778066</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K225">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L225">
         <v>4</v>
       </c>
       <c r="M225">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N225">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="O225">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P225">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>1.88</v>
       </c>
       <c r="S225">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T225">
         <v>3</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AC225">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20564,7 +20564,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6778066</v>
+        <v>6778061</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20576,76 +20576,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
         <v>4</v>
       </c>
       <c r="M226">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N226">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O226">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P226">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.88</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="V226">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y226">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB226">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6778080</v>
+        <v>6778082</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,76 +21911,76 @@
         <v>45339.5</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K241">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M241">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P241">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="S241">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="V241">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y241">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.99</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB241">
-        <v>0</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC241">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22166,7 +22166,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6778082</v>
+        <v>6778080</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22178,76 +22178,76 @@
         <v>45339.5</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L244">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M244">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N244">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="O244">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P244">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="S244">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="T244">
         <v>3</v>
       </c>
       <c r="U244">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V244">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.8700000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB244">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22967,7 +22967,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6778087</v>
+        <v>6778090</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22979,40 +22979,40 @@
         <v>45346.5</v>
       </c>
       <c r="F253" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G253" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H253">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253" t="s">
         <v>50</v>
       </c>
       <c r="K253">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="L253">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M253">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N253">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P253">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
         <v>1.98</v>
@@ -23021,16 +23021,16 @@
         <v>1.92</v>
       </c>
       <c r="T253">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U253">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="V253">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="W253">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X253">
         <v>-1</v>
@@ -23045,7 +23045,7 @@
         <v>-1</v>
       </c>
       <c r="AB253">
-        <v>1.07</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6778090</v>
+        <v>6778087</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,40 +23068,40 @@
         <v>45346.5</v>
       </c>
       <c r="F254" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
         <v>50</v>
       </c>
       <c r="K254">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M254">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N254">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R254">
         <v>1.98</v>
@@ -23110,16 +23110,16 @@
         <v>1.92</v>
       </c>
       <c r="T254">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U254">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="V254">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="W254">
-        <v>0.95</v>
+        <v>0.571</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23134,7 +23134,7 @@
         <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.8899999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23679,7 +23679,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6778094</v>
+        <v>6958687</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23691,76 +23691,76 @@
         <v>45353.5</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261">
+        <v>2</v>
+      </c>
+      <c r="J261" t="s">
+        <v>51</v>
+      </c>
+      <c r="K261">
         <v>3</v>
       </c>
-      <c r="I261">
-        <v>0</v>
-      </c>
-      <c r="J261" t="s">
-        <v>50</v>
-      </c>
-      <c r="K261">
-        <v>2.75</v>
-      </c>
       <c r="L261">
+        <v>3.4</v>
+      </c>
+      <c r="M261">
+        <v>2.3</v>
+      </c>
+      <c r="N261">
+        <v>3.25</v>
+      </c>
+      <c r="O261">
         <v>3.6</v>
       </c>
-      <c r="M261">
-        <v>2.375</v>
-      </c>
-      <c r="N261">
-        <v>2.5</v>
-      </c>
-      <c r="O261">
-        <v>3.5</v>
-      </c>
       <c r="P261">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R261">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="S261">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="T261">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U261">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W261">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8700000000000001</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB261">
-        <v>0.5249999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6958687</v>
+        <v>6778098</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,73 +23780,73 @@
         <v>45353.5</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L262">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M262">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N262">
+        <v>1.533</v>
+      </c>
+      <c r="O262">
+        <v>4.5</v>
+      </c>
+      <c r="P262">
+        <v>5.75</v>
+      </c>
+      <c r="Q262">
+        <v>-1</v>
+      </c>
+      <c r="R262">
+        <v>1.88</v>
+      </c>
+      <c r="S262">
+        <v>2.02</v>
+      </c>
+      <c r="T262">
         <v>3.25</v>
       </c>
-      <c r="O262">
-        <v>3.6</v>
-      </c>
-      <c r="P262">
-        <v>2.15</v>
-      </c>
-      <c r="Q262">
-        <v>0.25</v>
-      </c>
-      <c r="R262">
-        <v>2.01</v>
-      </c>
-      <c r="S262">
-        <v>1.89</v>
-      </c>
-      <c r="T262">
-        <v>3</v>
-      </c>
       <c r="U262">
-        <v>2.025</v>
+        <v>2.03</v>
       </c>
       <c r="V262">
-        <v>1.775</v>
+        <v>1.87</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.5049999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>1.025</v>
+        <v>1.03</v>
       </c>
       <c r="AC262">
         <v>-1</v>
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6778098</v>
+        <v>6778095</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,58 +23869,58 @@
         <v>45353.5</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H263">
         <v>3</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
         <v>50</v>
       </c>
       <c r="K263">
+        <v>1.833</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>3.75</v>
+      </c>
+      <c r="N263">
         <v>1.727</v>
       </c>
-      <c r="L263">
-        <v>3.75</v>
-      </c>
-      <c r="M263">
-        <v>4.5</v>
-      </c>
-      <c r="N263">
-        <v>1.533</v>
-      </c>
       <c r="O263">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P263">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q263">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S263">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T263">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U263">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="V263">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="W263">
-        <v>0.5329999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X263">
         <v>-1</v>
@@ -23929,16 +23929,16 @@
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.8799999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA263">
         <v>-1</v>
       </c>
       <c r="AB263">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6778095</v>
+        <v>6778094</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,10 +23958,10 @@
         <v>45353.5</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G264" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H264">
         <v>3</v>
@@ -23973,43 +23973,43 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N264">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O264">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R264">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S264">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="T264">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V264">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="W264">
-        <v>0.7270000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24018,16 +24018,16 @@
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.9099999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA264">
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC264">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7089252</v>
+        <v>7971132</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,76 +26717,76 @@
         <v>45384.64583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K295">
+        <v>1.8</v>
+      </c>
+      <c r="L295">
+        <v>3.7</v>
+      </c>
+      <c r="M295">
+        <v>4.2</v>
+      </c>
+      <c r="N295">
+        <v>1.95</v>
+      </c>
+      <c r="O295">
+        <v>3.75</v>
+      </c>
+      <c r="P295">
+        <v>3.6</v>
+      </c>
+      <c r="Q295">
+        <v>-0.5</v>
+      </c>
+      <c r="R295">
+        <v>2.04</v>
+      </c>
+      <c r="S295">
+        <v>1.86</v>
+      </c>
+      <c r="T295">
         <v>2.75</v>
       </c>
-      <c r="L295">
-        <v>3.4</v>
-      </c>
-      <c r="M295">
-        <v>2.45</v>
-      </c>
-      <c r="N295">
-        <v>2.7</v>
-      </c>
-      <c r="O295">
-        <v>3.4</v>
-      </c>
-      <c r="P295">
-        <v>2.6</v>
-      </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>1.98</v>
-      </c>
-      <c r="S295">
-        <v>1.92</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W295">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB295">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7971132</v>
+        <v>7089252</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,76 +26806,76 @@
         <v>45384.64583333334</v>
       </c>
       <c r="F296" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K296">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L296">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M296">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N296">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O296">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P296">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S296">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V296">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X296">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA296">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC296">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7092484</v>
+        <v>7041556</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45384.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K297">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L297">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M297">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N297">
+        <v>2.3</v>
+      </c>
+      <c r="O297">
+        <v>3.6</v>
+      </c>
+      <c r="P297">
+        <v>2.9</v>
+      </c>
+      <c r="Q297">
+        <v>-0.25</v>
+      </c>
+      <c r="R297">
+        <v>2.03</v>
+      </c>
+      <c r="S297">
+        <v>1.87</v>
+      </c>
+      <c r="T297">
+        <v>2.5</v>
+      </c>
+      <c r="U297">
         <v>1.85</v>
       </c>
-      <c r="O297">
-        <v>3.8</v>
-      </c>
-      <c r="P297">
-        <v>3.8</v>
-      </c>
-      <c r="Q297">
+      <c r="V297">
+        <v>2.05</v>
+      </c>
+      <c r="W297">
+        <v>-1</v>
+      </c>
+      <c r="X297">
+        <v>2.6</v>
+      </c>
+      <c r="Y297">
+        <v>-1</v>
+      </c>
+      <c r="Z297">
         <v>-0.5</v>
       </c>
-      <c r="R297">
-        <v>1.88</v>
-      </c>
-      <c r="S297">
-        <v>2.02</v>
-      </c>
-      <c r="T297">
-        <v>2.75</v>
-      </c>
-      <c r="U297">
-        <v>2.01</v>
-      </c>
-      <c r="V297">
-        <v>1.89</v>
-      </c>
-      <c r="W297">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X297">
-        <v>-1</v>
-      </c>
-      <c r="Y297">
-        <v>-1</v>
-      </c>
-      <c r="Z297">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB297">
         <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7041556</v>
+        <v>7092484</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45384.65625</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G298" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H298">
         <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K298">
+        <v>1.8</v>
+      </c>
+      <c r="L298">
+        <v>3.7</v>
+      </c>
+      <c r="M298">
+        <v>4.2</v>
+      </c>
+      <c r="N298">
+        <v>1.85</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>3.8</v>
+      </c>
+      <c r="Q298">
+        <v>-0.5</v>
+      </c>
+      <c r="R298">
+        <v>1.88</v>
+      </c>
+      <c r="S298">
+        <v>2.02</v>
+      </c>
+      <c r="T298">
         <v>2.75</v>
       </c>
-      <c r="L298">
-        <v>3.5</v>
-      </c>
-      <c r="M298">
-        <v>2.4</v>
-      </c>
-      <c r="N298">
-        <v>2.3</v>
-      </c>
-      <c r="O298">
-        <v>3.6</v>
-      </c>
-      <c r="P298">
-        <v>2.9</v>
-      </c>
-      <c r="Q298">
-        <v>-0.25</v>
-      </c>
-      <c r="R298">
-        <v>2.03</v>
-      </c>
-      <c r="S298">
-        <v>1.87</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
       <c r="U298">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="V298">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X298">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA298">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>1.05</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27150,7 +27150,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7971133</v>
+        <v>7093675</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27159,49 +27159,49 @@
         <v>28</v>
       </c>
       <c r="E300" s="2">
-        <v>45386.64583333334</v>
+        <v>45388.35416666666</v>
       </c>
       <c r="F300" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K300">
-        <v>1.125</v>
+        <v>8.5</v>
       </c>
       <c r="L300">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M300">
-        <v>21</v>
+        <v>1.333</v>
       </c>
       <c r="N300">
-        <v>1.083</v>
+        <v>11</v>
       </c>
       <c r="O300">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="P300">
-        <v>21</v>
+        <v>1.285</v>
       </c>
       <c r="Q300">
-        <v>-3</v>
+        <v>1.5</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T300">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U300">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="V300">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="W300">
         <v>0</v>
@@ -27224,7 +27224,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7971131</v>
+        <v>7128321</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27233,49 +27233,49 @@
         <v>28</v>
       </c>
       <c r="E301" s="2">
-        <v>45386.67708333334</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F301" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G301" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K301">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L301">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M301">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N301">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O301">
         <v>4</v>
       </c>
       <c r="P301">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q301">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S301">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T301">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V301">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27298,7 +27298,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7093675</v>
+        <v>7124401</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27307,49 +27307,49 @@
         <v>28</v>
       </c>
       <c r="E302" s="2">
-        <v>45388.35416666666</v>
+        <v>45388.45833333334</v>
       </c>
       <c r="F302" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G302" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K302">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="L302">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M302">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="N302">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O302">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="Q302">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R302">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S302">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U302">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="V302">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27372,7 +27372,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7128320</v>
+        <v>7098221</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27384,46 +27384,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K303">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L303">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M303">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N303">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P303">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q303">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S303">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="T303">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V303">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27446,7 +27446,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7124401</v>
+        <v>7093676</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27458,46 +27458,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G304" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K304">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L304">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N304">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="O304">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P304">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q304">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R304">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="S304">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="T304">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U304">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="V304">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7098221</v>
+        <v>7128320</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27532,46 +27532,46 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K305">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L305">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M305">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N305">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O305">
+        <v>4</v>
+      </c>
+      <c r="P305">
+        <v>4.75</v>
+      </c>
+      <c r="Q305">
+        <v>-0.75</v>
+      </c>
+      <c r="R305">
+        <v>1.88</v>
+      </c>
+      <c r="S305">
+        <v>2.02</v>
+      </c>
+      <c r="T305">
         <v>3.25</v>
       </c>
-      <c r="P305">
-        <v>2.75</v>
-      </c>
-      <c r="Q305">
-        <v>0</v>
-      </c>
-      <c r="R305">
-        <v>1.86</v>
-      </c>
-      <c r="S305">
-        <v>2.04</v>
-      </c>
-      <c r="T305">
-        <v>2.75</v>
-      </c>
       <c r="U305">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="V305">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7093676</v>
+        <v>7092485</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27603,49 +27603,49 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45388.45833333334</v>
+        <v>45388.5625</v>
       </c>
       <c r="F306" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K306">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L306">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M306">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="N306">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="O306">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P306">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="Q306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R306">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V306">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27668,7 +27668,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7128321</v>
+        <v>7092486</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27677,49 +27677,49 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K307">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L307">
+        <v>3.4</v>
+      </c>
+      <c r="M307">
+        <v>1.909</v>
+      </c>
+      <c r="N307">
+        <v>4.75</v>
+      </c>
+      <c r="O307">
+        <v>4.5</v>
+      </c>
+      <c r="P307">
+        <v>1.65</v>
+      </c>
+      <c r="Q307">
+        <v>1</v>
+      </c>
+      <c r="R307">
+        <v>1.87</v>
+      </c>
+      <c r="S307">
+        <v>2.03</v>
+      </c>
+      <c r="T307">
         <v>3.5</v>
       </c>
-      <c r="M307">
-        <v>5</v>
-      </c>
-      <c r="N307">
-        <v>1.615</v>
-      </c>
-      <c r="O307">
-        <v>4</v>
-      </c>
-      <c r="P307">
-        <v>5</v>
-      </c>
-      <c r="Q307">
-        <v>-0.75</v>
-      </c>
-      <c r="R307">
-        <v>1.86</v>
-      </c>
-      <c r="S307">
-        <v>2.04</v>
-      </c>
-      <c r="T307">
-        <v>2.75</v>
-      </c>
       <c r="U307">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V307">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7092485</v>
+        <v>7124402</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27751,34 +27751,34 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45388.5625</v>
+        <v>45389.5625</v>
       </c>
       <c r="F308" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K308">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L308">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M308">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="N308">
+        <v>7</v>
+      </c>
+      <c r="O308">
         <v>5.25</v>
       </c>
-      <c r="O308">
-        <v>3.8</v>
-      </c>
       <c r="P308">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="Q308">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R308">
         <v>1.85</v>
@@ -27787,13 +27787,13 @@
         <v>2.05</v>
       </c>
       <c r="T308">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U308">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V308">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7092486</v>
+        <v>7128342</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27825,49 +27825,49 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45389.47916666666</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G309" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K309">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M309">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="N309">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="O309">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P309">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="Q309">
-        <v>0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R309">
+        <v>2.06</v>
+      </c>
+      <c r="S309">
+        <v>1.84</v>
+      </c>
+      <c r="T309">
+        <v>3.25</v>
+      </c>
+      <c r="U309">
+        <v>1.9</v>
+      </c>
+      <c r="V309">
         <v>2</v>
-      </c>
-      <c r="S309">
-        <v>1.9</v>
-      </c>
-      <c r="T309">
-        <v>3.5</v>
-      </c>
-      <c r="U309">
-        <v>1.95</v>
-      </c>
-      <c r="V309">
-        <v>1.95</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27882,154 +27882,6 @@
         <v>0</v>
       </c>
       <c r="AA309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:27">
-      <c r="A310" s="1">
-        <v>308</v>
-      </c>
-      <c r="B310">
-        <v>7124402</v>
-      </c>
-      <c r="C310" t="s">
-        <v>28</v>
-      </c>
-      <c r="D310" t="s">
-        <v>28</v>
-      </c>
-      <c r="E310" s="2">
-        <v>45389.5625</v>
-      </c>
-      <c r="F310" t="s">
-        <v>32</v>
-      </c>
-      <c r="G310" t="s">
-        <v>37</v>
-      </c>
-      <c r="K310">
-        <v>5.5</v>
-      </c>
-      <c r="L310">
-        <v>4.333</v>
-      </c>
-      <c r="M310">
-        <v>1.533</v>
-      </c>
-      <c r="N310">
-        <v>7</v>
-      </c>
-      <c r="O310">
-        <v>4.75</v>
-      </c>
-      <c r="P310">
-        <v>1.444</v>
-      </c>
-      <c r="Q310">
-        <v>1.25</v>
-      </c>
-      <c r="R310">
-        <v>2.01</v>
-      </c>
-      <c r="S310">
-        <v>1.89</v>
-      </c>
-      <c r="T310">
-        <v>3.25</v>
-      </c>
-      <c r="U310">
-        <v>1.89</v>
-      </c>
-      <c r="V310">
-        <v>2.01</v>
-      </c>
-      <c r="W310">
-        <v>0</v>
-      </c>
-      <c r="X310">
-        <v>0</v>
-      </c>
-      <c r="Y310">
-        <v>0</v>
-      </c>
-      <c r="Z310">
-        <v>0</v>
-      </c>
-      <c r="AA310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:27">
-      <c r="A311" s="1">
-        <v>309</v>
-      </c>
-      <c r="B311">
-        <v>7128342</v>
-      </c>
-      <c r="C311" t="s">
-        <v>28</v>
-      </c>
-      <c r="D311" t="s">
-        <v>28</v>
-      </c>
-      <c r="E311" s="2">
-        <v>45389.58333333334</v>
-      </c>
-      <c r="F311" t="s">
-        <v>43</v>
-      </c>
-      <c r="G311" t="s">
-        <v>39</v>
-      </c>
-      <c r="K311">
-        <v>1.4</v>
-      </c>
-      <c r="L311">
-        <v>4.75</v>
-      </c>
-      <c r="M311">
-        <v>7</v>
-      </c>
-      <c r="N311">
-        <v>1.4</v>
-      </c>
-      <c r="O311">
-        <v>4.75</v>
-      </c>
-      <c r="P311">
-        <v>7.5</v>
-      </c>
-      <c r="Q311">
-        <v>-1.5</v>
-      </c>
-      <c r="R311">
-        <v>2.06</v>
-      </c>
-      <c r="S311">
-        <v>1.84</v>
-      </c>
-      <c r="T311">
-        <v>3.25</v>
-      </c>
-      <c r="U311">
-        <v>1.92</v>
-      </c>
-      <c r="V311">
-        <v>1.98</v>
-      </c>
-      <c r="W311">
-        <v>0</v>
-      </c>
-      <c r="X311">
-        <v>0</v>
-      </c>
-      <c r="Y311">
-        <v>0</v>
-      </c>
-      <c r="Z311">
-        <v>0</v>
-      </c>
-      <c r="AA311">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC320"/>
+  <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6777899</v>
+        <v>6777901</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2509,76 +2509,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K23">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="S23">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.445</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6777901</v>
+        <v>6777902</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,76 +2598,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N24">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P24">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R24">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="S24">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8100000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6777902</v>
+        <v>6777899</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,76 +2687,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="Q25">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="S25">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.92</v>
+        <v>2.01</v>
       </c>
       <c r="V25">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="W25">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AB25">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6777923</v>
+        <v>6777927</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5446,76 +5446,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
         <v>3.75</v>
       </c>
       <c r="M56">
+        <v>4.333</v>
+      </c>
+      <c r="N56">
+        <v>1.833</v>
+      </c>
+      <c r="O56">
+        <v>3.75</v>
+      </c>
+      <c r="P56">
         <v>4.2</v>
       </c>
-      <c r="N56">
-        <v>1.615</v>
-      </c>
-      <c r="O56">
-        <v>4.333</v>
-      </c>
-      <c r="P56">
-        <v>4.75</v>
-      </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="S56">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="V56">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.8400000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="AB56">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6777763</v>
+        <v>6777923</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,73 +5535,73 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57">
+        <v>1.833</v>
+      </c>
+      <c r="L57">
+        <v>3.75</v>
+      </c>
+      <c r="M57">
+        <v>4.2</v>
+      </c>
+      <c r="N57">
+        <v>1.615</v>
+      </c>
+      <c r="O57">
+        <v>4.333</v>
+      </c>
+      <c r="P57">
+        <v>4.75</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>2.06</v>
+      </c>
+      <c r="S57">
+        <v>1.84</v>
+      </c>
+      <c r="T57">
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>50</v>
-      </c>
-      <c r="K57">
-        <v>1.533</v>
-      </c>
-      <c r="L57">
-        <v>4.333</v>
-      </c>
-      <c r="M57">
-        <v>6</v>
-      </c>
-      <c r="N57">
-        <v>1.363</v>
-      </c>
-      <c r="O57">
-        <v>5.25</v>
-      </c>
-      <c r="P57">
-        <v>7.5</v>
-      </c>
-      <c r="Q57">
-        <v>-1.5</v>
-      </c>
-      <c r="R57">
-        <v>2.02</v>
-      </c>
-      <c r="S57">
-        <v>1.88</v>
-      </c>
-      <c r="T57">
-        <v>3.5</v>
-      </c>
       <c r="U57">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W57">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB57">
-        <v>1.05</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6777925</v>
+        <v>6777763</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,10 +5624,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5639,43 +5639,43 @@
         <v>50</v>
       </c>
       <c r="K58">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L58">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O58">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="P58">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
+        <v>2.02</v>
+      </c>
+      <c r="S58">
+        <v>1.88</v>
+      </c>
+      <c r="T58">
+        <v>3.5</v>
+      </c>
+      <c r="U58">
         <v>2.05</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.85</v>
       </c>
-      <c r="T58">
-        <v>3.25</v>
-      </c>
-      <c r="U58">
-        <v>1.93</v>
-      </c>
-      <c r="V58">
-        <v>1.97</v>
-      </c>
       <c r="W58">
-        <v>0.5</v>
+        <v>0.363</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5684,13 +5684,13 @@
         <v>-1</v>
       </c>
       <c r="Z58">
+        <v>1.02</v>
+      </c>
+      <c r="AA58">
+        <v>-1</v>
+      </c>
+      <c r="AB58">
         <v>1.05</v>
-      </c>
-      <c r="AA58">
-        <v>-1</v>
-      </c>
-      <c r="AB58">
-        <v>0.9299999999999999</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5701,7 +5701,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6777927</v>
+        <v>6777925</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5713,49 +5713,49 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L59">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="N59">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="O59">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R59">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U59">
         <v>1.93</v>
@@ -5764,25 +5764,25 @@
         <v>1.97</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA59">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC59">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6057,7 +6057,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6777931</v>
+        <v>6780962</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6069,55 +6069,55 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>49</v>
       </c>
       <c r="K63">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L63">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>5.5</v>
+        <v>1.615</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>1.533</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6126,16 +6126,16 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.5329999999999999</v>
+        <v>4.75</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB63">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6780962</v>
+        <v>6777764</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M64">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R64">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="S64">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="V64">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA64">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6777764</v>
+        <v>6777935</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,10 +6247,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
         <v>2</v>
@@ -6262,19 +6262,19 @@
         <v>50</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L65">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O65">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P65">
         <v>7</v>
@@ -6283,22 +6283,22 @@
         <v>-1.25</v>
       </c>
       <c r="R65">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="S65">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="T65">
         <v>2.75</v>
       </c>
       <c r="U65">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>0.444</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6307,7 +6307,7 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.02</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6316,7 +6316,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6777935</v>
+        <v>6777931</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6336,76 +6336,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>4.7</v>
+      </c>
+      <c r="M66">
+        <v>1.45</v>
+      </c>
+      <c r="N66">
+        <v>5.5</v>
+      </c>
+      <c r="O66">
+        <v>4.5</v>
+      </c>
+      <c r="P66">
+        <v>1.533</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
         <v>2</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66" t="s">
-        <v>50</v>
-      </c>
-      <c r="K66">
-        <v>1.333</v>
-      </c>
-      <c r="L66">
-        <v>4.75</v>
-      </c>
-      <c r="M66">
-        <v>10</v>
-      </c>
-      <c r="N66">
-        <v>1.4</v>
-      </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>7</v>
-      </c>
-      <c r="Q66">
-        <v>-1.25</v>
-      </c>
-      <c r="R66">
-        <v>1.87</v>
-      </c>
       <c r="S66">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z66">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6777765</v>
+        <v>6777946</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,34 +7404,34 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>51</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
         <v>2.15</v>
       </c>
       <c r="N78">
+        <v>3.75</v>
+      </c>
+      <c r="O78">
         <v>3.4</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -7440,40 +7440,40 @@
         <v>0.5</v>
       </c>
       <c r="R78">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8300000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6777946</v>
+        <v>6777765</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,34 +7582,34 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>51</v>
       </c>
       <c r="K80">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
         <v>2.15</v>
       </c>
       <c r="N80">
+        <v>3.4</v>
+      </c>
+      <c r="O80">
         <v>3.75</v>
-      </c>
-      <c r="O80">
-        <v>3.4</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -7618,40 +7618,40 @@
         <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S80">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.8500000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6777951</v>
+        <v>6777948</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7849,58 +7849,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
         <v>50</v>
       </c>
       <c r="K83">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N83">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O83">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7909,16 +7909,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6777948</v>
+        <v>6777951</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7938,58 +7938,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>50</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L84">
+        <v>5.25</v>
+      </c>
+      <c r="M84">
+        <v>6</v>
+      </c>
+      <c r="N84">
+        <v>1.363</v>
+      </c>
+      <c r="O84">
+        <v>6</v>
+      </c>
+      <c r="P84">
+        <v>6.5</v>
+      </c>
+      <c r="Q84">
+        <v>-1.5</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>3.5</v>
       </c>
-      <c r="M84">
-        <v>4.5</v>
-      </c>
-      <c r="N84">
-        <v>1.7</v>
-      </c>
-      <c r="O84">
-        <v>3.8</v>
-      </c>
-      <c r="P84">
-        <v>4.75</v>
-      </c>
-      <c r="Q84">
-        <v>-0.75</v>
-      </c>
-      <c r="R84">
-        <v>1.95</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W84">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7998,16 +7998,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6780960</v>
+        <v>6777947</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,49 +8116,49 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M86">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N86">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S86">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
         <v>1.93</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9299999999999999</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB86">
         <v>0.9299999999999999</v>
@@ -8193,7 +8193,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6777947</v>
+        <v>6780960</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8205,49 +8205,49 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L87">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O87">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S87">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="T87">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
         <v>1.93</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y87">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.8700000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB87">
         <v>0.9299999999999999</v>
@@ -9261,7 +9261,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6780959</v>
+        <v>6777960</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9273,58 +9273,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>50</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L99">
         <v>5</v>
       </c>
       <c r="M99">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T99">
         <v>3.25</v>
       </c>
       <c r="U99">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V99">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9333,16 +9333,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6777960</v>
+        <v>6780959</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,58 +9362,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>50</v>
       </c>
       <c r="K100">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L100">
         <v>5</v>
       </c>
       <c r="M100">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="N100">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="O100">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P100">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q100">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R100">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>3.25</v>
       </c>
       <c r="U100">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V100">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W100">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9422,16 +9422,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AC100">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6778000</v>
+        <v>6778001</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,76 +13367,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N145">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P145">
+        <v>1.181</v>
+      </c>
+      <c r="Q145">
+        <v>2.25</v>
+      </c>
+      <c r="R145">
+        <v>1.84</v>
+      </c>
+      <c r="S145">
+        <v>2.06</v>
+      </c>
+      <c r="T145">
         <v>3.75</v>
       </c>
-      <c r="Q145">
+      <c r="U145">
+        <v>2.04</v>
+      </c>
+      <c r="V145">
+        <v>1.86</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>0.181</v>
+      </c>
+      <c r="Z145">
+        <v>0.42</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>2.05</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
-      <c r="U145">
-        <v>1.9</v>
-      </c>
-      <c r="V145">
-        <v>2</v>
-      </c>
-      <c r="W145">
-        <v>1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>1.05</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6778001</v>
+        <v>6778000</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,76 +13456,76 @@
         <v>45266.6875</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H146">
+        <v>5</v>
+      </c>
+      <c r="I146">
         <v>0</v>
       </c>
-      <c r="I146">
+      <c r="J146" t="s">
+        <v>50</v>
+      </c>
+      <c r="K146">
+        <v>2.05</v>
+      </c>
+      <c r="L146">
+        <v>3.3</v>
+      </c>
+      <c r="M146">
+        <v>3.6</v>
+      </c>
+      <c r="N146">
         <v>2</v>
       </c>
-      <c r="J146" t="s">
-        <v>49</v>
-      </c>
-      <c r="K146">
-        <v>8.5</v>
-      </c>
-      <c r="L146">
-        <v>6.5</v>
-      </c>
-      <c r="M146">
-        <v>1.25</v>
-      </c>
-      <c r="N146">
-        <v>15</v>
-      </c>
       <c r="O146">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>1.181</v>
+        <v>3.75</v>
       </c>
       <c r="Q146">
+        <v>-0.5</v>
+      </c>
+      <c r="R146">
+        <v>2.05</v>
+      </c>
+      <c r="S146">
+        <v>1.85</v>
+      </c>
+      <c r="T146">
         <v>2.25</v>
       </c>
-      <c r="R146">
-        <v>1.84</v>
-      </c>
-      <c r="S146">
-        <v>2.06</v>
-      </c>
-      <c r="T146">
-        <v>3.75</v>
-      </c>
       <c r="U146">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.42</v>
+        <v>1.05</v>
       </c>
       <c r="AA146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC146">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13634,58 +13634,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>50</v>
       </c>
       <c r="K148">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M148">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="N148">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R148">
+        <v>1.82</v>
+      </c>
+      <c r="S148">
         <v>2.08</v>
-      </c>
-      <c r="S148">
-        <v>1.82</v>
       </c>
       <c r="T148">
         <v>3</v>
       </c>
       <c r="U148">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="W148">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13694,16 +13694,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13723,58 +13723,58 @@
         <v>45266.71875</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
         <v>1</v>
-      </c>
-      <c r="I149">
-        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>50</v>
       </c>
       <c r="K149">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R149">
+        <v>2.08</v>
+      </c>
+      <c r="S149">
         <v>1.82</v>
-      </c>
-      <c r="S149">
-        <v>2.08</v>
       </c>
       <c r="T149">
         <v>3</v>
       </c>
       <c r="U149">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="V149">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="W149">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13783,16 +13783,16 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC149">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6778023</v>
+        <v>6780950</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,76 +15948,76 @@
         <v>45283.5</v>
       </c>
       <c r="F174" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
-        <v>2</v>
-      </c>
       <c r="J174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K174">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M174">
-        <v>3.75</v>
+        <v>1.363</v>
       </c>
       <c r="N174">
-        <v>1.666</v>
+        <v>5.25</v>
       </c>
       <c r="O174">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>5.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R174">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="S174">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="T174">
         <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="V174">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA174">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.9299999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6780950</v>
+        <v>6778023</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45283.5</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="N177">
+        <v>1.666</v>
+      </c>
+      <c r="O177">
+        <v>3.75</v>
+      </c>
+      <c r="P177">
         <v>5.25</v>
       </c>
-      <c r="O177">
-        <v>4.2</v>
-      </c>
-      <c r="P177">
-        <v>1.6</v>
-      </c>
       <c r="Q177">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="S177">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="V177">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
         <v>4.25</v>
       </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
       <c r="Z177">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>1.02</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,73 +16927,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
         <v>4</v>
       </c>
-      <c r="M185">
-        <v>7</v>
-      </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="S185">
+        <v>1.99</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
         <v>1.86</v>
       </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>1.99</v>
-      </c>
       <c r="V185">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z185">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB185">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,73 +17016,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
+      <c r="J186" t="s">
+        <v>50</v>
+      </c>
+      <c r="K186">
+        <v>1.5</v>
+      </c>
+      <c r="L186">
         <v>4</v>
       </c>
-      <c r="J186" t="s">
-        <v>49</v>
-      </c>
-      <c r="K186">
-        <v>1.909</v>
-      </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
       <c r="M186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="S186">
+        <v>1.86</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
         <v>1.99</v>
       </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.86</v>
-      </c>
       <c r="V186">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA186">
+        <v>-0.5</v>
+      </c>
+      <c r="AB186">
         <v>0.99</v>
-      </c>
-      <c r="AB186">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17449,7 +17449,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6778038</v>
+        <v>6778041</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17461,58 +17461,58 @@
         <v>45290.5</v>
       </c>
       <c r="F191" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>50</v>
       </c>
       <c r="K191">
-        <v>2.5</v>
+        <v>1.071</v>
       </c>
       <c r="L191">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="M191">
-        <v>2.8</v>
+        <v>34</v>
       </c>
       <c r="N191">
-        <v>2.05</v>
+        <v>1.083</v>
       </c>
       <c r="O191">
-        <v>3.3</v>
+        <v>13</v>
       </c>
       <c r="P191">
-        <v>3.75</v>
+        <v>19</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-2.75</v>
       </c>
       <c r="R191">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="S191">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U191">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V191">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="W191">
-        <v>1.05</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17521,16 +17521,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB191">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17538,7 +17538,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6778041</v>
+        <v>6778044</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17550,13 +17550,13 @@
         <v>45290.5</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -17565,43 +17565,43 @@
         <v>50</v>
       </c>
       <c r="K192">
-        <v>1.071</v>
+        <v>2.6</v>
       </c>
       <c r="L192">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>34</v>
+        <v>2.75</v>
       </c>
       <c r="N192">
-        <v>1.083</v>
+        <v>2.9</v>
       </c>
       <c r="O192">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="P192">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="Q192">
-        <v>-2.75</v>
+        <v>0</v>
       </c>
       <c r="R192">
+        <v>2.08</v>
+      </c>
+      <c r="S192">
+        <v>1.82</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.93</v>
+      </c>
+      <c r="V192">
         <v>1.97</v>
       </c>
-      <c r="S192">
-        <v>1.93</v>
-      </c>
-      <c r="T192">
-        <v>3.5</v>
-      </c>
-      <c r="U192">
-        <v>1.86</v>
-      </c>
-      <c r="V192">
-        <v>2.04</v>
-      </c>
       <c r="W192">
-        <v>0.08299999999999996</v>
+        <v>1.9</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17610,16 +17610,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>0.9299999999999999</v>
       </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
       <c r="AC192">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17627,7 +17627,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6778044</v>
+        <v>6778038</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17639,58 +17639,58 @@
         <v>45290.5</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G193" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>50</v>
       </c>
       <c r="K193">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L193">
+        <v>3.4</v>
+      </c>
+      <c r="M193">
+        <v>2.8</v>
+      </c>
+      <c r="N193">
+        <v>2.05</v>
+      </c>
+      <c r="O193">
         <v>3.3</v>
       </c>
-      <c r="M193">
-        <v>2.75</v>
-      </c>
-      <c r="N193">
-        <v>2.9</v>
-      </c>
-      <c r="O193">
-        <v>3.25</v>
-      </c>
       <c r="P193">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="S193">
-        <v>1.82</v>
+        <v>2.11</v>
       </c>
       <c r="T193">
         <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="V193">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="W193">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17699,13 +17699,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.9299999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17894,7 +17894,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6778039</v>
+        <v>6778043</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17906,13 +17906,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="F196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -17921,43 +17921,43 @@
         <v>50</v>
       </c>
       <c r="K196">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
         <v>4.6</v>
       </c>
       <c r="M196">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N196">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P196">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S196">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U196">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V196">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17966,16 +17966,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.8600000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17983,7 +17983,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6778043</v>
+        <v>6778039</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17995,13 +17995,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -18010,43 +18010,43 @@
         <v>50</v>
       </c>
       <c r="K197">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="L197">
         <v>4.6</v>
       </c>
       <c r="M197">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="N197">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="O197">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P197">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="Q197">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R197">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S197">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="T197">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="W197">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18055,16 +18055,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.5249999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19585,7 +19585,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>6778056</v>
+        <v>6778060</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19597,58 +19597,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>3</v>
       </c>
       <c r="I215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>50</v>
       </c>
       <c r="K215">
-        <v>1.666</v>
+        <v>1.125</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M215">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="N215">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="O215">
-        <v>4.333</v>
+        <v>11</v>
       </c>
       <c r="P215">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-2.5</v>
       </c>
       <c r="R215">
+        <v>2.06</v>
+      </c>
+      <c r="S215">
+        <v>1.84</v>
+      </c>
+      <c r="T215">
+        <v>3.5</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
         <v>2</v>
       </c>
-      <c r="S215">
-        <v>1.9</v>
-      </c>
-      <c r="T215">
-        <v>3.25</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.95</v>
-      </c>
       <c r="W215">
-        <v>0.6000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19657,13 +19657,13 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19674,7 +19674,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>6778060</v>
+        <v>6778056</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19686,58 +19686,58 @@
         <v>45322.6875</v>
       </c>
       <c r="F216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G216" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H216">
         <v>3</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>50</v>
       </c>
       <c r="K216">
-        <v>1.125</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M216">
-        <v>17</v>
+        <v>4.75</v>
       </c>
       <c r="N216">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="O216">
-        <v>11</v>
+        <v>4.333</v>
       </c>
       <c r="P216">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q216">
-        <v>-2.5</v>
+        <v>-1</v>
       </c>
       <c r="R216">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -19746,13 +19746,13 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA216">
-        <v>0.8400000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC216">
         <v>-1</v>
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6780944</v>
+        <v>6778072</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H231">
+        <v>3</v>
+      </c>
+      <c r="I231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>3</v>
-      </c>
       <c r="J231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K231">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="M231">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N231">
-        <v>1.7</v>
+        <v>1.181</v>
       </c>
       <c r="O231">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>17</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R231">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S231">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U231">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W231">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>0.98</v>
+        <v>0.465</v>
       </c>
       <c r="AB231">
-        <v>1.03</v>
+        <v>0.5</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6778076</v>
+        <v>6780944</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,55 +21110,55 @@
         <v>45332.5</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" t="s">
         <v>49</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L232">
         <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N232">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R232">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S232">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T232">
         <v>2.75</v>
       </c>
       <c r="U232">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V232">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -21167,19 +21167,19 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AC232">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6778075</v>
+        <v>6778076</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,40 +21199,40 @@
         <v>45332.5</v>
       </c>
       <c r="F233" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
         <v>2</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N233">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q233">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
         <v>1.93</v>
@@ -21241,34 +21241,34 @@
         <v>1.97</v>
       </c>
       <c r="T233">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U233">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="V233">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="W233">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z233">
-        <v>0.465</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.97</v>
       </c>
       <c r="AB233">
         <v>-1</v>
       </c>
       <c r="AC233">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21276,7 +21276,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6778072</v>
+        <v>6778075</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21288,13 +21288,13 @@
         <v>45332.5</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -21303,43 +21303,43 @@
         <v>50</v>
       </c>
       <c r="K234">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="L234">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M234">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="N234">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="O234">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q234">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R234">
+        <v>1.93</v>
+      </c>
+      <c r="S234">
         <v>1.97</v>
       </c>
-      <c r="S234">
-        <v>1.93</v>
-      </c>
       <c r="T234">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U234">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="W234">
-        <v>0.181</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21348,16 +21348,16 @@
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>0.465</v>
+      </c>
+      <c r="AA234">
         <v>-0.5</v>
       </c>
-      <c r="AA234">
-        <v>0.465</v>
-      </c>
       <c r="AB234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6778084</v>
+        <v>6778082</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21911,76 +21911,76 @@
         <v>45339.5</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K241">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M241">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P241">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q241">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="S241">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V241">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y241">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8300000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC241">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -21988,7 +21988,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6778082</v>
+        <v>6778084</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22000,76 +22000,76 @@
         <v>45339.5</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G242" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L242">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M242">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N242">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P242">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R242">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="S242">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T242">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U242">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="V242">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB242">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -23768,7 +23768,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6778096</v>
+        <v>6778095</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23780,46 +23780,46 @@
         <v>45353.5</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H262">
+        <v>3</v>
+      </c>
+      <c r="I262">
         <v>0</v>
       </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
       <c r="J262" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="L262">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M262">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N262">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="O262">
+        <v>4.2</v>
+      </c>
+      <c r="P262">
         <v>4.333</v>
       </c>
-      <c r="P262">
-        <v>1.6</v>
-      </c>
       <c r="Q262">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S262">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="T262">
         <v>3</v>
@@ -23831,25 +23831,25 @@
         <v>2.04</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="AA262">
+        <v>-1</v>
+      </c>
+      <c r="AB262">
         <v>0</v>
       </c>
-      <c r="AA262">
+      <c r="AC262">
         <v>-0</v>
-      </c>
-      <c r="AB262">
-        <v>-1</v>
-      </c>
-      <c r="AC262">
-        <v>1.04</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6778095</v>
+        <v>6778096</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,46 +23869,46 @@
         <v>45353.5</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M263">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N263">
-        <v>1.727</v>
+        <v>5.25</v>
       </c>
       <c r="O263">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P263">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R263">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S263">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T263">
         <v>3</v>
@@ -23920,25 +23920,25 @@
         <v>2.04</v>
       </c>
       <c r="W263">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z263">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7093675</v>
+        <v>7092486</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27604,49 +27604,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45388.35416666666</v>
+        <v>45389.47916666666</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K305">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="L305">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M305">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="N305">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="O305">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="P305">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="Q305">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="R305">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S305">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U305">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7093676</v>
+        <v>7124402</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27678,49 +27678,49 @@
         <v>28</v>
       </c>
       <c r="E306" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.5625</v>
       </c>
       <c r="F306" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K306">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L306">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M306">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N306">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O306">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="P306">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q306">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R306">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S306">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T306">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U306">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W306">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7124401</v>
+        <v>7128342</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27752,49 +27752,49 @@
         <v>28</v>
       </c>
       <c r="E307" s="2">
-        <v>45388.45833333334</v>
+        <v>45389.58333333334</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K307">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="L307">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M307">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N307">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P307">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q307">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R307">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="S307">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="T307">
         <v>3.25</v>
       </c>
       <c r="U307">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="V307">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="W307">
         <v>0</v>
@@ -27817,7 +27817,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7128320</v>
+        <v>7132904</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27826,49 +27826,49 @@
         <v>28</v>
       </c>
       <c r="E308" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.35416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G308" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K308">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L308">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M308">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="N308">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="O308">
         <v>4</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q308">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R308">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="S308">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="T308">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U308">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="V308">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="W308">
         <v>0</v>
@@ -27891,7 +27891,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7128321</v>
+        <v>7141317</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27900,49 +27900,49 @@
         <v>28</v>
       </c>
       <c r="E309" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F309" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G309" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K309">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L309">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M309">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N309">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O309">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P309">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="S309">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="T309">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
+        <v>1.89</v>
+      </c>
+      <c r="V309">
         <v>2.01</v>
-      </c>
-      <c r="V309">
-        <v>1.89</v>
       </c>
       <c r="W309">
         <v>0</v>
@@ -27965,7 +27965,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7098221</v>
+        <v>7141316</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -27974,49 +27974,49 @@
         <v>28</v>
       </c>
       <c r="E310" s="2">
-        <v>45388.45833333334</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K310">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L310">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M310">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="N310">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O310">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P310">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R310">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S310">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="T310">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U310">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V310">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28039,7 +28039,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7092485</v>
+        <v>7132903</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28048,49 +28048,49 @@
         <v>28</v>
       </c>
       <c r="E311" s="2">
-        <v>45388.5625</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="K311">
-        <v>4.5</v>
+        <v>1.09</v>
       </c>
       <c r="L311">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M311">
-        <v>1.727</v>
+        <v>23</v>
       </c>
       <c r="N311">
-        <v>5.25</v>
+        <v>1.083</v>
       </c>
       <c r="O311">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="P311">
-        <v>1.615</v>
+        <v>23</v>
       </c>
       <c r="Q311">
-        <v>1</v>
+        <v>-2.75</v>
       </c>
       <c r="R311">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S311">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="T311">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U311">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28113,7 +28113,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>7092486</v>
+        <v>7128948</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28122,49 +28122,49 @@
         <v>28</v>
       </c>
       <c r="E312" s="2">
-        <v>45389.47916666666</v>
+        <v>45395.45833333334</v>
       </c>
       <c r="F312" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G312" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K312">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L312">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M312">
         <v>1.909</v>
       </c>
       <c r="N312">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O312">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P312">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q312">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R312">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S312">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="T312">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="U312">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="V312">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>7124402</v>
+        <v>8056667</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28196,49 +28196,49 @@
         <v>28</v>
       </c>
       <c r="E313" s="2">
-        <v>45389.5625</v>
+        <v>45395.5625</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K313">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L313">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="M313">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N313">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O313">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P313">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q313">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R313">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="S313">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="T313">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U313">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="V313">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="W313">
         <v>0</v>
@@ -28253,524 +28253,6 @@
         <v>0</v>
       </c>
       <c r="AA313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:27">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>7128342</v>
-      </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-      <c r="D314" t="s">
-        <v>28</v>
-      </c>
-      <c r="E314" s="2">
-        <v>45389.58333333334</v>
-      </c>
-      <c r="F314" t="s">
-        <v>43</v>
-      </c>
-      <c r="G314" t="s">
-        <v>39</v>
-      </c>
-      <c r="K314">
-        <v>1.4</v>
-      </c>
-      <c r="L314">
-        <v>4.75</v>
-      </c>
-      <c r="M314">
-        <v>7</v>
-      </c>
-      <c r="N314">
-        <v>1.4</v>
-      </c>
-      <c r="O314">
-        <v>5.5</v>
-      </c>
-      <c r="P314">
-        <v>6.5</v>
-      </c>
-      <c r="Q314">
-        <v>-1.5</v>
-      </c>
-      <c r="R314">
-        <v>2.05</v>
-      </c>
-      <c r="S314">
-        <v>1.85</v>
-      </c>
-      <c r="T314">
-        <v>3.25</v>
-      </c>
-      <c r="U314">
-        <v>1.93</v>
-      </c>
-      <c r="V314">
-        <v>1.97</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:27">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>7132904</v>
-      </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="2">
-        <v>45395.35416666666</v>
-      </c>
-      <c r="F315" t="s">
-        <v>35</v>
-      </c>
-      <c r="G315" t="s">
-        <v>43</v>
-      </c>
-      <c r="K315">
-        <v>2.55</v>
-      </c>
-      <c r="L315">
-        <v>4</v>
-      </c>
-      <c r="M315">
-        <v>2.45</v>
-      </c>
-      <c r="N315">
-        <v>2.55</v>
-      </c>
-      <c r="O315">
-        <v>4</v>
-      </c>
-      <c r="P315">
-        <v>2.45</v>
-      </c>
-      <c r="Q315">
-        <v>0</v>
-      </c>
-      <c r="R315">
-        <v>2.06</v>
-      </c>
-      <c r="S315">
-        <v>1.84</v>
-      </c>
-      <c r="T315">
-        <v>3.5</v>
-      </c>
-      <c r="U315">
-        <v>1.95</v>
-      </c>
-      <c r="V315">
-        <v>1.95</v>
-      </c>
-      <c r="W315">
-        <v>0</v>
-      </c>
-      <c r="X315">
-        <v>0</v>
-      </c>
-      <c r="Y315">
-        <v>0</v>
-      </c>
-      <c r="Z315">
-        <v>0</v>
-      </c>
-      <c r="AA315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:27">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>7141317</v>
-      </c>
-      <c r="C316" t="s">
-        <v>28</v>
-      </c>
-      <c r="D316" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="2">
-        <v>45395.45833333334</v>
-      </c>
-      <c r="F316" t="s">
-        <v>39</v>
-      </c>
-      <c r="G316" t="s">
-        <v>40</v>
-      </c>
-      <c r="K316">
-        <v>2.3</v>
-      </c>
-      <c r="L316">
-        <v>3.4</v>
-      </c>
-      <c r="M316">
-        <v>3</v>
-      </c>
-      <c r="N316">
-        <v>2.3</v>
-      </c>
-      <c r="O316">
-        <v>3.4</v>
-      </c>
-      <c r="P316">
-        <v>3</v>
-      </c>
-      <c r="Q316">
-        <v>-0.25</v>
-      </c>
-      <c r="R316">
-        <v>2.04</v>
-      </c>
-      <c r="S316">
-        <v>1.86</v>
-      </c>
-      <c r="T316">
-        <v>2.5</v>
-      </c>
-      <c r="U316">
-        <v>1.89</v>
-      </c>
-      <c r="V316">
-        <v>2.01</v>
-      </c>
-      <c r="W316">
-        <v>0</v>
-      </c>
-      <c r="X316">
-        <v>0</v>
-      </c>
-      <c r="Y316">
-        <v>0</v>
-      </c>
-      <c r="Z316">
-        <v>0</v>
-      </c>
-      <c r="AA316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:27">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>7141316</v>
-      </c>
-      <c r="C317" t="s">
-        <v>28</v>
-      </c>
-      <c r="D317" t="s">
-        <v>28</v>
-      </c>
-      <c r="E317" s="2">
-        <v>45395.45833333334</v>
-      </c>
-      <c r="F317" t="s">
-        <v>36</v>
-      </c>
-      <c r="G317" t="s">
-        <v>33</v>
-      </c>
-      <c r="K317">
-        <v>1.4</v>
-      </c>
-      <c r="L317">
-        <v>5</v>
-      </c>
-      <c r="M317">
-        <v>7.5</v>
-      </c>
-      <c r="N317">
-        <v>1.4</v>
-      </c>
-      <c r="O317">
-        <v>5</v>
-      </c>
-      <c r="P317">
-        <v>7.5</v>
-      </c>
-      <c r="Q317">
-        <v>-1.25</v>
-      </c>
-      <c r="R317">
-        <v>1.84</v>
-      </c>
-      <c r="S317">
-        <v>2.06</v>
-      </c>
-      <c r="T317">
-        <v>3</v>
-      </c>
-      <c r="U317">
-        <v>1.83</v>
-      </c>
-      <c r="V317">
-        <v>2.07</v>
-      </c>
-      <c r="W317">
-        <v>0</v>
-      </c>
-      <c r="X317">
-        <v>0</v>
-      </c>
-      <c r="Y317">
-        <v>0</v>
-      </c>
-      <c r="Z317">
-        <v>0</v>
-      </c>
-      <c r="AA317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:27">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>7132903</v>
-      </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
-        <v>45395.45833333334</v>
-      </c>
-      <c r="F318" t="s">
-        <v>44</v>
-      </c>
-      <c r="G318" t="s">
-        <v>48</v>
-      </c>
-      <c r="K318">
-        <v>1.09</v>
-      </c>
-      <c r="L318">
-        <v>11</v>
-      </c>
-      <c r="M318">
-        <v>23</v>
-      </c>
-      <c r="N318">
-        <v>1.09</v>
-      </c>
-      <c r="O318">
-        <v>11</v>
-      </c>
-      <c r="P318">
-        <v>21</v>
-      </c>
-      <c r="Q318">
-        <v>-2.75</v>
-      </c>
-      <c r="R318">
-        <v>2</v>
-      </c>
-      <c r="S318">
-        <v>1.9</v>
-      </c>
-      <c r="T318">
-        <v>4</v>
-      </c>
-      <c r="U318">
-        <v>2.06</v>
-      </c>
-      <c r="V318">
-        <v>1.84</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:27">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>7128948</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45395.45833333334</v>
-      </c>
-      <c r="F319" t="s">
-        <v>29</v>
-      </c>
-      <c r="G319" t="s">
-        <v>31</v>
-      </c>
-      <c r="K319">
-        <v>3.75</v>
-      </c>
-      <c r="L319">
-        <v>3.8</v>
-      </c>
-      <c r="M319">
-        <v>1.909</v>
-      </c>
-      <c r="N319">
-        <v>3.75</v>
-      </c>
-      <c r="O319">
-        <v>3.8</v>
-      </c>
-      <c r="P319">
-        <v>1.909</v>
-      </c>
-      <c r="Q319">
-        <v>0.5</v>
-      </c>
-      <c r="R319">
-        <v>1.93</v>
-      </c>
-      <c r="S319">
-        <v>1.97</v>
-      </c>
-      <c r="T319">
-        <v>3</v>
-      </c>
-      <c r="U319">
-        <v>2</v>
-      </c>
-      <c r="V319">
-        <v>1.9</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:27">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>8056667</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45395.5625</v>
-      </c>
-      <c r="F320" t="s">
-        <v>32</v>
-      </c>
-      <c r="G320" t="s">
-        <v>38</v>
-      </c>
-      <c r="K320">
-        <v>2.5</v>
-      </c>
-      <c r="L320">
-        <v>3.8</v>
-      </c>
-      <c r="M320">
-        <v>2.5</v>
-      </c>
-      <c r="N320">
-        <v>2.5</v>
-      </c>
-      <c r="O320">
-        <v>3.8</v>
-      </c>
-      <c r="P320">
-        <v>2.5</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>1.95</v>
-      </c>
-      <c r="S320">
-        <v>1.95</v>
-      </c>
-      <c r="T320">
-        <v>3.25</v>
-      </c>
-      <c r="U320">
-        <v>1.91</v>
-      </c>
-      <c r="V320">
-        <v>1.99</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6777940</v>
+        <v>6777765</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7419,61 +7419,61 @@
         <v>51</v>
       </c>
       <c r="K78">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N78">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R78">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S78">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T78">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.53</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6777765</v>
+        <v>6777940</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,10 +7493,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7508,61 +7508,61 @@
         <v>51</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79">
+        <v>2.3</v>
+      </c>
+      <c r="N79">
+        <v>3.2</v>
+      </c>
+      <c r="O79">
+        <v>4.2</v>
+      </c>
+      <c r="P79">
+        <v>2.05</v>
+      </c>
+      <c r="Q79">
+        <v>0.25</v>
+      </c>
+      <c r="R79">
+        <v>2.06</v>
+      </c>
+      <c r="S79">
+        <v>1.84</v>
+      </c>
+      <c r="T79">
         <v>3.75</v>
       </c>
-      <c r="M79">
-        <v>2.15</v>
-      </c>
-      <c r="N79">
-        <v>3.4</v>
-      </c>
-      <c r="O79">
-        <v>3.75</v>
-      </c>
-      <c r="P79">
-        <v>2</v>
-      </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.83</v>
-      </c>
-      <c r="S79">
-        <v>2.07</v>
-      </c>
-      <c r="T79">
-        <v>2.75</v>
-      </c>
       <c r="U79">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6777978</v>
+        <v>6780956</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,16 +10608,16 @@
         <v>45241.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>50</v>
@@ -10632,34 +10632,34 @@
         <v>12</v>
       </c>
       <c r="N114">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O114">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S114">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6780956</v>
+        <v>6777978</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,16 +10697,16 @@
         <v>45241.5</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
@@ -10721,34 +10721,34 @@
         <v>12</v>
       </c>
       <c r="N115">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O115">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q115">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R115">
+        <v>2.06</v>
+      </c>
+      <c r="S115">
+        <v>1.84</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.83</v>
+      </c>
+      <c r="V115">
         <v>2.07</v>
       </c>
-      <c r="S115">
-        <v>1.86</v>
-      </c>
-      <c r="T115">
-        <v>3.25</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.9</v>
-      </c>
       <c r="W115">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,16 +10757,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,61 +12655,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R137">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U137">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V137">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
@@ -12718,13 +12718,13 @@
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777989</v>
+        <v>6777992</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,73 +12744,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>4</v>
       </c>
       <c r="M138">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T138">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="V138">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB138">
-        <v>1.03</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777992</v>
+        <v>6777989</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,73 +12833,73 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L139">
         <v>4</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="N139">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="O139">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P139">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U139">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V139">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="W139">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="AC139">
         <v>-1</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,61 +12922,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>51</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3.4</v>
+      </c>
+      <c r="M140">
+        <v>3.75</v>
+      </c>
+      <c r="N140">
+        <v>1.909</v>
+      </c>
+      <c r="O140">
+        <v>3.6</v>
+      </c>
+      <c r="P140">
         <v>4</v>
       </c>
-      <c r="I140">
-        <v>3</v>
-      </c>
-      <c r="J140" t="s">
-        <v>50</v>
-      </c>
-      <c r="K140">
-        <v>1.285</v>
-      </c>
-      <c r="L140">
-        <v>6</v>
-      </c>
-      <c r="M140">
-        <v>8.5</v>
-      </c>
-      <c r="N140">
-        <v>1.25</v>
-      </c>
-      <c r="O140">
-        <v>7</v>
-      </c>
-      <c r="P140">
-        <v>10</v>
-      </c>
       <c r="Q140">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V140">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12985,13 +12985,13 @@
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6777786</v>
+        <v>6778100</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L276">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N276">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S276">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X276">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>1.08</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6778100</v>
+        <v>6777786</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L277">
+        <v>3.9</v>
+      </c>
+      <c r="M277">
         <v>4.333</v>
       </c>
-      <c r="M277">
+      <c r="N277">
+        <v>1.65</v>
+      </c>
+      <c r="O277">
+        <v>4</v>
+      </c>
+      <c r="P277">
         <v>5</v>
       </c>
-      <c r="N277">
-        <v>1.615</v>
-      </c>
-      <c r="O277">
-        <v>4.2</v>
-      </c>
-      <c r="P277">
-        <v>4.75</v>
-      </c>
       <c r="Q277">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="T277">
+        <v>2.5</v>
+      </c>
+      <c r="U277">
+        <v>1.85</v>
+      </c>
+      <c r="V277">
+        <v>2.05</v>
+      </c>
+      <c r="W277">
+        <v>-1</v>
+      </c>
+      <c r="X277">
         <v>3</v>
       </c>
-      <c r="U277">
-        <v>1.95</v>
-      </c>
-      <c r="V277">
-        <v>1.95</v>
-      </c>
-      <c r="W277">
-        <v>0.615</v>
-      </c>
-      <c r="X277">
-        <v>-1</v>
-      </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-0</v>
+        <v>1.08</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7089252</v>
+        <v>7971132</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,76 +26717,76 @@
         <v>45384.64583333334</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G295" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I295">
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K295">
+        <v>1.8</v>
+      </c>
+      <c r="L295">
+        <v>3.7</v>
+      </c>
+      <c r="M295">
+        <v>4.2</v>
+      </c>
+      <c r="N295">
+        <v>1.95</v>
+      </c>
+      <c r="O295">
+        <v>3.75</v>
+      </c>
+      <c r="P295">
+        <v>3.6</v>
+      </c>
+      <c r="Q295">
+        <v>-0.5</v>
+      </c>
+      <c r="R295">
+        <v>2.04</v>
+      </c>
+      <c r="S295">
+        <v>1.86</v>
+      </c>
+      <c r="T295">
         <v>2.75</v>
       </c>
-      <c r="L295">
-        <v>3.4</v>
-      </c>
-      <c r="M295">
-        <v>2.45</v>
-      </c>
-      <c r="N295">
-        <v>2.7</v>
-      </c>
-      <c r="O295">
-        <v>3.4</v>
-      </c>
-      <c r="P295">
-        <v>2.6</v>
-      </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>1.98</v>
-      </c>
-      <c r="S295">
-        <v>1.92</v>
-      </c>
-      <c r="T295">
-        <v>2.5</v>
-      </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W295">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB295">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7971132</v>
+        <v>7089252</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,76 +26806,76 @@
         <v>45384.64583333334</v>
       </c>
       <c r="F296" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I296">
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K296">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L296">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M296">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N296">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O296">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P296">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S296">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="V296">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X296">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA296">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC296">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27684,7 +27684,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7093676</v>
+        <v>7124401</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27696,76 +27696,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G306" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K306">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L306">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M306">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N306">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O306">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P306">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q306">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R306">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T306">
         <v>3</v>
       </c>
       <c r="U306">
-        <v>1.99</v>
+        <v>1.83</v>
       </c>
       <c r="V306">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC306">
-        <v>0.9099999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7124401</v>
+        <v>7093676</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,76 +27785,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G307" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K307">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L307">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M307">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N307">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P307">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q307">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="S307">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T307">
         <v>3</v>
       </c>
       <c r="U307">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="V307">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="W307">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X307">
         <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z307">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-0</v>
+        <v>0.9099999999999999</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28586,22 +28586,22 @@
         <v>3</v>
       </c>
       <c r="N316">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
         <v>3.4</v>
       </c>
       <c r="P316">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q316">
         <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="S316">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T316">
         <v>2.5</v>
@@ -28672,19 +28672,19 @@
         <v>-1.25</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S317">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="T317">
         <v>3</v>
       </c>
       <c r="U317">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V317">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28734,31 +28734,31 @@
         <v>23</v>
       </c>
       <c r="N318">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="O318">
         <v>11</v>
       </c>
       <c r="P318">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q318">
-        <v>-2.75</v>
+        <v>-2.5</v>
       </c>
       <c r="R318">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="T318">
         <v>3.75</v>
       </c>
       <c r="U318">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V318">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28808,22 +28808,22 @@
         <v>1.909</v>
       </c>
       <c r="N319">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O319">
         <v>3.8</v>
       </c>
       <c r="P319">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q319">
         <v>0.5</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S319">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T319">
         <v>3</v>
@@ -28894,19 +28894,19 @@
         <v>0</v>
       </c>
       <c r="R320">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S320">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="T320">
         <v>3.25</v>
       </c>
       <c r="U320">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V320">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28968,10 +28968,10 @@
         <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S321">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T321">
         <v>2.75</v>
@@ -29042,10 +29042,10 @@
         <v>-2</v>
       </c>
       <c r="R322">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S322">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="T322">
         <v>3.5</v>
@@ -29125,10 +29125,10 @@
         <v>3.25</v>
       </c>
       <c r="U323">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V323">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29199,10 +29199,10 @@
         <v>3</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V324">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="W324">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -531,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC337"/>
+  <dimension ref="A1:AC331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2942,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6777904</v>
+        <v>6777900</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2954,55 +2954,55 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="s">
         <v>49</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="L28">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M28">
-        <v>1.2</v>
+        <v>1.833</v>
       </c>
       <c r="N28">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="O28">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="S28">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -3011,19 +3011,19 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="Z28">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6777900</v>
+        <v>6777904</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3043,55 +3043,55 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>49</v>
       </c>
       <c r="K29">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M29">
-        <v>1.833</v>
+        <v>1.2</v>
       </c>
       <c r="N29">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P29">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R29">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="S29">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="V29">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3100,19 +3100,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AA29">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6777906</v>
+        <v>6777908</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3399,73 +3399,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="N33">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="S33">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
+        <v>1.85</v>
+      </c>
+      <c r="V33">
         <v>2.05</v>
       </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.9299999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6777908</v>
+        <v>6777906</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,73 +3488,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>1.615</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>3.8</v>
-      </c>
-      <c r="L34">
-        <v>3.5</v>
-      </c>
-      <c r="M34">
-        <v>1.95</v>
-      </c>
       <c r="N34">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
+        <v>2.05</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="V34">
-        <v>2.05</v>
-      </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB34">
         <v>1.05</v>
-      </c>
-      <c r="AB34">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6777762</v>
+        <v>6777918</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,10 +4378,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4393,41 +4393,41 @@
         <v>49</v>
       </c>
       <c r="K44">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="S44">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
+        <v>1.93</v>
+      </c>
+      <c r="V44">
         <v>1.97</v>
       </c>
-      <c r="V44">
-        <v>1.93</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
@@ -4435,16 +4435,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>0.6000000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="Z44">
         <v>-1</v>
       </c>
       <c r="AA44">
-        <v>1.09</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4455,7 +4455,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6777918</v>
+        <v>6777762</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4467,10 +4467,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4482,41 +4482,41 @@
         <v>49</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P45">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="S45">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.97</v>
+      </c>
+      <c r="V45">
         <v>1.93</v>
       </c>
-      <c r="V45">
-        <v>1.97</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
@@ -4524,16 +4524,16 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8700000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="AB45">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4989,7 +4989,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6777928</v>
+        <v>6777929</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5001,76 +5001,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="L51">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M51">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="N51">
+        <v>1.166</v>
+      </c>
+      <c r="O51">
+        <v>8</v>
+      </c>
+      <c r="P51">
+        <v>13</v>
+      </c>
+      <c r="Q51">
+        <v>-2</v>
+      </c>
+      <c r="R51">
+        <v>1.89</v>
+      </c>
+      <c r="S51">
+        <v>2.01</v>
+      </c>
+      <c r="T51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>1.85</v>
+      </c>
+      <c r="V51">
         <v>2.05</v>
       </c>
-      <c r="O51">
-        <v>3.25</v>
-      </c>
-      <c r="P51">
-        <v>3.8</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>2.1</v>
-      </c>
-      <c r="S51">
-        <v>1.83</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.96</v>
-      </c>
-      <c r="V51">
-        <v>1.94</v>
-      </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X51">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6777929</v>
+        <v>6777928</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5090,76 +5090,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52">
-        <v>1.166</v>
+        <v>2</v>
       </c>
       <c r="L52">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="N52">
-        <v>1.166</v>
+        <v>2.05</v>
       </c>
       <c r="O52">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P52">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="Q52">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="S52">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="T52">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="V52">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="W52">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6777765</v>
+        <v>6777940</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,10 +7404,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7419,61 +7419,61 @@
         <v>51</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L78">
+        <v>3.8</v>
+      </c>
+      <c r="M78">
+        <v>2.3</v>
+      </c>
+      <c r="N78">
+        <v>3.2</v>
+      </c>
+      <c r="O78">
+        <v>4.2</v>
+      </c>
+      <c r="P78">
+        <v>2.05</v>
+      </c>
+      <c r="Q78">
+        <v>0.25</v>
+      </c>
+      <c r="R78">
+        <v>2.06</v>
+      </c>
+      <c r="S78">
+        <v>1.84</v>
+      </c>
+      <c r="T78">
         <v>3.75</v>
       </c>
-      <c r="M78">
-        <v>2.15</v>
-      </c>
-      <c r="N78">
-        <v>3.4</v>
-      </c>
-      <c r="O78">
-        <v>3.75</v>
-      </c>
-      <c r="P78">
-        <v>2</v>
-      </c>
-      <c r="Q78">
-        <v>0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.83</v>
-      </c>
-      <c r="S78">
-        <v>2.07</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
       <c r="U78">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="V78">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6777940</v>
+        <v>6777765</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,10 +7582,10 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7597,61 +7597,61 @@
         <v>51</v>
       </c>
       <c r="K80">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M80">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O80">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="S80">
-        <v>1.84</v>
+        <v>2.07</v>
       </c>
       <c r="T80">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.53</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.52</v>
+        <v>1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6777978</v>
+        <v>6780956</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10608,16 +10608,16 @@
         <v>45241.5</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>50</v>
@@ -10632,34 +10632,34 @@
         <v>12</v>
       </c>
       <c r="N114">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="O114">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="P114">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R114">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="S114">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T114">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10668,16 +10668,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB114">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6780956</v>
+        <v>6777978</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,16 +10697,16 @@
         <v>45241.5</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>1</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>50</v>
@@ -10721,34 +10721,34 @@
         <v>12</v>
       </c>
       <c r="N115">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="O115">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="P115">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q115">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R115">
+        <v>2.06</v>
+      </c>
+      <c r="S115">
+        <v>1.84</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>1.83</v>
+      </c>
+      <c r="V115">
         <v>2.07</v>
       </c>
-      <c r="S115">
-        <v>1.86</v>
-      </c>
-      <c r="T115">
-        <v>3.25</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.9</v>
-      </c>
       <c r="W115">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10757,16 +10757,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8600000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AC115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6778003</v>
+        <v>6778001</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13456,10 +13456,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F146" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13471,40 +13471,40 @@
         <v>49</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="N146">
+        <v>15</v>
+      </c>
+      <c r="O146">
+        <v>7.5</v>
+      </c>
+      <c r="P146">
+        <v>1.181</v>
+      </c>
+      <c r="Q146">
         <v>2.25</v>
       </c>
-      <c r="O146">
-        <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>3.1</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="S146">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U146">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V146">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13513,19 +13513,19 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>2.1</v>
+        <v>0.181</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AA146">
-        <v>0.8799999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.53</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13533,7 +13533,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6778001</v>
+        <v>6778003</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13545,10 +13545,10 @@
         <v>45266.6875</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13560,41 +13560,41 @@
         <v>49</v>
       </c>
       <c r="K147">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="L147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="Q147">
+        <v>-0.25</v>
+      </c>
+      <c r="R147">
+        <v>2.02</v>
+      </c>
+      <c r="S147">
+        <v>1.88</v>
+      </c>
+      <c r="T147">
         <v>2.25</v>
       </c>
-      <c r="R147">
+      <c r="U147">
         <v>1.84</v>
       </c>
-      <c r="S147">
+      <c r="V147">
         <v>2.06</v>
       </c>
-      <c r="T147">
-        <v>3.75</v>
-      </c>
-      <c r="U147">
-        <v>2.04</v>
-      </c>
-      <c r="V147">
-        <v>1.86</v>
-      </c>
       <c r="W147">
         <v>-1</v>
       </c>
@@ -13602,19 +13602,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="Z147">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AB147">
         <v>-0.5</v>
       </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
       <c r="AC147">
-        <v>0.8600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6778027</v>
+        <v>6780950</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,58 +16037,58 @@
         <v>45283.5</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>50</v>
       </c>
       <c r="K175">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="L175">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="O175">
         <v>4.2</v>
       </c>
       <c r="P175">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R175">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="S175">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W175">
-        <v>0.7</v>
+        <v>4.25</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16097,16 +16097,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6780950</v>
+        <v>6778027</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,58 +16126,58 @@
         <v>45283.5</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>1</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>50</v>
       </c>
       <c r="K176">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="L176">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="M176">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="N176">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
         <v>4.2</v>
       </c>
       <c r="P176">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S176">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>4.25</v>
+        <v>0.7</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16186,16 +16186,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8100000000000001</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>1.02</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6780949</v>
+        <v>6778029</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16571,76 +16571,76 @@
         <v>45286.5</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.25</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N181">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O181">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R181">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="S181">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V181">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA181">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.97</v>
+        <v>0.43</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6778029</v>
+        <v>6780949</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45286.5</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H182">
+        <v>2</v>
+      </c>
+      <c r="I182">
         <v>3</v>
       </c>
-      <c r="I182">
-        <v>0</v>
-      </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K182">
         <v>2.25</v>
       </c>
       <c r="L182">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N182">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P182">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q182">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
+        <v>2.07</v>
+      </c>
+      <c r="S182">
+        <v>1.83</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>1.97</v>
+      </c>
+      <c r="V182">
         <v>1.93</v>
       </c>
-      <c r="S182">
-        <v>1.97</v>
-      </c>
-      <c r="T182">
-        <v>2.75</v>
-      </c>
-      <c r="U182">
-        <v>1.86</v>
-      </c>
-      <c r="V182">
-        <v>2.04</v>
-      </c>
       <c r="W182">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z182">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB182">
-        <v>0.43</v>
+        <v>0.97</v>
       </c>
       <c r="AC182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16927,73 +16927,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
         <v>4</v>
       </c>
-      <c r="M185">
-        <v>7</v>
-      </c>
       <c r="N185">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="O185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="S185">
+        <v>1.99</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
         <v>1.86</v>
       </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>1.99</v>
-      </c>
       <c r="V185">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z185">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AB185">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC185">
         <v>-1</v>
@@ -17004,7 +17004,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17016,73 +17016,73 @@
         <v>45287.6875</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H186">
+        <v>2</v>
+      </c>
+      <c r="I186">
         <v>1</v>
       </c>
-      <c r="I186">
+      <c r="J186" t="s">
+        <v>50</v>
+      </c>
+      <c r="K186">
+        <v>1.5</v>
+      </c>
+      <c r="L186">
         <v>4</v>
       </c>
-      <c r="J186" t="s">
-        <v>49</v>
-      </c>
-      <c r="K186">
-        <v>1.909</v>
-      </c>
-      <c r="L186">
-        <v>3.4</v>
-      </c>
       <c r="M186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N186">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="O186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R186">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="S186">
+        <v>1.86</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
         <v>1.99</v>
       </c>
-      <c r="T186">
-        <v>2.25</v>
-      </c>
-      <c r="U186">
-        <v>1.86</v>
-      </c>
       <c r="V186">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA186">
+        <v>-0.5</v>
+      </c>
+      <c r="AB186">
         <v>0.99</v>
-      </c>
-      <c r="AB186">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6780945</v>
+        <v>6778064</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,73 +20131,73 @@
         <v>45325.5</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H221">
         <v>4</v>
       </c>
       <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>50</v>
+      </c>
+      <c r="K221">
+        <v>1.7</v>
+      </c>
+      <c r="L221">
         <v>4</v>
       </c>
-      <c r="J221" t="s">
-        <v>51</v>
-      </c>
-      <c r="K221">
-        <v>1.363</v>
-      </c>
-      <c r="L221">
+      <c r="M221">
+        <v>4.75</v>
+      </c>
+      <c r="N221">
+        <v>1.7</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
         <v>5</v>
       </c>
-      <c r="M221">
-        <v>8</v>
-      </c>
-      <c r="N221">
-        <v>1.533</v>
-      </c>
-      <c r="O221">
-        <v>4.5</v>
-      </c>
-      <c r="P221">
-        <v>5.5</v>
-      </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X221">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AC221">
         <v>-1</v>
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6778064</v>
+        <v>6778065</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,73 +20220,73 @@
         <v>45325.5</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G222" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K222">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M222">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="S222">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="V222">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>1.06</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6778065</v>
+        <v>6780945</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,73 +20309,73 @@
         <v>45325.5</v>
       </c>
       <c r="F223" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J223" t="s">
         <v>51</v>
       </c>
       <c r="K223">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="L223">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M223">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N223">
-        <v>2.9</v>
+        <v>1.533</v>
       </c>
       <c r="O223">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P223">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R223">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="S223">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U223">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB223">
-        <v>0.8700000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20475,7 +20475,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6778066</v>
+        <v>6777780</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20487,76 +20487,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G225" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L225">
         <v>4</v>
       </c>
       <c r="M225">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N225">
         <v>1.55</v>
       </c>
       <c r="O225">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P225">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q225">
         <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S225">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T225">
         <v>3</v>
       </c>
       <c r="U225">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="V225">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA225">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20653,7 +20653,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6777780</v>
+        <v>6778066</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20665,76 +20665,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J227" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K227">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="L227">
         <v>4</v>
       </c>
       <c r="M227">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N227">
         <v>1.55</v>
       </c>
       <c r="O227">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P227">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q227">
         <v>-1</v>
       </c>
       <c r="R227">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S227">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="V227">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W227">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC227">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6778091</v>
+        <v>6778090</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,49 +23068,49 @@
         <v>45346.5</v>
       </c>
       <c r="F254" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K254">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L254">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N254">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O254">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S254">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U254">
         <v>1.89</v>
@@ -23119,25 +23119,25 @@
         <v>2.01</v>
       </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AA254">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC254">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>6778090</v>
+        <v>6778091</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,49 +23157,49 @@
         <v>45346.5</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G255" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>49</v>
+      </c>
+      <c r="K255">
+        <v>1.615</v>
+      </c>
+      <c r="L255">
+        <v>3.75</v>
+      </c>
+      <c r="M255">
+        <v>5.5</v>
+      </c>
+      <c r="N255">
+        <v>1.65</v>
+      </c>
+      <c r="O255">
+        <v>4.333</v>
+      </c>
+      <c r="P255">
+        <v>5</v>
+      </c>
+      <c r="Q255">
+        <v>-1</v>
+      </c>
+      <c r="R255">
+        <v>2.07</v>
+      </c>
+      <c r="S255">
+        <v>1.83</v>
+      </c>
+      <c r="T255">
         <v>3</v>
-      </c>
-      <c r="I255">
-        <v>0</v>
-      </c>
-      <c r="J255" t="s">
-        <v>50</v>
-      </c>
-      <c r="K255">
-        <v>1.833</v>
-      </c>
-      <c r="L255">
-        <v>3.6</v>
-      </c>
-      <c r="M255">
-        <v>4.2</v>
-      </c>
-      <c r="N255">
-        <v>1.95</v>
-      </c>
-      <c r="O255">
-        <v>3.5</v>
-      </c>
-      <c r="P255">
-        <v>4</v>
-      </c>
-      <c r="Q255">
-        <v>-0.5</v>
-      </c>
-      <c r="R255">
-        <v>1.98</v>
-      </c>
-      <c r="S255">
-        <v>1.92</v>
-      </c>
-      <c r="T255">
-        <v>2.25</v>
       </c>
       <c r="U255">
         <v>1.89</v>
@@ -23208,25 +23208,25 @@
         <v>2.01</v>
       </c>
       <c r="W255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z255">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB255">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24569,7 +24569,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6843668</v>
+        <v>6780940</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24581,76 +24581,76 @@
         <v>45360.5</v>
       </c>
       <c r="F271" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G271" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K271">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L271">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M271">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N271">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q271">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R271">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S271">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="T271">
         <v>2.5</v>
       </c>
       <c r="U271">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="V271">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="W271">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AB271">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24658,7 +24658,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>6780940</v>
+        <v>6778099</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24670,61 +24670,61 @@
         <v>45360.5</v>
       </c>
       <c r="F272" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G272" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
         <v>51</v>
       </c>
       <c r="K272">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="L272">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="M272">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N272">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="O272">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P272">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q272">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R272">
         <v>1.93</v>
       </c>
       <c r="S272">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U272">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V272">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W272">
         <v>-1</v>
       </c>
       <c r="X272">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Y272">
         <v>-1</v>
@@ -24733,13 +24733,13 @@
         <v>-1</v>
       </c>
       <c r="AA272">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AC272">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24747,7 +24747,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>6778099</v>
+        <v>6843668</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24759,73 +24759,73 @@
         <v>45360.5</v>
       </c>
       <c r="F273" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G273" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H273">
         <v>2</v>
       </c>
       <c r="I273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K273">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L273">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M273">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N273">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="O273">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P273">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q273">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R273">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="S273">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="T273">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V273">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="W273">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X273">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA273">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8799999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6777786</v>
+        <v>6778100</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,76 +25026,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G276" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K276">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L276">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M276">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N276">
-        <v>1.65</v>
+        <v>1.615</v>
       </c>
       <c r="O276">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P276">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="S276">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U276">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W276">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X276">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>1.08</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6778100</v>
+        <v>6777786</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>45361.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G277" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L277">
+        <v>3.9</v>
+      </c>
+      <c r="M277">
         <v>4.333</v>
       </c>
-      <c r="M277">
+      <c r="N277">
+        <v>1.65</v>
+      </c>
+      <c r="O277">
+        <v>4</v>
+      </c>
+      <c r="P277">
         <v>5</v>
       </c>
-      <c r="N277">
-        <v>1.615</v>
-      </c>
-      <c r="O277">
-        <v>4.2</v>
-      </c>
-      <c r="P277">
-        <v>4.75</v>
-      </c>
       <c r="Q277">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>2.06</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="T277">
+        <v>2.5</v>
+      </c>
+      <c r="U277">
+        <v>1.85</v>
+      </c>
+      <c r="V277">
+        <v>2.05</v>
+      </c>
+      <c r="W277">
+        <v>-1</v>
+      </c>
+      <c r="X277">
         <v>3</v>
       </c>
-      <c r="U277">
-        <v>1.95</v>
-      </c>
-      <c r="V277">
-        <v>1.95</v>
-      </c>
-      <c r="W277">
-        <v>0.615</v>
-      </c>
-      <c r="X277">
-        <v>-1</v>
-      </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-0</v>
+        <v>1.08</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6778104</v>
+        <v>6778105</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,76 +25916,76 @@
         <v>45381.5</v>
       </c>
       <c r="F286" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G286" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H286">
         <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K286">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L286">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M286">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="N286">
-        <v>2.15</v>
+        <v>1.285</v>
       </c>
       <c r="O286">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P286">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="Q286">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R286">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S286">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U286">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="V286">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="W286">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB286">
-        <v>0.42</v>
+        <v>1.04</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6780938</v>
+        <v>6999459</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45381.5</v>
       </c>
       <c r="F287" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G287" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J287" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K287">
-        <v>1.285</v>
+        <v>3.3</v>
       </c>
       <c r="L287">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M287">
-        <v>8</v>
+        <v>1.833</v>
       </c>
       <c r="N287">
-        <v>1.222</v>
+        <v>4.75</v>
       </c>
       <c r="O287">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P287">
-        <v>9</v>
+        <v>1.7</v>
       </c>
       <c r="Q287">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R287">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="S287">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="T287">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U287">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V287">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="W287">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="AA287">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AC287">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7025367</v>
+        <v>6780938</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,76 +26094,76 @@
         <v>45381.5</v>
       </c>
       <c r="F288" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G288" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K288">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="L288">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M288">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="N288">
-        <v>2.2</v>
+        <v>1.222</v>
       </c>
       <c r="O288">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="P288">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="Q288">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R288">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S288">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="T288">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U288">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X288">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>0.475</v>
+        <v>1.03</v>
       </c>
       <c r="AB288">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>0.5349999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26171,7 +26171,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6999459</v>
+        <v>7025367</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26183,76 +26183,76 @@
         <v>45381.5</v>
       </c>
       <c r="F289" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J289" t="s">
         <v>51</v>
       </c>
       <c r="K289">
+        <v>2.5</v>
+      </c>
+      <c r="L289">
+        <v>3.4</v>
+      </c>
+      <c r="M289">
+        <v>2.7</v>
+      </c>
+      <c r="N289">
+        <v>2.2</v>
+      </c>
+      <c r="O289">
         <v>3.3</v>
       </c>
-      <c r="L289">
-        <v>3.75</v>
-      </c>
-      <c r="M289">
-        <v>1.833</v>
-      </c>
-      <c r="N289">
-        <v>4.75</v>
-      </c>
-      <c r="O289">
-        <v>4</v>
-      </c>
       <c r="P289">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="Q289">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="S289">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T289">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U289">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V289">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W289">
         <v>-1</v>
       </c>
       <c r="X289">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.02</v>
+        <v>-0.5</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB289">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26260,7 +26260,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6778105</v>
+        <v>6778104</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26272,76 +26272,76 @@
         <v>45381.5</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G290" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H290">
         <v>2</v>
       </c>
       <c r="I290">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K290">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L290">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M290">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="N290">
-        <v>1.285</v>
+        <v>2.15</v>
       </c>
       <c r="O290">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P290">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q290">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S290">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T290">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U290">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="V290">
-        <v>1.86</v>
+        <v>2.06</v>
       </c>
       <c r="W290">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X290">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y290">
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA290">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>1.04</v>
+        <v>0.42</v>
       </c>
       <c r="AC290">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7041556</v>
+        <v>7092484</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45384.65625</v>
       </c>
       <c r="F297" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H297">
         <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K297">
+        <v>1.8</v>
+      </c>
+      <c r="L297">
+        <v>3.7</v>
+      </c>
+      <c r="M297">
+        <v>4.2</v>
+      </c>
+      <c r="N297">
+        <v>1.85</v>
+      </c>
+      <c r="O297">
+        <v>3.8</v>
+      </c>
+      <c r="P297">
+        <v>3.8</v>
+      </c>
+      <c r="Q297">
+        <v>-0.5</v>
+      </c>
+      <c r="R297">
+        <v>1.88</v>
+      </c>
+      <c r="S297">
+        <v>2.02</v>
+      </c>
+      <c r="T297">
         <v>2.75</v>
       </c>
-      <c r="L297">
-        <v>3.5</v>
-      </c>
-      <c r="M297">
-        <v>2.4</v>
-      </c>
-      <c r="N297">
-        <v>2.3</v>
-      </c>
-      <c r="O297">
-        <v>3.6</v>
-      </c>
-      <c r="P297">
-        <v>2.9</v>
-      </c>
-      <c r="Q297">
-        <v>-0.25</v>
-      </c>
-      <c r="R297">
-        <v>2.03</v>
-      </c>
-      <c r="S297">
-        <v>1.87</v>
-      </c>
-      <c r="T297">
-        <v>2.5</v>
-      </c>
       <c r="U297">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="V297">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X297">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA297">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>-1</v>
       </c>
       <c r="AC297">
-        <v>1.05</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7092484</v>
+        <v>7041556</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45384.65625</v>
       </c>
       <c r="F298" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G298" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H298">
         <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L298">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M298">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N298">
+        <v>2.3</v>
+      </c>
+      <c r="O298">
+        <v>3.6</v>
+      </c>
+      <c r="P298">
+        <v>2.9</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
+        <v>2.03</v>
+      </c>
+      <c r="S298">
+        <v>1.87</v>
+      </c>
+      <c r="T298">
+        <v>2.5</v>
+      </c>
+      <c r="U298">
         <v>1.85</v>
       </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
-        <v>3.8</v>
-      </c>
-      <c r="Q298">
+      <c r="V298">
+        <v>2.05</v>
+      </c>
+      <c r="W298">
+        <v>-1</v>
+      </c>
+      <c r="X298">
+        <v>2.6</v>
+      </c>
+      <c r="Y298">
+        <v>-1</v>
+      </c>
+      <c r="Z298">
         <v>-0.5</v>
       </c>
-      <c r="R298">
-        <v>1.88</v>
-      </c>
-      <c r="S298">
-        <v>2.02</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
-      <c r="U298">
-        <v>2.01</v>
-      </c>
-      <c r="V298">
-        <v>1.89</v>
-      </c>
-      <c r="W298">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X298">
-        <v>-1</v>
-      </c>
-      <c r="Y298">
-        <v>-1</v>
-      </c>
-      <c r="Z298">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AB298">
         <v>-1</v>
       </c>
       <c r="AC298">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7128320</v>
+        <v>7098221</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,73 +27785,73 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K307">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L307">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M307">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N307">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O307">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P307">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="S307">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="T307">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U307">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="V307">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z307">
         <v>-1</v>
       </c>
       <c r="AA307">
-        <v>1.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AB307">
-        <v>0.97</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AC307">
         <v>-1</v>
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7098221</v>
+        <v>7128320</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,73 +27874,73 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G308" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L308">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M308">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N308">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O308">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P308">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R308">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="S308">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="T308">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U308">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="V308">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y308">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
         <v>-1</v>
       </c>
       <c r="AA308">
-        <v>0.8100000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="AB308">
-        <v>0.8899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AC308">
         <v>-1</v>
@@ -29375,7 +29375,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>7222873</v>
+        <v>7222872</v>
       </c>
       <c r="C325" t="s">
         <v>28</v>
@@ -29384,49 +29384,49 @@
         <v>28</v>
       </c>
       <c r="E325" s="2">
-        <v>45402.45833333334</v>
+        <v>45403.52083333334</v>
       </c>
       <c r="F325" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K325">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="L325">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M325">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="N325">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="O325">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P325">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="Q325">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R325">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="S325">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="T325">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U325">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="V325">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="W325">
         <v>0</v>
@@ -29449,7 +29449,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7157088</v>
+        <v>8006410</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29458,49 +29458,49 @@
         <v>28</v>
       </c>
       <c r="E326" s="2">
-        <v>45402.45833333334</v>
+        <v>45405.66666666666</v>
       </c>
       <c r="F326" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G326" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K326">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L326">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N326">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P326">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R326">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="S326">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="T326">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U326">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V326">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W326">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>7222063</v>
+        <v>8006411</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29532,49 +29532,49 @@
         <v>28</v>
       </c>
       <c r="E327" s="2">
-        <v>45402.64583333334</v>
+        <v>45406.65625</v>
       </c>
       <c r="F327" t="s">
         <v>41</v>
       </c>
       <c r="G327" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K327">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L327">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M327">
-        <v>1.444</v>
+        <v>2.625</v>
       </c>
       <c r="N327">
-        <v>10</v>
+        <v>2.55</v>
       </c>
       <c r="O327">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P327">
-        <v>1.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q327">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R327">
+        <v>1.95</v>
+      </c>
+      <c r="S327">
+        <v>1.95</v>
+      </c>
+      <c r="T327">
+        <v>3</v>
+      </c>
+      <c r="U327">
+        <v>1.98</v>
+      </c>
+      <c r="V327">
         <v>1.92</v>
-      </c>
-      <c r="S327">
-        <v>1.98</v>
-      </c>
-      <c r="T327">
-        <v>2.75</v>
-      </c>
-      <c r="U327">
-        <v>1.84</v>
-      </c>
-      <c r="V327">
-        <v>2.06</v>
       </c>
       <c r="W327">
         <v>0</v>
@@ -29597,7 +29597,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7157731</v>
+        <v>8006005</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29606,49 +29606,49 @@
         <v>28</v>
       </c>
       <c r="E328" s="2">
-        <v>45403.39583333334</v>
+        <v>45406.66666666666</v>
       </c>
       <c r="F328" t="s">
         <v>32</v>
       </c>
       <c r="G328" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K328">
-        <v>1.909</v>
+        <v>5</v>
       </c>
       <c r="L328">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M328">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="N328">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="O328">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P328">
-        <v>3.6</v>
+        <v>1.533</v>
       </c>
       <c r="Q328">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R328">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S328">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="T328">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U328">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="V328">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29671,7 +29671,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>7226390</v>
+        <v>8006412</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29680,49 +29680,49 @@
         <v>28</v>
       </c>
       <c r="E329" s="2">
-        <v>45403.45833333334</v>
+        <v>45406.66666666666</v>
       </c>
       <c r="F329" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G329" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K329">
-        <v>1.727</v>
+        <v>1.363</v>
       </c>
       <c r="L329">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M329">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="O329">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P329">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R329">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="S329">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T329">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U329">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="V329">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29745,7 +29745,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7222871</v>
+        <v>8006413</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29754,49 +29754,49 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45403.45833333334</v>
+        <v>45406.66666666666</v>
       </c>
       <c r="F330" t="s">
         <v>47</v>
       </c>
       <c r="G330" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K330">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L330">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M330">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="N330">
+        <v>2.875</v>
+      </c>
+      <c r="O330">
+        <v>3.6</v>
+      </c>
+      <c r="P330">
+        <v>2.3</v>
+      </c>
+      <c r="Q330">
+        <v>0.25</v>
+      </c>
+      <c r="R330">
+        <v>1.85</v>
+      </c>
+      <c r="S330">
         <v>2.05</v>
-      </c>
-      <c r="O330">
-        <v>3.75</v>
-      </c>
-      <c r="P330">
-        <v>3.4</v>
-      </c>
-      <c r="Q330">
-        <v>-0.25</v>
-      </c>
-      <c r="R330">
-        <v>1.84</v>
-      </c>
-      <c r="S330">
-        <v>2.06</v>
       </c>
       <c r="T330">
         <v>2.75</v>
       </c>
       <c r="U330">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V330">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29819,7 +29819,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7222872</v>
+        <v>8006006</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29828,49 +29828,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45403.52083333334</v>
+        <v>45407.66666666666</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G331" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K331">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L331">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M331">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="N331">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="O331">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P331">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="Q331">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R331">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S331">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="T331">
         <v>3.25</v>
       </c>
       <c r="U331">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="V331">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29885,450 +29885,6 @@
         <v>0</v>
       </c>
       <c r="AA331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:29">
-      <c r="A332" s="1">
-        <v>330</v>
-      </c>
-      <c r="B332">
-        <v>8006410</v>
-      </c>
-      <c r="C332" t="s">
-        <v>28</v>
-      </c>
-      <c r="D332" t="s">
-        <v>28</v>
-      </c>
-      <c r="E332" s="2">
-        <v>45405.66666666666</v>
-      </c>
-      <c r="F332" t="s">
-        <v>30</v>
-      </c>
-      <c r="G332" t="s">
-        <v>37</v>
-      </c>
-      <c r="K332">
-        <v>1.571</v>
-      </c>
-      <c r="L332">
-        <v>4.2</v>
-      </c>
-      <c r="M332">
-        <v>5.5</v>
-      </c>
-      <c r="N332">
-        <v>1.5</v>
-      </c>
-      <c r="O332">
-        <v>4.2</v>
-      </c>
-      <c r="P332">
-        <v>6.5</v>
-      </c>
-      <c r="Q332">
-        <v>-1.25</v>
-      </c>
-      <c r="R332">
-        <v>2.07</v>
-      </c>
-      <c r="S332">
-        <v>1.83</v>
-      </c>
-      <c r="T332">
-        <v>3.25</v>
-      </c>
-      <c r="U332">
-        <v>1.99</v>
-      </c>
-      <c r="V332">
-        <v>1.91</v>
-      </c>
-      <c r="W332">
-        <v>0</v>
-      </c>
-      <c r="X332">
-        <v>0</v>
-      </c>
-      <c r="Y332">
-        <v>0</v>
-      </c>
-      <c r="Z332">
-        <v>0</v>
-      </c>
-      <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>8006411</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45406.65625</v>
-      </c>
-      <c r="F333" t="s">
-        <v>41</v>
-      </c>
-      <c r="G333" t="s">
-        <v>34</v>
-      </c>
-      <c r="K333">
-        <v>2.5</v>
-      </c>
-      <c r="L333">
-        <v>3.5</v>
-      </c>
-      <c r="M333">
-        <v>2.625</v>
-      </c>
-      <c r="N333">
-        <v>2.55</v>
-      </c>
-      <c r="O333">
-        <v>3.5</v>
-      </c>
-      <c r="P333">
-        <v>2.6</v>
-      </c>
-      <c r="Q333">
-        <v>0</v>
-      </c>
-      <c r="R333">
-        <v>1.92</v>
-      </c>
-      <c r="S333">
-        <v>1.98</v>
-      </c>
-      <c r="T333">
-        <v>3</v>
-      </c>
-      <c r="U333">
-        <v>2.01</v>
-      </c>
-      <c r="V333">
-        <v>1.89</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>8006413</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45406.66666666666</v>
-      </c>
-      <c r="F334" t="s">
-        <v>47</v>
-      </c>
-      <c r="G334" t="s">
-        <v>35</v>
-      </c>
-      <c r="K334">
-        <v>3.4</v>
-      </c>
-      <c r="L334">
-        <v>3.75</v>
-      </c>
-      <c r="M334">
-        <v>2</v>
-      </c>
-      <c r="N334">
-        <v>3</v>
-      </c>
-      <c r="O334">
-        <v>3.6</v>
-      </c>
-      <c r="P334">
-        <v>2.25</v>
-      </c>
-      <c r="Q334">
-        <v>0.25</v>
-      </c>
-      <c r="R334">
-        <v>1.89</v>
-      </c>
-      <c r="S334">
-        <v>2.01</v>
-      </c>
-      <c r="T334">
-        <v>2.75</v>
-      </c>
-      <c r="U334">
-        <v>1.93</v>
-      </c>
-      <c r="V334">
-        <v>1.97</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:29">
-      <c r="A335" s="1">
-        <v>333</v>
-      </c>
-      <c r="B335">
-        <v>8006412</v>
-      </c>
-      <c r="C335" t="s">
-        <v>28</v>
-      </c>
-      <c r="D335" t="s">
-        <v>28</v>
-      </c>
-      <c r="E335" s="2">
-        <v>45406.66666666666</v>
-      </c>
-      <c r="F335" t="s">
-        <v>38</v>
-      </c>
-      <c r="G335" t="s">
-        <v>33</v>
-      </c>
-      <c r="K335">
-        <v>1.363</v>
-      </c>
-      <c r="L335">
-        <v>5.5</v>
-      </c>
-      <c r="M335">
-        <v>7</v>
-      </c>
-      <c r="N335">
-        <v>1.3</v>
-      </c>
-      <c r="O335">
-        <v>5.5</v>
-      </c>
-      <c r="P335">
-        <v>9.5</v>
-      </c>
-      <c r="Q335">
-        <v>-1.75</v>
-      </c>
-      <c r="R335">
-        <v>1.99</v>
-      </c>
-      <c r="S335">
-        <v>1.91</v>
-      </c>
-      <c r="T335">
-        <v>3.5</v>
-      </c>
-      <c r="U335">
-        <v>1.97</v>
-      </c>
-      <c r="V335">
-        <v>1.93</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
-      <c r="Y335">
-        <v>0</v>
-      </c>
-      <c r="Z335">
-        <v>0</v>
-      </c>
-      <c r="AA335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:29">
-      <c r="A336" s="1">
-        <v>334</v>
-      </c>
-      <c r="B336">
-        <v>8006005</v>
-      </c>
-      <c r="C336" t="s">
-        <v>28</v>
-      </c>
-      <c r="D336" t="s">
-        <v>28</v>
-      </c>
-      <c r="E336" s="2">
-        <v>45406.66666666666</v>
-      </c>
-      <c r="F336" t="s">
-        <v>32</v>
-      </c>
-      <c r="G336" t="s">
-        <v>40</v>
-      </c>
-      <c r="K336">
-        <v>5</v>
-      </c>
-      <c r="L336">
-        <v>4</v>
-      </c>
-      <c r="M336">
-        <v>1.615</v>
-      </c>
-      <c r="N336">
-        <v>5.75</v>
-      </c>
-      <c r="O336">
-        <v>4.2</v>
-      </c>
-      <c r="P336">
-        <v>1.533</v>
-      </c>
-      <c r="Q336">
-        <v>1</v>
-      </c>
-      <c r="R336">
-        <v>2.05</v>
-      </c>
-      <c r="S336">
-        <v>1.85</v>
-      </c>
-      <c r="T336">
-        <v>3</v>
-      </c>
-      <c r="U336">
-        <v>1.83</v>
-      </c>
-      <c r="V336">
-        <v>2.07</v>
-      </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:27">
-      <c r="A337" s="1">
-        <v>335</v>
-      </c>
-      <c r="B337">
-        <v>8006006</v>
-      </c>
-      <c r="C337" t="s">
-        <v>28</v>
-      </c>
-      <c r="D337" t="s">
-        <v>28</v>
-      </c>
-      <c r="E337" s="2">
-        <v>45407.66666666666</v>
-      </c>
-      <c r="F337" t="s">
-        <v>31</v>
-      </c>
-      <c r="G337" t="s">
-        <v>44</v>
-      </c>
-      <c r="K337">
-        <v>6</v>
-      </c>
-      <c r="L337">
-        <v>4.75</v>
-      </c>
-      <c r="M337">
-        <v>1.444</v>
-      </c>
-      <c r="N337">
-        <v>5.75</v>
-      </c>
-      <c r="O337">
-        <v>4.75</v>
-      </c>
-      <c r="P337">
-        <v>1.45</v>
-      </c>
-      <c r="Q337">
-        <v>1.25</v>
-      </c>
-      <c r="R337">
-        <v>1.86</v>
-      </c>
-      <c r="S337">
-        <v>2.04</v>
-      </c>
-      <c r="T337">
-        <v>3.25</v>
-      </c>
-      <c r="U337">
-        <v>2</v>
-      </c>
-      <c r="V337">
-        <v>1.9</v>
-      </c>
-      <c r="W337">
-        <v>0</v>
-      </c>
-      <c r="X337">
-        <v>0</v>
-      </c>
-      <c r="Y337">
-        <v>0</v>
-      </c>
-      <c r="Z337">
-        <v>0</v>
-      </c>
-      <c r="AA337">
         <v>0</v>
       </c>
     </row>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -136,10 +136,10 @@
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Bournemouth</t>
+    <t>Brighton</t>
   </si>
   <si>
-    <t>Brighton</t>
+    <t>Bournemouth</t>
   </si>
   <si>
     <t>Everton</t>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6777647</v>
+        <v>6777648</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -836,73 +836,73 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="K4">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="M4">
-        <v>2.625</v>
+        <v>1.25</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O4">
-        <v>2.6</v>
+        <v>11</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="U4">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6777648</v>
+        <v>6777647</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -922,73 +922,73 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="P5">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>2.75</v>
+      </c>
+      <c r="T5">
         <v>1.92</v>
       </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>1.88</v>
-      </c>
       <c r="U5">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1696,7 +1696,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1782,7 +1782,7 @@
         <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>52</v>
@@ -2458,7 +2458,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6777901</v>
+        <v>6777902</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2467,76 +2467,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J23">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="K23">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="P23">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q23">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="R23">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="S23">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8100000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2544,7 +2544,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6777899</v>
+        <v>6777901</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -2553,76 +2553,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K24">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="N24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P24">
         <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>1.84</v>
+        <v>2.09</v>
       </c>
       <c r="R24">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="S24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T24">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.53</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.445</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2630,7 +2630,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6777898</v>
+        <v>6777899</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -2639,76 +2639,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>60</v>
       </c>
       <c r="J25">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="M25">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="N25">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="O25">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="P25">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q25">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="R25">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="S25">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T25">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z25">
-        <v>0.8799999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="AA25">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2716,7 +2716,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6777902</v>
+        <v>6777898</v>
       </c>
       <c r="C26" t="s">
         <v>37</v>
@@ -2725,61 +2725,61 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J26">
-        <v>1.285</v>
+        <v>1.25</v>
       </c>
       <c r="K26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="O26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P26">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q26">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R26">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T26">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="U26">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V26">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2788,10 +2788,10 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.8600000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.9199999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB26">
         <v>-1</v>
@@ -2811,7 +2811,7 @@
         <v>45164.5625</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>55</v>
@@ -3588,7 +3588,7 @@
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3671,7 +3671,7 @@
         <v>45171.5625</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -4104,7 +4104,7 @@
         <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6780964</v>
+        <v>6777921</v>
       </c>
       <c r="C43" t="s">
         <v>37</v>
@@ -4187,58 +4187,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
         <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
       </c>
       <c r="I43" t="s">
         <v>59</v>
       </c>
       <c r="J43">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="K43">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M43">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O43">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P43">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q43">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="R43">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="S43">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T43">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="U43">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="V43">
-        <v>0.6499999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W43">
         <v>-1</v>
@@ -4247,16 +4247,16 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="AA43">
         <v>-0.5</v>
       </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
       <c r="AB43">
-        <v>1.01</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -4264,7 +4264,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6777921</v>
+        <v>6780964</v>
       </c>
       <c r="C44" t="s">
         <v>37</v>
@@ -4273,58 +4273,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>59</v>
       </c>
       <c r="J44">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="K44">
+        <v>3.75</v>
+      </c>
+      <c r="L44">
         <v>5</v>
       </c>
-      <c r="L44">
-        <v>9</v>
-      </c>
       <c r="M44">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="N44">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P44">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q44">
+        <v>1.86</v>
+      </c>
+      <c r="R44">
+        <v>2.04</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44">
+        <v>1.89</v>
+      </c>
+      <c r="U44">
         <v>2.01</v>
       </c>
-      <c r="R44">
-        <v>1.92</v>
-      </c>
-      <c r="S44">
-        <v>3.25</v>
-      </c>
-      <c r="T44">
-        <v>1.84</v>
-      </c>
-      <c r="U44">
-        <v>2.06</v>
-      </c>
       <c r="V44">
-        <v>0.2849999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W44">
         <v>-1</v>
@@ -4333,16 +4333,16 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.43</v>
       </c>
       <c r="Z44">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.53</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4350,7 +4350,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6777762</v>
+        <v>6777916</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
@@ -4359,73 +4359,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="K45">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="N45">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O45">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q45">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="R45">
-        <v>2.09</v>
+        <v>1.94</v>
       </c>
       <c r="S45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T45">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U45">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="Z45">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.97</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4436,7 +4436,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6777916</v>
+        <v>6777762</v>
       </c>
       <c r="C46" t="s">
         <v>37</v>
@@ -4445,73 +4445,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="H46">
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>4.5</v>
+      </c>
+      <c r="L46">
+        <v>1.4</v>
+      </c>
+      <c r="M46">
+        <v>5.25</v>
+      </c>
+      <c r="N46">
+        <v>4.2</v>
+      </c>
+      <c r="O46">
+        <v>1.6</v>
+      </c>
+      <c r="P46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
-        <v>59</v>
-      </c>
-      <c r="J46">
-        <v>1.8</v>
-      </c>
-      <c r="K46">
-        <v>3.6</v>
-      </c>
-      <c r="L46">
-        <v>4.333</v>
-      </c>
-      <c r="M46">
-        <v>1.95</v>
-      </c>
-      <c r="N46">
-        <v>3.6</v>
-      </c>
-      <c r="O46">
-        <v>4</v>
-      </c>
-      <c r="P46">
-        <v>-0.5</v>
-      </c>
       <c r="Q46">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="R46">
-        <v>1.94</v>
+        <v>2.09</v>
       </c>
       <c r="S46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T46">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U46">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y46">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA46">
-        <v>0.9199999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -4617,7 +4617,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
         <v>46</v>
@@ -5477,10 +5477,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58" t="s">
         <v>41</v>
-      </c>
-      <c r="F58" t="s">
-        <v>40</v>
       </c>
       <c r="G58">
         <v>3</v>
@@ -5738,7 +5738,7 @@
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -6165,7 +6165,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
         <v>39</v>
@@ -6856,7 +6856,7 @@
         <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -7283,7 +7283,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
         <v>50</v>
@@ -7716,7 +7716,7 @@
         <v>53</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7790,7 +7790,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6777948</v>
+        <v>6777947</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -7799,73 +7799,73 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85">
+        <v>2.375</v>
+      </c>
+      <c r="K85">
+        <v>3.3</v>
+      </c>
+      <c r="L85">
+        <v>2.9</v>
+      </c>
+      <c r="M85">
+        <v>2.3</v>
+      </c>
+      <c r="N85">
+        <v>3.4</v>
+      </c>
+      <c r="O85">
         <v>3</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>59</v>
-      </c>
-      <c r="J85">
-        <v>1.8</v>
-      </c>
-      <c r="K85">
-        <v>3.5</v>
-      </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
-      <c r="M85">
-        <v>1.7</v>
-      </c>
-      <c r="N85">
-        <v>3.8</v>
-      </c>
-      <c r="O85">
-        <v>4.75</v>
-      </c>
       <c r="P85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q85">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S85">
         <v>2.5</v>
       </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="V85">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -7962,7 +7962,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6777947</v>
+        <v>6777948</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -7971,73 +7971,73 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J87">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="K87">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M87">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N87">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O87">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q87">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R87">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S87">
         <v>2.5</v>
       </c>
       <c r="T87">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U87">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z87">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB87">
         <v>-1</v>
@@ -8573,7 +8573,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
         <v>38</v>
@@ -8917,7 +8917,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
         <v>49</v>
@@ -8994,7 +8994,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6780959</v>
+        <v>6777960</v>
       </c>
       <c r="C99" t="s">
         <v>37</v>
@@ -9003,58 +9003,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>59</v>
       </c>
       <c r="J99">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="K99">
         <v>5</v>
       </c>
       <c r="L99">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="M99">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="N99">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="O99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P99">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S99">
         <v>3.25</v>
       </c>
       <c r="T99">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U99">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V99">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="W99">
         <v>-1</v>
@@ -9063,16 +9063,16 @@
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9080,7 +9080,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6777960</v>
+        <v>6780959</v>
       </c>
       <c r="C100" t="s">
         <v>37</v>
@@ -9089,58 +9089,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
         <v>59</v>
       </c>
       <c r="J100">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="K100">
         <v>5</v>
       </c>
       <c r="L100">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="M100">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="N100">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="O100">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P100">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q100">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
         <v>3.25</v>
       </c>
       <c r="T100">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U100">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V100">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9149,16 +9149,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AB100">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9350,7 +9350,7 @@
         <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9436,7 +9436,7 @@
         <v>53</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G104">
         <v>6</v>
@@ -10465,7 +10465,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
         <v>44</v>
@@ -10628,7 +10628,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6777971</v>
+        <v>6777972</v>
       </c>
       <c r="C118" t="s">
         <v>37</v>
@@ -10637,76 +10637,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J118">
-        <v>1.571</v>
+        <v>1.285</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L118">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M118">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="N118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O118">
+        <v>10</v>
+      </c>
+      <c r="P118">
+        <v>-1.75</v>
+      </c>
+      <c r="Q118">
+        <v>1.98</v>
+      </c>
+      <c r="R118">
+        <v>1.92</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>1.84</v>
+      </c>
+      <c r="U118">
+        <v>2.06</v>
+      </c>
+      <c r="V118">
+        <v>-1</v>
+      </c>
+      <c r="W118">
         <v>5</v>
       </c>
-      <c r="P118">
-        <v>-0.75</v>
-      </c>
-      <c r="Q118">
-        <v>1.87</v>
-      </c>
-      <c r="R118">
-        <v>2.03</v>
-      </c>
-      <c r="S118">
-        <v>2.75</v>
-      </c>
-      <c r="T118">
-        <v>1.95</v>
-      </c>
-      <c r="U118">
-        <v>1.95</v>
-      </c>
-      <c r="V118">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="119" spans="1:28">
@@ -10800,7 +10800,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6777972</v>
+        <v>6777971</v>
       </c>
       <c r="C120" t="s">
         <v>37</v>
@@ -10809,76 +10809,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J120">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="K120">
+        <v>4.2</v>
+      </c>
+      <c r="L120">
         <v>5.5</v>
       </c>
-      <c r="L120">
-        <v>11</v>
-      </c>
       <c r="M120">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="N120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P120">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q120">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="R120">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T120">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="U120">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W120">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="Z120">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -11242,7 +11242,7 @@
         <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11328,7 +11328,7 @@
         <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -12274,7 +12274,7 @@
         <v>46</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>3</v>
@@ -12357,7 +12357,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
         <v>54</v>
@@ -12873,7 +12873,7 @@
         <v>45266.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -13048,7 +13048,7 @@
         <v>56</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>45269.5</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F154" t="s">
         <v>38</v>
@@ -13822,7 +13822,7 @@
         <v>47</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6777773</v>
+        <v>6780952</v>
       </c>
       <c r="C158" t="s">
         <v>37</v>
@@ -14077,76 +14077,76 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F158" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158" t="s">
+        <v>58</v>
+      </c>
+      <c r="J158">
+        <v>26</v>
+      </c>
+      <c r="K158">
+        <v>9.5</v>
+      </c>
+      <c r="L158">
+        <v>1.1</v>
+      </c>
+      <c r="M158">
+        <v>13</v>
+      </c>
+      <c r="N158">
+        <v>7.5</v>
+      </c>
+      <c r="O158">
+        <v>1.181</v>
+      </c>
+      <c r="P158">
+        <v>2</v>
+      </c>
+      <c r="Q158">
+        <v>1.85</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>3</v>
+      </c>
+      <c r="T158">
+        <v>1.93</v>
+      </c>
+      <c r="U158">
+        <v>1.97</v>
+      </c>
+      <c r="V158">
+        <v>-1</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>0.181</v>
+      </c>
+      <c r="Y158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z158">
+        <v>-1</v>
+      </c>
+      <c r="AA158">
         <v>0</v>
       </c>
-      <c r="I158" t="s">
-        <v>59</v>
-      </c>
-      <c r="J158">
-        <v>2.5</v>
-      </c>
-      <c r="K158">
-        <v>3.5</v>
-      </c>
-      <c r="L158">
-        <v>2.6</v>
-      </c>
-      <c r="M158">
-        <v>2.2</v>
-      </c>
-      <c r="N158">
-        <v>3.5</v>
-      </c>
-      <c r="O158">
-        <v>3.25</v>
-      </c>
-      <c r="P158">
-        <v>-0.25</v>
-      </c>
-      <c r="Q158">
-        <v>1.89</v>
-      </c>
-      <c r="R158">
-        <v>2.01</v>
-      </c>
-      <c r="S158">
-        <v>2.5</v>
-      </c>
-      <c r="T158">
-        <v>1.86</v>
-      </c>
-      <c r="U158">
-        <v>2.04</v>
-      </c>
-      <c r="V158">
-        <v>1.2</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
-      <c r="AA158">
-        <v>0.8600000000000001</v>
-      </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14154,7 +14154,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6778008</v>
+        <v>6777773</v>
       </c>
       <c r="C159" t="s">
         <v>37</v>
@@ -14163,13 +14163,13 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F159" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14178,43 +14178,43 @@
         <v>59</v>
       </c>
       <c r="J159">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="K159">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L159">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="M159">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N159">
         <v>3.5</v>
       </c>
       <c r="O159">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q159">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="R159">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="S159">
         <v>2.5</v>
       </c>
       <c r="T159">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U159">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V159">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14223,16 +14223,16 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.8500000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14240,7 +14240,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6780952</v>
+        <v>6778008</v>
       </c>
       <c r="C160" t="s">
         <v>37</v>
@@ -14249,40 +14249,40 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J160">
-        <v>26</v>
+        <v>4.2</v>
       </c>
       <c r="K160">
-        <v>9.5</v>
+        <v>3.6</v>
       </c>
       <c r="L160">
-        <v>1.1</v>
+        <v>1.833</v>
       </c>
       <c r="M160">
-        <v>13</v>
+        <v>2.5</v>
       </c>
       <c r="N160">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O160">
-        <v>1.181</v>
+        <v>2.75</v>
       </c>
       <c r="P160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q160">
         <v>1.85</v>
@@ -14291,7 +14291,7 @@
         <v>2.05</v>
       </c>
       <c r="S160">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T160">
         <v>1.93</v>
@@ -14300,13 +14300,13 @@
         <v>1.97</v>
       </c>
       <c r="V160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>0.8500000000000001</v>
@@ -14315,10 +14315,10 @@
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="161" spans="1:28">
@@ -14842,7 +14842,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6778014</v>
+        <v>6778013</v>
       </c>
       <c r="C167" t="s">
         <v>37</v>
@@ -14851,76 +14851,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="E167" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J167">
-        <v>2.8</v>
+        <v>1.533</v>
       </c>
       <c r="K167">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="L167">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="M167">
+        <v>1.45</v>
+      </c>
+      <c r="N167">
+        <v>5</v>
+      </c>
+      <c r="O167">
+        <v>6</v>
+      </c>
+      <c r="P167">
+        <v>-1.25</v>
+      </c>
+      <c r="Q167">
+        <v>2.05</v>
+      </c>
+      <c r="R167">
+        <v>1.85</v>
+      </c>
+      <c r="S167">
         <v>3</v>
       </c>
-      <c r="N167">
-        <v>3.4</v>
-      </c>
-      <c r="O167">
-        <v>2.25</v>
-      </c>
-      <c r="P167">
-        <v>0.25</v>
-      </c>
-      <c r="Q167">
-        <v>1.88</v>
-      </c>
-      <c r="R167">
-        <v>2.05</v>
-      </c>
-      <c r="S167">
-        <v>2.5</v>
-      </c>
       <c r="T167">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="U167">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="V167">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z167">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:28">
@@ -14928,7 +14928,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6778013</v>
+        <v>6778014</v>
       </c>
       <c r="C168" t="s">
         <v>37</v>
@@ -14937,76 +14937,76 @@
         <v>45277.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
         <v>2</v>
       </c>
-      <c r="H168">
-        <v>0</v>
-      </c>
       <c r="I168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J168">
-        <v>1.533</v>
+        <v>2.8</v>
       </c>
       <c r="K168">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="M168">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O168">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="P168">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q168">
+        <v>1.88</v>
+      </c>
+      <c r="R168">
         <v>2.05</v>
       </c>
-      <c r="R168">
-        <v>1.85</v>
-      </c>
       <c r="S168">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T168">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="U168">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V168">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
         <v>1.05</v>
       </c>
-      <c r="Z168">
-        <v>-1</v>
-      </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB168">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:28">
@@ -15198,7 +15198,7 @@
         <v>56</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15714,7 +15714,7 @@
         <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -16141,7 +16141,7 @@
         <v>45286.5</v>
       </c>
       <c r="E182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F182" t="s">
         <v>49</v>
@@ -16657,7 +16657,7 @@
         <v>45288.6875</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
         <v>52</v>
@@ -17434,7 +17434,7 @@
         <v>52</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -17606,7 +17606,7 @@
         <v>55</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -18377,7 +18377,7 @@
         <v>45312.5625</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F208" t="s">
         <v>50</v>
@@ -18463,7 +18463,7 @@
         <v>45313.69791666666</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
         <v>51</v>
@@ -18626,7 +18626,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6780946</v>
+        <v>6778054</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18635,76 +18635,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E211" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G211">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J211">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K211">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L211">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N211">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="P211">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="U211">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="AA211">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -18712,7 +18712,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6778054</v>
+        <v>6780946</v>
       </c>
       <c r="C212" t="s">
         <v>37</v>
@@ -18721,76 +18721,76 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J212">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L212">
+        <v>1.571</v>
+      </c>
+      <c r="M212">
+        <v>4.2</v>
+      </c>
+      <c r="N212">
+        <v>4.2</v>
+      </c>
+      <c r="O212">
+        <v>1.8</v>
+      </c>
+      <c r="P212">
+        <v>0.75</v>
+      </c>
+      <c r="Q212">
+        <v>1.85</v>
+      </c>
+      <c r="R212">
+        <v>2.05</v>
+      </c>
+      <c r="S212">
         <v>2.75</v>
       </c>
-      <c r="M212">
-        <v>2.25</v>
-      </c>
-      <c r="N212">
+      <c r="T212">
+        <v>1.88</v>
+      </c>
+      <c r="U212">
+        <v>2.02</v>
+      </c>
+      <c r="V212">
         <v>3.2</v>
       </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
-      <c r="P212">
-        <v>-0.25</v>
-      </c>
-      <c r="Q212">
-        <v>1.92</v>
-      </c>
-      <c r="R212">
-        <v>1.98</v>
-      </c>
-      <c r="S212">
-        <v>2.25</v>
-      </c>
-      <c r="T212">
-        <v>1.95</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>-1</v>
-      </c>
       <c r="W212">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z212">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19240,7 +19240,7 @@
         <v>55</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19495,7 +19495,7 @@
         <v>45325.5</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
         <v>56</v>
@@ -19925,7 +19925,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F226" t="s">
         <v>48</v>
@@ -20530,7 +20530,7 @@
         <v>52</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -20702,7 +20702,7 @@
         <v>49</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -21378,7 +21378,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6778082</v>
+        <v>6778084</v>
       </c>
       <c r="C243" t="s">
         <v>37</v>
@@ -21387,76 +21387,76 @@
         <v>45339.5</v>
       </c>
       <c r="E243" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H243">
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J243">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="K243">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M243">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P243">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q243">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="R243">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S243">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T243">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="U243">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="V243">
         <v>-1</v>
       </c>
       <c r="W243">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y243">
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.8700000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA243">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21464,7 +21464,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6778084</v>
+        <v>6778082</v>
       </c>
       <c r="C244" t="s">
         <v>37</v>
@@ -21473,76 +21473,76 @@
         <v>45339.5</v>
       </c>
       <c r="E244" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F244" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J244">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="K244">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="L244">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O244">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q244">
-        <v>2.07</v>
+        <v>2.03</v>
       </c>
       <c r="R244">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S244">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T244">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="U244">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="V244">
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X244">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.8300000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB244">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21734,7 +21734,7 @@
         <v>43</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -22161,7 +22161,7 @@
         <v>45346.5</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F252" t="s">
         <v>42</v>
@@ -22505,7 +22505,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F256" t="s">
         <v>53</v>
@@ -23024,7 +23024,7 @@
         <v>49</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G262">
         <v>3</v>
@@ -23454,7 +23454,7 @@
         <v>38</v>
       </c>
       <c r="F267" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23881,7 +23881,7 @@
         <v>45360.5</v>
       </c>
       <c r="E272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F272" t="s">
         <v>43</v>
@@ -24225,7 +24225,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F276" t="s">
         <v>48</v>
@@ -24569,7 +24569,7 @@
         <v>45364.6875</v>
       </c>
       <c r="E280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F280" t="s">
         <v>57</v>
@@ -25334,7 +25334,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6778104</v>
+        <v>7025367</v>
       </c>
       <c r="C289" t="s">
         <v>37</v>
@@ -25343,76 +25343,76 @@
         <v>45381.5</v>
       </c>
       <c r="E289" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F289" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289">
         <v>1</v>
       </c>
       <c r="I289" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J289">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K289">
         <v>3.4</v>
       </c>
       <c r="L289">
+        <v>2.7</v>
+      </c>
+      <c r="M289">
+        <v>2.2</v>
+      </c>
+      <c r="N289">
+        <v>3.3</v>
+      </c>
+      <c r="O289">
         <v>3.4</v>
-      </c>
-      <c r="M289">
-        <v>2.15</v>
-      </c>
-      <c r="N289">
-        <v>3.75</v>
-      </c>
-      <c r="O289">
-        <v>3.2</v>
       </c>
       <c r="P289">
         <v>-0.25</v>
       </c>
       <c r="Q289">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R289">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S289">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T289">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U289">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="V289">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X289">
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>0.9199999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z289">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA289">
-        <v>0.42</v>
+        <v>-0.5</v>
       </c>
       <c r="AB289">
-        <v>-0.5</v>
+        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -25420,7 +25420,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7025367</v>
+        <v>6778104</v>
       </c>
       <c r="C290" t="s">
         <v>37</v>
@@ -25429,76 +25429,76 @@
         <v>45381.5</v>
       </c>
       <c r="E290" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F290" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H290">
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J290">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K290">
         <v>3.4</v>
       </c>
       <c r="L290">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="M290">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N290">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O290">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P290">
         <v>-0.25</v>
       </c>
       <c r="Q290">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R290">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S290">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T290">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U290">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="V290">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W290">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X290">
         <v>-1</v>
       </c>
       <c r="Y290">
+        <v>0.9199999999999999</v>
+      </c>
+      <c r="Z290">
+        <v>-1</v>
+      </c>
+      <c r="AA290">
+        <v>0.42</v>
+      </c>
+      <c r="AB290">
         <v>-0.5</v>
-      </c>
-      <c r="Z290">
-        <v>0.475</v>
-      </c>
-      <c r="AA290">
-        <v>-0.5</v>
-      </c>
-      <c r="AB290">
-        <v>0.5349999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:28">
@@ -25690,7 +25690,7 @@
         <v>50</v>
       </c>
       <c r="F293" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -26022,7 +26022,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7041556</v>
+        <v>7092484</v>
       </c>
       <c r="C297" t="s">
         <v>37</v>
@@ -26031,76 +26031,76 @@
         <v>45384.65625</v>
       </c>
       <c r="E297" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F297" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G297">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J297">
+        <v>1.8</v>
+      </c>
+      <c r="K297">
+        <v>3.7</v>
+      </c>
+      <c r="L297">
+        <v>4.2</v>
+      </c>
+      <c r="M297">
+        <v>1.85</v>
+      </c>
+      <c r="N297">
+        <v>3.8</v>
+      </c>
+      <c r="O297">
+        <v>3.8</v>
+      </c>
+      <c r="P297">
+        <v>-0.5</v>
+      </c>
+      <c r="Q297">
+        <v>1.88</v>
+      </c>
+      <c r="R297">
+        <v>2.02</v>
+      </c>
+      <c r="S297">
         <v>2.75</v>
       </c>
-      <c r="K297">
-        <v>3.5</v>
-      </c>
-      <c r="L297">
-        <v>2.4</v>
-      </c>
-      <c r="M297">
-        <v>2.3</v>
-      </c>
-      <c r="N297">
-        <v>3.6</v>
-      </c>
-      <c r="O297">
-        <v>2.9</v>
-      </c>
-      <c r="P297">
-        <v>-0.25</v>
-      </c>
-      <c r="Q297">
-        <v>2.03</v>
-      </c>
-      <c r="R297">
-        <v>1.87</v>
-      </c>
-      <c r="S297">
-        <v>2.5</v>
-      </c>
       <c r="T297">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="U297">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V297">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W297">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z297">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
         <v>-1</v>
       </c>
       <c r="AB297">
-        <v>1.05</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26108,7 +26108,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7092484</v>
+        <v>7041556</v>
       </c>
       <c r="C298" t="s">
         <v>37</v>
@@ -26117,76 +26117,76 @@
         <v>45384.65625</v>
       </c>
       <c r="E298" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F298" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G298">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J298">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K298">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L298">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M298">
+        <v>2.3</v>
+      </c>
+      <c r="N298">
+        <v>3.6</v>
+      </c>
+      <c r="O298">
+        <v>2.9</v>
+      </c>
+      <c r="P298">
+        <v>-0.25</v>
+      </c>
+      <c r="Q298">
+        <v>2.03</v>
+      </c>
+      <c r="R298">
+        <v>1.87</v>
+      </c>
+      <c r="S298">
+        <v>2.5</v>
+      </c>
+      <c r="T298">
         <v>1.85</v>
       </c>
-      <c r="N298">
-        <v>3.8</v>
-      </c>
-      <c r="O298">
-        <v>3.8</v>
-      </c>
-      <c r="P298">
+      <c r="U298">
+        <v>2.05</v>
+      </c>
+      <c r="V298">
+        <v>-1</v>
+      </c>
+      <c r="W298">
+        <v>2.6</v>
+      </c>
+      <c r="X298">
+        <v>-1</v>
+      </c>
+      <c r="Y298">
         <v>-0.5</v>
       </c>
-      <c r="Q298">
-        <v>1.88</v>
-      </c>
-      <c r="R298">
-        <v>2.02</v>
-      </c>
-      <c r="S298">
-        <v>2.75</v>
-      </c>
-      <c r="T298">
-        <v>2.01</v>
-      </c>
-      <c r="U298">
-        <v>1.89</v>
-      </c>
-      <c r="V298">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W298">
-        <v>-1</v>
-      </c>
-      <c r="X298">
-        <v>-1</v>
-      </c>
-      <c r="Y298">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA298">
         <v>-1</v>
       </c>
       <c r="AB298">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -26292,7 +26292,7 @@
         <v>45</v>
       </c>
       <c r="F300" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -26796,7 +26796,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7128321</v>
+        <v>7098221</v>
       </c>
       <c r="C306" t="s">
         <v>37</v>
@@ -26805,76 +26805,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E306" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G306">
         <v>1</v>
       </c>
       <c r="H306">
+        <v>2</v>
+      </c>
+      <c r="I306" t="s">
+        <v>58</v>
+      </c>
+      <c r="J306">
+        <v>2.5</v>
+      </c>
+      <c r="K306">
+        <v>3.3</v>
+      </c>
+      <c r="L306">
+        <v>2.75</v>
+      </c>
+      <c r="M306">
+        <v>2.7</v>
+      </c>
+      <c r="N306">
+        <v>3.6</v>
+      </c>
+      <c r="O306">
+        <v>2.5</v>
+      </c>
+      <c r="P306">
         <v>0</v>
       </c>
-      <c r="I306" t="s">
-        <v>59</v>
-      </c>
-      <c r="J306">
-        <v>1.727</v>
-      </c>
-      <c r="K306">
-        <v>3.5</v>
-      </c>
-      <c r="L306">
-        <v>5</v>
-      </c>
-      <c r="M306">
-        <v>1.727</v>
-      </c>
-      <c r="N306">
-        <v>3.8</v>
-      </c>
-      <c r="O306">
-        <v>4.75</v>
-      </c>
-      <c r="P306">
-        <v>-0.75</v>
-      </c>
       <c r="Q306">
-        <v>1.98</v>
+        <v>2.09</v>
       </c>
       <c r="R306">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="S306">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T306">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="U306">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="V306">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y306">
-        <v>0.49</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:28">
@@ -26882,7 +26882,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7098221</v>
+        <v>7128321</v>
       </c>
       <c r="C307" t="s">
         <v>37</v>
@@ -26891,76 +26891,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E307" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F307" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G307">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J307">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="K307">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L307">
+        <v>5</v>
+      </c>
+      <c r="M307">
+        <v>1.727</v>
+      </c>
+      <c r="N307">
+        <v>3.8</v>
+      </c>
+      <c r="O307">
+        <v>4.75</v>
+      </c>
+      <c r="P307">
+        <v>-0.75</v>
+      </c>
+      <c r="Q307">
+        <v>1.98</v>
+      </c>
+      <c r="R307">
+        <v>1.92</v>
+      </c>
+      <c r="S307">
         <v>2.75</v>
       </c>
-      <c r="M307">
-        <v>2.7</v>
-      </c>
-      <c r="N307">
-        <v>3.6</v>
-      </c>
-      <c r="O307">
-        <v>2.5</v>
-      </c>
-      <c r="P307">
-        <v>0</v>
-      </c>
-      <c r="Q307">
-        <v>2.09</v>
-      </c>
-      <c r="R307">
-        <v>1.81</v>
-      </c>
-      <c r="S307">
-        <v>2.5</v>
-      </c>
       <c r="T307">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U307">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="V307">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>0.49</v>
       </c>
       <c r="Z307">
-        <v>0.8100000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA307">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:28">
@@ -26980,7 +26980,7 @@
         <v>57</v>
       </c>
       <c r="F308" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -27235,7 +27235,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E311" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F311" t="s">
         <v>39</v>
@@ -27656,7 +27656,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7141316</v>
+        <v>7128948</v>
       </c>
       <c r="C316" t="s">
         <v>37</v>
@@ -27665,67 +27665,67 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E316" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F316" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I316" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J316">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="K316">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="L316">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="M316">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N316">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O316">
-        <v>6</v>
+        <v>1.85</v>
       </c>
       <c r="P316">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q316">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="R316">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S316">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T316">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="U316">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="V316">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="Z316">
         <v>-1</v>
@@ -27734,7 +27734,7 @@
         <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="317" spans="1:28">
@@ -27742,7 +27742,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7141317</v>
+        <v>7132903</v>
       </c>
       <c r="C317" t="s">
         <v>37</v>
@@ -27751,73 +27751,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E317" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F317" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J317">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="K317">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="L317">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="M317">
-        <v>2</v>
+        <v>1.083</v>
       </c>
       <c r="N317">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="O317">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="P317">
-        <v>-0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="Q317">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R317">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S317">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="T317">
+        <v>1.93</v>
+      </c>
+      <c r="U317">
         <v>1.97</v>
       </c>
-      <c r="U317">
-        <v>1.93</v>
-      </c>
       <c r="V317">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W317">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X317">
         <v>-1</v>
       </c>
       <c r="Y317">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="Z317">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB317">
         <v>-1</v>
@@ -27828,7 +27828,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7128948</v>
+        <v>7141316</v>
       </c>
       <c r="C318" t="s">
         <v>37</v>
@@ -27837,67 +27837,67 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E318" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F318" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J318">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="K318">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L318">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="M318">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N318">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O318">
+        <v>6</v>
+      </c>
+      <c r="P318">
+        <v>-1.25</v>
+      </c>
+      <c r="Q318">
+        <v>2.03</v>
+      </c>
+      <c r="R318">
+        <v>1.87</v>
+      </c>
+      <c r="S318">
+        <v>3.25</v>
+      </c>
+      <c r="T318">
+        <v>2.05</v>
+      </c>
+      <c r="U318">
         <v>1.85</v>
       </c>
-      <c r="P318">
+      <c r="V318">
         <v>0.5</v>
       </c>
-      <c r="Q318">
-        <v>2.01</v>
-      </c>
-      <c r="R318">
-        <v>1.89</v>
-      </c>
-      <c r="S318">
-        <v>3</v>
-      </c>
-      <c r="T318">
-        <v>1.89</v>
-      </c>
-      <c r="U318">
-        <v>2.01</v>
-      </c>
-      <c r="V318">
-        <v>-1</v>
-      </c>
       <c r="W318">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X318">
         <v>-1</v>
       </c>
       <c r="Y318">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Z318">
         <v>-1</v>
@@ -27906,7 +27906,7 @@
         <v>-1</v>
       </c>
       <c r="AB318">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -27914,7 +27914,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7132903</v>
+        <v>7141317</v>
       </c>
       <c r="C319" t="s">
         <v>37</v>
@@ -27923,73 +27923,73 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E319" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F319" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G319">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J319">
-        <v>1.09</v>
+        <v>2.3</v>
       </c>
       <c r="K319">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L319">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M319">
-        <v>1.083</v>
+        <v>2</v>
       </c>
       <c r="N319">
-        <v>13</v>
+        <v>3.4</v>
       </c>
       <c r="O319">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="P319">
-        <v>-2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q319">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R319">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S319">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="T319">
+        <v>1.97</v>
+      </c>
+      <c r="U319">
         <v>1.93</v>
       </c>
-      <c r="U319">
-        <v>1.97</v>
-      </c>
       <c r="V319">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X319">
         <v>-1</v>
       </c>
       <c r="Y319">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA319">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB319">
         <v>-1</v>
@@ -28009,7 +28009,7 @@
         <v>45395.5625</v>
       </c>
       <c r="E320" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F320" t="s">
         <v>47</v>
@@ -28786,7 +28786,7 @@
         <v>54</v>
       </c>
       <c r="F329" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G329">
         <v>3</v>
@@ -29130,7 +29130,7 @@
         <v>51</v>
       </c>
       <c r="F333" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -29471,7 +29471,7 @@
         <v>45407.66666666666</v>
       </c>
       <c r="E337" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F337" t="s">
         <v>53</v>
@@ -29634,7 +29634,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7265177</v>
+        <v>7252550</v>
       </c>
       <c r="C339" t="s">
         <v>37</v>
@@ -29643,10 +29643,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E339" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F339" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G339">
         <v>1</v>
@@ -29658,46 +29658,46 @@
         <v>60</v>
       </c>
       <c r="J339">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="K339">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L339">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="M339">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="N339">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O339">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P339">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q339">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R339">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S339">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T339">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U339">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V339">
         <v>-1</v>
       </c>
       <c r="W339">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="X339">
         <v>-1</v>
@@ -29706,13 +29706,13 @@
         <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0.8600000000000001</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AA339">
         <v>-1</v>
       </c>
       <c r="AB339">
-        <v>0.8999999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="340" spans="1:28">
@@ -29720,7 +29720,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7252550</v>
+        <v>7265177</v>
       </c>
       <c r="C340" t="s">
         <v>37</v>
@@ -29729,10 +29729,10 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E340" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F340" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G340">
         <v>1</v>
@@ -29744,46 +29744,46 @@
         <v>60</v>
       </c>
       <c r="J340">
+        <v>1.4</v>
+      </c>
+      <c r="K340">
+        <v>4.5</v>
+      </c>
+      <c r="L340">
+        <v>8</v>
+      </c>
+      <c r="M340">
+        <v>1.5</v>
+      </c>
+      <c r="N340">
+        <v>5</v>
+      </c>
+      <c r="O340">
+        <v>5.5</v>
+      </c>
+      <c r="P340">
+        <v>-1.25</v>
+      </c>
+      <c r="Q340">
+        <v>2.04</v>
+      </c>
+      <c r="R340">
+        <v>1.86</v>
+      </c>
+      <c r="S340">
+        <v>3.75</v>
+      </c>
+      <c r="T340">
         <v>2</v>
       </c>
-      <c r="K340">
-        <v>3.4</v>
-      </c>
-      <c r="L340">
-        <v>3.75</v>
-      </c>
-      <c r="M340">
-        <v>2.05</v>
-      </c>
-      <c r="N340">
-        <v>3.5</v>
-      </c>
-      <c r="O340">
-        <v>3.5</v>
-      </c>
-      <c r="P340">
-        <v>-0.5</v>
-      </c>
-      <c r="Q340">
-        <v>2.08</v>
-      </c>
-      <c r="R340">
-        <v>1.82</v>
-      </c>
-      <c r="S340">
-        <v>2.5</v>
-      </c>
-      <c r="T340">
-        <v>1.98</v>
-      </c>
       <c r="U340">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V340">
         <v>-1</v>
       </c>
       <c r="W340">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="X340">
         <v>-1</v>
@@ -29792,13 +29792,13 @@
         <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0.8200000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA340">
         <v>-1</v>
       </c>
       <c r="AB340">
-        <v>0.9199999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="341" spans="1:28">
@@ -30245,10 +30245,10 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E346" t="s">
+        <v>41</v>
+      </c>
+      <c r="F346" t="s">
         <v>40</v>
-      </c>
-      <c r="F346" t="s">
-        <v>41</v>
       </c>
       <c r="G346">
         <v>3</v>
@@ -30592,7 +30592,7 @@
         <v>39</v>
       </c>
       <c r="F350" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G350">
         <v>3</v>
@@ -31105,7 +31105,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E356" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F356" t="s">
         <v>54</v>
@@ -31707,7 +31707,7 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E363" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F363" t="s">
         <v>45</v>
@@ -31796,7 +31796,7 @@
         <v>44</v>
       </c>
       <c r="F364" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G364">
         <v>1</v>
@@ -32309,7 +32309,7 @@
         <v>45427.65625</v>
       </c>
       <c r="E370" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F370" t="s">
         <v>46</v>
@@ -32508,19 +32508,19 @@
         <v>-2.75</v>
       </c>
       <c r="Q372">
+        <v>1.87</v>
+      </c>
+      <c r="R372">
         <v>2.03</v>
-      </c>
-      <c r="R372">
-        <v>1.87</v>
       </c>
       <c r="S372">
         <v>4.25</v>
       </c>
       <c r="T372">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="U372">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="V372">
         <v>0</v>
@@ -32564,28 +32564,28 @@
         <v>2.9</v>
       </c>
       <c r="N373">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O373">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P373">
         <v>0.25</v>
       </c>
       <c r="Q373">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S373">
         <v>3.25</v>
       </c>
       <c r="T373">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U373">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V373">
         <v>0</v>
@@ -32626,31 +32626,31 @@
         <v>13</v>
       </c>
       <c r="M374">
-        <v>1.2</v>
+        <v>1.166</v>
       </c>
       <c r="N374">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O374">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P374">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="Q374">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R374">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="S374">
         <v>3.5</v>
       </c>
       <c r="T374">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="U374">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V374">
         <v>0</v>
@@ -32691,31 +32691,31 @@
         <v>11</v>
       </c>
       <c r="M375">
-        <v>1.181</v>
+        <v>1.142</v>
       </c>
       <c r="N375">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="O375">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P375">
-        <v>-2.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q375">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R375">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S375">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T375">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U375">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="V375">
         <v>0</v>
@@ -32756,7 +32756,7 @@
         <v>2.5</v>
       </c>
       <c r="M376">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N376">
         <v>4.333</v>
@@ -32768,19 +32768,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q376">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R376">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S376">
         <v>3.5</v>
       </c>
       <c r="T376">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="U376">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V376">
         <v>0</v>
@@ -32833,19 +32833,19 @@
         <v>0.25</v>
       </c>
       <c r="Q377">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R377">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S377">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T377">
+        <v>2.07</v>
+      </c>
+      <c r="U377">
         <v>1.83</v>
-      </c>
-      <c r="U377">
-        <v>2.07</v>
       </c>
       <c r="V377">
         <v>0</v>
@@ -32886,31 +32886,31 @@
         <v>2.1</v>
       </c>
       <c r="M378">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="N378">
         <v>3.9</v>
       </c>
       <c r="O378">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P378">
         <v>0.25</v>
       </c>
       <c r="Q378">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R378">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S378">
         <v>3.5</v>
       </c>
       <c r="T378">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="U378">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V378">
         <v>0</v>
@@ -32972,10 +32972,10 @@
         <v>4</v>
       </c>
       <c r="T379">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V379">
         <v>0</v>
@@ -33004,7 +33004,7 @@
         <v>46</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J380">
         <v>1.533</v>
@@ -33028,19 +33028,19 @@
         <v>-1.25</v>
       </c>
       <c r="Q380">
+        <v>1.88</v>
+      </c>
+      <c r="R380">
+        <v>2.02</v>
+      </c>
+      <c r="S380">
+        <v>4</v>
+      </c>
+      <c r="T380">
+        <v>1.99</v>
+      </c>
+      <c r="U380">
         <v>1.91</v>
-      </c>
-      <c r="R380">
-        <v>1.99</v>
-      </c>
-      <c r="S380">
-        <v>3.75</v>
-      </c>
-      <c r="T380">
-        <v>1.92</v>
-      </c>
-      <c r="U380">
-        <v>1.98</v>
       </c>
       <c r="V380">
         <v>0</v>
@@ -33066,7 +33066,7 @@
         <v>45431.5</v>
       </c>
       <c r="E381" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F381" t="s">
         <v>47</v>
@@ -33102,10 +33102,10 @@
         <v>3.75</v>
       </c>
       <c r="T381">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U381">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V381">
         <v>0</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -109,13 +109,13 @@
     <t>Sheff Utd</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
     <t>Bournemouth</t>
   </si>
   <si>
     <t>Everton</t>
+  </si>
+  <si>
+    <t>Brighton</t>
   </si>
   <si>
     <t>Newcastle</t>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6777648</v>
+        <v>6777647</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -892,73 +892,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>1.25</v>
+        <v>2.625</v>
       </c>
       <c r="N5">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>11</v>
+        <v>2.6</v>
       </c>
       <c r="P5">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>2.75</v>
+      </c>
+      <c r="T5">
         <v>1.92</v>
       </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>1.88</v>
-      </c>
       <c r="U5">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V5">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6777647</v>
+        <v>6777649</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,73 +978,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="K6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U6">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6777649</v>
+        <v>6777648</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1064,73 +1064,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>1.25</v>
+      </c>
+      <c r="N7">
+        <v>6.5</v>
+      </c>
+      <c r="O7">
+        <v>11</v>
+      </c>
+      <c r="P7">
+        <v>-1.75</v>
+      </c>
+      <c r="Q7">
+        <v>2.01</v>
+      </c>
+      <c r="R7">
+        <v>1.92</v>
+      </c>
+      <c r="S7">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>2.3</v>
-      </c>
-      <c r="N7">
-        <v>3.2</v>
-      </c>
-      <c r="O7">
-        <v>3.2</v>
-      </c>
-      <c r="P7">
-        <v>-0.25</v>
-      </c>
-      <c r="Q7">
-        <v>2.03</v>
-      </c>
-      <c r="R7">
-        <v>1.87</v>
-      </c>
-      <c r="S7">
-        <v>2.25</v>
-      </c>
       <c r="T7">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U7">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="Z7">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1580,7 +1580,7 @@
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1666,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2351,7 +2351,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2695,7 +2695,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
         <v>40</v>
@@ -2781,7 +2781,7 @@
         <v>45164.5625</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
@@ -3214,7 +3214,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3460,7 +3460,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6777908</v>
+        <v>6777906</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3469,73 +3469,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35">
+        <v>1.615</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
         <v>5</v>
       </c>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35">
-        <v>3.8</v>
-      </c>
-      <c r="K35">
-        <v>3.5</v>
-      </c>
-      <c r="L35">
-        <v>1.95</v>
-      </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="N35">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q35">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="R35">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S35">
         <v>2.75</v>
       </c>
       <c r="T35">
+        <v>2.05</v>
+      </c>
+      <c r="U35">
         <v>1.85</v>
       </c>
-      <c r="U35">
-        <v>2.05</v>
-      </c>
       <c r="V35">
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AA35">
         <v>1.05</v>
-      </c>
-      <c r="AA35">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3546,7 +3546,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6777906</v>
+        <v>6777908</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3555,73 +3555,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J36">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="M36">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="P36">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q36">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="R36">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S36">
         <v>2.75</v>
       </c>
       <c r="T36">
+        <v>1.85</v>
+      </c>
+      <c r="U36">
         <v>2.05</v>
       </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.9299999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA36">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3641,7 +3641,7 @@
         <v>45171.5625</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -4332,7 +4332,7 @@
         <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4587,7 +4587,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -4673,7 +4673,7 @@
         <v>45186.52083333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F49" t="s">
         <v>29</v>
@@ -5106,7 +5106,7 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6777763</v>
+        <v>6777923</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5275,73 +5275,73 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>1.833</v>
+      </c>
+      <c r="K56">
+        <v>3.75</v>
+      </c>
+      <c r="L56">
+        <v>4.2</v>
+      </c>
+      <c r="M56">
+        <v>1.615</v>
+      </c>
+      <c r="N56">
+        <v>4.333</v>
+      </c>
+      <c r="O56">
+        <v>4.75</v>
+      </c>
+      <c r="P56">
+        <v>-1</v>
+      </c>
+      <c r="Q56">
+        <v>2.06</v>
+      </c>
+      <c r="R56">
+        <v>1.84</v>
+      </c>
+      <c r="S56">
         <v>3</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56">
-        <v>1.533</v>
-      </c>
-      <c r="K56">
-        <v>4.333</v>
-      </c>
-      <c r="L56">
-        <v>6</v>
-      </c>
-      <c r="M56">
-        <v>1.363</v>
-      </c>
-      <c r="N56">
-        <v>5.25</v>
-      </c>
-      <c r="O56">
-        <v>7.5</v>
-      </c>
-      <c r="P56">
-        <v>-1.5</v>
-      </c>
-      <c r="Q56">
-        <v>2.02</v>
-      </c>
-      <c r="R56">
-        <v>1.88</v>
-      </c>
-      <c r="S56">
-        <v>3.5</v>
-      </c>
       <c r="T56">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V56">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.02</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA56">
-        <v>1.05</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB56">
         <v>-1</v>
@@ -5352,7 +5352,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6777923</v>
+        <v>6777763</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5361,73 +5361,73 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J57">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="K57">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L57">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="N57">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="P57">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="Q57">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R57">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="S57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T57">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="U57">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W57">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.02</v>
       </c>
       <c r="Z57">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5533,10 +5533,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
         <v>31</v>
-      </c>
-      <c r="F59" t="s">
-        <v>32</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5708,7 +5708,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -5877,7 +5877,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>47</v>
@@ -6221,7 +6221,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
@@ -6728,7 +6728,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6777943</v>
+        <v>6777941</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6737,73 +6737,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J73">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="K73">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="M73">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="N73">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="P73">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S73">
         <v>2.5</v>
       </c>
       <c r="T73">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U73">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V73">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB73">
         <v>-1</v>
@@ -6814,7 +6814,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6777941</v>
+        <v>6777944</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6823,73 +6823,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
         <v>1</v>
       </c>
-      <c r="H74">
-        <v>4</v>
-      </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J74">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="K74">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L74">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="M74">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="N74">
         <v>4</v>
       </c>
       <c r="O74">
-        <v>1.666</v>
+        <v>7</v>
       </c>
       <c r="P74">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q74">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="R74">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="S74">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="U74">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z74">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8600000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB74">
         <v>-1</v>
@@ -6900,7 +6900,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6777944</v>
+        <v>6777945</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6909,13 +6909,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -6924,43 +6924,43 @@
         <v>49</v>
       </c>
       <c r="J75">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>1.65</v>
+      </c>
+      <c r="N75">
+        <v>4.2</v>
+      </c>
+      <c r="O75">
         <v>4.75</v>
       </c>
-      <c r="M75">
-        <v>1.5</v>
-      </c>
-      <c r="N75">
-        <v>4</v>
-      </c>
-      <c r="O75">
-        <v>7</v>
-      </c>
       <c r="P75">
         <v>-1</v>
       </c>
       <c r="Q75">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R75">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S75">
         <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="U75">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V75">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6969,16 +6969,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.99</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6986,7 +6986,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6777945</v>
+        <v>6777943</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6995,49 +6995,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>49</v>
       </c>
       <c r="J76">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="K76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q76">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T76">
         <v>1.85</v>
@@ -7046,7 +7046,7 @@
         <v>2.05</v>
       </c>
       <c r="V76">
-        <v>0.6499999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7055,16 +7055,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7253,7 +7253,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
         <v>39</v>
@@ -7514,7 +7514,7 @@
         <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7597,7 +7597,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -7674,7 +7674,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6777951</v>
+        <v>6777948</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7683,58 +7683,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>49</v>
       </c>
       <c r="J84">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K84">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M84">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O84">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q84">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T84">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U84">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="W84">
         <v>-1</v>
@@ -7743,16 +7743,16 @@
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7760,7 +7760,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6777948</v>
+        <v>6777951</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7769,58 +7769,58 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
         <v>49</v>
       </c>
       <c r="J85">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="K85">
+        <v>5.25</v>
+      </c>
+      <c r="L85">
+        <v>6</v>
+      </c>
+      <c r="M85">
+        <v>1.363</v>
+      </c>
+      <c r="N85">
+        <v>6</v>
+      </c>
+      <c r="O85">
+        <v>6.5</v>
+      </c>
+      <c r="P85">
+        <v>-1.5</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>1.9</v>
+      </c>
+      <c r="S85">
         <v>3.5</v>
       </c>
-      <c r="L85">
-        <v>4.5</v>
-      </c>
-      <c r="M85">
-        <v>1.7</v>
-      </c>
-      <c r="N85">
-        <v>3.8</v>
-      </c>
-      <c r="O85">
-        <v>4.75</v>
-      </c>
-      <c r="P85">
-        <v>-0.75</v>
-      </c>
-      <c r="Q85">
-        <v>1.95</v>
-      </c>
-      <c r="R85">
-        <v>1.95</v>
-      </c>
-      <c r="S85">
-        <v>2.5</v>
-      </c>
       <c r="T85">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V85">
-        <v>0.7</v>
+        <v>0.363</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -7829,16 +7829,16 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -8629,7 +8629,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95" t="s">
         <v>28</v>
@@ -8804,7 +8804,7 @@
         <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6777969</v>
+        <v>6777963</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9317,76 +9317,76 @@
         <v>45234.5</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
         <v>2</v>
       </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
       <c r="I103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J103">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="K103">
+        <v>3.3</v>
+      </c>
+      <c r="L103">
+        <v>2.625</v>
+      </c>
+      <c r="M103">
         <v>3.25</v>
       </c>
-      <c r="L103">
-        <v>2.375</v>
-      </c>
-      <c r="M103">
-        <v>4.2</v>
-      </c>
       <c r="N103">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O103">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="P103">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q103">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="R103">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="S103">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U103">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="V103">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA103">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9394,7 +9394,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6777966</v>
+        <v>6777969</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9403,13 +9403,13 @@
         <v>45234.5</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9418,43 +9418,43 @@
         <v>49</v>
       </c>
       <c r="J104">
-        <v>1.125</v>
+        <v>3</v>
       </c>
       <c r="K104">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="L104">
-        <v>17</v>
+        <v>2.375</v>
       </c>
       <c r="M104">
-        <v>1.09</v>
+        <v>4.2</v>
       </c>
       <c r="N104">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="O104">
-        <v>21</v>
+        <v>1.85</v>
       </c>
       <c r="P104">
-        <v>-2.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T104">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U104">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="V104">
-        <v>0.09000000000000008</v>
+        <v>3.2</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9463,13 +9463,13 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8600000000000001</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB104">
         <v>-1</v>
@@ -9480,7 +9480,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6777963</v>
+        <v>6777966</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9489,49 +9489,49 @@
         <v>45234.5</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J105">
-        <v>2.625</v>
+        <v>1.125</v>
       </c>
       <c r="K105">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="L105">
-        <v>2.625</v>
+        <v>17</v>
       </c>
       <c r="M105">
-        <v>3.25</v>
+        <v>1.09</v>
       </c>
       <c r="N105">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="O105">
-        <v>2.3</v>
+        <v>21</v>
       </c>
       <c r="P105">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="Q105">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R105">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="T105">
         <v>1.86</v>
@@ -9540,25 +9540,25 @@
         <v>2.04</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z105">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9575,10 +9575,10 @@
         <v>45234.5</v>
       </c>
       <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
         <v>33</v>
-      </c>
-      <c r="F106" t="s">
-        <v>31</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -10352,7 +10352,7 @@
         <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10435,7 +10435,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -10521,7 +10521,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F117" t="s">
         <v>30</v>
@@ -11040,7 +11040,7 @@
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11298,7 +11298,7 @@
         <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11639,7 +11639,7 @@
         <v>45256.5625</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
         <v>37</v>
@@ -12072,7 +12072,7 @@
         <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F137" t="s">
         <v>44</v>
@@ -12318,7 +12318,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6777993</v>
+        <v>6777992</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12327,58 +12327,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G138">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="s">
         <v>49</v>
       </c>
       <c r="J138">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="K138">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L138">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="N138">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="O138">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="P138">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="Q138">
         <v>1.97</v>
       </c>
       <c r="R138">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="S138">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T138">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U138">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V138">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12387,13 +12387,13 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z138">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.8700000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB138">
         <v>-1</v>
@@ -12404,7 +12404,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777992</v>
+        <v>6777993</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12413,58 +12413,58 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G139">
+        <v>4</v>
+      </c>
+      <c r="H139">
         <v>3</v>
-      </c>
-      <c r="H139">
-        <v>2</v>
       </c>
       <c r="I139" t="s">
         <v>49</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="K139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="M139">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="N139">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="O139">
-        <v>5.25</v>
+        <v>10</v>
       </c>
       <c r="P139">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="Q139">
         <v>1.97</v>
       </c>
       <c r="R139">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="S139">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T139">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U139">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V139">
-        <v>0.571</v>
+        <v>0.25</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12473,13 +12473,13 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AA139">
-        <v>0.8400000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12834,7 +12834,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6778003</v>
+        <v>6778000</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12843,76 +12843,76 @@
         <v>45266.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
         <v>0</v>
       </c>
-      <c r="H144">
-        <v>2</v>
-      </c>
       <c r="I144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J144">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
         <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q144">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R144">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z144">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0.53</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12929,7 +12929,7 @@
         <v>45266.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
         <v>35</v>
@@ -13006,7 +13006,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6778000</v>
+        <v>6778001</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13015,76 +13015,76 @@
         <v>45266.6875</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J146">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="K146">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L146">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="M146">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N146">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O146">
+        <v>1.181</v>
+      </c>
+      <c r="P146">
+        <v>2.25</v>
+      </c>
+      <c r="Q146">
+        <v>1.84</v>
+      </c>
+      <c r="R146">
+        <v>2.06</v>
+      </c>
+      <c r="S146">
         <v>3.75</v>
       </c>
-      <c r="P146">
+      <c r="T146">
+        <v>2.04</v>
+      </c>
+      <c r="U146">
+        <v>1.86</v>
+      </c>
+      <c r="V146">
+        <v>-1</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>0.181</v>
+      </c>
+      <c r="Y146">
+        <v>0.42</v>
+      </c>
+      <c r="Z146">
         <v>-0.5</v>
       </c>
-      <c r="Q146">
-        <v>2.05</v>
-      </c>
-      <c r="R146">
-        <v>1.85</v>
-      </c>
-      <c r="S146">
-        <v>2.25</v>
-      </c>
-      <c r="T146">
-        <v>1.9</v>
-      </c>
-      <c r="U146">
-        <v>2</v>
-      </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>-1</v>
-      </c>
-      <c r="X146">
-        <v>-1</v>
-      </c>
-      <c r="Y146">
-        <v>1.05</v>
-      </c>
-      <c r="Z146">
-        <v>-1</v>
-      </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13092,7 +13092,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6778001</v>
+        <v>6778003</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13101,10 +13101,10 @@
         <v>45266.6875</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13116,41 +13116,41 @@
         <v>48</v>
       </c>
       <c r="J147">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="K147">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="L147">
-        <v>1.25</v>
+        <v>3.6</v>
       </c>
       <c r="M147">
-        <v>15</v>
+        <v>2.25</v>
       </c>
       <c r="N147">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O147">
-        <v>1.181</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
+        <v>-0.25</v>
+      </c>
+      <c r="Q147">
+        <v>2.02</v>
+      </c>
+      <c r="R147">
+        <v>1.88</v>
+      </c>
+      <c r="S147">
         <v>2.25</v>
       </c>
-      <c r="Q147">
+      <c r="T147">
         <v>1.84</v>
       </c>
-      <c r="R147">
+      <c r="U147">
         <v>2.06</v>
       </c>
-      <c r="S147">
-        <v>3.75</v>
-      </c>
-      <c r="T147">
-        <v>2.04</v>
-      </c>
-      <c r="U147">
-        <v>1.86</v>
-      </c>
       <c r="V147">
         <v>-1</v>
       </c>
@@ -13158,19 +13158,19 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>0.181</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>0.8600000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13178,7 +13178,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6778004</v>
+        <v>6777997</v>
       </c>
       <c r="C148" t="s">
         <v>27</v>
@@ -13187,58 +13187,58 @@
         <v>45266.71875</v>
       </c>
       <c r="E148" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
         <v>49</v>
       </c>
       <c r="J148">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="K148">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L148">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="M148">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N148">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="P148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148">
+        <v>1.82</v>
+      </c>
+      <c r="R148">
         <v>2.08</v>
-      </c>
-      <c r="R148">
-        <v>1.82</v>
       </c>
       <c r="S148">
         <v>3</v>
       </c>
       <c r="T148">
-        <v>2.07</v>
+        <v>2.025</v>
       </c>
       <c r="U148">
-        <v>1.83</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13247,16 +13247,16 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>1.08</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13264,7 +13264,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6777997</v>
+        <v>6778004</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13273,58 +13273,58 @@
         <v>45266.71875</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149">
         <v>1</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
       </c>
       <c r="I149" t="s">
         <v>49</v>
       </c>
       <c r="J149">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L149">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N149">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O149">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="P149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q149">
+        <v>2.08</v>
+      </c>
+      <c r="R149">
         <v>1.82</v>
-      </c>
-      <c r="R149">
-        <v>2.08</v>
       </c>
       <c r="S149">
         <v>3</v>
       </c>
       <c r="T149">
-        <v>2.025</v>
+        <v>2.07</v>
       </c>
       <c r="U149">
-        <v>1.775</v>
+        <v>1.83</v>
       </c>
       <c r="V149">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13333,16 +13333,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.8200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB149">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13359,7 +13359,7 @@
         <v>45267.6875</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -13620,7 +13620,7 @@
         <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         <v>45269.5</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
         <v>28</v>
@@ -14047,7 +14047,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
         <v>36</v>
@@ -14738,7 +14738,7 @@
         <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14824,7 +14824,7 @@
         <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -15168,7 +15168,7 @@
         <v>46</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15426,7 +15426,7 @@
         <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -15684,7 +15684,7 @@
         <v>38</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -16025,7 +16025,7 @@
         <v>45286.5</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
         <v>41</v>
@@ -16360,7 +16360,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16369,73 +16369,73 @@
         <v>45287.6875</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="K185">
+        <v>3.4</v>
+      </c>
+      <c r="L185">
         <v>4</v>
       </c>
-      <c r="L185">
-        <v>7</v>
-      </c>
       <c r="M185">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O185">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="R185">
+        <v>1.99</v>
+      </c>
+      <c r="S185">
+        <v>2.25</v>
+      </c>
+      <c r="T185">
         <v>1.86</v>
       </c>
-      <c r="S185">
-        <v>2.5</v>
-      </c>
-      <c r="T185">
-        <v>1.99</v>
-      </c>
       <c r="U185">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y185">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AA185">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16455,73 +16455,73 @@
         <v>45287.6875</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
         <v>1</v>
       </c>
-      <c r="H186">
+      <c r="I186" t="s">
+        <v>49</v>
+      </c>
+      <c r="J186">
+        <v>1.5</v>
+      </c>
+      <c r="K186">
         <v>4</v>
       </c>
-      <c r="I186" t="s">
-        <v>48</v>
-      </c>
-      <c r="J186">
-        <v>1.909</v>
-      </c>
-      <c r="K186">
-        <v>3.4</v>
-      </c>
       <c r="L186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q186">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="R186">
+        <v>1.86</v>
+      </c>
+      <c r="S186">
+        <v>2.5</v>
+      </c>
+      <c r="T186">
         <v>1.99</v>
       </c>
-      <c r="S186">
-        <v>2.25</v>
-      </c>
-      <c r="T186">
-        <v>1.86</v>
-      </c>
       <c r="U186">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="Z186">
+        <v>-0.5</v>
+      </c>
+      <c r="AA186">
         <v>0.99</v>
-      </c>
-      <c r="AA186">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
@@ -16541,7 +16541,7 @@
         <v>45287.71875</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F187" t="s">
         <v>43</v>
@@ -16627,7 +16627,7 @@
         <v>45288.6875</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F188" t="s">
         <v>42</v>
@@ -16962,7 +16962,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6778037</v>
+        <v>6778038</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -16971,58 +16971,58 @@
         <v>45290.5</v>
       </c>
       <c r="E192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>3</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="s">
         <v>49</v>
       </c>
       <c r="J192">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K192">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="L192">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="M192">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="N192">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="O192">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q192">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="R192">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="S192">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T192">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="U192">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V192">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17031,13 +17031,13 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="Z192">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AB192">
         <v>-1</v>
@@ -17060,7 +17060,7 @@
         <v>40</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17134,7 +17134,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6778038</v>
+        <v>6778037</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17143,58 +17143,58 @@
         <v>45290.5</v>
       </c>
       <c r="E194" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G194">
         <v>3</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="s">
         <v>49</v>
       </c>
       <c r="J194">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K194">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="L194">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="M194">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="N194">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="O194">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="P194">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q194">
-        <v>1.82</v>
+        <v>2.07</v>
       </c>
       <c r="R194">
-        <v>2.11</v>
+        <v>1.86</v>
       </c>
       <c r="S194">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T194">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="U194">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V194">
-        <v>1.05</v>
+        <v>0.363</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17203,13 +17203,13 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.8200000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA194">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AB194">
         <v>-1</v>
@@ -17306,7 +17306,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6778039</v>
+        <v>6778043</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17315,13 +17315,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17330,43 +17330,43 @@
         <v>49</v>
       </c>
       <c r="J196">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="K196">
         <v>4.6</v>
       </c>
       <c r="L196">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="M196">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O196">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q196">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R196">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="S196">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T196">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="U196">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17375,16 +17375,16 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.9299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.8600000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="197" spans="1:28">
@@ -17392,7 +17392,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6778043</v>
+        <v>6778039</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17401,13 +17401,13 @@
         <v>45291.45833333334</v>
       </c>
       <c r="E197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F197" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17416,43 +17416,43 @@
         <v>49</v>
       </c>
       <c r="J197">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="K197">
         <v>4.6</v>
       </c>
       <c r="L197">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="M197">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="N197">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O197">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="P197">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q197">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R197">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="S197">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="T197">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="V197">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="W197">
         <v>-1</v>
@@ -17461,16 +17461,16 @@
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0.98</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="Z197">
         <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0.5249999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17576,7 +17576,7 @@
         <v>45</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17917,7 +17917,7 @@
         <v>45305.45833333334</v>
       </c>
       <c r="E203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F203" t="s">
         <v>44</v>
@@ -18347,7 +18347,7 @@
         <v>45312.5625</v>
       </c>
       <c r="E208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
         <v>39</v>
@@ -18433,7 +18433,7 @@
         <v>45313.69791666666</v>
       </c>
       <c r="E209" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F209" t="s">
         <v>40</v>
@@ -18608,7 +18608,7 @@
         <v>47</v>
       </c>
       <c r="F211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G211">
         <v>4</v>
@@ -18694,7 +18694,7 @@
         <v>41</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -19210,7 +19210,7 @@
         <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19379,7 +19379,7 @@
         <v>45325.39583333334</v>
       </c>
       <c r="E220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F220" t="s">
         <v>42</v>
@@ -19465,7 +19465,7 @@
         <v>45325.5</v>
       </c>
       <c r="E221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F221" t="s">
         <v>46</v>
@@ -19800,7 +19800,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6778066</v>
+        <v>6777780</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -19809,76 +19809,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J225">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="K225">
         <v>4</v>
       </c>
       <c r="L225">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="M225">
         <v>1.55</v>
       </c>
       <c r="N225">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O225">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="P225">
         <v>-1</v>
       </c>
       <c r="Q225">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S225">
         <v>3</v>
       </c>
       <c r="T225">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="U225">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V225">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z225">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19886,7 +19886,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6777780</v>
+        <v>6778066</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19895,76 +19895,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J226">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="K226">
         <v>4</v>
       </c>
       <c r="L226">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="M226">
         <v>1.55</v>
       </c>
       <c r="N226">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O226">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P226">
         <v>-1</v>
       </c>
       <c r="Q226">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R226">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
         <v>3</v>
       </c>
       <c r="T226">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="U226">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="V226">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Y226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA226">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AB226">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -19981,7 +19981,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F227" t="s">
         <v>38</v>
@@ -20242,7 +20242,7 @@
         <v>43</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20488,7 +20488,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6778076</v>
+        <v>6778075</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20497,40 +20497,40 @@
         <v>45332.5</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J233">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="K233">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M233">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="N233">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O233">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q233">
         <v>1.93</v>
@@ -20539,34 +20539,34 @@
         <v>1.97</v>
       </c>
       <c r="S233">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T233">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U233">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="V233">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="Z233">
-        <v>0.97</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
         <v>-1</v>
       </c>
       <c r="AB233">
-        <v>0.8400000000000001</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20574,7 +20574,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6778071</v>
+        <v>6778076</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20583,76 +20583,76 @@
         <v>45332.5</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F234" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J234">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K234">
+        <v>3.4</v>
+      </c>
+      <c r="L234">
         <v>3.5</v>
       </c>
-      <c r="L234">
-        <v>2.9</v>
-      </c>
       <c r="M234">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N234">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O234">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P234">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q234">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="S234">
         <v>2.75</v>
       </c>
       <c r="T234">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U234">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V234">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y234">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AA234">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20660,7 +20660,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6778075</v>
+        <v>6778071</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20669,13 +20669,13 @@
         <v>45332.5</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F235" t="s">
         <v>31</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -20684,43 +20684,43 @@
         <v>49</v>
       </c>
       <c r="J235">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="K235">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L235">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M235">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N235">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O235">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P235">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q235">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R235">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T235">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U235">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="V235">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -20729,16 +20729,16 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0.465</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB235">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21360,7 +21360,7 @@
         <v>34</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21704,7 +21704,7 @@
         <v>30</v>
       </c>
       <c r="F247" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -21873,7 +21873,7 @@
         <v>45341.70833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F249" t="s">
         <v>46</v>
@@ -22303,10 +22303,10 @@
         <v>45346.5</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -22475,7 +22475,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F256" t="s">
         <v>43</v>
@@ -22822,7 +22822,7 @@
         <v>41</v>
       </c>
       <c r="F260" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G260">
         <v>3</v>
@@ -23249,7 +23249,7 @@
         <v>45353.5</v>
       </c>
       <c r="E265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F265" t="s">
         <v>45</v>
@@ -23424,7 +23424,7 @@
         <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23682,7 +23682,7 @@
         <v>37</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -23765,7 +23765,7 @@
         <v>45360.5</v>
       </c>
       <c r="E271" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F271" t="s">
         <v>30</v>
@@ -24281,7 +24281,7 @@
         <v>45361.45833333334</v>
       </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F277" t="s">
         <v>38</v>
@@ -24539,7 +24539,7 @@
         <v>45364.6875</v>
       </c>
       <c r="E280" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F280" t="s">
         <v>47</v>
@@ -25046,7 +25046,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6780938</v>
+        <v>6778105</v>
       </c>
       <c r="C286" t="s">
         <v>27</v>
@@ -25055,61 +25055,61 @@
         <v>45381.5</v>
       </c>
       <c r="E286" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="G286">
         <v>2</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J286">
+        <v>1.333</v>
+      </c>
+      <c r="K286">
+        <v>5.5</v>
+      </c>
+      <c r="L286">
+        <v>7.5</v>
+      </c>
+      <c r="M286">
         <v>1.285</v>
       </c>
-      <c r="K286">
-        <v>6</v>
-      </c>
-      <c r="L286">
-        <v>8</v>
-      </c>
-      <c r="M286">
-        <v>1.222</v>
-      </c>
       <c r="N286">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O286">
         <v>9</v>
       </c>
       <c r="P286">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="Q286">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R286">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S286">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T286">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="U286">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="V286">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -25118,13 +25118,13 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>1.03</v>
+        <v>0.95</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB286">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:28">
@@ -25132,7 +25132,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6778105</v>
+        <v>6780938</v>
       </c>
       <c r="C287" t="s">
         <v>27</v>
@@ -25141,61 +25141,61 @@
         <v>45381.5</v>
       </c>
       <c r="E287" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F287" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G287">
         <v>2</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J287">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="K287">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L287">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M287">
-        <v>1.285</v>
+        <v>1.222</v>
       </c>
       <c r="N287">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O287">
         <v>9</v>
       </c>
       <c r="P287">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="Q287">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S287">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T287">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="U287">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="V287">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W287">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X287">
         <v>-1</v>
@@ -25204,13 +25204,13 @@
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.95</v>
+        <v>1.03</v>
       </c>
       <c r="AA287">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="288" spans="1:28">
@@ -25399,10 +25399,10 @@
         <v>45381.5</v>
       </c>
       <c r="E290" t="s">
+        <v>31</v>
+      </c>
+      <c r="F290" t="s">
         <v>32</v>
-      </c>
-      <c r="F290" t="s">
-        <v>33</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -25660,7 +25660,7 @@
         <v>39</v>
       </c>
       <c r="F293" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -25918,7 +25918,7 @@
         <v>34</v>
       </c>
       <c r="F296" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G296">
         <v>1</v>
@@ -25992,7 +25992,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7092484</v>
+        <v>7041556</v>
       </c>
       <c r="C297" t="s">
         <v>27</v>
@@ -26001,76 +26001,76 @@
         <v>45384.65625</v>
       </c>
       <c r="E297" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G297">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J297">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K297">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L297">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M297">
+        <v>2.3</v>
+      </c>
+      <c r="N297">
+        <v>3.6</v>
+      </c>
+      <c r="O297">
+        <v>2.9</v>
+      </c>
+      <c r="P297">
+        <v>-0.25</v>
+      </c>
+      <c r="Q297">
+        <v>2.03</v>
+      </c>
+      <c r="R297">
+        <v>1.87</v>
+      </c>
+      <c r="S297">
+        <v>2.5</v>
+      </c>
+      <c r="T297">
         <v>1.85</v>
       </c>
-      <c r="N297">
-        <v>3.8</v>
-      </c>
-      <c r="O297">
-        <v>3.8</v>
-      </c>
-      <c r="P297">
+      <c r="U297">
+        <v>2.05</v>
+      </c>
+      <c r="V297">
+        <v>-1</v>
+      </c>
+      <c r="W297">
+        <v>2.6</v>
+      </c>
+      <c r="X297">
+        <v>-1</v>
+      </c>
+      <c r="Y297">
         <v>-0.5</v>
       </c>
-      <c r="Q297">
-        <v>1.88</v>
-      </c>
-      <c r="R297">
-        <v>2.02</v>
-      </c>
-      <c r="S297">
-        <v>2.75</v>
-      </c>
-      <c r="T297">
-        <v>2.01</v>
-      </c>
-      <c r="U297">
-        <v>1.89</v>
-      </c>
-      <c r="V297">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="W297">
-        <v>-1</v>
-      </c>
-      <c r="X297">
-        <v>-1</v>
-      </c>
-      <c r="Y297">
-        <v>0.8799999999999999</v>
-      </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="AA297">
         <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="298" spans="1:28">
@@ -26078,7 +26078,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7041556</v>
+        <v>7092484</v>
       </c>
       <c r="C298" t="s">
         <v>27</v>
@@ -26087,76 +26087,76 @@
         <v>45384.65625</v>
       </c>
       <c r="E298" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G298">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J298">
+        <v>1.8</v>
+      </c>
+      <c r="K298">
+        <v>3.7</v>
+      </c>
+      <c r="L298">
+        <v>4.2</v>
+      </c>
+      <c r="M298">
+        <v>1.85</v>
+      </c>
+      <c r="N298">
+        <v>3.8</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>-0.5</v>
+      </c>
+      <c r="Q298">
+        <v>1.88</v>
+      </c>
+      <c r="R298">
+        <v>2.02</v>
+      </c>
+      <c r="S298">
         <v>2.75</v>
       </c>
-      <c r="K298">
-        <v>3.5</v>
-      </c>
-      <c r="L298">
-        <v>2.4</v>
-      </c>
-      <c r="M298">
-        <v>2.3</v>
-      </c>
-      <c r="N298">
-        <v>3.6</v>
-      </c>
-      <c r="O298">
-        <v>2.9</v>
-      </c>
-      <c r="P298">
-        <v>-0.25</v>
-      </c>
-      <c r="Q298">
-        <v>2.03</v>
-      </c>
-      <c r="R298">
-        <v>1.87</v>
-      </c>
-      <c r="S298">
-        <v>2.5</v>
-      </c>
       <c r="T298">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="U298">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="V298">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W298">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-0.5</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="Z298">
-        <v>0.4350000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
         <v>-1</v>
       </c>
       <c r="AB298">
-        <v>1.05</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:28">
@@ -26348,7 +26348,7 @@
         <v>35</v>
       </c>
       <c r="F301" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -26950,7 +26950,7 @@
         <v>47</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -27119,7 +27119,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E310" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F310" t="s">
         <v>28</v>
@@ -27205,7 +27205,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E311" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F311" t="s">
         <v>29</v>
@@ -27896,7 +27896,7 @@
         <v>28</v>
       </c>
       <c r="F319" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -27979,7 +27979,7 @@
         <v>45395.5625</v>
       </c>
       <c r="E320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F320" t="s">
         <v>37</v>
@@ -28326,7 +28326,7 @@
         <v>36</v>
       </c>
       <c r="F324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G324">
         <v>6</v>
@@ -28667,7 +28667,7 @@
         <v>45403.39583333334</v>
       </c>
       <c r="E328" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F328" t="s">
         <v>38</v>
@@ -28842,7 +28842,7 @@
         <v>44</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G330">
         <v>3</v>
@@ -29100,7 +29100,7 @@
         <v>40</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>45406.66666666666</v>
       </c>
       <c r="E334" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F334" t="s">
         <v>39</v>
@@ -29441,7 +29441,7 @@
         <v>45407.66666666666</v>
       </c>
       <c r="E337" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F337" t="s">
         <v>43</v>
@@ -29957,7 +29957,7 @@
         <v>45409.5625</v>
       </c>
       <c r="E343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F343" t="s">
         <v>35</v>
@@ -30129,10 +30129,10 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E345" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F345" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G345">
         <v>3</v>
@@ -30476,7 +30476,7 @@
         <v>47</v>
       </c>
       <c r="F349" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G349">
         <v>1</v>
@@ -30562,7 +30562,7 @@
         <v>29</v>
       </c>
       <c r="F350" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G350">
         <v>3</v>
@@ -31075,7 +31075,7 @@
         <v>45417.41666666666</v>
       </c>
       <c r="E356" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F356" t="s">
         <v>44</v>
@@ -31422,7 +31422,7 @@
         <v>34</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -31505,7 +31505,7 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E361" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F361" t="s">
         <v>35</v>
@@ -31677,7 +31677,7 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E363" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F363" t="s">
         <v>30</v>
@@ -32279,7 +32279,7 @@
         <v>45427.65625</v>
       </c>
       <c r="E370" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F370" t="s">
         <v>36</v>
@@ -32709,7 +32709,7 @@
         <v>45431.5</v>
       </c>
       <c r="E375" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F375" t="s">
         <v>37</v>
@@ -32798,7 +32798,7 @@
         <v>29</v>
       </c>
       <c r="F376" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G376">
         <v>2</v>
@@ -33142,7 +33142,7 @@
         <v>36</v>
       </c>
       <c r="F380" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G380">
         <v>2</v>

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -112,10 +112,10 @@
     <t>Everton</t>
   </si>
   <si>
-    <t>Sheff Utd</t>
+    <t>Bournemouth</t>
   </si>
   <si>
-    <t>Bournemouth</t>
+    <t>Sheff Utd</t>
   </si>
   <si>
     <t>Newcastle</t>
@@ -966,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6777650</v>
+        <v>6777647</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -978,73 +978,73 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J6">
+        <v>2.8</v>
+      </c>
+      <c r="K6">
+        <v>3.4</v>
+      </c>
+      <c r="L6">
+        <v>2.4</v>
+      </c>
+      <c r="M6">
         <v>2.625</v>
       </c>
-      <c r="K6">
-        <v>3.3</v>
-      </c>
-      <c r="L6">
-        <v>2.625</v>
-      </c>
-      <c r="M6">
-        <v>3.6</v>
-      </c>
       <c r="N6">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="P6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X6">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6777647</v>
+        <v>6777650</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1064,73 +1064,73 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="K7">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="M7">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q7">
+        <v>2.1</v>
+      </c>
+      <c r="R7">
+        <v>1.83</v>
+      </c>
+      <c r="S7">
         <v>2</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>1.9</v>
       </c>
-      <c r="S7">
-        <v>2.75</v>
-      </c>
-      <c r="T7">
-        <v>1.92</v>
-      </c>
       <c r="U7">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1494,7 +1494,7 @@
         <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1666,7 +1666,7 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -2351,7 +2351,7 @@
         <v>45164.35416666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -2953,7 +2953,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>43</v>
@@ -3211,7 +3211,7 @@
         <v>45171.35416666666</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>31</v>
@@ -3558,7 +3558,7 @@
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -4332,7 +4332,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4587,7 +4587,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F48" t="s">
         <v>36</v>
@@ -4836,7 +4836,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6777929</v>
+        <v>6780963</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4845,76 +4845,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J51">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="K51">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>2.3</v>
       </c>
       <c r="M51">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="N51">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="O51">
-        <v>13</v>
+        <v>2.375</v>
       </c>
       <c r="P51">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q51">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R51">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T51">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U51">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="V51">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB51">
-        <v>1.05</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -4922,7 +4922,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6777928</v>
+        <v>6777929</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -4931,76 +4931,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J52">
-        <v>2</v>
+        <v>1.166</v>
       </c>
       <c r="K52">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="L52">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="M52">
+        <v>1.166</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+      <c r="O52">
+        <v>13</v>
+      </c>
+      <c r="P52">
+        <v>-2</v>
+      </c>
+      <c r="Q52">
+        <v>1.89</v>
+      </c>
+      <c r="R52">
+        <v>2.01</v>
+      </c>
+      <c r="S52">
+        <v>3</v>
+      </c>
+      <c r="T52">
+        <v>1.85</v>
+      </c>
+      <c r="U52">
         <v>2.05</v>
       </c>
-      <c r="N52">
-        <v>3.25</v>
-      </c>
-      <c r="O52">
-        <v>3.8</v>
-      </c>
-      <c r="P52">
-        <v>-0.5</v>
-      </c>
-      <c r="Q52">
-        <v>2.1</v>
-      </c>
-      <c r="R52">
-        <v>1.83</v>
-      </c>
-      <c r="S52">
-        <v>2.25</v>
-      </c>
-      <c r="T52">
-        <v>1.96</v>
-      </c>
-      <c r="U52">
-        <v>1.94</v>
-      </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W52">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5008,7 +5008,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6780963</v>
+        <v>6777928</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -5017,76 +5017,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>50</v>
       </c>
       <c r="J53">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L53">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="M53">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="N53">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O53">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="P53">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q53">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="R53">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="S53">
         <v>2.25</v>
       </c>
       <c r="T53">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="U53">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V53">
         <v>-1</v>
       </c>
       <c r="W53">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.4399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AA53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -5352,7 +5352,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6777925</v>
+        <v>6777763</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5361,10 +5361,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -5376,43 +5376,43 @@
         <v>49</v>
       </c>
       <c r="J57">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="K57">
-        <v>4.6</v>
+        <v>4.333</v>
       </c>
       <c r="L57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M57">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="N57">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="O57">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="P57">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q57">
+        <v>2.02</v>
+      </c>
+      <c r="R57">
+        <v>1.88</v>
+      </c>
+      <c r="S57">
+        <v>3.5</v>
+      </c>
+      <c r="T57">
         <v>2.05</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <v>1.85</v>
       </c>
-      <c r="S57">
-        <v>3.25</v>
-      </c>
-      <c r="T57">
-        <v>1.93</v>
-      </c>
-      <c r="U57">
-        <v>1.97</v>
-      </c>
       <c r="V57">
-        <v>0.5</v>
+        <v>0.363</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5421,13 +5421,13 @@
         <v>-1</v>
       </c>
       <c r="Y57">
+        <v>1.02</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
         <v>1.05</v>
-      </c>
-      <c r="Z57">
-        <v>-1</v>
-      </c>
-      <c r="AA57">
-        <v>0.9299999999999999</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5524,7 +5524,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6777763</v>
+        <v>6777925</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5533,10 +5533,10 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -5548,43 +5548,43 @@
         <v>49</v>
       </c>
       <c r="J59">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="K59">
-        <v>4.333</v>
+        <v>4.6</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M59">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="N59">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="O59">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="P59">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q59">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R59">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T59">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="V59">
-        <v>0.363</v>
+        <v>0.5</v>
       </c>
       <c r="W59">
         <v>-1</v>
@@ -5593,13 +5593,13 @@
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="Z59">
         <v>-1</v>
       </c>
       <c r="AA59">
-        <v>1.05</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB59">
         <v>-1</v>
@@ -5619,7 +5619,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
         <v>34</v>
@@ -6138,7 +6138,7 @@
         <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6221,7 +6221,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
         <v>29</v>
@@ -6814,7 +6814,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6777944</v>
+        <v>6777945</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6823,13 +6823,13 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -6838,43 +6838,43 @@
         <v>49</v>
       </c>
       <c r="J74">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="K74">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L74">
+        <v>5</v>
+      </c>
+      <c r="M74">
+        <v>1.65</v>
+      </c>
+      <c r="N74">
+        <v>4.2</v>
+      </c>
+      <c r="O74">
         <v>4.75</v>
       </c>
-      <c r="M74">
-        <v>1.5</v>
-      </c>
-      <c r="N74">
-        <v>4</v>
-      </c>
-      <c r="O74">
-        <v>7</v>
-      </c>
       <c r="P74">
         <v>-1</v>
       </c>
       <c r="Q74">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R74">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
         <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="U74">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="V74">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W74">
         <v>-1</v>
@@ -6883,16 +6883,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8300000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.99</v>
+        <v>0.425</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6900,7 +6900,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6777943</v>
+        <v>6777944</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6909,7 +6909,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
         <v>33</v>
@@ -6918,49 +6918,49 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
         <v>49</v>
       </c>
       <c r="J75">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K75">
         <v>3.6</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M75">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="N75">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q75">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="U75">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V75">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -6969,13 +6969,13 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>0.8999999999999999</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.8500000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -6986,7 +6986,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6777945</v>
+        <v>6777943</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6995,49 +6995,49 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>49</v>
       </c>
       <c r="J76">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="K76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="N76">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q76">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T76">
         <v>1.85</v>
@@ -7046,7 +7046,7 @@
         <v>2.05</v>
       </c>
       <c r="V76">
-        <v>0.6499999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7055,16 +7055,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7941,7 +7941,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
         <v>39</v>
@@ -8113,7 +8113,7 @@
         <v>45220.66666666666</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
         <v>37</v>
@@ -8543,7 +8543,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
         <v>28</v>
@@ -8632,7 +8632,7 @@
         <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -8878,7 +8878,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6777960</v>
+        <v>6780959</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8887,58 +8887,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>3</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
         <v>49</v>
       </c>
       <c r="J98">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="K98">
         <v>5</v>
       </c>
       <c r="L98">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="M98">
-        <v>1.222</v>
+        <v>1.333</v>
       </c>
       <c r="N98">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="O98">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P98">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q98">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R98">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
         <v>3.25</v>
       </c>
       <c r="T98">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U98">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V98">
-        <v>0.222</v>
+        <v>0.333</v>
       </c>
       <c r="W98">
         <v>-1</v>
@@ -8947,16 +8947,16 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.9199999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.98</v>
       </c>
       <c r="AB98">
-        <v>0.455</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -9050,7 +9050,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6780959</v>
+        <v>6777960</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9059,58 +9059,58 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G100">
         <v>3</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>49</v>
       </c>
       <c r="J100">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="K100">
         <v>5</v>
       </c>
       <c r="L100">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="M100">
-        <v>1.333</v>
+        <v>1.222</v>
       </c>
       <c r="N100">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="O100">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P100">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R100">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S100">
         <v>3.25</v>
       </c>
       <c r="T100">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U100">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V100">
-        <v>0.333</v>
+        <v>0.222</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9119,16 +9119,16 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.95</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.98</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9308,7 +9308,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6777963</v>
+        <v>6777964</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9317,76 +9317,76 @@
         <v>45234.5</v>
       </c>
       <c r="E103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>50</v>
+      </c>
+      <c r="J103">
+        <v>3.6</v>
+      </c>
+      <c r="K103">
+        <v>3.5</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>2.8</v>
+      </c>
+      <c r="N103">
+        <v>3.4</v>
+      </c>
+      <c r="O103">
+        <v>2.45</v>
+      </c>
+      <c r="P103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103" t="s">
-        <v>48</v>
-      </c>
-      <c r="J103">
-        <v>2.625</v>
-      </c>
-      <c r="K103">
-        <v>3.3</v>
-      </c>
-      <c r="L103">
-        <v>2.625</v>
-      </c>
-      <c r="M103">
-        <v>3.25</v>
-      </c>
-      <c r="N103">
-        <v>3.2</v>
-      </c>
-      <c r="O103">
-        <v>2.3</v>
-      </c>
-      <c r="P103">
-        <v>0.25</v>
-      </c>
       <c r="Q103">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="R103">
-        <v>1.99</v>
+        <v>1.84</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T103">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="U103">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V103">
         <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X103">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z103">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="AA103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -9394,7 +9394,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6777966</v>
+        <v>6777963</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9403,49 +9403,49 @@
         <v>45234.5</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J104">
-        <v>1.125</v>
+        <v>2.625</v>
       </c>
       <c r="K104">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="L104">
-        <v>17</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="N104">
-        <v>11</v>
+        <v>3.2</v>
       </c>
       <c r="O104">
-        <v>21</v>
+        <v>2.3</v>
       </c>
       <c r="P104">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q104">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="S104">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>1.86</v>
@@ -9454,25 +9454,25 @@
         <v>2.04</v>
       </c>
       <c r="V104">
-        <v>0.09000000000000008</v>
+        <v>-1</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA104">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -9480,7 +9480,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6777964</v>
+        <v>6777768</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9489,76 +9489,76 @@
         <v>45234.5</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J105">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="K105">
+        <v>3.4</v>
+      </c>
+      <c r="L105">
+        <v>2.875</v>
+      </c>
+      <c r="M105">
+        <v>2.15</v>
+      </c>
+      <c r="N105">
         <v>3.5</v>
       </c>
-      <c r="L105">
-        <v>2</v>
-      </c>
-      <c r="M105">
-        <v>2.8</v>
-      </c>
-      <c r="N105">
-        <v>3.4</v>
-      </c>
       <c r="O105">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q105">
-        <v>2.09</v>
+        <v>1.89</v>
       </c>
       <c r="R105">
-        <v>1.84</v>
+        <v>2.01</v>
       </c>
       <c r="S105">
         <v>2.75</v>
       </c>
       <c r="T105">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U105">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V105">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W105">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB105">
-        <v>0.96</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -9566,7 +9566,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6777768</v>
+        <v>6777966</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9575,58 +9575,58 @@
         <v>45234.5</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="s">
         <v>49</v>
       </c>
       <c r="J106">
-        <v>2.375</v>
+        <v>1.125</v>
       </c>
       <c r="K106">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="L106">
-        <v>2.875</v>
+        <v>17</v>
       </c>
       <c r="M106">
-        <v>2.15</v>
+        <v>1.09</v>
       </c>
       <c r="N106">
+        <v>11</v>
+      </c>
+      <c r="O106">
+        <v>21</v>
+      </c>
+      <c r="P106">
+        <v>-2.5</v>
+      </c>
+      <c r="Q106">
+        <v>1.85</v>
+      </c>
+      <c r="R106">
+        <v>2.05</v>
+      </c>
+      <c r="S106">
         <v>3.5</v>
       </c>
-      <c r="O106">
-        <v>3.3</v>
-      </c>
-      <c r="P106">
-        <v>-0.25</v>
-      </c>
-      <c r="Q106">
-        <v>1.89</v>
-      </c>
-      <c r="R106">
-        <v>2.01</v>
-      </c>
-      <c r="S106">
-        <v>2.75</v>
-      </c>
       <c r="T106">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U106">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V106">
-        <v>1.15</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="W106">
         <v>-1</v>
@@ -9635,13 +9635,13 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0.8899999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.9199999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
@@ -9661,7 +9661,7 @@
         <v>45234.5</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
         <v>39</v>
@@ -10168,7 +10168,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6780956</v>
+        <v>6777974</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10177,76 +10177,76 @@
         <v>45241.5</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113" t="s">
+        <v>48</v>
+      </c>
+      <c r="J113">
+        <v>2.3</v>
+      </c>
+      <c r="K113">
+        <v>3.4</v>
+      </c>
+      <c r="L113">
+        <v>3.1</v>
+      </c>
+      <c r="M113">
+        <v>2.6</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113">
+        <v>2.9</v>
+      </c>
+      <c r="P113">
         <v>0</v>
       </c>
-      <c r="I113" t="s">
-        <v>49</v>
-      </c>
-      <c r="J113">
-        <v>1.25</v>
-      </c>
-      <c r="K113">
-        <v>6</v>
-      </c>
-      <c r="L113">
-        <v>12</v>
-      </c>
-      <c r="M113">
-        <v>1.3</v>
-      </c>
-      <c r="N113">
-        <v>5.75</v>
-      </c>
-      <c r="O113">
-        <v>9</v>
-      </c>
-      <c r="P113">
-        <v>-1.75</v>
-      </c>
       <c r="Q113">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="R113">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="T113">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="U113">
+        <v>2.06</v>
+      </c>
+      <c r="V113">
+        <v>-1</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>1.9</v>
       </c>
-      <c r="V113">
-        <v>0.3</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10254,7 +10254,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6777978</v>
+        <v>6780956</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10263,16 +10263,16 @@
         <v>45241.5</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>49</v>
@@ -10287,34 +10287,34 @@
         <v>12</v>
       </c>
       <c r="M114">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="N114">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="O114">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P114">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="Q114">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R114">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T114">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="U114">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W114">
         <v>-1</v>
@@ -10323,16 +10323,16 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.8300000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10340,7 +10340,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6777974</v>
+        <v>6777978</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10349,73 +10349,73 @@
         <v>45241.5</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J115">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="M115">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="P115">
+        <v>-2</v>
+      </c>
+      <c r="Q115">
+        <v>2.06</v>
+      </c>
+      <c r="R115">
+        <v>1.84</v>
+      </c>
+      <c r="S115">
+        <v>2.75</v>
+      </c>
+      <c r="T115">
+        <v>1.83</v>
+      </c>
+      <c r="U115">
+        <v>2.07</v>
+      </c>
+      <c r="V115">
+        <v>0.2</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
         <v>0</v>
       </c>
-      <c r="Q115">
-        <v>1.88</v>
-      </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>2</v>
-      </c>
-      <c r="T115">
-        <v>1.84</v>
-      </c>
-      <c r="U115">
-        <v>2.06</v>
-      </c>
-      <c r="V115">
-        <v>-1</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>1.9</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
       <c r="Z115">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.8400000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB115">
         <v>-1</v>
@@ -10435,7 +10435,7 @@
         <v>45241.60416666666</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F116" t="s">
         <v>34</v>
@@ -10610,7 +10610,7 @@
         <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11123,10 +11123,10 @@
         <v>45255.5</v>
       </c>
       <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
         <v>32</v>
-      </c>
-      <c r="F124" t="s">
-        <v>33</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11900,7 +11900,7 @@
         <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>5</v>
@@ -12327,7 +12327,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s">
         <v>44</v>
@@ -12404,7 +12404,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6777993</v>
+        <v>6777771</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12413,61 +12413,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139" t="s">
+        <v>50</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>3.4</v>
+      </c>
+      <c r="L139">
+        <v>3.75</v>
+      </c>
+      <c r="M139">
+        <v>1.909</v>
+      </c>
+      <c r="N139">
+        <v>3.6</v>
+      </c>
+      <c r="O139">
         <v>4</v>
       </c>
-      <c r="H139">
-        <v>3</v>
-      </c>
-      <c r="I139" t="s">
-        <v>49</v>
-      </c>
-      <c r="J139">
-        <v>1.285</v>
-      </c>
-      <c r="K139">
-        <v>6</v>
-      </c>
-      <c r="L139">
-        <v>8.5</v>
-      </c>
-      <c r="M139">
-        <v>1.25</v>
-      </c>
-      <c r="N139">
-        <v>7</v>
-      </c>
-      <c r="O139">
-        <v>10</v>
-      </c>
       <c r="P139">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q139">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R139">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S139">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T139">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U139">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="V139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12476,13 +12476,13 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AA139">
-        <v>0.8700000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12490,7 +12490,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6777771</v>
+        <v>6777993</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12499,61 +12499,61 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="K140">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>8.5</v>
       </c>
       <c r="M140">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P140">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q140">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S140">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T140">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U140">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="V140">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W140">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12562,13 +12562,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB140">
-        <v>0.51</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12834,7 +12834,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6777998</v>
+        <v>6778000</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -12843,58 +12843,58 @@
         <v>45266.6875</v>
       </c>
       <c r="E144" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
         <v>49</v>
       </c>
       <c r="J144">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="K144">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q144">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R144">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -12903,16 +12903,16 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>0.5149999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.415</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -12920,7 +12920,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6778000</v>
+        <v>6777998</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -12929,76 +12929,76 @@
         <v>45266.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="s">
         <v>49</v>
       </c>
       <c r="J145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="K145">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N145">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P145">
+        <v>-0.75</v>
+      </c>
+      <c r="Q145">
+        <v>2.03</v>
+      </c>
+      <c r="R145">
+        <v>1.87</v>
+      </c>
+      <c r="S145">
+        <v>2.75</v>
+      </c>
+      <c r="T145">
+        <v>1.83</v>
+      </c>
+      <c r="U145">
+        <v>2.07</v>
+      </c>
+      <c r="V145">
+        <v>0.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>0.5149999999999999</v>
+      </c>
+      <c r="Z145">
         <v>-0.5</v>
       </c>
-      <c r="Q145">
-        <v>2.05</v>
-      </c>
-      <c r="R145">
-        <v>1.85</v>
-      </c>
-      <c r="S145">
-        <v>2.25</v>
-      </c>
-      <c r="T145">
-        <v>1.9</v>
-      </c>
-      <c r="U145">
-        <v>2</v>
-      </c>
-      <c r="V145">
-        <v>1</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>1.05</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
       <c r="AA145">
-        <v>0.8999999999999999</v>
+        <v>0.415</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13015,7 +13015,7 @@
         <v>45266.6875</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
         <v>40</v>
@@ -13104,7 +13104,7 @@
         <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -13703,7 +13703,7 @@
         <v>45269.5</v>
       </c>
       <c r="E154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F154" t="s">
         <v>35</v>
@@ -13780,7 +13780,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6778006</v>
+        <v>6778009</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -13789,76 +13789,76 @@
         <v>45269.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J155">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="K155">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L155">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M155">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="N155">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O155">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
         <v>-1</v>
       </c>
       <c r="Q155">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="R155">
-        <v>1.97</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T155">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V155">
         <v>-1</v>
       </c>
       <c r="W155">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.97</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13866,7 +13866,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6778009</v>
+        <v>6778006</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13875,76 +13875,76 @@
         <v>45269.5</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J156">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="K156">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L156">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M156">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="N156">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="P156">
         <v>-1</v>
       </c>
       <c r="Q156">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.97</v>
       </c>
       <c r="S156">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T156">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="U156">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V156">
         <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.7749999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AA156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.4399999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14480,7 +14480,7 @@
         <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14554,7 +14554,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6778018</v>
+        <v>6778019</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14563,76 +14563,76 @@
         <v>45276.5</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>49</v>
+      </c>
+      <c r="J164">
+        <v>1.5</v>
+      </c>
+      <c r="K164">
+        <v>4.333</v>
+      </c>
+      <c r="L164">
+        <v>6</v>
+      </c>
+      <c r="M164">
+        <v>1.909</v>
+      </c>
+      <c r="N164">
+        <v>3.8</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>-0.5</v>
+      </c>
+      <c r="Q164">
+        <v>1.9</v>
+      </c>
+      <c r="R164">
         <v>2</v>
-      </c>
-      <c r="H164">
-        <v>2</v>
-      </c>
-      <c r="I164" t="s">
-        <v>50</v>
-      </c>
-      <c r="J164">
-        <v>1.181</v>
-      </c>
-      <c r="K164">
-        <v>7</v>
-      </c>
-      <c r="L164">
-        <v>13</v>
-      </c>
-      <c r="M164">
-        <v>1.166</v>
-      </c>
-      <c r="N164">
-        <v>7.5</v>
-      </c>
-      <c r="O164">
-        <v>15</v>
-      </c>
-      <c r="P164">
-        <v>-2</v>
-      </c>
-      <c r="Q164">
-        <v>2.03</v>
-      </c>
-      <c r="R164">
-        <v>1.87</v>
       </c>
       <c r="S164">
         <v>2.75</v>
       </c>
       <c r="T164">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="U164">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="V164">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W164">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z164">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.97</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14640,7 +14640,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6778019</v>
+        <v>6778018</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14649,76 +14649,76 @@
         <v>45276.5</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J165">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="K165">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="L165">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M165">
-        <v>1.909</v>
+        <v>1.166</v>
       </c>
       <c r="N165">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O165">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="P165">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q165">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S165">
         <v>2.75</v>
       </c>
       <c r="T165">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V165">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA165">
-        <v>0.5249999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -15254,7 +15254,7 @@
         <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6778027</v>
+        <v>6780950</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15423,58 +15423,58 @@
         <v>45283.5</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>49</v>
       </c>
       <c r="J174">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="K174">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="M174">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="N174">
         <v>4.2</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>1.6</v>
       </c>
       <c r="P174">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="Q174">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R174">
-        <v>2.03</v>
+        <v>2.09</v>
       </c>
       <c r="S174">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T174">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V174">
-        <v>0.7</v>
+        <v>4.25</v>
       </c>
       <c r="W174">
         <v>-1</v>
@@ -15483,16 +15483,16 @@
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>0.4350000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15500,7 +15500,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6778026</v>
+        <v>6778027</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15509,76 +15509,76 @@
         <v>45283.5</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G175">
         <v>2</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J175">
+        <v>1.666</v>
+      </c>
+      <c r="K175">
+        <v>4.2</v>
+      </c>
+      <c r="L175">
+        <v>4.5</v>
+      </c>
+      <c r="M175">
+        <v>1.7</v>
+      </c>
+      <c r="N175">
+        <v>4.2</v>
+      </c>
+      <c r="O175">
+        <v>4.333</v>
+      </c>
+      <c r="P175">
+        <v>-0.75</v>
+      </c>
+      <c r="Q175">
+        <v>1.87</v>
+      </c>
+      <c r="R175">
+        <v>2.03</v>
+      </c>
+      <c r="S175">
         <v>3</v>
       </c>
-      <c r="I175" t="s">
-        <v>48</v>
-      </c>
-      <c r="J175">
-        <v>2.25</v>
-      </c>
-      <c r="K175">
-        <v>3.5</v>
-      </c>
-      <c r="L175">
-        <v>3</v>
-      </c>
-      <c r="M175">
-        <v>2.9</v>
-      </c>
-      <c r="N175">
-        <v>3.4</v>
-      </c>
-      <c r="O175">
-        <v>2.45</v>
-      </c>
-      <c r="P175">
+      <c r="T175">
+        <v>1.9</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>0.7</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>0.4350000000000001</v>
+      </c>
+      <c r="Z175">
+        <v>-0.5</v>
+      </c>
+      <c r="AA175">
         <v>0</v>
       </c>
-      <c r="Q175">
-        <v>2.125</v>
-      </c>
-      <c r="R175">
-        <v>1.81</v>
-      </c>
-      <c r="S175">
-        <v>2.5</v>
-      </c>
-      <c r="T175">
-        <v>1.95</v>
-      </c>
-      <c r="U175">
-        <v>1.95</v>
-      </c>
-      <c r="V175">
-        <v>-1</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>1.45</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AA175">
-        <v>0.95</v>
-      </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15586,7 +15586,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6778023</v>
+        <v>6778026</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15595,55 +15595,55 @@
         <v>45283.5</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I176" t="s">
         <v>48</v>
       </c>
       <c r="J176">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K176">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="N176">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="P176">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q176">
-        <v>1.89</v>
+        <v>2.125</v>
       </c>
       <c r="R176">
-        <v>2.01</v>
+        <v>1.81</v>
       </c>
       <c r="S176">
         <v>2.5</v>
       </c>
       <c r="T176">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="U176">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V176">
         <v>-1</v>
@@ -15652,19 +15652,19 @@
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>4.25</v>
+        <v>1.45</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15672,7 +15672,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6780950</v>
+        <v>6778023</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15681,76 +15681,76 @@
         <v>45283.5</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J177">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="K177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="L177">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
+        <v>1.666</v>
+      </c>
+      <c r="N177">
+        <v>3.75</v>
+      </c>
+      <c r="O177">
         <v>5.25</v>
       </c>
-      <c r="N177">
-        <v>4.2</v>
-      </c>
-      <c r="O177">
-        <v>1.6</v>
-      </c>
       <c r="P177">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q177">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="R177">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="S177">
         <v>2.5</v>
       </c>
       <c r="T177">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="U177">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="V177">
+        <v>-1</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
         <v>4.25</v>
       </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
       <c r="Y177">
-        <v>0.8100000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.02</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16025,7 +16025,7 @@
         <v>45286.5</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F181" t="s">
         <v>47</v>
@@ -16111,7 +16111,7 @@
         <v>45286.5</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F182" t="s">
         <v>41</v>
@@ -16360,7 +16360,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16369,73 +16369,73 @@
         <v>45287.6875</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="K185">
+        <v>3.4</v>
+      </c>
+      <c r="L185">
         <v>4</v>
       </c>
-      <c r="L185">
-        <v>7</v>
-      </c>
       <c r="M185">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="N185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O185">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="R185">
+        <v>1.99</v>
+      </c>
+      <c r="S185">
+        <v>2.25</v>
+      </c>
+      <c r="T185">
         <v>1.86</v>
       </c>
-      <c r="S185">
-        <v>2.5</v>
-      </c>
-      <c r="T185">
-        <v>1.99</v>
-      </c>
       <c r="U185">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y185">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AA185">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
@@ -16446,7 +16446,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16455,73 +16455,73 @@
         <v>45287.6875</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G186">
+        <v>2</v>
+      </c>
+      <c r="H186">
         <v>1</v>
       </c>
-      <c r="H186">
+      <c r="I186" t="s">
+        <v>49</v>
+      </c>
+      <c r="J186">
+        <v>1.5</v>
+      </c>
+      <c r="K186">
         <v>4</v>
       </c>
-      <c r="I186" t="s">
-        <v>48</v>
-      </c>
-      <c r="J186">
-        <v>1.909</v>
-      </c>
-      <c r="K186">
-        <v>3.4</v>
-      </c>
       <c r="L186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M186">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="N186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q186">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="R186">
+        <v>1.86</v>
+      </c>
+      <c r="S186">
+        <v>2.5</v>
+      </c>
+      <c r="T186">
         <v>1.99</v>
       </c>
-      <c r="S186">
-        <v>2.25</v>
-      </c>
-      <c r="T186">
-        <v>1.86</v>
-      </c>
       <c r="U186">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="Z186">
+        <v>-0.5</v>
+      </c>
+      <c r="AA186">
         <v>0.99</v>
-      </c>
-      <c r="AA186">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
@@ -16876,7 +16876,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6778037</v>
+        <v>6778044</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16885,58 +16885,58 @@
         <v>45290.5</v>
       </c>
       <c r="E191" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G191">
         <v>3</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
         <v>49</v>
       </c>
       <c r="J191">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="K191">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="L191">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="M191">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="N191">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="O191">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="P191">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q191">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R191">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S191">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T191">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="U191">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="V191">
-        <v>0.363</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -16945,13 +16945,13 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>1.08</v>
       </c>
       <c r="Z191">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1.07</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -16962,7 +16962,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6778044</v>
+        <v>6778041</v>
       </c>
       <c r="C192" t="s">
         <v>27</v>
@@ -16971,13 +16971,13 @@
         <v>45290.5</v>
       </c>
       <c r="E192" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -16986,43 +16986,43 @@
         <v>49</v>
       </c>
       <c r="J192">
-        <v>2.6</v>
+        <v>1.071</v>
       </c>
       <c r="K192">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="L192">
-        <v>2.75</v>
+        <v>34</v>
       </c>
       <c r="M192">
-        <v>2.9</v>
+        <v>1.083</v>
       </c>
       <c r="N192">
-        <v>3.25</v>
+        <v>13</v>
       </c>
       <c r="O192">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="P192">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
       <c r="Q192">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="R192">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S192">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="T192">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="U192">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17031,16 +17031,16 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.08</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17048,7 +17048,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6778041</v>
+        <v>6778037</v>
       </c>
       <c r="C193" t="s">
         <v>27</v>
@@ -17057,58 +17057,58 @@
         <v>45290.5</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G193">
+        <v>3</v>
+      </c>
+      <c r="H193">
         <v>2</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
       </c>
       <c r="I193" t="s">
         <v>49</v>
       </c>
       <c r="J193">
-        <v>1.071</v>
+        <v>1.4</v>
       </c>
       <c r="K193">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="L193">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="M193">
-        <v>1.083</v>
+        <v>1.363</v>
       </c>
       <c r="N193">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="O193">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="P193">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q193">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="R193">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S193">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T193">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="U193">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V193">
-        <v>0.08299999999999996</v>
+        <v>0.363</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17120,13 +17120,13 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.9299999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AB193">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17404,7 +17404,7 @@
         <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197">
         <v>3</v>
@@ -18261,7 +18261,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="E207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
         <v>45</v>
@@ -18347,7 +18347,7 @@
         <v>45312.5625</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F208" t="s">
         <v>40</v>
@@ -18780,7 +18780,7 @@
         <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G213">
         <v>3</v>
@@ -19210,7 +19210,7 @@
         <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19723,7 +19723,7 @@
         <v>45325.60416666666</v>
       </c>
       <c r="E224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F224" t="s">
         <v>44</v>
@@ -19895,7 +19895,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
         <v>38</v>
@@ -20328,7 +20328,7 @@
         <v>47</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231">
         <v>1</v>
@@ -20488,7 +20488,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6778071</v>
+        <v>6778072</v>
       </c>
       <c r="C233" t="s">
         <v>27</v>
@@ -20497,10 +20497,10 @@
         <v>45332.5</v>
       </c>
       <c r="E233" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20512,43 +20512,43 @@
         <v>49</v>
       </c>
       <c r="J233">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="K233">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L233">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="M233">
-        <v>2.45</v>
+        <v>1.181</v>
       </c>
       <c r="N233">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="O233">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="P233">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="Q233">
+        <v>1.97</v>
+      </c>
+      <c r="R233">
+        <v>1.93</v>
+      </c>
+      <c r="S233">
+        <v>3.75</v>
+      </c>
+      <c r="T233">
+        <v>2</v>
+      </c>
+      <c r="U233">
         <v>1.9</v>
       </c>
-      <c r="R233">
-        <v>2</v>
-      </c>
-      <c r="S233">
-        <v>2.75</v>
-      </c>
-      <c r="T233">
-        <v>2.04</v>
-      </c>
-      <c r="U233">
-        <v>1.86</v>
-      </c>
       <c r="V233">
-        <v>1.45</v>
+        <v>0.181</v>
       </c>
       <c r="W233">
         <v>-1</v>
@@ -20557,16 +20557,16 @@
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.465</v>
       </c>
       <c r="AA233">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20574,7 +20574,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6778075</v>
+        <v>6778071</v>
       </c>
       <c r="C234" t="s">
         <v>27</v>
@@ -20583,13 +20583,13 @@
         <v>45332.5</v>
       </c>
       <c r="E234" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -20598,43 +20598,43 @@
         <v>49</v>
       </c>
       <c r="J234">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="M234">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="N234">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O234">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P234">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q234">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R234">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T234">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U234">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="V234">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -20643,16 +20643,16 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.465</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
       <c r="AB234">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20660,7 +20660,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6778072</v>
+        <v>6778075</v>
       </c>
       <c r="C235" t="s">
         <v>27</v>
@@ -20669,13 +20669,13 @@
         <v>45332.5</v>
       </c>
       <c r="E235" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F235" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -20684,43 +20684,43 @@
         <v>49</v>
       </c>
       <c r="J235">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="K235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L235">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M235">
-        <v>1.181</v>
+        <v>1.727</v>
       </c>
       <c r="N235">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="O235">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q235">
+        <v>1.93</v>
+      </c>
+      <c r="R235">
         <v>1.97</v>
       </c>
-      <c r="R235">
-        <v>1.93</v>
-      </c>
       <c r="S235">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="V235">
-        <v>0.181</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W235">
         <v>-1</v>
@@ -20729,16 +20729,16 @@
         <v>-1</v>
       </c>
       <c r="Y235">
+        <v>0.465</v>
+      </c>
+      <c r="Z235">
         <v>-0.5</v>
       </c>
-      <c r="Z235">
-        <v>0.465</v>
-      </c>
       <c r="AA235">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-0.5</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="236" spans="1:28">
@@ -21176,7 +21176,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6778082</v>
+        <v>6778080</v>
       </c>
       <c r="C241" t="s">
         <v>27</v>
@@ -21185,76 +21185,76 @@
         <v>45339.5</v>
       </c>
       <c r="E241" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J241">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="K241">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M241">
-        <v>1.95</v>
+        <v>2.9</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="P241">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q241">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="R241">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="S241">
         <v>3</v>
       </c>
       <c r="T241">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U241">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="V241">
         <v>-1</v>
       </c>
       <c r="W241">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8700000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AA241">
-        <v>0.9099999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -21262,7 +21262,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6778078</v>
+        <v>6777782</v>
       </c>
       <c r="C242" t="s">
         <v>27</v>
@@ -21271,76 +21271,76 @@
         <v>45339.5</v>
       </c>
       <c r="E242" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242">
         <v>0</v>
       </c>
-      <c r="H242">
-        <v>5</v>
-      </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J242">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="K242">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="L242">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="M242">
-        <v>10</v>
+        <v>2.25</v>
       </c>
       <c r="N242">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="O242">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="P242">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q242">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="R242">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="S242">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T242">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U242">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V242">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="Z242">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="243" spans="1:28">
@@ -21434,7 +21434,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6778080</v>
+        <v>6778082</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -21443,76 +21443,76 @@
         <v>45339.5</v>
       </c>
       <c r="E244" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H244">
         <v>2</v>
       </c>
       <c r="I244" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J244">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="K244">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L244">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="N244">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O244">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q244">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="R244">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="S244">
         <v>3</v>
       </c>
       <c r="T244">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="U244">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="V244">
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X244">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.99</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21520,7 +21520,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6777782</v>
+        <v>6778078</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21529,76 +21529,76 @@
         <v>45339.5</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J245">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="K245">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L245">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="M245">
-        <v>2.25</v>
+        <v>10</v>
       </c>
       <c r="N245">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="O245">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="P245">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q245">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="R245">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="S245">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T245">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="U245">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V245">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y245">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB245">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -21701,7 +21701,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F247" t="s">
         <v>30</v>
@@ -22475,7 +22475,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E256" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F256" t="s">
         <v>43</v>
@@ -22650,7 +22650,7 @@
         <v>39</v>
       </c>
       <c r="F258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22810,7 +22810,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>6958687</v>
+        <v>6778096</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22819,76 +22819,76 @@
         <v>45353.5</v>
       </c>
       <c r="E260" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260" t="s">
+        <v>48</v>
+      </c>
+      <c r="J260">
+        <v>7.5</v>
+      </c>
+      <c r="K260">
+        <v>4.5</v>
+      </c>
+      <c r="L260">
+        <v>1.4</v>
+      </c>
+      <c r="M260">
+        <v>5.25</v>
+      </c>
+      <c r="N260">
+        <v>4.333</v>
+      </c>
+      <c r="O260">
+        <v>1.6</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>1.9</v>
+      </c>
+      <c r="R260">
         <v>2</v>
-      </c>
-      <c r="H260">
-        <v>2</v>
-      </c>
-      <c r="I260" t="s">
-        <v>50</v>
-      </c>
-      <c r="J260">
-        <v>3</v>
-      </c>
-      <c r="K260">
-        <v>3.4</v>
-      </c>
-      <c r="L260">
-        <v>2.3</v>
-      </c>
-      <c r="M260">
-        <v>3.25</v>
-      </c>
-      <c r="N260">
-        <v>3.6</v>
-      </c>
-      <c r="O260">
-        <v>2.15</v>
-      </c>
-      <c r="P260">
-        <v>0.25</v>
-      </c>
-      <c r="Q260">
-        <v>2.01</v>
-      </c>
-      <c r="R260">
-        <v>1.89</v>
       </c>
       <c r="S260">
         <v>3</v>
       </c>
       <c r="T260">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="U260">
-        <v>1.775</v>
+        <v>2.04</v>
       </c>
       <c r="V260">
         <v>-1</v>
       </c>
       <c r="W260">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y260">
-        <v>0.5049999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z260">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA260">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22896,7 +22896,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>6778096</v>
+        <v>6778095</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -22905,46 +22905,46 @@
         <v>45353.5</v>
       </c>
       <c r="E261" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F261" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G261">
+        <v>3</v>
+      </c>
+      <c r="H261">
         <v>0</v>
       </c>
-      <c r="H261">
-        <v>1</v>
-      </c>
       <c r="I261" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J261">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="K261">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L261">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="M261">
-        <v>5.25</v>
+        <v>1.727</v>
       </c>
       <c r="N261">
+        <v>4.2</v>
+      </c>
+      <c r="O261">
         <v>4.333</v>
       </c>
-      <c r="O261">
-        <v>1.6</v>
-      </c>
       <c r="P261">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q261">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S261">
         <v>3</v>
@@ -22956,25 +22956,25 @@
         <v>2.04</v>
       </c>
       <c r="V261">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W261">
         <v>-1</v>
       </c>
       <c r="X261">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
         <v>0</v>
       </c>
-      <c r="Z261">
+      <c r="AB261">
         <v>0</v>
-      </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>1.04</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -22982,7 +22982,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>6778095</v>
+        <v>6958687</v>
       </c>
       <c r="C262" t="s">
         <v>27</v>
@@ -22991,76 +22991,76 @@
         <v>45353.5</v>
       </c>
       <c r="E262" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>2</v>
+      </c>
+      <c r="I262" t="s">
+        <v>50</v>
+      </c>
+      <c r="J262">
         <v>3</v>
       </c>
-      <c r="H262">
-        <v>0</v>
-      </c>
-      <c r="I262" t="s">
-        <v>49</v>
-      </c>
-      <c r="J262">
-        <v>1.833</v>
-      </c>
       <c r="K262">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L262">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="M262">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="N262">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O262">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="P262">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q262">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="R262">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="S262">
         <v>3</v>
       </c>
       <c r="T262">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="U262">
-        <v>2.04</v>
+        <v>1.775</v>
       </c>
       <c r="V262">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>0.9099999999999999</v>
+        <v>0.5049999999999999</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:28">
@@ -23424,7 +23424,7 @@
         <v>28</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23593,7 +23593,7 @@
         <v>45355.70833333334</v>
       </c>
       <c r="E269" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F269" t="s">
         <v>29</v>
@@ -23851,10 +23851,10 @@
         <v>45360.5</v>
       </c>
       <c r="E272" t="s">
+        <v>32</v>
+      </c>
+      <c r="F272" t="s">
         <v>33</v>
-      </c>
-      <c r="F272" t="s">
-        <v>32</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -24539,7 +24539,7 @@
         <v>45364.6875</v>
       </c>
       <c r="E280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F280" t="s">
         <v>47</v>
@@ -25227,7 +25227,7 @@
         <v>45381.5</v>
       </c>
       <c r="E288" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F288" t="s">
         <v>41</v>
@@ -25304,7 +25304,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6780938</v>
+        <v>6778104</v>
       </c>
       <c r="C289" t="s">
         <v>27</v>
@@ -25313,10 +25313,10 @@
         <v>45381.5</v>
       </c>
       <c r="E289" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F289" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G289">
         <v>2</v>
@@ -25328,43 +25328,43 @@
         <v>49</v>
       </c>
       <c r="J289">
-        <v>1.285</v>
+        <v>2.1</v>
       </c>
       <c r="K289">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="L289">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="M289">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="N289">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="O289">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="P289">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q289">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="R289">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S289">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="T289">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="V289">
-        <v>0.222</v>
+        <v>1.15</v>
       </c>
       <c r="W289">
         <v>-1</v>
@@ -25373,16 +25373,16 @@
         <v>-1</v>
       </c>
       <c r="Y289">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="Z289">
-        <v>1.03</v>
+        <v>-1</v>
       </c>
       <c r="AA289">
-        <v>-1</v>
+        <v>0.42</v>
       </c>
       <c r="AB289">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="290" spans="1:28">
@@ -25390,7 +25390,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6778104</v>
+        <v>6780938</v>
       </c>
       <c r="C290" t="s">
         <v>27</v>
@@ -25399,10 +25399,10 @@
         <v>45381.5</v>
       </c>
       <c r="E290" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F290" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G290">
         <v>2</v>
@@ -25414,43 +25414,43 @@
         <v>49</v>
       </c>
       <c r="J290">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="K290">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L290">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="M290">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="N290">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="O290">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="P290">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q290">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R290">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S290">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T290">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U290">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="V290">
-        <v>1.15</v>
+        <v>0.222</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -25459,16 +25459,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z290">
-        <v>-1</v>
+        <v>1.03</v>
       </c>
       <c r="AA290">
-        <v>0.42</v>
+        <v>-1</v>
       </c>
       <c r="AB290">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="291" spans="1:28">
@@ -26001,7 +26001,7 @@
         <v>45384.65625</v>
       </c>
       <c r="E297" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F297" t="s">
         <v>46</v>
@@ -26520,7 +26520,7 @@
         <v>40</v>
       </c>
       <c r="F303" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G303">
         <v>3</v>
@@ -26950,7 +26950,7 @@
         <v>47</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G308">
         <v>2</v>
@@ -27377,7 +27377,7 @@
         <v>45389.5625</v>
       </c>
       <c r="E313" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F313" t="s">
         <v>36</v>
@@ -27810,7 +27810,7 @@
         <v>35</v>
       </c>
       <c r="F318" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G318">
         <v>2</v>
@@ -27979,7 +27979,7 @@
         <v>45395.5625</v>
       </c>
       <c r="E320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F320" t="s">
         <v>37</v>
@@ -28495,7 +28495,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F326" t="s">
         <v>28</v>
@@ -28756,7 +28756,7 @@
         <v>44</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G329">
         <v>3</v>
@@ -29100,7 +29100,7 @@
         <v>39</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G333">
         <v>0</v>
@@ -29186,7 +29186,7 @@
         <v>37</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G334">
         <v>4</v>
@@ -29874,7 +29874,7 @@
         <v>34</v>
       </c>
       <c r="F342" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G342">
         <v>5</v>
@@ -30129,7 +30129,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E345" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F345" t="s">
         <v>30</v>
@@ -30562,7 +30562,7 @@
         <v>29</v>
       </c>
       <c r="F350" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G350">
         <v>3</v>
@@ -30731,7 +30731,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E352" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F352" t="s">
         <v>38</v>
@@ -31422,7 +31422,7 @@
         <v>31</v>
       </c>
       <c r="F360" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -31763,7 +31763,7 @@
         <v>45423.45833333334</v>
       </c>
       <c r="E364" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F364" t="s">
         <v>35</v>
@@ -32442,7 +32442,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7309467</v>
+        <v>7309667</v>
       </c>
       <c r="C372" t="s">
         <v>27</v>
@@ -32451,55 +32451,55 @@
         <v>45431.5</v>
       </c>
       <c r="E372" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F372" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G372">
+        <v>1</v>
+      </c>
+      <c r="H372">
         <v>2</v>
-      </c>
-      <c r="H372">
-        <v>4</v>
       </c>
       <c r="I372" t="s">
         <v>48</v>
       </c>
       <c r="J372">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K372">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L372">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="M372">
         <v>2.9</v>
       </c>
       <c r="N372">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O372">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P372">
         <v>0.25</v>
       </c>
       <c r="Q372">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R372">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T372">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U372">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="V372">
         <v>-1</v>
@@ -32508,19 +32508,19 @@
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="AA372">
-        <v>0.8700000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:28">
@@ -32528,7 +32528,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7309667</v>
+        <v>7309467</v>
       </c>
       <c r="C373" t="s">
         <v>27</v>
@@ -32537,55 +32537,55 @@
         <v>45431.5</v>
       </c>
       <c r="E373" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I373" t="s">
         <v>48</v>
       </c>
       <c r="J373">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K373">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L373">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M373">
         <v>2.9</v>
       </c>
       <c r="N373">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O373">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P373">
         <v>0.25</v>
       </c>
       <c r="Q373">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R373">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="S373">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T373">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U373">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="V373">
         <v>-1</v>
@@ -32594,19 +32594,19 @@
         <v>-1</v>
       </c>
       <c r="X373">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="Y373">
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="AA373">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AB373">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:28">
@@ -32614,7 +32614,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7308729</v>
+        <v>7308728</v>
       </c>
       <c r="C374" t="s">
         <v>27</v>
@@ -32623,55 +32623,55 @@
         <v>45431.5</v>
       </c>
       <c r="E374" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F374" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G374">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I374" t="s">
         <v>48</v>
       </c>
       <c r="J374">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="K374">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L374">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="M374">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="N374">
-        <v>5.75</v>
+        <v>3.9</v>
       </c>
       <c r="O374">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="P374">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q374">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R374">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="S374">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T374">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U374">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V374">
         <v>-1</v>
@@ -32680,19 +32680,19 @@
         <v>-1</v>
       </c>
       <c r="X374">
-        <v>0.333</v>
+        <v>1.15</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.8600000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.98</v>
       </c>
       <c r="AB374">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:28">
@@ -32700,7 +32700,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>7308728</v>
+        <v>7308729</v>
       </c>
       <c r="C375" t="s">
         <v>27</v>
@@ -32709,55 +32709,55 @@
         <v>45431.5</v>
       </c>
       <c r="E375" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F375" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G375">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I375" t="s">
         <v>48</v>
       </c>
       <c r="J375">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="K375">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L375">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="M375">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N375">
-        <v>3.9</v>
+        <v>5.75</v>
       </c>
       <c r="O375">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="P375">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q375">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="R375">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="S375">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T375">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U375">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V375">
         <v>-1</v>
@@ -32766,19 +32766,19 @@
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>1.15</v>
+        <v>0.333</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.9299999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA375">
-        <v>0.98</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="376" spans="1:28">
@@ -32872,7 +32872,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7315488</v>
+        <v>7433927</v>
       </c>
       <c r="C377" t="s">
         <v>27</v>
@@ -32881,58 +32881,58 @@
         <v>45431.5</v>
       </c>
       <c r="E377" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F377" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" t="s">
         <v>49</v>
       </c>
       <c r="J377">
-        <v>1.222</v>
+        <v>1.1</v>
       </c>
       <c r="K377">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="L377">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M377">
-        <v>1.125</v>
+        <v>1.071</v>
       </c>
       <c r="N377">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="O377">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P377">
-        <v>-2.5</v>
+        <v>-3</v>
       </c>
       <c r="Q377">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="R377">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="S377">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="T377">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U377">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V377">
-        <v>0.125</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="W377">
         <v>-1</v>
@@ -32944,13 +32944,13 @@
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>1.04</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB377">
-        <v>0.9099999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
     </row>
     <row r="378" spans="1:28">
@@ -32958,7 +32958,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7433927</v>
+        <v>7376430</v>
       </c>
       <c r="C378" t="s">
         <v>27</v>
@@ -32967,13 +32967,13 @@
         <v>45431.5</v>
       </c>
       <c r="E378" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H378">
         <v>1</v>
@@ -32982,34 +32982,34 @@
         <v>49</v>
       </c>
       <c r="J378">
-        <v>1.1</v>
+        <v>1.533</v>
       </c>
       <c r="K378">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="L378">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="M378">
-        <v>1.071</v>
+        <v>1.38</v>
       </c>
       <c r="N378">
-        <v>15</v>
+        <v>5.25</v>
       </c>
       <c r="O378">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="P378">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="Q378">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="R378">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S378">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T378">
         <v>2.02</v>
@@ -33018,7 +33018,7 @@
         <v>1.88</v>
       </c>
       <c r="V378">
-        <v>0.07099999999999995</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="W378">
         <v>-1</v>
@@ -33030,13 +33030,13 @@
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.8999999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.4399999999999999</v>
+        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="379" spans="1:28">
@@ -33044,7 +33044,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>7376430</v>
+        <v>7315488</v>
       </c>
       <c r="C379" t="s">
         <v>27</v>
@@ -33053,58 +33053,58 @@
         <v>45431.5</v>
       </c>
       <c r="E379" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G379">
         <v>2</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="s">
         <v>49</v>
       </c>
       <c r="J379">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="K379">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="L379">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="M379">
-        <v>1.38</v>
+        <v>1.125</v>
       </c>
       <c r="N379">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="O379">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="P379">
-        <v>-1.5</v>
+        <v>-2.5</v>
       </c>
       <c r="Q379">
+        <v>1.86</v>
+      </c>
+      <c r="R379">
+        <v>2.04</v>
+      </c>
+      <c r="S379">
+        <v>4.5</v>
+      </c>
+      <c r="T379">
         <v>1.99</v>
       </c>
-      <c r="R379">
+      <c r="U379">
         <v>1.91</v>
       </c>
-      <c r="S379">
-        <v>3.75</v>
-      </c>
-      <c r="T379">
-        <v>2.02</v>
-      </c>
-      <c r="U379">
-        <v>1.88</v>
-      </c>
       <c r="V379">
-        <v>0.3799999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="W379">
         <v>-1</v>
@@ -33116,13 +33116,13 @@
         <v>-1</v>
       </c>
       <c r="Z379">
+        <v>1.04</v>
+      </c>
+      <c r="AA379">
+        <v>-1</v>
+      </c>
+      <c r="AB379">
         <v>0.9099999999999999</v>
-      </c>
-      <c r="AA379">
-        <v>-1</v>
-      </c>
-      <c r="AB379">
-        <v>0.8799999999999999</v>
       </c>
     </row>
     <row r="380" spans="1:28">

--- a/England Premier League/England Premier League.xlsx
+++ b/England Premier League/England Premier League.xlsx
@@ -3946,7 +3946,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6777910</v>
+        <v>6777911</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3955,19 +3955,19 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3976,43 +3976,43 @@
         <v>51</v>
       </c>
       <c r="L38">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M38">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N38">
+        <v>4.75</v>
+      </c>
+      <c r="O38">
+        <v>1.6</v>
+      </c>
+      <c r="P38">
+        <v>4.75</v>
+      </c>
+      <c r="Q38">
+        <v>4.75</v>
+      </c>
+      <c r="R38">
+        <v>-1</v>
+      </c>
+      <c r="S38">
+        <v>2.03</v>
+      </c>
+      <c r="T38">
+        <v>1.87</v>
+      </c>
+      <c r="U38">
         <v>3.5</v>
       </c>
-      <c r="O38">
-        <v>1.85</v>
-      </c>
-      <c r="P38">
-        <v>3.4</v>
-      </c>
-      <c r="Q38">
-        <v>4.5</v>
-      </c>
-      <c r="R38">
-        <v>-0.5</v>
-      </c>
-      <c r="S38">
-        <v>1.88</v>
-      </c>
-      <c r="T38">
-        <v>2.02</v>
-      </c>
-      <c r="U38">
-        <v>2.25</v>
-      </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="W38">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="X38">
-        <v>0.8500000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -4021,16 +4021,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8799999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD38">
-        <v>-1</v>
+        <v>0.8700000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4038,7 +4038,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6777911</v>
+        <v>6777910</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4047,19 +4047,19 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4068,43 +4068,43 @@
         <v>51</v>
       </c>
       <c r="L39">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="M39">
+        <v>3.25</v>
+      </c>
+      <c r="N39">
+        <v>3.5</v>
+      </c>
+      <c r="O39">
+        <v>1.85</v>
+      </c>
+      <c r="P39">
+        <v>3.4</v>
+      </c>
+      <c r="Q39">
         <v>4.5</v>
       </c>
-      <c r="N39">
-        <v>4.75</v>
-      </c>
-      <c r="O39">
-        <v>1.6</v>
-      </c>
-      <c r="P39">
-        <v>4.75</v>
-      </c>
-      <c r="Q39">
-        <v>4.75</v>
-      </c>
       <c r="R39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="T39">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U39">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="V39">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="X39">
-        <v>0.6000000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y39">
         <v>-1</v>
@@ -4113,16 +4113,16 @@
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>1.03</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD39">
-        <v>0.8700000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4590,7 +4590,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6777918</v>
+        <v>6780964</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4599,82 +4599,82 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L45">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="M45">
+        <v>3.75</v>
+      </c>
+      <c r="N45">
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <v>1.65</v>
+      </c>
+      <c r="P45">
         <v>3.6</v>
       </c>
-      <c r="N45">
-        <v>3.75</v>
-      </c>
-      <c r="O45">
-        <v>2</v>
-      </c>
-      <c r="P45">
-        <v>4</v>
-      </c>
       <c r="Q45">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R45">
+        <v>-0.75</v>
+      </c>
+      <c r="S45">
+        <v>1.86</v>
+      </c>
+      <c r="T45">
+        <v>2.04</v>
+      </c>
+      <c r="U45">
+        <v>2.25</v>
+      </c>
+      <c r="V45">
+        <v>1.89</v>
+      </c>
+      <c r="W45">
+        <v>2.01</v>
+      </c>
+      <c r="X45">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.43</v>
+      </c>
+      <c r="AB45">
         <v>-0.5</v>
       </c>
-      <c r="S45">
-        <v>2.03</v>
-      </c>
-      <c r="T45">
-        <v>1.87</v>
-      </c>
-      <c r="U45">
-        <v>3.25</v>
-      </c>
-      <c r="V45">
-        <v>1.93</v>
-      </c>
-      <c r="W45">
-        <v>1.97</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
-      <c r="Z45">
-        <v>2.25</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.8700000000000001</v>
-      </c>
       <c r="AC45">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4682,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6780964</v>
+        <v>6777918</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4691,82 +4691,82 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L46">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="M46">
+        <v>3.6</v>
+      </c>
+      <c r="N46">
         <v>3.75</v>
       </c>
-      <c r="N46">
-        <v>5</v>
-      </c>
       <c r="O46">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="P46">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="R46">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S46">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="T46">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>1.93</v>
+      </c>
+      <c r="W46">
+        <v>1.97</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
         <v>2.25</v>
       </c>
-      <c r="V46">
-        <v>1.89</v>
-      </c>
-      <c r="W46">
-        <v>2.01</v>
-      </c>
-      <c r="X46">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>-1</v>
-      </c>
       <c r="AA46">
-        <v>0.43</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AD46">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -9466,7 +9466,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6777957</v>
+        <v>6777960</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9475,82 +9475,82 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L98">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="O98">
-        <v>1.615</v>
+        <v>1.222</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q98">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S98">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="T98">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U98">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="W98">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD98">
-        <v>1.05</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9558,7 +9558,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6777960</v>
+        <v>6777957</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9567,82 +9567,82 @@
         <v>45228.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>52</v>
+      </c>
+      <c r="L99">
+        <v>1.533</v>
+      </c>
+      <c r="M99">
+        <v>4.333</v>
+      </c>
+      <c r="N99">
+        <v>5.5</v>
+      </c>
+      <c r="O99">
+        <v>1.615</v>
+      </c>
+      <c r="P99">
+        <v>4</v>
+      </c>
+      <c r="Q99">
+        <v>5.5</v>
+      </c>
+      <c r="R99">
+        <v>-1</v>
+      </c>
+      <c r="S99">
+        <v>2.04</v>
+      </c>
+      <c r="T99">
+        <v>1.86</v>
+      </c>
+      <c r="U99">
+        <v>2.75</v>
+      </c>
+      <c r="V99">
+        <v>1.85</v>
+      </c>
+      <c r="W99">
+        <v>2.05</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>3</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>2</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99" t="s">
-        <v>51</v>
-      </c>
-      <c r="L99">
-        <v>1.3</v>
-      </c>
-      <c r="M99">
-        <v>5</v>
-      </c>
-      <c r="N99">
-        <v>10</v>
-      </c>
-      <c r="O99">
-        <v>1.222</v>
-      </c>
-      <c r="P99">
-        <v>7</v>
-      </c>
-      <c r="Q99">
-        <v>11</v>
-      </c>
-      <c r="R99">
-        <v>-1.75</v>
-      </c>
-      <c r="S99">
-        <v>1.92</v>
-      </c>
-      <c r="T99">
-        <v>1.98</v>
-      </c>
-      <c r="U99">
-        <v>3.25</v>
-      </c>
-      <c r="V99">
-        <v>1.99</v>
-      </c>
-      <c r="W99">
-        <v>1.91</v>
-      </c>
-      <c r="X99">
-        <v>0.222</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.455</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -10110,7 +10110,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6777966</v>
+        <v>6777768</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10119,64 +10119,64 @@
         <v>45234.5</v>
       </c>
       <c r="E105" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="s">
         <v>51</v>
       </c>
       <c r="L105">
-        <v>1.125</v>
+        <v>2.375</v>
       </c>
       <c r="M105">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="N105">
-        <v>17</v>
+        <v>2.875</v>
       </c>
       <c r="O105">
-        <v>1.09</v>
+        <v>2.15</v>
       </c>
       <c r="P105">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
-        <v>21</v>
+        <v>3.3</v>
       </c>
       <c r="R105">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S105">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T105">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U105">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V105">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="W105">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="X105">
-        <v>0.09000000000000008</v>
+        <v>1.15</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -10185,13 +10185,13 @@
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.8500000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8600000000000001</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AD105">
         <v>-1</v>
@@ -10202,7 +10202,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6777969</v>
+        <v>6777966</v>
       </c>
       <c r="C106" t="s">
         <v>29</v>
@@ -10211,19 +10211,19 @@
         <v>45234.5</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -10232,43 +10232,43 @@
         <v>51</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>1.125</v>
       </c>
       <c r="M106">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N106">
-        <v>2.375</v>
+        <v>17</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>1.09</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="Q106">
+        <v>21</v>
+      </c>
+      <c r="R106">
+        <v>-2.5</v>
+      </c>
+      <c r="S106">
         <v>1.85</v>
       </c>
-      <c r="R106">
-        <v>0.5</v>
-      </c>
-      <c r="S106">
+      <c r="T106">
         <v>2.05</v>
       </c>
-      <c r="T106">
-        <v>1.88</v>
-      </c>
       <c r="U106">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V106">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="W106">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="X106">
-        <v>3.2</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -10277,13 +10277,13 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.9099999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AD106">
         <v>-1</v>
@@ -10294,7 +10294,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6777768</v>
+        <v>6777969</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10303,64 +10303,64 @@
         <v>45234.5</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F107" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K107" t="s">
         <v>51</v>
       </c>
       <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>3.25</v>
+      </c>
+      <c r="N107">
         <v>2.375</v>
       </c>
-      <c r="M107">
-        <v>3.4</v>
-      </c>
-      <c r="N107">
-        <v>2.875</v>
-      </c>
       <c r="O107">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="P107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="R107">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S107">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T107">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="U107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V107">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W107">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X107">
-        <v>1.15</v>
+        <v>3.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
@@ -10369,13 +10369,13 @@
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.8899999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.9199999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AD107">
         <v>-1</v>
@@ -10938,7 +10938,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6777974</v>
+        <v>6777978</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10947,79 +10947,79 @@
         <v>45241.5</v>
       </c>
       <c r="E114" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L114">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N114">
-        <v>3.1</v>
+        <v>12</v>
       </c>
       <c r="O114">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="P114">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q114">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="R114">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S114">
-        <v>1.88</v>
+        <v>2.06</v>
       </c>
       <c r="T114">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="U114">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V114">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W114">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB114">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>0.8400000000000001</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AD114">
         <v>-1</v>
@@ -11030,7 +11030,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6777978</v>
+        <v>6777974</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11039,79 +11039,79 @@
         <v>45241.5</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G115">
+        <v>2</v>
+      </c>
+      <c r="H115">
         <v>3</v>
       </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L115">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="M115">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>12</v>
+        <v>3.1</v>
       </c>
       <c r="O115">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="P115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q115">
-        <v>15</v>
+        <v>2.9</v>
       </c>
       <c r="R115">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S115">
+        <v>1.88</v>
+      </c>
+      <c r="T115">
+        <v>2.05</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>1.84</v>
+      </c>
+      <c r="W115">
         <v>2.06</v>
       </c>
-      <c r="T115">
-        <v>1.84</v>
-      </c>
-      <c r="U115">
-        <v>2.75</v>
-      </c>
-      <c r="V115">
-        <v>1.83</v>
-      </c>
-      <c r="W115">
-        <v>2.07</v>
-      </c>
       <c r="X115">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC115">
-        <v>0.8300000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AD115">
         <v>-1</v>
@@ -12594,7 +12594,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6780954</v>
+        <v>6777990</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12603,19 +12603,19 @@
         <v>45262.5</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -12624,43 +12624,43 @@
         <v>51</v>
       </c>
       <c r="L132">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O132">
-        <v>1.533</v>
+        <v>1.222</v>
       </c>
       <c r="P132">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q132">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R132">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U132">
         <v>2.75</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="X132">
-        <v>0.5329999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12669,16 +12669,16 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>0.415</v>
       </c>
       <c r="AD132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12686,7 +12686,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6777990</v>
+        <v>6780954</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12695,19 +12695,19 @@
         <v>45262.5</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133">
         <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -12716,43 +12716,43 @@
         <v>51</v>
       </c>
       <c r="L133">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="M133">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O133">
-        <v>1.222</v>
+        <v>1.533</v>
       </c>
       <c r="P133">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R133">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="S133">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="U133">
         <v>2.75</v>
       </c>
       <c r="V133">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="X133">
-        <v>0.222</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12761,16 +12761,16 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.415</v>
+        <v>1</v>
       </c>
       <c r="AD133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -13790,7 +13790,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6778001</v>
+        <v>6777998</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13799,82 +13799,82 @@
         <v>45266.6875</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>1</v>
       </c>
       <c r="K145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L145">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="M145">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O145">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="P145">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q145">
-        <v>1.181</v>
+        <v>4.2</v>
       </c>
       <c r="R145">
-        <v>2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S145">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="T145">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="U145">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V145">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="W145">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.42</v>
+        <v>0.5149999999999999</v>
       </c>
       <c r="AB145">
         <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.415</v>
       </c>
       <c r="AD145">
-        <v>0.8600000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -13974,7 +13974,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6777998</v>
+        <v>6778001</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13983,82 +13983,82 @@
         <v>45266.6875</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L147">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="M147">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="N147">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="O147">
-        <v>1.8</v>
+        <v>15</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q147">
-        <v>4.2</v>
+        <v>1.181</v>
       </c>
       <c r="R147">
-        <v>-0.75</v>
+        <v>2.25</v>
       </c>
       <c r="S147">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="T147">
-        <v>1.87</v>
+        <v>2.06</v>
       </c>
       <c r="U147">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V147">
-        <v>1.83</v>
+        <v>2.04</v>
       </c>
       <c r="W147">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="X147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="AA147">
-        <v>0.5149999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="AB147">
         <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.415</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14986,7 +14986,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6777773</v>
+        <v>6780952</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14995,82 +14995,82 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>50</v>
+      </c>
+      <c r="L158">
+        <v>26</v>
+      </c>
+      <c r="M158">
+        <v>9.5</v>
+      </c>
+      <c r="N158">
+        <v>1.1</v>
+      </c>
+      <c r="O158">
+        <v>13</v>
+      </c>
+      <c r="P158">
+        <v>7.5</v>
+      </c>
+      <c r="Q158">
+        <v>1.181</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>1.85</v>
+      </c>
+      <c r="T158">
+        <v>2.05</v>
+      </c>
+      <c r="U158">
         <v>3</v>
       </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158" t="s">
-        <v>51</v>
-      </c>
-      <c r="L158">
-        <v>2.5</v>
-      </c>
-      <c r="M158">
-        <v>3.5</v>
-      </c>
-      <c r="N158">
-        <v>2.6</v>
-      </c>
-      <c r="O158">
-        <v>2.2</v>
-      </c>
-      <c r="P158">
-        <v>3.5</v>
-      </c>
-      <c r="Q158">
-        <v>3.25</v>
-      </c>
-      <c r="R158">
-        <v>-0.25</v>
-      </c>
-      <c r="S158">
-        <v>1.89</v>
-      </c>
-      <c r="T158">
-        <v>2.01</v>
-      </c>
-      <c r="U158">
-        <v>2.5</v>
-      </c>
       <c r="V158">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="W158">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="X158">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="AA158">
-        <v>0.8899999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD158">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15170,7 +15170,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6780952</v>
+        <v>6777773</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15179,82 +15179,82 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L160">
-        <v>26</v>
+        <v>2.5</v>
       </c>
       <c r="M160">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="N160">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="O160">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="P160">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q160">
-        <v>1.181</v>
+        <v>3.25</v>
       </c>
       <c r="R160">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T160">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U160">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V160">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="W160">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AD160">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15538,7 +15538,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6778016</v>
+        <v>6778018</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15547,82 +15547,82 @@
         <v>45276.5</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="G164">
         <v>2</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L164">
-        <v>1.142</v>
+        <v>1.181</v>
       </c>
       <c r="M164">
         <v>7</v>
       </c>
       <c r="N164">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O164">
-        <v>1.181</v>
+        <v>1.166</v>
       </c>
       <c r="P164">
         <v>7.5</v>
       </c>
       <c r="Q164">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R164">
         <v>-2</v>
       </c>
       <c r="S164">
+        <v>2.03</v>
+      </c>
+      <c r="T164">
         <v>1.87</v>
       </c>
-      <c r="T164">
-        <v>2.03</v>
-      </c>
       <c r="U164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V164">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="W164">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="X164">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.97</v>
       </c>
       <c r="AD164">
-        <v>1.04</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15630,7 +15630,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6778018</v>
+        <v>6778016</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15639,82 +15639,82 @@
         <v>45276.5</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>2</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L165">
-        <v>1.181</v>
+        <v>1.142</v>
       </c>
       <c r="M165">
         <v>7</v>
       </c>
       <c r="N165">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O165">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="P165">
         <v>7.5</v>
       </c>
       <c r="Q165">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R165">
         <v>-2</v>
       </c>
       <c r="S165">
+        <v>1.87</v>
+      </c>
+      <c r="T165">
         <v>2.03</v>
       </c>
-      <c r="T165">
-        <v>1.87</v>
-      </c>
       <c r="U165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V165">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="W165">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y165">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB165">
-        <v>0.8700000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC165">
-        <v>0.97</v>
+        <v>-1</v>
       </c>
       <c r="AD165">
-        <v>-1</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -17470,7 +17470,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6778033</v>
+        <v>6778030</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17479,79 +17479,79 @@
         <v>45287.6875</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F185" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L185">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="M185">
+        <v>3.4</v>
+      </c>
+      <c r="N185">
         <v>4</v>
       </c>
-      <c r="N185">
-        <v>7</v>
-      </c>
       <c r="O185">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="P185">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q185">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="R185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S185">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="T185">
+        <v>1.99</v>
+      </c>
+      <c r="U185">
+        <v>2.25</v>
+      </c>
+      <c r="V185">
         <v>1.86</v>
       </c>
-      <c r="U185">
-        <v>2.5</v>
-      </c>
-      <c r="V185">
-        <v>1.99</v>
-      </c>
       <c r="W185">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="X185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA185">
-        <v>0.5349999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>0.99</v>
       </c>
       <c r="AC185">
-        <v>0.99</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AD185">
         <v>-1</v>
@@ -17562,7 +17562,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6778030</v>
+        <v>6778033</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17571,79 +17571,79 @@
         <v>45287.6875</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>51</v>
+      </c>
+      <c r="L186">
+        <v>1.5</v>
+      </c>
+      <c r="M186">
         <v>4</v>
       </c>
-      <c r="I186">
-        <v>1</v>
-      </c>
-      <c r="J186">
-        <v>3</v>
-      </c>
-      <c r="K186" t="s">
-        <v>50</v>
-      </c>
-      <c r="L186">
-        <v>1.909</v>
-      </c>
-      <c r="M186">
-        <v>3.4</v>
-      </c>
       <c r="N186">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O186">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="P186">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q186">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="R186">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S186">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="T186">
+        <v>1.86</v>
+      </c>
+      <c r="U186">
+        <v>2.5</v>
+      </c>
+      <c r="V186">
         <v>1.99</v>
       </c>
-      <c r="U186">
-        <v>2.25</v>
-      </c>
-      <c r="V186">
-        <v>1.86</v>
-      </c>
       <c r="W186">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AB186">
+        <v>-0.5</v>
+      </c>
+      <c r="AC186">
         <v>0.99</v>
-      </c>
-      <c r="AC186">
-        <v>0.8600000000000001</v>
       </c>
       <c r="AD186">
         <v>-1</v>
@@ -19862,7 +19862,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6778054</v>
+        <v>6780946</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -19871,82 +19871,82 @@
         <v>45321.69791666666</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J211">
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L211">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="M211">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
